--- a/promo_list.xlsx
+++ b/promo_list.xlsx
@@ -850,7 +850,8 @@
     <t>Galaxy Z Flip6 (12+256) Blue</t>
   </si>
   <si>
-    <t>Riversong PowerKub G65 wotrth RM199 (RIV-POWERKUB-G65)</t>
+    <t>Riversong PowerKub G65 wotrth RM199 (RIV-POWERKUB-G65)
+*PROMO UNTIL 22 SEPT 2024 ONLY!*</t>
   </si>
   <si>
     <t>PAC-F741BLBA+G65</t>
@@ -983,7 +984,7 @@
   </si>
   <si>
     <t>Riversong Air X7 Ultra TWS Earbuds worth RM229 (RIV-AIR-X7-ULTRA)
-*PROMO UNTIL 22 SEPT 2024 ONLY!</t>
+*PROMO UNTIL 22 SEPT 2024 ONLY!*</t>
   </si>
   <si>
     <t>PAC-S928BLGQ+X7</t>
@@ -1041,7 +1042,7 @@
   </si>
   <si>
     <t>No Free Gift
-*PROMO UNTIL 22 SEPT 2024 ONLY!</t>
+*PROMO UNTIL 22 SEPT 2024 ONLY!*</t>
   </si>
   <si>
     <t>PAC-S926BZAC-DIS</t>
@@ -1306,7 +1307,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1361,11 +1362,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -2014,152 +2010,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2359,9 +2355,6 @@
     <xf numFmtId="3" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2375,7 +2368,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2387,7 +2380,7 @@
     <xf numFmtId="1" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2396,7 +2389,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2408,7 +2401,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2806,8 +2799,8 @@
   <sheetPr/>
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107:F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2849,7 +2842,7 @@
       <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2876,7 +2869,7 @@
       <c r="H2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="68"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
@@ -2901,7 +2894,7 @@
       <c r="H3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="68"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
@@ -2926,7 +2919,7 @@
       <c r="H4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="68"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" ht="47.25" spans="1:9">
       <c r="A5" s="13" t="s">
@@ -2953,7 +2946,7 @@
       <c r="H5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="68"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" ht="47.25" spans="1:9">
       <c r="A6" s="13" t="s">
@@ -2980,7 +2973,7 @@
       <c r="H6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="68"/>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" ht="47.25" spans="1:9">
       <c r="A7" s="13" t="s">
@@ -3007,7 +3000,7 @@
       <c r="H7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" ht="78.75" spans="1:9">
       <c r="A8" s="13" t="s">
@@ -3034,7 +3027,7 @@
       <c r="H8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="68"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" ht="78.75" spans="1:9">
       <c r="A9" s="13" t="s">
@@ -3061,7 +3054,7 @@
       <c r="H9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="68"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" ht="78.75" spans="1:9">
       <c r="A10" s="13" t="s">
@@ -3088,7 +3081,7 @@
       <c r="H10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="67"/>
     </row>
     <row r="11" ht="78.75" spans="1:9">
       <c r="A11" s="13" t="s">
@@ -3115,7 +3108,7 @@
       <c r="H11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="68"/>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" ht="78.75" spans="1:9">
       <c r="A12" s="13" t="s">
@@ -3142,7 +3135,7 @@
       <c r="H12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="68"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" ht="78.75" spans="1:9">
       <c r="A13" s="13" t="s">
@@ -3169,7 +3162,7 @@
       <c r="H13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="68"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" ht="78.75" spans="1:9">
       <c r="A14" s="13" t="s">
@@ -3196,7 +3189,7 @@
       <c r="H14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="68"/>
+      <c r="I14" s="67"/>
     </row>
     <row r="15" ht="31.5" spans="1:9">
       <c r="A15" s="13" t="s">
@@ -3216,7 +3209,7 @@
         <v>42</v>
       </c>
       <c r="H15" s="40"/>
-      <c r="I15" s="68"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" ht="31.5" spans="1:9">
       <c r="A16" s="13" t="s">
@@ -3237,7 +3230,7 @@
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="68"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" ht="78.75" spans="1:9">
       <c r="A17" s="13" t="s">
@@ -3260,7 +3253,7 @@
       <c r="H17" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="68"/>
+      <c r="I17" s="67"/>
     </row>
     <row r="18" ht="78.75" spans="1:9">
       <c r="A18" s="13" t="s">
@@ -3283,7 +3276,7 @@
       <c r="H18" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="68"/>
+      <c r="I18" s="67"/>
     </row>
     <row r="19" ht="78.75" spans="1:9">
       <c r="A19" s="13" t="s">
@@ -3308,7 +3301,7 @@
       <c r="H19" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="68"/>
+      <c r="I19" s="67"/>
     </row>
     <row r="20" ht="78.75" spans="1:9">
       <c r="A20" s="13" t="s">
@@ -3333,7 +3326,7 @@
       <c r="H20" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="68"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" ht="78.75" spans="1:9">
       <c r="A21" s="13" t="s">
@@ -3358,7 +3351,7 @@
       <c r="H21" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="68"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" ht="47.25" spans="1:9">
       <c r="A22" s="13" t="s">
@@ -3383,7 +3376,7 @@
       <c r="H22" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="68"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" ht="47.25" spans="1:9">
       <c r="A23" s="13" t="s">
@@ -3408,7 +3401,7 @@
       <c r="H23" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="68"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="13" t="s">
@@ -3431,7 +3424,7 @@
       </c>
       <c r="G24" s="45"/>
       <c r="H24" s="40"/>
-      <c r="I24" s="68"/>
+      <c r="I24" s="67"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="13" t="s">
@@ -3454,7 +3447,7 @@
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="40"/>
-      <c r="I25" s="68"/>
+      <c r="I25" s="67"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="13" t="s">
@@ -3479,7 +3472,7 @@
       <c r="H26" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="68"/>
+      <c r="I26" s="67"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="13" t="s">
@@ -3504,7 +3497,7 @@
       <c r="H27" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="68"/>
+      <c r="I27" s="67"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="13" t="s">
@@ -3527,7 +3520,7 @@
       <c r="H28" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="68"/>
+      <c r="I28" s="67"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="13" t="s">
@@ -3550,7 +3543,7 @@
       <c r="H29" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I29" s="68"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" ht="94.5" spans="1:9">
       <c r="A30" s="13" t="s">
@@ -3571,7 +3564,7 @@
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="68"/>
+      <c r="I30" s="67"/>
     </row>
     <row r="31" ht="94.5" spans="1:9">
       <c r="A31" s="13" t="s">
@@ -3592,7 +3585,7 @@
       </c>
       <c r="G31" s="52"/>
       <c r="H31" s="53"/>
-      <c r="I31" s="68"/>
+      <c r="I31" s="67"/>
     </row>
     <row r="32" ht="94.5" spans="1:9">
       <c r="A32" s="13" t="s">
@@ -3613,7 +3606,7 @@
       </c>
       <c r="G32" s="52"/>
       <c r="H32" s="53"/>
-      <c r="I32" s="68"/>
+      <c r="I32" s="67"/>
     </row>
     <row r="33" ht="94.5" spans="1:9">
       <c r="A33" s="13" t="s">
@@ -3636,7 +3629,7 @@
       </c>
       <c r="G33" s="52"/>
       <c r="H33" s="53"/>
-      <c r="I33" s="68"/>
+      <c r="I33" s="67"/>
     </row>
     <row r="34" ht="94.5" spans="1:9">
       <c r="A34" s="13" t="s">
@@ -3659,7 +3652,7 @@
       </c>
       <c r="G34" s="52"/>
       <c r="H34" s="53"/>
-      <c r="I34" s="68"/>
+      <c r="I34" s="67"/>
     </row>
     <row r="35" ht="31.5" spans="1:9">
       <c r="A35" s="13" t="s">
@@ -3684,7 +3677,7 @@
       <c r="H35" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="68"/>
+      <c r="I35" s="67"/>
     </row>
     <row r="36" ht="31.5" spans="1:9">
       <c r="A36" s="13" t="s">
@@ -3709,7 +3702,7 @@
       <c r="H36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="68"/>
+      <c r="I36" s="67"/>
     </row>
     <row r="37" ht="31.5" spans="1:9">
       <c r="A37" s="13" t="s">
@@ -3734,7 +3727,7 @@
       <c r="H37" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="I37" s="68"/>
+      <c r="I37" s="67"/>
     </row>
     <row r="38" ht="31.5" spans="1:9">
       <c r="A38" s="13" t="s">
@@ -3757,7 +3750,7 @@
       <c r="H38" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="I38" s="68"/>
+      <c r="I38" s="67"/>
     </row>
     <row r="39" ht="31.5" spans="1:9">
       <c r="A39" s="13" t="s">
@@ -3780,7 +3773,7 @@
       <c r="H39" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="I39" s="68"/>
+      <c r="I39" s="67"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="13" t="s">
@@ -3799,7 +3792,7 @@
       <c r="F40" s="25"/>
       <c r="G40" s="52"/>
       <c r="H40" s="53"/>
-      <c r="I40" s="68"/>
+      <c r="I40" s="67"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="13" t="s">
@@ -3818,7 +3811,7 @@
       <c r="F41" s="25"/>
       <c r="G41" s="52"/>
       <c r="H41" s="53"/>
-      <c r="I41" s="68"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="13" t="s">
@@ -3837,7 +3830,7 @@
       <c r="F42" s="25"/>
       <c r="G42" s="52"/>
       <c r="H42" s="53"/>
-      <c r="I42" s="68"/>
+      <c r="I42" s="67"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="13" t="s">
@@ -3856,7 +3849,7 @@
       <c r="F43" s="25"/>
       <c r="G43" s="52"/>
       <c r="H43" s="53"/>
-      <c r="I43" s="68"/>
+      <c r="I43" s="67"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="13" t="s">
@@ -3875,7 +3868,7 @@
       <c r="F44" s="25"/>
       <c r="G44" s="52"/>
       <c r="H44" s="53"/>
-      <c r="I44" s="68"/>
+      <c r="I44" s="67"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="13" t="s">
@@ -3894,7 +3887,7 @@
       <c r="F45" s="25"/>
       <c r="G45" s="52"/>
       <c r="H45" s="53"/>
-      <c r="I45" s="68"/>
+      <c r="I45" s="67"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="13" t="s">
@@ -3913,7 +3906,7 @@
       <c r="F46" s="25"/>
       <c r="G46" s="52"/>
       <c r="H46" s="53"/>
-      <c r="I46" s="68"/>
+      <c r="I46" s="67"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="13" t="s">
@@ -3932,7 +3925,7 @@
       <c r="F47" s="25"/>
       <c r="G47" s="52"/>
       <c r="H47" s="53"/>
-      <c r="I47" s="68"/>
+      <c r="I47" s="67"/>
     </row>
     <row r="48" ht="31.5" spans="1:9">
       <c r="A48" s="13" t="s">
@@ -3957,7 +3950,7 @@
       <c r="H48" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="I48" s="68"/>
+      <c r="I48" s="67"/>
     </row>
     <row r="49" ht="31.5" spans="1:9">
       <c r="A49" s="13" t="s">
@@ -3982,7 +3975,7 @@
       <c r="H49" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="I49" s="68"/>
+      <c r="I49" s="67"/>
     </row>
     <row r="50" ht="47.25" spans="1:9">
       <c r="A50" s="13" t="s">
@@ -4007,7 +4000,7 @@
       <c r="H50" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I50" s="68"/>
+      <c r="I50" s="67"/>
     </row>
     <row r="51" ht="47.25" spans="1:9">
       <c r="A51" s="13" t="s">
@@ -4032,7 +4025,7 @@
       <c r="H51" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="I51" s="68"/>
+      <c r="I51" s="67"/>
     </row>
     <row r="52" ht="47.25" spans="1:9">
       <c r="A52" s="13" t="s">
@@ -4057,7 +4050,7 @@
       <c r="H52" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="I52" s="68"/>
+      <c r="I52" s="67"/>
     </row>
     <row r="53" ht="47.25" spans="1:9">
       <c r="A53" s="13" t="s">
@@ -4080,7 +4073,7 @@
       <c r="H53" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="I53" s="68"/>
+      <c r="I53" s="67"/>
     </row>
     <row r="54" ht="47.25" spans="1:9">
       <c r="A54" s="13" t="s">
@@ -4103,7 +4096,7 @@
       <c r="H54" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="I54" s="68"/>
+      <c r="I54" s="67"/>
     </row>
     <row r="55" ht="31.5" spans="1:9">
       <c r="A55" s="13" t="s">
@@ -4126,7 +4119,7 @@
       <c r="H55" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="I55" s="68"/>
+      <c r="I55" s="67"/>
     </row>
     <row r="56" ht="31.5" spans="1:9">
       <c r="A56" s="13" t="s">
@@ -4149,7 +4142,7 @@
       <c r="H56" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="I56" s="68"/>
+      <c r="I56" s="67"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="13" t="s">
@@ -4170,7 +4163,7 @@
       </c>
       <c r="G57" s="52"/>
       <c r="H57" s="53"/>
-      <c r="I57" s="68"/>
+      <c r="I57" s="67"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="13" t="s">
@@ -4191,7 +4184,7 @@
       </c>
       <c r="G58" s="52"/>
       <c r="H58" s="53"/>
-      <c r="I58" s="68"/>
+      <c r="I58" s="67"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="13" t="s">
@@ -4210,7 +4203,7 @@
       <c r="F59" s="25"/>
       <c r="G59" s="52"/>
       <c r="H59" s="53"/>
-      <c r="I59" s="68"/>
+      <c r="I59" s="67"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="13" t="s">
@@ -4229,7 +4222,7 @@
       <c r="F60" s="25"/>
       <c r="G60" s="52"/>
       <c r="H60" s="53"/>
-      <c r="I60" s="68"/>
+      <c r="I60" s="67"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="13" t="s">
@@ -4248,7 +4241,7 @@
       <c r="F61" s="25"/>
       <c r="G61" s="52"/>
       <c r="H61" s="53"/>
-      <c r="I61" s="68"/>
+      <c r="I61" s="67"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="13" t="s">
@@ -4267,7 +4260,7 @@
       <c r="F62" s="25"/>
       <c r="G62" s="52"/>
       <c r="H62" s="53"/>
-      <c r="I62" s="68"/>
+      <c r="I62" s="67"/>
     </row>
     <row r="63" ht="47.25" spans="1:9">
       <c r="A63" s="13" t="s">
@@ -4290,7 +4283,7 @@
       <c r="H63" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="I63" s="68"/>
+      <c r="I63" s="67"/>
     </row>
     <row r="64" ht="47.25" spans="1:9">
       <c r="A64" s="13" t="s">
@@ -4313,7 +4306,7 @@
       <c r="H64" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="I64" s="68"/>
+      <c r="I64" s="67"/>
     </row>
     <row r="65" ht="47.25" spans="1:9">
       <c r="A65" s="13" t="s">
@@ -4336,7 +4329,7 @@
       <c r="H65" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="I65" s="68"/>
+      <c r="I65" s="67"/>
     </row>
     <row r="66" ht="47.25" spans="1:9">
       <c r="A66" s="13" t="s">
@@ -4359,7 +4352,7 @@
       <c r="H66" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="I66" s="68"/>
+      <c r="I66" s="67"/>
     </row>
     <row r="67" ht="47.25" spans="1:9">
       <c r="A67" s="13" t="s">
@@ -4382,7 +4375,7 @@
       <c r="H67" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="I67" s="68"/>
+      <c r="I67" s="67"/>
     </row>
     <row r="68" ht="63" spans="1:9">
       <c r="A68" s="13" t="s">
@@ -4405,7 +4398,7 @@
       <c r="H68" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="I68" s="68"/>
+      <c r="I68" s="67"/>
     </row>
     <row r="69" ht="63" spans="1:9">
       <c r="A69" s="13" t="s">
@@ -4428,7 +4421,7 @@
       <c r="H69" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I69" s="68"/>
+      <c r="I69" s="67"/>
     </row>
     <row r="70" ht="31.5" spans="1:9">
       <c r="A70" s="13" t="s">
@@ -4451,7 +4444,7 @@
       <c r="H70" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="I70" s="68"/>
+      <c r="I70" s="67"/>
     </row>
     <row r="71" ht="31.5" spans="1:9">
       <c r="A71" s="13" t="s">
@@ -4474,7 +4467,7 @@
       <c r="H71" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="I71" s="68"/>
+      <c r="I71" s="67"/>
     </row>
     <row r="72" ht="31.5" spans="1:9">
       <c r="A72" s="13" t="s">
@@ -4494,8 +4487,8 @@
         <v>147</v>
       </c>
       <c r="G72" s="52"/>
-      <c r="H72" s="69"/>
-      <c r="I72" s="68"/>
+      <c r="H72" s="68"/>
+      <c r="I72" s="67"/>
     </row>
     <row r="73" ht="31.5" spans="1:9">
       <c r="A73" s="13" t="s">
@@ -4518,7 +4511,7 @@
       <c r="H73" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="I73" s="68"/>
+      <c r="I73" s="67"/>
     </row>
     <row r="74" ht="31.5" spans="1:9">
       <c r="A74" s="13" t="s">
@@ -4541,7 +4534,7 @@
       <c r="H74" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="I74" s="68"/>
+      <c r="I74" s="67"/>
     </row>
     <row r="75" ht="31.5" spans="1:9">
       <c r="A75" s="13" t="s">
@@ -4564,229 +4557,229 @@
       <c r="H75" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="I75" s="68"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="I75" s="67"/>
+    </row>
+    <row r="76" ht="47.25" spans="1:9">
       <c r="A76" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="70" t="s">
+      <c r="B76" s="69" t="s">
         <v>160</v>
       </c>
       <c r="C76" s="42"/>
-      <c r="D76" s="71">
+      <c r="D76" s="70">
         <v>4999</v>
       </c>
       <c r="E76" s="50">
         <v>4349</v>
       </c>
-      <c r="F76" s="25" t="s">
+      <c r="F76" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G76" s="72">
+      <c r="G76" s="71">
         <v>200</v>
       </c>
-      <c r="H76" s="73" t="s">
+      <c r="H76" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="I76" s="68">
+      <c r="I76" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" ht="47.25" spans="1:9">
       <c r="A77" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="70" t="s">
+      <c r="B77" s="69" t="s">
         <v>163</v>
       </c>
       <c r="C77" s="42"/>
-      <c r="D77" s="71">
+      <c r="D77" s="70">
         <v>4999</v>
       </c>
       <c r="E77" s="50">
         <v>4349</v>
       </c>
-      <c r="F77" s="25" t="s">
+      <c r="F77" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G77" s="74">
+      <c r="G77" s="73">
         <v>200</v>
       </c>
-      <c r="H77" s="73" t="s">
+      <c r="H77" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="I77" s="68">
+      <c r="I77" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" ht="47.25" spans="1:9">
       <c r="A78" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="70" t="s">
+      <c r="B78" s="69" t="s">
         <v>165</v>
       </c>
       <c r="C78" s="42"/>
-      <c r="D78" s="71">
+      <c r="D78" s="70">
         <v>4999</v>
       </c>
       <c r="E78" s="50">
         <v>4349</v>
       </c>
-      <c r="F78" s="25" t="s">
+      <c r="F78" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G78" s="74">
+      <c r="G78" s="73">
         <v>200</v>
       </c>
-      <c r="H78" s="73" t="s">
+      <c r="H78" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="I78" s="68">
+      <c r="I78" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" ht="47.25" spans="1:9">
       <c r="A79" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="B79" s="69" t="s">
         <v>167</v>
       </c>
       <c r="C79" s="42"/>
-      <c r="D79" s="71">
+      <c r="D79" s="70">
         <v>4999</v>
       </c>
       <c r="E79" s="50">
         <v>4349</v>
       </c>
-      <c r="F79" s="25" t="s">
+      <c r="F79" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G79" s="74">
+      <c r="G79" s="73">
         <v>200</v>
       </c>
-      <c r="H79" s="73" t="s">
+      <c r="H79" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="I79" s="68">
+      <c r="I79" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" ht="47.25" spans="1:9">
       <c r="A80" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="69" t="s">
         <v>169</v>
       </c>
       <c r="C80" s="42"/>
-      <c r="D80" s="71">
+      <c r="D80" s="70">
         <v>5599</v>
       </c>
       <c r="E80" s="50">
         <v>5099</v>
       </c>
-      <c r="F80" s="25" t="s">
+      <c r="F80" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G80" s="74">
+      <c r="G80" s="73">
         <v>200</v>
       </c>
-      <c r="H80" s="73" t="s">
+      <c r="H80" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="I80" s="68">
+      <c r="I80" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" ht="47.25" spans="1:9">
       <c r="A81" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="70" t="s">
+      <c r="B81" s="69" t="s">
         <v>171</v>
       </c>
       <c r="C81" s="42"/>
-      <c r="D81" s="71">
+      <c r="D81" s="70">
         <v>5599</v>
       </c>
       <c r="E81" s="50">
         <v>5099</v>
       </c>
-      <c r="F81" s="25" t="s">
+      <c r="F81" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G81" s="74">
+      <c r="G81" s="73">
         <v>200</v>
       </c>
-      <c r="H81" s="73" t="s">
+      <c r="H81" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="I81" s="68">
+      <c r="I81" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" ht="47.25" spans="1:9">
       <c r="A82" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B82" s="70" t="s">
+      <c r="B82" s="69" t="s">
         <v>173</v>
       </c>
       <c r="C82" s="42"/>
-      <c r="D82" s="71">
+      <c r="D82" s="70">
         <v>5599</v>
       </c>
       <c r="E82" s="50">
         <v>5099</v>
       </c>
-      <c r="F82" s="25" t="s">
+      <c r="F82" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G82" s="74">
+      <c r="G82" s="73">
         <v>200</v>
       </c>
-      <c r="H82" s="73" t="s">
+      <c r="H82" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="I82" s="68">
+      <c r="I82" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" ht="47.25" spans="1:9">
       <c r="A83" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="70" t="s">
+      <c r="B83" s="69" t="s">
         <v>175</v>
       </c>
       <c r="C83" s="42"/>
-      <c r="D83" s="71">
+      <c r="D83" s="70">
         <v>5599</v>
       </c>
       <c r="E83" s="50">
         <v>5099</v>
       </c>
-      <c r="F83" s="25" t="s">
+      <c r="F83" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G83" s="74">
+      <c r="G83" s="73">
         <v>200</v>
       </c>
-      <c r="H83" s="73" t="s">
+      <c r="H83" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="I83" s="68">
+      <c r="I83" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" ht="47.25" spans="1:9">
       <c r="A84" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B84" s="75" t="s">
+      <c r="B84" s="74" t="s">
         <v>177</v>
       </c>
       <c r="C84" s="42"/>
@@ -4796,24 +4789,24 @@
       <c r="E84" s="50">
         <v>6499</v>
       </c>
-      <c r="F84" s="25" t="s">
+      <c r="F84" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G84" s="76">
+      <c r="G84" s="75">
         <v>200</v>
       </c>
-      <c r="H84" s="77" t="s">
+      <c r="H84" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="I84" s="68">
+      <c r="I84" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" ht="47.25" spans="1:9">
       <c r="A85" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B85" s="75" t="s">
+      <c r="B85" s="74" t="s">
         <v>179</v>
       </c>
       <c r="C85" s="42"/>
@@ -4823,24 +4816,24 @@
       <c r="E85" s="50">
         <v>6499</v>
       </c>
-      <c r="F85" s="25" t="s">
+      <c r="F85" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G85" s="76">
+      <c r="G85" s="75">
         <v>200</v>
       </c>
-      <c r="H85" s="77" t="s">
+      <c r="H85" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="I85" s="68">
+      <c r="I85" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" ht="47.25" spans="1:9">
       <c r="A86" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B86" s="75" t="s">
+      <c r="B86" s="74" t="s">
         <v>181</v>
       </c>
       <c r="C86" s="42"/>
@@ -4850,24 +4843,24 @@
       <c r="E86" s="50">
         <v>6499</v>
       </c>
-      <c r="F86" s="25" t="s">
+      <c r="F86" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G86" s="76">
+      <c r="G86" s="75">
         <v>200</v>
       </c>
-      <c r="H86" s="77" t="s">
+      <c r="H86" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="I86" s="68">
+      <c r="I86" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" ht="47.25" spans="1:9">
       <c r="A87" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="75" t="s">
+      <c r="B87" s="74" t="s">
         <v>183</v>
       </c>
       <c r="C87" s="42"/>
@@ -4877,24 +4870,24 @@
       <c r="E87" s="50">
         <v>7099</v>
       </c>
-      <c r="F87" s="25" t="s">
+      <c r="F87" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G87" s="76">
+      <c r="G87" s="75">
         <v>200</v>
       </c>
-      <c r="H87" s="77" t="s">
+      <c r="H87" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="I87" s="68">
+      <c r="I87" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" ht="47.25" spans="1:9">
       <c r="A88" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="75" t="s">
+      <c r="B88" s="74" t="s">
         <v>185</v>
       </c>
       <c r="C88" s="42"/>
@@ -4904,24 +4897,24 @@
       <c r="E88" s="50">
         <v>7099</v>
       </c>
-      <c r="F88" s="25" t="s">
+      <c r="F88" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G88" s="76">
+      <c r="G88" s="75">
         <v>200</v>
       </c>
-      <c r="H88" s="77" t="s">
+      <c r="H88" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="I88" s="68">
+      <c r="I88" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" ht="47.25" spans="1:9">
       <c r="A89" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B89" s="75" t="s">
+      <c r="B89" s="74" t="s">
         <v>187</v>
       </c>
       <c r="C89" s="42"/>
@@ -4931,24 +4924,24 @@
       <c r="E89" s="50">
         <v>7099</v>
       </c>
-      <c r="F89" s="25" t="s">
+      <c r="F89" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G89" s="76">
+      <c r="G89" s="75">
         <v>200</v>
       </c>
-      <c r="H89" s="77" t="s">
+      <c r="H89" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="I89" s="68">
+      <c r="I89" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" ht="47.25" spans="1:9">
       <c r="A90" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B90" s="75" t="s">
+      <c r="B90" s="74" t="s">
         <v>189</v>
       </c>
       <c r="C90" s="42"/>
@@ -4958,24 +4951,24 @@
       <c r="E90" s="50">
         <v>8299</v>
       </c>
-      <c r="F90" s="25" t="s">
+      <c r="F90" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G90" s="76">
+      <c r="G90" s="75">
         <v>200</v>
       </c>
-      <c r="H90" s="77" t="s">
+      <c r="H90" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="I90" s="68">
+      <c r="I90" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" ht="47.25" spans="1:9">
       <c r="A91" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B91" s="75" t="s">
+      <c r="B91" s="74" t="s">
         <v>191</v>
       </c>
       <c r="C91" s="42"/>
@@ -4985,24 +4978,24 @@
       <c r="E91" s="50">
         <v>8299</v>
       </c>
-      <c r="F91" s="25" t="s">
+      <c r="F91" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G91" s="76">
+      <c r="G91" s="75">
         <v>200</v>
       </c>
-      <c r="H91" s="77" t="s">
+      <c r="H91" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="I91" s="68">
+      <c r="I91" s="67">
         <v>45557</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" ht="47.25" spans="1:9">
       <c r="A92" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B92" s="75" t="s">
+      <c r="B92" s="74" t="s">
         <v>193</v>
       </c>
       <c r="C92" s="42"/>
@@ -5012,16 +5005,16 @@
       <c r="E92" s="50">
         <v>8299</v>
       </c>
-      <c r="F92" s="25" t="s">
+      <c r="F92" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="G92" s="78">
+      <c r="G92" s="77">
         <v>200</v>
       </c>
-      <c r="H92" s="77" t="s">
+      <c r="H92" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="I92" s="68">
+      <c r="I92" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5029,11 +5022,11 @@
       <c r="A93" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B93" s="79" t="s">
+      <c r="B93" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="C93" s="80"/>
-      <c r="D93" s="71">
+      <c r="C93" s="79"/>
+      <c r="D93" s="70">
         <v>7799</v>
       </c>
       <c r="E93" s="50">
@@ -5042,13 +5035,13 @@
       <c r="F93" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G93" s="81">
+      <c r="G93" s="80">
         <v>400</v>
       </c>
-      <c r="H93" s="82" t="s">
+      <c r="H93" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="I93" s="68">
+      <c r="I93" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5056,11 +5049,11 @@
       <c r="A94" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B94" s="79" t="s">
+      <c r="B94" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="80"/>
-      <c r="D94" s="71">
+      <c r="C94" s="79"/>
+      <c r="D94" s="70">
         <v>7799</v>
       </c>
       <c r="E94" s="50">
@@ -5069,13 +5062,13 @@
       <c r="F94" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G94" s="76">
+      <c r="G94" s="75">
         <v>400</v>
       </c>
-      <c r="H94" s="83" t="s">
+      <c r="H94" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="I94" s="68">
+      <c r="I94" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5083,11 +5076,11 @@
       <c r="A95" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B95" s="79" t="s">
+      <c r="B95" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="80"/>
-      <c r="D95" s="71">
+      <c r="C95" s="79"/>
+      <c r="D95" s="70">
         <v>7799</v>
       </c>
       <c r="E95" s="50">
@@ -5096,13 +5089,13 @@
       <c r="F95" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G95" s="76">
+      <c r="G95" s="75">
         <v>400</v>
       </c>
-      <c r="H95" s="83" t="s">
+      <c r="H95" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="I95" s="68">
+      <c r="I95" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5110,11 +5103,11 @@
       <c r="A96" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B96" s="79" t="s">
+      <c r="B96" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="C96" s="80"/>
-      <c r="D96" s="71">
+      <c r="C96" s="79"/>
+      <c r="D96" s="70">
         <v>7799</v>
       </c>
       <c r="E96" s="50">
@@ -5123,13 +5116,13 @@
       <c r="F96" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G96" s="76">
+      <c r="G96" s="75">
         <v>400</v>
       </c>
-      <c r="H96" s="83" t="s">
+      <c r="H96" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="I96" s="68">
+      <c r="I96" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5137,11 +5130,11 @@
       <c r="A97" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B97" s="79" t="s">
+      <c r="B97" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="C97" s="80"/>
-      <c r="D97" s="71">
+      <c r="C97" s="79"/>
+      <c r="D97" s="70">
         <v>6799</v>
       </c>
       <c r="E97" s="50">
@@ -5150,13 +5143,13 @@
       <c r="F97" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G97" s="76">
+      <c r="G97" s="75">
         <v>400</v>
       </c>
-      <c r="H97" s="73" t="s">
+      <c r="H97" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="I97" s="68">
+      <c r="I97" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5164,11 +5157,11 @@
       <c r="A98" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B98" s="79" t="s">
+      <c r="B98" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="80"/>
-      <c r="D98" s="71">
+      <c r="C98" s="79"/>
+      <c r="D98" s="70">
         <v>6799</v>
       </c>
       <c r="E98" s="50">
@@ -5177,13 +5170,13 @@
       <c r="F98" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G98" s="76">
+      <c r="G98" s="75">
         <v>400</v>
       </c>
-      <c r="H98" s="73" t="s">
+      <c r="H98" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="I98" s="68">
+      <c r="I98" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5191,11 +5184,11 @@
       <c r="A99" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="79" t="s">
+      <c r="B99" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="C99" s="80"/>
-      <c r="D99" s="71">
+      <c r="C99" s="79"/>
+      <c r="D99" s="70">
         <v>6799</v>
       </c>
       <c r="E99" s="50">
@@ -5204,13 +5197,13 @@
       <c r="F99" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G99" s="76">
+      <c r="G99" s="75">
         <v>400</v>
       </c>
-      <c r="H99" s="73" t="s">
+      <c r="H99" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="I99" s="68">
+      <c r="I99" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5218,11 +5211,11 @@
       <c r="A100" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B100" s="79" t="s">
+      <c r="B100" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="C100" s="80"/>
-      <c r="D100" s="71">
+      <c r="C100" s="79"/>
+      <c r="D100" s="70">
         <v>6799</v>
       </c>
       <c r="E100" s="50">
@@ -5231,13 +5224,13 @@
       <c r="F100" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G100" s="76">
+      <c r="G100" s="75">
         <v>400</v>
       </c>
-      <c r="H100" s="73" t="s">
+      <c r="H100" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="I100" s="68">
+      <c r="I100" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5245,11 +5238,11 @@
       <c r="A101" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B101" s="79" t="s">
+      <c r="B101" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="C101" s="80"/>
-      <c r="D101" s="71">
+      <c r="C101" s="79"/>
+      <c r="D101" s="70">
         <v>6799</v>
       </c>
       <c r="E101" s="50">
@@ -5258,13 +5251,13 @@
       <c r="F101" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G101" s="76">
+      <c r="G101" s="75">
         <v>400</v>
       </c>
-      <c r="H101" s="73" t="s">
+      <c r="H101" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="I101" s="68">
+      <c r="I101" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5272,11 +5265,11 @@
       <c r="A102" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B102" s="79" t="s">
+      <c r="B102" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="C102" s="80"/>
-      <c r="D102" s="71">
+      <c r="C102" s="79"/>
+      <c r="D102" s="70">
         <v>6299</v>
       </c>
       <c r="E102" s="50">
@@ -5285,13 +5278,13 @@
       <c r="F102" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G102" s="76">
+      <c r="G102" s="75">
         <v>400</v>
       </c>
-      <c r="H102" s="73" t="s">
+      <c r="H102" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="I102" s="68">
+      <c r="I102" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5299,11 +5292,11 @@
       <c r="A103" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B103" s="79" t="s">
+      <c r="B103" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="C103" s="80"/>
-      <c r="D103" s="71">
+      <c r="C103" s="79"/>
+      <c r="D103" s="70">
         <v>6299</v>
       </c>
       <c r="E103" s="50">
@@ -5312,13 +5305,13 @@
       <c r="F103" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G103" s="76">
+      <c r="G103" s="75">
         <v>400</v>
       </c>
-      <c r="H103" s="73" t="s">
+      <c r="H103" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="I103" s="68">
+      <c r="I103" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5326,11 +5319,11 @@
       <c r="A104" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B104" s="79" t="s">
+      <c r="B104" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="C104" s="80"/>
-      <c r="D104" s="71">
+      <c r="C104" s="79"/>
+      <c r="D104" s="70">
         <v>6299</v>
       </c>
       <c r="E104" s="50">
@@ -5339,13 +5332,13 @@
       <c r="F104" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G104" s="76">
+      <c r="G104" s="75">
         <v>400</v>
       </c>
-      <c r="H104" s="73" t="s">
+      <c r="H104" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="I104" s="68">
+      <c r="I104" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5353,11 +5346,11 @@
       <c r="A105" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B105" s="79" t="s">
+      <c r="B105" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="C105" s="80"/>
-      <c r="D105" s="71">
+      <c r="C105" s="79"/>
+      <c r="D105" s="70">
         <v>6299</v>
       </c>
       <c r="E105" s="50">
@@ -5366,13 +5359,13 @@
       <c r="F105" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G105" s="76">
+      <c r="G105" s="75">
         <v>400</v>
       </c>
-      <c r="H105" s="73" t="s">
+      <c r="H105" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="I105" s="68">
+      <c r="I105" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5383,7 +5376,7 @@
       <c r="B106" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="C106" s="84"/>
+      <c r="C106" s="83"/>
       <c r="D106" s="66">
         <v>5399</v>
       </c>
@@ -5393,13 +5386,13 @@
       <c r="F106" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="G106" s="76">
+      <c r="G106" s="75">
         <v>400</v>
       </c>
-      <c r="H106" s="77" t="s">
+      <c r="H106" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="I106" s="68">
+      <c r="I106" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5410,7 +5403,7 @@
       <c r="B107" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="C107" s="84"/>
+      <c r="C107" s="83"/>
       <c r="D107" s="66">
         <v>5399</v>
       </c>
@@ -5420,13 +5413,13 @@
       <c r="F107" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="G107" s="76">
+      <c r="G107" s="75">
         <v>400</v>
       </c>
-      <c r="H107" s="77" t="s">
+      <c r="H107" s="76" t="s">
         <v>227</v>
       </c>
-      <c r="I107" s="68">
+      <c r="I107" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5437,7 +5430,7 @@
       <c r="B108" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="C108" s="84"/>
+      <c r="C108" s="83"/>
       <c r="D108" s="66">
         <v>5399</v>
       </c>
@@ -5447,13 +5440,13 @@
       <c r="F108" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="G108" s="76">
+      <c r="G108" s="75">
         <v>400</v>
       </c>
-      <c r="H108" s="77" t="s">
+      <c r="H108" s="76" t="s">
         <v>229</v>
       </c>
-      <c r="I108" s="68">
+      <c r="I108" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5464,7 +5457,7 @@
       <c r="B109" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="84"/>
+      <c r="C109" s="83"/>
       <c r="D109" s="66">
         <v>5399</v>
       </c>
@@ -5474,13 +5467,13 @@
       <c r="F109" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="G109" s="76">
+      <c r="G109" s="75">
         <v>400</v>
       </c>
-      <c r="H109" s="77" t="s">
+      <c r="H109" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="I109" s="68">
+      <c r="I109" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5491,7 +5484,7 @@
       <c r="B110" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="C110" s="84"/>
+      <c r="C110" s="83"/>
       <c r="D110" s="66">
         <v>4899</v>
       </c>
@@ -5501,13 +5494,13 @@
       <c r="F110" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="G110" s="76">
+      <c r="G110" s="75">
         <v>400</v>
       </c>
-      <c r="H110" s="77" t="s">
+      <c r="H110" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="I110" s="68">
+      <c r="I110" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5518,7 +5511,7 @@
       <c r="B111" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="C111" s="84"/>
+      <c r="C111" s="83"/>
       <c r="D111" s="66">
         <v>4899</v>
       </c>
@@ -5528,13 +5521,13 @@
       <c r="F111" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="G111" s="76">
+      <c r="G111" s="75">
         <v>400</v>
       </c>
-      <c r="H111" s="77" t="s">
+      <c r="H111" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="I111" s="68">
+      <c r="I111" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5545,7 +5538,7 @@
       <c r="B112" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="C112" s="84"/>
+      <c r="C112" s="83"/>
       <c r="D112" s="66">
         <v>4899</v>
       </c>
@@ -5555,13 +5548,13 @@
       <c r="F112" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="G112" s="76">
+      <c r="G112" s="75">
         <v>400</v>
       </c>
-      <c r="H112" s="77" t="s">
+      <c r="H112" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="I112" s="68">
+      <c r="I112" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5572,7 +5565,7 @@
       <c r="B113" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="C113" s="84"/>
+      <c r="C113" s="83"/>
       <c r="D113" s="66">
         <v>4899</v>
       </c>
@@ -5582,13 +5575,13 @@
       <c r="F113" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="G113" s="76">
+      <c r="G113" s="75">
         <v>400</v>
       </c>
-      <c r="H113" s="77" t="s">
+      <c r="H113" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="I113" s="68">
+      <c r="I113" s="67">
         <v>45557</v>
       </c>
     </row>
@@ -5596,11 +5589,11 @@
       <c r="A114" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B114" s="79" t="s">
+      <c r="B114" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="C114" s="80"/>
-      <c r="D114" s="71">
+      <c r="C114" s="79"/>
+      <c r="D114" s="70">
         <v>4599</v>
       </c>
       <c r="E114" s="50">
@@ -5609,23 +5602,23 @@
       <c r="F114" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G114" s="76">
+      <c r="G114" s="75">
         <v>200</v>
       </c>
-      <c r="H114" s="83" t="s">
+      <c r="H114" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="I114" s="68"/>
+      <c r="I114" s="67"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B115" s="79" t="s">
+      <c r="B115" s="78" t="s">
         <v>242</v>
       </c>
-      <c r="C115" s="80"/>
-      <c r="D115" s="71">
+      <c r="C115" s="79"/>
+      <c r="D115" s="70">
         <v>4599</v>
       </c>
       <c r="E115" s="50">
@@ -5634,23 +5627,23 @@
       <c r="F115" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G115" s="76">
+      <c r="G115" s="75">
         <v>200</v>
       </c>
-      <c r="H115" s="83" t="s">
+      <c r="H115" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="I115" s="68"/>
+      <c r="I115" s="67"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B116" s="79" t="s">
+      <c r="B116" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="C116" s="80"/>
-      <c r="D116" s="71">
+      <c r="C116" s="79"/>
+      <c r="D116" s="70">
         <v>4599</v>
       </c>
       <c r="E116" s="50">
@@ -5659,23 +5652,23 @@
       <c r="F116" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G116" s="76">
+      <c r="G116" s="75">
         <v>200</v>
       </c>
-      <c r="H116" s="83" t="s">
+      <c r="H116" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="I116" s="68"/>
+      <c r="I116" s="67"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B117" s="79" t="s">
+      <c r="B117" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="C117" s="80"/>
-      <c r="D117" s="71">
+      <c r="C117" s="79"/>
+      <c r="D117" s="70">
         <v>4599</v>
       </c>
       <c r="E117" s="50">
@@ -5684,25 +5677,25 @@
       <c r="F117" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G117" s="76">
+      <c r="G117" s="75">
         <v>200</v>
       </c>
-      <c r="H117" s="83" t="s">
+      <c r="H117" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="I117" s="68"/>
+      <c r="I117" s="67"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B118" s="79" t="s">
+      <c r="B118" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="C118" s="85">
+      <c r="C118" s="84">
         <v>0.15</v>
       </c>
-      <c r="D118" s="71">
+      <c r="D118" s="70">
         <v>4099</v>
       </c>
       <c r="E118" s="50">
@@ -5711,25 +5704,25 @@
       <c r="F118" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G118" s="76">
+      <c r="G118" s="75">
         <v>200</v>
       </c>
-      <c r="H118" s="83" t="s">
+      <c r="H118" s="82" t="s">
         <v>249</v>
       </c>
-      <c r="I118" s="68"/>
+      <c r="I118" s="67"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B119" s="79" t="s">
+      <c r="B119" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="C119" s="85">
+      <c r="C119" s="84">
         <v>0.15</v>
       </c>
-      <c r="D119" s="71">
+      <c r="D119" s="70">
         <v>4099</v>
       </c>
       <c r="E119" s="50">
@@ -5738,25 +5731,25 @@
       <c r="F119" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G119" s="76">
+      <c r="G119" s="75">
         <v>200</v>
       </c>
-      <c r="H119" s="83" t="s">
+      <c r="H119" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="I119" s="68"/>
+      <c r="I119" s="67"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B120" s="79" t="s">
+      <c r="B120" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="C120" s="85">
+      <c r="C120" s="84">
         <v>0.15</v>
       </c>
-      <c r="D120" s="71">
+      <c r="D120" s="70">
         <v>4099</v>
       </c>
       <c r="E120" s="50">
@@ -5765,25 +5758,25 @@
       <c r="F120" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G120" s="76">
+      <c r="G120" s="75">
         <v>200</v>
       </c>
-      <c r="H120" s="83" t="s">
+      <c r="H120" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="I120" s="68"/>
+      <c r="I120" s="67"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B121" s="79" t="s">
+      <c r="B121" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="C121" s="85">
+      <c r="C121" s="84">
         <v>0.15</v>
       </c>
-      <c r="D121" s="71">
+      <c r="D121" s="70">
         <v>4099</v>
       </c>
       <c r="E121" s="50">
@@ -5792,23 +5785,23 @@
       <c r="F121" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="G121" s="78">
+      <c r="G121" s="77">
         <v>200</v>
       </c>
-      <c r="H121" s="86" t="s">
+      <c r="H121" s="85" t="s">
         <v>255</v>
       </c>
-      <c r="I121" s="68"/>
+      <c r="I121" s="67"/>
     </row>
     <row r="122" ht="78.75" spans="1:9">
       <c r="A122" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B122" s="79" t="s">
+      <c r="B122" s="78" t="s">
         <v>256</v>
       </c>
       <c r="C122" s="42"/>
-      <c r="D122" s="71">
+      <c r="D122" s="70">
         <v>5799</v>
       </c>
       <c r="E122" s="50">
@@ -5817,21 +5810,21 @@
       <c r="F122" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="G122" s="87"/>
-      <c r="H122" s="82" t="s">
+      <c r="G122" s="86"/>
+      <c r="H122" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="I122" s="68"/>
+      <c r="I122" s="67"/>
     </row>
     <row r="123" ht="78.75" spans="1:9">
       <c r="A123" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B123" s="79" t="s">
+      <c r="B123" s="78" t="s">
         <v>259</v>
       </c>
       <c r="C123" s="42"/>
-      <c r="D123" s="71">
+      <c r="D123" s="70">
         <v>5799</v>
       </c>
       <c r="E123" s="50">
@@ -5840,21 +5833,21 @@
       <c r="F123" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="G123" s="87"/>
-      <c r="H123" s="83" t="s">
+      <c r="G123" s="86"/>
+      <c r="H123" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="I123" s="68"/>
+      <c r="I123" s="67"/>
     </row>
     <row r="124" ht="78.75" spans="1:9">
       <c r="A124" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B124" s="79" t="s">
+      <c r="B124" s="78" t="s">
         <v>261</v>
       </c>
       <c r="C124" s="42"/>
-      <c r="D124" s="71">
+      <c r="D124" s="70">
         <v>5799</v>
       </c>
       <c r="E124" s="50">
@@ -5863,21 +5856,21 @@
       <c r="F124" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="G124" s="87"/>
-      <c r="H124" s="83" t="s">
+      <c r="G124" s="86"/>
+      <c r="H124" s="82" t="s">
         <v>262</v>
       </c>
-      <c r="I124" s="68"/>
+      <c r="I124" s="67"/>
     </row>
     <row r="125" ht="78.75" spans="1:9">
       <c r="A125" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B125" s="79" t="s">
+      <c r="B125" s="78" t="s">
         <v>263</v>
       </c>
       <c r="C125" s="42"/>
-      <c r="D125" s="71">
+      <c r="D125" s="70">
         <v>5799</v>
       </c>
       <c r="E125" s="50">
@@ -5886,11 +5879,11 @@
       <c r="F125" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="G125" s="87"/>
-      <c r="H125" s="83" t="s">
+      <c r="G125" s="86"/>
+      <c r="H125" s="82" t="s">
         <v>264</v>
       </c>
-      <c r="I125" s="68"/>
+      <c r="I125" s="67"/>
     </row>
     <row r="126" ht="78.75" spans="1:9">
       <c r="A126" s="13" t="s">
@@ -5909,11 +5902,11 @@
       <c r="F126" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="G126" s="87"/>
-      <c r="H126" s="88" t="s">
+      <c r="G126" s="86"/>
+      <c r="H126" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="I126" s="68"/>
+      <c r="I126" s="67"/>
     </row>
     <row r="127" ht="78.75" spans="1:9">
       <c r="A127" s="13" t="s">
@@ -5932,11 +5925,11 @@
       <c r="F127" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="G127" s="87"/>
-      <c r="H127" s="88" t="s">
+      <c r="G127" s="86"/>
+      <c r="H127" s="87" t="s">
         <v>268</v>
       </c>
-      <c r="I127" s="68"/>
+      <c r="I127" s="67"/>
     </row>
     <row r="128" ht="78.75" spans="1:9">
       <c r="A128" s="13" t="s">
@@ -5955,11 +5948,11 @@
       <c r="F128" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="G128" s="87"/>
-      <c r="H128" s="88" t="s">
+      <c r="G128" s="86"/>
+      <c r="H128" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="I128" s="68"/>
+      <c r="I128" s="67"/>
     </row>
     <row r="129" ht="78.75" spans="1:9">
       <c r="A129" s="13" t="s">
@@ -5978,11 +5971,11 @@
       <c r="F129" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="G129" s="87"/>
-      <c r="H129" s="88" t="s">
+      <c r="G129" s="86"/>
+      <c r="H129" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="I129" s="68"/>
+      <c r="I129" s="67"/>
     </row>
     <row r="130" ht="31.5" spans="1:9">
       <c r="A130" s="13" t="s">
@@ -5991,7 +5984,7 @@
       <c r="B130" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="C130" s="89">
+      <c r="C130" s="88">
         <v>0.03</v>
       </c>
       <c r="D130" s="66">
@@ -6003,13 +5996,13 @@
       <c r="F130" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="G130" s="90">
+      <c r="G130" s="89">
         <v>70</v>
       </c>
-      <c r="H130" s="91" t="s">
+      <c r="H130" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="I130" s="68"/>
+      <c r="I130" s="67"/>
     </row>
     <row r="131" ht="31.5" spans="1:9">
       <c r="A131" s="13" t="s">
@@ -6018,7 +6011,7 @@
       <c r="B131" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="C131" s="89">
+      <c r="C131" s="88">
         <v>0.03</v>
       </c>
       <c r="D131" s="66">
@@ -6030,13 +6023,13 @@
       <c r="F131" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="G131" s="92">
+      <c r="G131" s="91">
         <v>70</v>
       </c>
-      <c r="H131" s="88" t="s">
+      <c r="H131" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="I131" s="68"/>
+      <c r="I131" s="67"/>
     </row>
     <row r="132" ht="31.5" spans="1:9">
       <c r="A132" s="13" t="s">
@@ -6045,7 +6038,7 @@
       <c r="B132" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="C132" s="89">
+      <c r="C132" s="88">
         <v>0.03</v>
       </c>
       <c r="D132" s="66">
@@ -6057,25 +6050,25 @@
       <c r="F132" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="G132" s="92">
+      <c r="G132" s="91">
         <v>70</v>
       </c>
-      <c r="H132" s="88" t="s">
+      <c r="H132" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="I132" s="68"/>
+      <c r="I132" s="67"/>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B133" s="79" t="s">
+      <c r="B133" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="C133" s="85">
+      <c r="C133" s="84">
         <v>0.1</v>
       </c>
-      <c r="D133" s="71">
+      <c r="D133" s="70">
         <v>1699</v>
       </c>
       <c r="E133" s="50">
@@ -6084,23 +6077,23 @@
       <c r="F133" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="G133" s="93">
+      <c r="G133" s="92">
         <v>200</v>
       </c>
-      <c r="H133" s="94"/>
-      <c r="I133" s="68"/>
+      <c r="H133" s="93"/>
+      <c r="I133" s="67"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B134" s="79" t="s">
+      <c r="B134" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="C134" s="85">
+      <c r="C134" s="84">
         <v>0.1</v>
       </c>
-      <c r="D134" s="71">
+      <c r="D134" s="70">
         <v>1699</v>
       </c>
       <c r="E134" s="50">
@@ -6109,23 +6102,23 @@
       <c r="F134" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="G134" s="95">
+      <c r="G134" s="94">
         <v>200</v>
       </c>
       <c r="H134" s="53"/>
-      <c r="I134" s="68"/>
+      <c r="I134" s="67"/>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B135" s="79" t="s">
+      <c r="B135" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="C135" s="85">
+      <c r="C135" s="84">
         <v>0.1</v>
       </c>
-      <c r="D135" s="71">
+      <c r="D135" s="70">
         <v>1699</v>
       </c>
       <c r="E135" s="50">
@@ -6134,11 +6127,11 @@
       <c r="F135" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="G135" s="95">
+      <c r="G135" s="94">
         <v>200</v>
       </c>
       <c r="H135" s="53"/>
-      <c r="I135" s="68"/>
+      <c r="I135" s="67"/>
     </row>
     <row r="136" ht="78.75" spans="1:9">
       <c r="A136" s="13" t="s">
@@ -6147,7 +6140,7 @@
       <c r="B136" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="C136" s="89">
+      <c r="C136" s="88">
         <v>0.1</v>
       </c>
       <c r="D136" s="66">
@@ -6160,10 +6153,10 @@
         <v>285</v>
       </c>
       <c r="G136" s="52"/>
-      <c r="H136" s="96" t="s">
+      <c r="H136" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="I136" s="68"/>
+      <c r="I136" s="67"/>
     </row>
     <row r="137" ht="78.75" spans="1:9">
       <c r="A137" s="13" t="s">
@@ -6172,7 +6165,7 @@
       <c r="B137" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="C137" s="89">
+      <c r="C137" s="88">
         <v>0.1</v>
       </c>
       <c r="D137" s="66">
@@ -6185,10 +6178,10 @@
         <v>285</v>
       </c>
       <c r="G137" s="52"/>
-      <c r="H137" s="96" t="s">
+      <c r="H137" s="95" t="s">
         <v>288</v>
       </c>
-      <c r="I137" s="68"/>
+      <c r="I137" s="67"/>
     </row>
     <row r="138" ht="78.75" spans="1:9">
       <c r="A138" s="13" t="s">
@@ -6197,7 +6190,7 @@
       <c r="B138" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="C138" s="89">
+      <c r="C138" s="88">
         <v>0.1</v>
       </c>
       <c r="D138" s="66">
@@ -6210,20 +6203,20 @@
         <v>285</v>
       </c>
       <c r="G138" s="52"/>
-      <c r="H138" s="96" t="s">
+      <c r="H138" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="I138" s="68"/>
+      <c r="I138" s="67"/>
     </row>
     <row r="139" ht="78.75" spans="1:9">
       <c r="A139" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B139" s="79" t="s">
+      <c r="B139" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="C139" s="80"/>
-      <c r="D139" s="97">
+      <c r="C139" s="79"/>
+      <c r="D139" s="96">
         <v>899</v>
       </c>
       <c r="E139" s="60">
@@ -6233,20 +6226,20 @@
         <v>292</v>
       </c>
       <c r="G139" s="52"/>
-      <c r="H139" s="98" t="s">
+      <c r="H139" s="97" t="s">
         <v>293</v>
       </c>
-      <c r="I139" s="68"/>
+      <c r="I139" s="67"/>
     </row>
     <row r="140" ht="78.75" spans="1:9">
       <c r="A140" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B140" s="79" t="s">
+      <c r="B140" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="C140" s="80"/>
-      <c r="D140" s="97">
+      <c r="C140" s="79"/>
+      <c r="D140" s="96">
         <v>899</v>
       </c>
       <c r="E140" s="60">
@@ -6256,20 +6249,20 @@
         <v>292</v>
       </c>
       <c r="G140" s="52"/>
-      <c r="H140" s="98" t="s">
+      <c r="H140" s="97" t="s">
         <v>295</v>
       </c>
-      <c r="I140" s="68"/>
+      <c r="I140" s="67"/>
     </row>
     <row r="141" ht="78.75" spans="1:9">
       <c r="A141" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B141" s="79" t="s">
+      <c r="B141" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C141" s="80"/>
-      <c r="D141" s="97">
+      <c r="C141" s="79"/>
+      <c r="D141" s="96">
         <v>899</v>
       </c>
       <c r="E141" s="60">
@@ -6279,10 +6272,10 @@
         <v>292</v>
       </c>
       <c r="G141" s="52"/>
-      <c r="H141" s="98" t="s">
+      <c r="H141" s="97" t="s">
         <v>297</v>
       </c>
-      <c r="I141" s="68"/>
+      <c r="I141" s="67"/>
     </row>
     <row r="142" ht="47.25" spans="1:9">
       <c r="A142" s="13" t="s">
@@ -6291,8 +6284,8 @@
       <c r="B142" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="C142" s="84"/>
-      <c r="D142" s="99">
+      <c r="C142" s="83"/>
+      <c r="D142" s="98">
         <v>799</v>
       </c>
       <c r="E142" s="60">
@@ -6302,10 +6295,10 @@
         <v>299</v>
       </c>
       <c r="G142" s="52"/>
-      <c r="H142" s="96" t="s">
+      <c r="H142" s="95" t="s">
         <v>300</v>
       </c>
-      <c r="I142" s="68"/>
+      <c r="I142" s="67"/>
     </row>
     <row r="143" ht="47.25" spans="1:9">
       <c r="A143" s="13" t="s">
@@ -6314,8 +6307,8 @@
       <c r="B143" s="64" t="s">
         <v>301</v>
       </c>
-      <c r="C143" s="84"/>
-      <c r="D143" s="99">
+      <c r="C143" s="83"/>
+      <c r="D143" s="98">
         <v>799</v>
       </c>
       <c r="E143" s="60">
@@ -6325,10 +6318,10 @@
         <v>299</v>
       </c>
       <c r="G143" s="52"/>
-      <c r="H143" s="96" t="s">
+      <c r="H143" s="95" t="s">
         <v>302</v>
       </c>
-      <c r="I143" s="68"/>
+      <c r="I143" s="67"/>
     </row>
     <row r="144" ht="47.25" spans="1:9">
       <c r="A144" s="13" t="s">
@@ -6337,8 +6330,8 @@
       <c r="B144" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="C144" s="84"/>
-      <c r="D144" s="99">
+      <c r="C144" s="83"/>
+      <c r="D144" s="98">
         <v>799</v>
       </c>
       <c r="E144" s="60">
@@ -6348,10 +6341,10 @@
         <v>299</v>
       </c>
       <c r="G144" s="52"/>
-      <c r="H144" s="96" t="s">
+      <c r="H144" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="I144" s="68"/>
+      <c r="I144" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/promo_list.xlsx
+++ b/promo_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="310">
   <si>
     <t>BRAND</t>
   </si>
@@ -372,6 +372,14 @@
     </r>
   </si>
   <si>
+    <t>- OPPO Enco Buds2 - Blue worth RM129 (OPP-ENCO-BUDS2-BLUE)
+*While Stocks Last
+OR
+- Reno12F GiftBox worth RM129
+(Newmine Powerbank 10K mAh + Ollie Car Phone Holder + Type-C Earphone)
+(FG-RENO12F-GIFYBOX) *While Stocks Last</t>
+  </si>
+  <si>
     <t>PAC-RN12F-256-GR+BOX or PAC-RN12F-256-GR+BD2</t>
   </si>
   <si>
@@ -386,6 +394,18 @@
   </si>
   <si>
     <t>PAC-RN12F-256-OR+BOX or PAC-RN12F-256-OR+BD2</t>
+  </si>
+  <si>
+    <t>OPPO Reno12 F 5G Olive Green (12+512)</t>
+  </si>
+  <si>
+    <t>PAC-RN12F-512-GR+BOX or PAC-RN12F-512-GR+BD2</t>
+  </si>
+  <si>
+    <t>OPPO Reno12 F 5G Amber Orange (12+512)</t>
+  </si>
+  <si>
+    <t>PAC-RN12F-512-OR+BOX or PAC-RN12F-512-OR+BD2</t>
   </si>
   <si>
     <r>
@@ -2155,7 +2175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2327,6 +2347,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2797,10 +2820,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107:F113"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2869,7 +2892,7 @@
       <c r="H2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="67"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
@@ -2894,7 +2917,7 @@
       <c r="H3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="67"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
@@ -2919,7 +2942,7 @@
       <c r="H4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="67"/>
+      <c r="I4" s="68"/>
     </row>
     <row r="5" ht="47.25" spans="1:9">
       <c r="A5" s="13" t="s">
@@ -2946,7 +2969,7 @@
       <c r="H5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" ht="47.25" spans="1:9">
       <c r="A6" s="13" t="s">
@@ -2973,7 +2996,7 @@
       <c r="H6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="67"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" ht="47.25" spans="1:9">
       <c r="A7" s="13" t="s">
@@ -3000,7 +3023,7 @@
       <c r="H7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="67"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" ht="78.75" spans="1:9">
       <c r="A8" s="13" t="s">
@@ -3027,7 +3050,7 @@
       <c r="H8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="67"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" ht="78.75" spans="1:9">
       <c r="A9" s="13" t="s">
@@ -3054,7 +3077,7 @@
       <c r="H9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="67"/>
+      <c r="I9" s="68"/>
     </row>
     <row r="10" ht="78.75" spans="1:9">
       <c r="A10" s="13" t="s">
@@ -3081,7 +3104,7 @@
       <c r="H10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="67"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" ht="78.75" spans="1:9">
       <c r="A11" s="13" t="s">
@@ -3108,7 +3131,7 @@
       <c r="H11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" ht="78.75" spans="1:9">
       <c r="A12" s="13" t="s">
@@ -3135,7 +3158,7 @@
       <c r="H12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="67"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" ht="78.75" spans="1:9">
       <c r="A13" s="13" t="s">
@@ -3162,7 +3185,7 @@
       <c r="H13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" ht="78.75" spans="1:9">
       <c r="A14" s="13" t="s">
@@ -3189,7 +3212,7 @@
       <c r="H14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="67"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" ht="31.5" spans="1:9">
       <c r="A15" s="13" t="s">
@@ -3209,7 +3232,7 @@
         <v>42</v>
       </c>
       <c r="H15" s="40"/>
-      <c r="I15" s="67"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" ht="31.5" spans="1:9">
       <c r="A16" s="13" t="s">
@@ -3230,7 +3253,7 @@
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="67"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" ht="78.75" spans="1:9">
       <c r="A17" s="13" t="s">
@@ -3253,7 +3276,7 @@
       <c r="H17" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="67"/>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" ht="78.75" spans="1:9">
       <c r="A18" s="13" t="s">
@@ -3276,7 +3299,7 @@
       <c r="H18" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="67"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" ht="78.75" spans="1:9">
       <c r="A19" s="13" t="s">
@@ -3301,7 +3324,7 @@
       <c r="H19" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="67"/>
+      <c r="I19" s="68"/>
     </row>
     <row r="20" ht="78.75" spans="1:9">
       <c r="A20" s="13" t="s">
@@ -3326,7 +3349,7 @@
       <c r="H20" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="67"/>
+      <c r="I20" s="68"/>
     </row>
     <row r="21" ht="78.75" spans="1:9">
       <c r="A21" s="13" t="s">
@@ -3351,7 +3374,7 @@
       <c r="H21" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="67"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" ht="47.25" spans="1:9">
       <c r="A22" s="13" t="s">
@@ -3376,7 +3399,7 @@
       <c r="H22" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="67"/>
+      <c r="I22" s="68"/>
     </row>
     <row r="23" ht="47.25" spans="1:9">
       <c r="A23" s="13" t="s">
@@ -3401,7 +3424,7 @@
       <c r="H23" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="67"/>
+      <c r="I23" s="68"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="13" t="s">
@@ -3424,7 +3447,7 @@
       </c>
       <c r="G24" s="45"/>
       <c r="H24" s="40"/>
-      <c r="I24" s="67"/>
+      <c r="I24" s="68"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="13" t="s">
@@ -3447,7 +3470,7 @@
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="40"/>
-      <c r="I25" s="67"/>
+      <c r="I25" s="68"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="13" t="s">
@@ -3472,7 +3495,7 @@
       <c r="H26" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="67"/>
+      <c r="I26" s="68"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="13" t="s">
@@ -3497,7 +3520,7 @@
       <c r="H27" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="67"/>
+      <c r="I27" s="68"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="13" t="s">
@@ -3520,7 +3543,7 @@
       <c r="H28" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="67"/>
+      <c r="I28" s="68"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="13" t="s">
@@ -3543,7 +3566,7 @@
       <c r="H29" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="I29" s="67"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" ht="94.5" spans="1:9">
       <c r="A30" s="13" t="s">
@@ -3564,7 +3587,7 @@
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="67"/>
+      <c r="I30" s="68"/>
     </row>
     <row r="31" ht="94.5" spans="1:9">
       <c r="A31" s="13" t="s">
@@ -3585,7 +3608,7 @@
       </c>
       <c r="G31" s="52"/>
       <c r="H31" s="53"/>
-      <c r="I31" s="67"/>
+      <c r="I31" s="68"/>
     </row>
     <row r="32" ht="94.5" spans="1:9">
       <c r="A32" s="13" t="s">
@@ -3606,7 +3629,7 @@
       </c>
       <c r="G32" s="52"/>
       <c r="H32" s="53"/>
-      <c r="I32" s="67"/>
+      <c r="I32" s="68"/>
     </row>
     <row r="33" ht="94.5" spans="1:9">
       <c r="A33" s="13" t="s">
@@ -3629,7 +3652,7 @@
       </c>
       <c r="G33" s="52"/>
       <c r="H33" s="53"/>
-      <c r="I33" s="67"/>
+      <c r="I33" s="68"/>
     </row>
     <row r="34" ht="94.5" spans="1:9">
       <c r="A34" s="13" t="s">
@@ -3652,7 +3675,7 @@
       </c>
       <c r="G34" s="52"/>
       <c r="H34" s="53"/>
-      <c r="I34" s="67"/>
+      <c r="I34" s="68"/>
     </row>
     <row r="35" ht="31.5" spans="1:9">
       <c r="A35" s="13" t="s">
@@ -3677,7 +3700,7 @@
       <c r="H35" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="67"/>
+      <c r="I35" s="68"/>
     </row>
     <row r="36" ht="31.5" spans="1:9">
       <c r="A36" s="13" t="s">
@@ -3702,7 +3725,7 @@
       <c r="H36" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="67"/>
+      <c r="I36" s="68"/>
     </row>
     <row r="37" ht="31.5" spans="1:9">
       <c r="A37" s="13" t="s">
@@ -3727,9 +3750,9 @@
       <c r="H37" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="I37" s="67"/>
-    </row>
-    <row r="38" ht="31.5" spans="1:9">
+      <c r="I37" s="68"/>
+    </row>
+    <row r="38" ht="94.5" spans="1:9">
       <c r="A38" s="13" t="s">
         <v>71</v>
       </c>
@@ -3744,20 +3767,20 @@
         <v>1399</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G38" s="52"/>
       <c r="H38" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I38" s="67"/>
-    </row>
-    <row r="39" ht="31.5" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="I38" s="68"/>
+    </row>
+    <row r="39" ht="94.5" spans="1:9">
       <c r="A39" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="57"/>
       <c r="D39" s="49">
@@ -3767,61 +3790,69 @@
         <v>1399</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G39" s="52"/>
       <c r="H39" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="I39" s="67"/>
-    </row>
-    <row r="40" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="I39" s="68"/>
+    </row>
+    <row r="40" ht="94.5" spans="1:9">
       <c r="A40" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="56">
-        <v>1099</v>
-      </c>
-      <c r="E40" s="50">
-        <v>1099</v>
-      </c>
-      <c r="F40" s="25"/>
+      <c r="B40" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="57"/>
+      <c r="D40" s="49">
+        <v>1799</v>
+      </c>
+      <c r="E40" s="49">
+        <v>1799</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="G40" s="52"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="67"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="H40" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="68"/>
+    </row>
+    <row r="41" ht="94.5" spans="1:9">
       <c r="A41" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="56">
-        <v>1099</v>
-      </c>
-      <c r="E41" s="50">
-        <v>1099</v>
-      </c>
-      <c r="F41" s="25"/>
+      <c r="B41" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="57"/>
+      <c r="D41" s="49">
+        <v>1799</v>
+      </c>
+      <c r="E41" s="49">
+        <v>1799</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="G41" s="52"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="67"/>
+      <c r="H41" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="68"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49">
+      <c r="B42" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="59"/>
+      <c r="D42" s="56">
         <v>1099</v>
       </c>
       <c r="E42" s="50">
@@ -3830,17 +3861,17 @@
       <c r="F42" s="25"/>
       <c r="G42" s="52"/>
       <c r="H42" s="53"/>
-      <c r="I42" s="67"/>
+      <c r="I42" s="68"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49">
+      <c r="B43" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="59"/>
+      <c r="D43" s="56">
         <v>1099</v>
       </c>
       <c r="E43" s="50">
@@ -3849,192 +3880,180 @@
       <c r="F43" s="25"/>
       <c r="G43" s="52"/>
       <c r="H43" s="53"/>
-      <c r="I43" s="67"/>
+      <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C44" s="48"/>
-      <c r="D44" s="59">
-        <v>699</v>
-      </c>
-      <c r="E44" s="60">
-        <v>699</v>
+      <c r="D44" s="49">
+        <v>1099</v>
+      </c>
+      <c r="E44" s="50">
+        <v>1099</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="52"/>
       <c r="H44" s="53"/>
-      <c r="I44" s="67"/>
+      <c r="I44" s="68"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C45" s="48"/>
-      <c r="D45" s="59">
-        <v>699</v>
-      </c>
-      <c r="E45" s="60">
-        <v>699</v>
+      <c r="D45" s="49">
+        <v>1099</v>
+      </c>
+      <c r="E45" s="50">
+        <v>1099</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="52"/>
       <c r="H45" s="53"/>
-      <c r="I45" s="67"/>
+      <c r="I45" s="68"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="58"/>
-      <c r="D46" s="61">
-        <v>799</v>
-      </c>
-      <c r="E46" s="60">
-        <v>799</v>
+      <c r="B46" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="60">
+        <v>699</v>
+      </c>
+      <c r="E46" s="61">
+        <v>699</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="52"/>
       <c r="H46" s="53"/>
-      <c r="I46" s="67"/>
+      <c r="I46" s="68"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="61">
-        <v>799</v>
-      </c>
-      <c r="E47" s="60">
-        <v>799</v>
+      <c r="B47" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="60">
+        <v>699</v>
+      </c>
+      <c r="E47" s="61">
+        <v>699</v>
       </c>
       <c r="F47" s="25"/>
       <c r="G47" s="52"/>
       <c r="H47" s="53"/>
-      <c r="I47" s="67"/>
-    </row>
-    <row r="48" ht="31.5" spans="1:9">
+      <c r="I47" s="68"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="62">
+        <v>71</v>
+      </c>
+      <c r="B48" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="59"/>
+      <c r="D48" s="62">
+        <v>799</v>
+      </c>
+      <c r="E48" s="61">
+        <v>799</v>
+      </c>
+      <c r="F48" s="25"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="68"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="62">
+        <v>799</v>
+      </c>
+      <c r="E49" s="61">
+        <v>799</v>
+      </c>
+      <c r="F49" s="25"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="68"/>
+    </row>
+    <row r="50" ht="31.5" spans="1:9">
+      <c r="A50" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="63">
         <v>0.08</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D50" s="49">
         <v>4599</v>
       </c>
-      <c r="E48" s="50">
+      <c r="E50" s="50">
         <v>4499</v>
       </c>
-      <c r="F48" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G48" s="52"/>
-      <c r="H48" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" s="67"/>
-    </row>
-    <row r="49" ht="31.5" spans="1:9">
-      <c r="A49" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="62">
+      <c r="F50" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="52"/>
+      <c r="H50" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" s="68"/>
+    </row>
+    <row r="51" ht="31.5" spans="1:9">
+      <c r="A51" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="63">
         <v>0.08</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D51" s="49">
         <v>4599</v>
       </c>
-      <c r="E49" s="50">
+      <c r="E51" s="50">
         <v>4499</v>
       </c>
-      <c r="F49" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="I49" s="67"/>
-    </row>
-    <row r="50" ht="47.25" spans="1:9">
-      <c r="A50" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" s="47" t="s">
+      <c r="F51" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="62">
-        <v>0.1</v>
-      </c>
-      <c r="D50" s="49">
-        <v>1999</v>
-      </c>
-      <c r="E50" s="50">
-        <v>1999</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50" s="52"/>
-      <c r="H50" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I50" s="67"/>
-    </row>
-    <row r="51" ht="47.25" spans="1:9">
-      <c r="A51" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B51" s="47" t="s">
+      <c r="G51" s="52"/>
+      <c r="H51" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="62">
-        <v>0.1</v>
-      </c>
-      <c r="D51" s="49">
-        <v>1999</v>
-      </c>
-      <c r="E51" s="50">
-        <v>1999</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="I51" s="67"/>
+      <c r="I51" s="68"/>
     </row>
     <row r="52" ht="47.25" spans="1:9">
       <c r="A52" s="13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B52" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="62">
+      <c r="C52" s="63">
         <v>0.1</v>
       </c>
       <c r="D52" s="49">
@@ -4044,434 +4063,438 @@
         <v>1999</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G52" s="52"/>
-      <c r="H52" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="I52" s="67"/>
+      <c r="H52" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I52" s="68"/>
     </row>
     <row r="53" ht="47.25" spans="1:9">
       <c r="A53" s="13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="48"/>
+        <v>113</v>
+      </c>
+      <c r="C53" s="63">
+        <v>0.1</v>
+      </c>
       <c r="D53" s="49">
-        <v>2399</v>
+        <v>1999</v>
       </c>
       <c r="E53" s="50">
-        <v>2399</v>
+        <v>1999</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G53" s="52"/>
       <c r="H53" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="I53" s="67"/>
+        <v>114</v>
+      </c>
+      <c r="I53" s="68"/>
     </row>
     <row r="54" ht="47.25" spans="1:9">
       <c r="A54" s="13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="48"/>
+        <v>115</v>
+      </c>
+      <c r="C54" s="63">
+        <v>0.1</v>
+      </c>
       <c r="D54" s="49">
-        <v>2399</v>
+        <v>1999</v>
       </c>
       <c r="E54" s="50">
-        <v>2399</v>
+        <v>1999</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G54" s="52"/>
       <c r="H54" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="I54" s="67"/>
-    </row>
-    <row r="55" ht="31.5" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="I54" s="68"/>
+    </row>
+    <row r="55" ht="47.25" spans="1:9">
       <c r="A55" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="66">
+        <v>109</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="48"/>
+      <c r="D55" s="49">
+        <v>2399</v>
+      </c>
+      <c r="E55" s="50">
+        <v>2399</v>
+      </c>
+      <c r="F55" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="52"/>
+      <c r="H55" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" s="68"/>
+    </row>
+    <row r="56" ht="47.25" spans="1:9">
+      <c r="A56" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="48"/>
+      <c r="D56" s="49">
+        <v>2399</v>
+      </c>
+      <c r="E56" s="50">
+        <v>2399</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="52"/>
+      <c r="H56" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="68"/>
+    </row>
+    <row r="57" ht="31.5" spans="1:9">
+      <c r="A57" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="66"/>
+      <c r="D57" s="67">
         <v>3299</v>
       </c>
-      <c r="E55" s="50">
+      <c r="E57" s="50">
         <v>3299</v>
       </c>
-      <c r="F55" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="G55" s="52"/>
-      <c r="H55" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="I55" s="67"/>
-    </row>
-    <row r="56" ht="31.5" spans="1:9">
-      <c r="A56" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="66">
+      <c r="F57" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" s="52"/>
+      <c r="H57" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I57" s="68"/>
+    </row>
+    <row r="58" ht="31.5" spans="1:9">
+      <c r="A58" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67">
         <v>3299</v>
       </c>
-      <c r="E56" s="50">
+      <c r="E58" s="50">
         <v>3299</v>
       </c>
-      <c r="F56" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="G56" s="52"/>
-      <c r="H56" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="I56" s="67"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49">
-        <v>1399</v>
-      </c>
-      <c r="E57" s="50">
-        <v>1399</v>
-      </c>
-      <c r="F57" s="25" t="s">
+      <c r="F58" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="G57" s="52"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="67"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="49">
-        <v>1399</v>
-      </c>
-      <c r="E58" s="50">
-        <v>1399</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>122</v>
-      </c>
       <c r="G58" s="52"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="67"/>
+      <c r="H58" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I58" s="68"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="66">
-        <v>1199</v>
+        <v>109</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="48"/>
+      <c r="D59" s="49">
+        <v>1399</v>
       </c>
       <c r="E59" s="50">
-        <v>1199</v>
-      </c>
-      <c r="F59" s="25"/>
+        <v>1399</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="G59" s="52"/>
       <c r="H59" s="53"/>
-      <c r="I59" s="67"/>
+      <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="66">
-        <v>1199</v>
+        <v>109</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="48"/>
+      <c r="D60" s="49">
+        <v>1399</v>
       </c>
       <c r="E60" s="50">
-        <v>1199</v>
-      </c>
-      <c r="F60" s="25"/>
+        <v>1399</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="G60" s="52"/>
       <c r="H60" s="53"/>
-      <c r="I60" s="67"/>
+      <c r="I60" s="68"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="59">
-        <v>749</v>
-      </c>
-      <c r="E61" s="60">
-        <v>749</v>
+        <v>109</v>
+      </c>
+      <c r="B61" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="66"/>
+      <c r="D61" s="67">
+        <v>1199</v>
+      </c>
+      <c r="E61" s="50">
+        <v>1199</v>
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="52"/>
       <c r="H61" s="53"/>
-      <c r="I61" s="67"/>
+      <c r="I61" s="68"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="48"/>
-      <c r="D62" s="59">
-        <v>749</v>
-      </c>
-      <c r="E62" s="60">
-        <v>749</v>
+        <v>109</v>
+      </c>
+      <c r="B62" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67">
+        <v>1199</v>
+      </c>
+      <c r="E62" s="50">
+        <v>1199</v>
       </c>
       <c r="F62" s="25"/>
       <c r="G62" s="52"/>
       <c r="H62" s="53"/>
-      <c r="I62" s="67"/>
-    </row>
-    <row r="63" ht="47.25" spans="1:9">
+      <c r="I62" s="68"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="13" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C63" s="48"/>
-      <c r="D63" s="49">
-        <v>3699</v>
-      </c>
-      <c r="E63" s="50">
-        <v>3699</v>
-      </c>
-      <c r="F63" s="39" t="s">
-        <v>130</v>
-      </c>
+      <c r="D63" s="60">
+        <v>749</v>
+      </c>
+      <c r="E63" s="61">
+        <v>749</v>
+      </c>
+      <c r="F63" s="25"/>
       <c r="G63" s="52"/>
-      <c r="H63" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="I63" s="67"/>
-    </row>
-    <row r="64" ht="47.25" spans="1:9">
+      <c r="H63" s="53"/>
+      <c r="I63" s="68"/>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="13" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B64" s="47" t="s">
         <v>132</v>
       </c>
       <c r="C64" s="48"/>
-      <c r="D64" s="49">
-        <v>3699</v>
-      </c>
-      <c r="E64" s="50">
-        <v>3699</v>
-      </c>
-      <c r="F64" s="39" t="s">
-        <v>130</v>
-      </c>
+      <c r="D64" s="60">
+        <v>749</v>
+      </c>
+      <c r="E64" s="61">
+        <v>749</v>
+      </c>
+      <c r="F64" s="25"/>
       <c r="G64" s="52"/>
-      <c r="H64" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="I64" s="67"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="68"/>
     </row>
     <row r="65" ht="47.25" spans="1:9">
       <c r="A65" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B65" s="47" t="s">
         <v>134</v>
       </c>
       <c r="C65" s="48"/>
       <c r="D65" s="49">
-        <v>4899</v>
+        <v>3699</v>
       </c>
       <c r="E65" s="50">
-        <v>4899</v>
+        <v>3699</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G65" s="52"/>
-      <c r="H65" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="I65" s="67"/>
+      <c r="H65" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I65" s="68"/>
     </row>
     <row r="66" ht="47.25" spans="1:9">
       <c r="A66" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66" s="48"/>
       <c r="D66" s="49">
-        <v>4899</v>
+        <v>3699</v>
       </c>
       <c r="E66" s="50">
-        <v>4899</v>
+        <v>3699</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G66" s="52"/>
       <c r="H66" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="I66" s="67"/>
+        <v>138</v>
+      </c>
+      <c r="I66" s="68"/>
     </row>
     <row r="67" ht="47.25" spans="1:9">
       <c r="A67" s="13" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="57"/>
+        <v>139</v>
+      </c>
+      <c r="C67" s="48"/>
       <c r="D67" s="49">
-        <v>6599</v>
+        <v>4899</v>
       </c>
       <c r="E67" s="50">
-        <v>6599</v>
+        <v>4899</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G67" s="52"/>
       <c r="H67" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="I67" s="67"/>
-    </row>
-    <row r="68" ht="63" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="I67" s="68"/>
+    </row>
+    <row r="68" ht="47.25" spans="1:9">
       <c r="A68" s="13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B68" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="57"/>
+      <c r="C68" s="48"/>
       <c r="D68" s="49">
-        <v>5199</v>
+        <v>4899</v>
       </c>
       <c r="E68" s="50">
-        <v>5199</v>
+        <v>4899</v>
       </c>
       <c r="F68" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G68" s="52"/>
+      <c r="H68" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="G68" s="52"/>
-      <c r="H68" s="20" t="s">
+      <c r="I68" s="68"/>
+    </row>
+    <row r="69" ht="47.25" spans="1:9">
+      <c r="A69" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="47" t="s">
         <v>143</v>
-      </c>
-      <c r="I68" s="67"/>
-    </row>
-    <row r="69" ht="63" spans="1:9">
-      <c r="A69" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="47" t="s">
-        <v>144</v>
       </c>
       <c r="C69" s="57"/>
       <c r="D69" s="49">
-        <v>5199</v>
+        <v>6599</v>
       </c>
       <c r="E69" s="50">
-        <v>5199</v>
+        <v>6599</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G69" s="52"/>
-      <c r="H69" s="20" t="s">
+      <c r="H69" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I69" s="68"/>
+    </row>
+    <row r="70" ht="63" spans="1:9">
+      <c r="A70" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="I69" s="67"/>
-    </row>
-    <row r="70" ht="31.5" spans="1:9">
-      <c r="A70" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="B70" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="48"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="49">
-        <v>3799</v>
+        <v>5199</v>
       </c>
       <c r="E70" s="50">
-        <v>3799</v>
+        <v>5199</v>
       </c>
       <c r="F70" s="39" t="s">
         <v>147</v>
       </c>
       <c r="G70" s="52"/>
-      <c r="H70" s="27" t="s">
+      <c r="H70" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="I70" s="67"/>
-    </row>
-    <row r="71" ht="31.5" spans="1:9">
+      <c r="I70" s="68"/>
+    </row>
+    <row r="71" ht="63" spans="1:9">
       <c r="A71" s="13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B71" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="48"/>
+      <c r="C71" s="57"/>
       <c r="D71" s="49">
-        <v>3799</v>
+        <v>5199</v>
       </c>
       <c r="E71" s="50">
-        <v>3799</v>
+        <v>5199</v>
       </c>
       <c r="F71" s="39" t="s">
         <v>147</v>
       </c>
       <c r="G71" s="52"/>
-      <c r="H71" s="27" t="s">
+      <c r="H71" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I71" s="67"/>
+      <c r="I71" s="68"/>
     </row>
     <row r="72" ht="31.5" spans="1:9">
       <c r="A72" s="13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B72" s="47" t="s">
         <v>151</v>
@@ -4484,61 +4507,61 @@
         <v>3799</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G72" s="52"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="67"/>
+      <c r="H72" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="I72" s="68"/>
     </row>
     <row r="73" ht="31.5" spans="1:9">
       <c r="A73" s="13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C73" s="48"/>
       <c r="D73" s="49">
-        <v>3499</v>
+        <v>3799</v>
       </c>
       <c r="E73" s="50">
-        <v>3499</v>
+        <v>3799</v>
       </c>
       <c r="F73" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G73" s="52"/>
       <c r="H73" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="I73" s="67"/>
+        <v>155</v>
+      </c>
+      <c r="I73" s="68"/>
     </row>
     <row r="74" ht="31.5" spans="1:9">
       <c r="A74" s="13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B74" s="47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C74" s="48"/>
       <c r="D74" s="49">
-        <v>3499</v>
+        <v>3799</v>
       </c>
       <c r="E74" s="50">
-        <v>3499</v>
+        <v>3799</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G74" s="52"/>
-      <c r="H74" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="I74" s="67"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="68"/>
     </row>
     <row r="75" ht="31.5" spans="1:9">
       <c r="A75" s="13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B75" s="47" t="s">
         <v>157</v>
@@ -4551,1800 +4574,1846 @@
         <v>3499</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G75" s="52"/>
       <c r="H75" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="I75" s="68"/>
+    </row>
+    <row r="76" ht="31.5" spans="1:9">
+      <c r="A76" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="48"/>
+      <c r="D76" s="49">
+        <v>3499</v>
+      </c>
+      <c r="E76" s="50">
+        <v>3499</v>
+      </c>
+      <c r="F76" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="I75" s="67"/>
-    </row>
-    <row r="76" ht="47.25" spans="1:9">
-      <c r="A76" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B76" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="C76" s="42"/>
-      <c r="D76" s="70">
-        <v>4999</v>
-      </c>
-      <c r="E76" s="50">
-        <v>4349</v>
-      </c>
-      <c r="F76" s="39" t="s">
+      <c r="G76" s="52"/>
+      <c r="H76" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="G76" s="71">
-        <v>200</v>
-      </c>
-      <c r="H76" s="72" t="s">
+      <c r="I76" s="68"/>
+    </row>
+    <row r="77" ht="31.5" spans="1:9">
+      <c r="A77" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="I76" s="67">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="77" ht="47.25" spans="1:9">
-      <c r="A77" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B77" s="69" t="s">
+      <c r="C77" s="48"/>
+      <c r="D77" s="49">
+        <v>3499</v>
+      </c>
+      <c r="E77" s="50">
+        <v>3499</v>
+      </c>
+      <c r="F77" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G77" s="52"/>
+      <c r="H77" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="70">
-        <v>4999</v>
-      </c>
-      <c r="E77" s="50">
-        <v>4349</v>
-      </c>
-      <c r="F77" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G77" s="73">
-        <v>200</v>
-      </c>
-      <c r="H77" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="I77" s="67">
-        <v>45557</v>
-      </c>
+      <c r="I77" s="68"/>
     </row>
     <row r="78" ht="47.25" spans="1:9">
       <c r="A78" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B78" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="70" t="s">
         <v>165</v>
       </c>
       <c r="C78" s="42"/>
-      <c r="D78" s="70">
+      <c r="D78" s="71">
         <v>4999</v>
       </c>
       <c r="E78" s="50">
         <v>4349</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G78" s="73">
+        <v>166</v>
+      </c>
+      <c r="G78" s="72">
         <v>200</v>
       </c>
-      <c r="H78" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="I78" s="67">
+      <c r="H78" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="I78" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="79" ht="47.25" spans="1:9">
       <c r="A79" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="69" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="B79" s="70" t="s">
+        <v>168</v>
       </c>
       <c r="C79" s="42"/>
-      <c r="D79" s="70">
+      <c r="D79" s="71">
         <v>4999</v>
       </c>
       <c r="E79" s="50">
         <v>4349</v>
       </c>
       <c r="F79" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G79" s="73">
+        <v>166</v>
+      </c>
+      <c r="G79" s="74">
         <v>200</v>
       </c>
-      <c r="H79" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="I79" s="67">
+      <c r="H79" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="I79" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="80" ht="47.25" spans="1:9">
       <c r="A80" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="69" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+      <c r="B80" s="70" t="s">
+        <v>170</v>
       </c>
       <c r="C80" s="42"/>
-      <c r="D80" s="70">
-        <v>5599</v>
+      <c r="D80" s="71">
+        <v>4999</v>
       </c>
       <c r="E80" s="50">
-        <v>5099</v>
+        <v>4349</v>
       </c>
       <c r="F80" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G80" s="73">
+        <v>166</v>
+      </c>
+      <c r="G80" s="74">
         <v>200</v>
       </c>
-      <c r="H80" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="I80" s="67">
+      <c r="H80" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="I80" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="81" ht="47.25" spans="1:9">
       <c r="A81" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" s="69" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="B81" s="70" t="s">
+        <v>172</v>
       </c>
       <c r="C81" s="42"/>
-      <c r="D81" s="70">
-        <v>5599</v>
+      <c r="D81" s="71">
+        <v>4999</v>
       </c>
       <c r="E81" s="50">
-        <v>5099</v>
+        <v>4349</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G81" s="73">
+        <v>166</v>
+      </c>
+      <c r="G81" s="74">
         <v>200</v>
       </c>
-      <c r="H81" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="I81" s="67">
+      <c r="H81" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="I81" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="82" ht="47.25" spans="1:9">
       <c r="A82" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82" s="69" t="s">
-        <v>173</v>
+        <v>164</v>
+      </c>
+      <c r="B82" s="70" t="s">
+        <v>174</v>
       </c>
       <c r="C82" s="42"/>
-      <c r="D82" s="70">
+      <c r="D82" s="71">
         <v>5599</v>
       </c>
       <c r="E82" s="50">
         <v>5099</v>
       </c>
       <c r="F82" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G82" s="73">
+        <v>166</v>
+      </c>
+      <c r="G82" s="74">
         <v>200</v>
       </c>
-      <c r="H82" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="I82" s="67">
+      <c r="H82" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="I82" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="83" ht="47.25" spans="1:9">
       <c r="A83" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B83" s="69" t="s">
-        <v>175</v>
+        <v>164</v>
+      </c>
+      <c r="B83" s="70" t="s">
+        <v>176</v>
       </c>
       <c r="C83" s="42"/>
-      <c r="D83" s="70">
+      <c r="D83" s="71">
         <v>5599</v>
       </c>
       <c r="E83" s="50">
         <v>5099</v>
       </c>
       <c r="F83" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G83" s="73">
+        <v>166</v>
+      </c>
+      <c r="G83" s="74">
         <v>200</v>
       </c>
-      <c r="H83" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="I83" s="67">
+      <c r="H83" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="I83" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="84" ht="47.25" spans="1:9">
       <c r="A84" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B84" s="74" t="s">
-        <v>177</v>
+        <v>164</v>
+      </c>
+      <c r="B84" s="70" t="s">
+        <v>178</v>
       </c>
       <c r="C84" s="42"/>
-      <c r="D84" s="66">
-        <v>7299</v>
+      <c r="D84" s="71">
+        <v>5599</v>
       </c>
       <c r="E84" s="50">
-        <v>6499</v>
+        <v>5099</v>
       </c>
       <c r="F84" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G84" s="75">
+        <v>166</v>
+      </c>
+      <c r="G84" s="74">
         <v>200</v>
       </c>
-      <c r="H84" s="76" t="s">
-        <v>178</v>
-      </c>
-      <c r="I84" s="67">
+      <c r="H84" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="I84" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="85" ht="47.25" spans="1:9">
       <c r="A85" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B85" s="74" t="s">
-        <v>179</v>
+        <v>164</v>
+      </c>
+      <c r="B85" s="70" t="s">
+        <v>180</v>
       </c>
       <c r="C85" s="42"/>
-      <c r="D85" s="66">
-        <v>7299</v>
+      <c r="D85" s="71">
+        <v>5599</v>
       </c>
       <c r="E85" s="50">
-        <v>6499</v>
+        <v>5099</v>
       </c>
       <c r="F85" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G85" s="75">
+        <v>166</v>
+      </c>
+      <c r="G85" s="74">
         <v>200</v>
       </c>
-      <c r="H85" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="I85" s="67">
+      <c r="H85" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="I85" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="86" ht="47.25" spans="1:9">
       <c r="A86" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B86" s="74" t="s">
-        <v>181</v>
+        <v>164</v>
+      </c>
+      <c r="B86" s="75" t="s">
+        <v>182</v>
       </c>
       <c r="C86" s="42"/>
-      <c r="D86" s="66">
+      <c r="D86" s="67">
         <v>7299</v>
       </c>
       <c r="E86" s="50">
         <v>6499</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G86" s="75">
+        <v>166</v>
+      </c>
+      <c r="G86" s="76">
         <v>200</v>
       </c>
-      <c r="H86" s="76" t="s">
-        <v>182</v>
-      </c>
-      <c r="I86" s="67">
+      <c r="H86" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="I86" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="87" ht="47.25" spans="1:9">
       <c r="A87" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B87" s="74" t="s">
-        <v>183</v>
+        <v>164</v>
+      </c>
+      <c r="B87" s="75" t="s">
+        <v>184</v>
       </c>
       <c r="C87" s="42"/>
-      <c r="D87" s="66">
-        <v>7899</v>
+      <c r="D87" s="67">
+        <v>7299</v>
       </c>
       <c r="E87" s="50">
-        <v>7099</v>
+        <v>6499</v>
       </c>
       <c r="F87" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G87" s="75">
+        <v>166</v>
+      </c>
+      <c r="G87" s="76">
         <v>200</v>
       </c>
-      <c r="H87" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="I87" s="67">
+      <c r="H87" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="I87" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="88" ht="47.25" spans="1:9">
       <c r="A88" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B88" s="74" t="s">
-        <v>185</v>
+        <v>164</v>
+      </c>
+      <c r="B88" s="75" t="s">
+        <v>186</v>
       </c>
       <c r="C88" s="42"/>
-      <c r="D88" s="66">
-        <v>7899</v>
+      <c r="D88" s="67">
+        <v>7299</v>
       </c>
       <c r="E88" s="50">
-        <v>7099</v>
+        <v>6499</v>
       </c>
       <c r="F88" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G88" s="75">
+        <v>166</v>
+      </c>
+      <c r="G88" s="76">
         <v>200</v>
       </c>
-      <c r="H88" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="I88" s="67">
+      <c r="H88" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="I88" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="89" ht="47.25" spans="1:9">
       <c r="A89" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89" s="74" t="s">
-        <v>187</v>
+        <v>164</v>
+      </c>
+      <c r="B89" s="75" t="s">
+        <v>188</v>
       </c>
       <c r="C89" s="42"/>
-      <c r="D89" s="66">
+      <c r="D89" s="67">
         <v>7899</v>
       </c>
       <c r="E89" s="50">
         <v>7099</v>
       </c>
       <c r="F89" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G89" s="75">
+        <v>166</v>
+      </c>
+      <c r="G89" s="76">
         <v>200</v>
       </c>
-      <c r="H89" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="I89" s="67">
+      <c r="H89" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="I89" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="90" ht="47.25" spans="1:9">
       <c r="A90" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B90" s="74" t="s">
-        <v>189</v>
+        <v>164</v>
+      </c>
+      <c r="B90" s="75" t="s">
+        <v>190</v>
       </c>
       <c r="C90" s="42"/>
-      <c r="D90" s="66">
-        <v>9099</v>
+      <c r="D90" s="67">
+        <v>7899</v>
       </c>
       <c r="E90" s="50">
-        <v>8299</v>
+        <v>7099</v>
       </c>
       <c r="F90" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G90" s="75">
+        <v>166</v>
+      </c>
+      <c r="G90" s="76">
         <v>200</v>
       </c>
-      <c r="H90" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="I90" s="67">
+      <c r="H90" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="I90" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="91" ht="47.25" spans="1:9">
       <c r="A91" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B91" s="74" t="s">
-        <v>191</v>
+        <v>164</v>
+      </c>
+      <c r="B91" s="75" t="s">
+        <v>192</v>
       </c>
       <c r="C91" s="42"/>
-      <c r="D91" s="66">
-        <v>9099</v>
+      <c r="D91" s="67">
+        <v>7899</v>
       </c>
       <c r="E91" s="50">
-        <v>8299</v>
+        <v>7099</v>
       </c>
       <c r="F91" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G91" s="75">
+        <v>166</v>
+      </c>
+      <c r="G91" s="76">
         <v>200</v>
       </c>
-      <c r="H91" s="76" t="s">
-        <v>192</v>
-      </c>
-      <c r="I91" s="67">
+      <c r="H91" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="I91" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="92" ht="47.25" spans="1:9">
       <c r="A92" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="74" t="s">
-        <v>193</v>
+        <v>164</v>
+      </c>
+      <c r="B92" s="75" t="s">
+        <v>194</v>
       </c>
       <c r="C92" s="42"/>
-      <c r="D92" s="66">
+      <c r="D92" s="67">
         <v>9099</v>
       </c>
       <c r="E92" s="50">
         <v>8299</v>
       </c>
       <c r="F92" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="G92" s="77">
+        <v>166</v>
+      </c>
+      <c r="G92" s="76">
         <v>200</v>
       </c>
-      <c r="H92" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="I92" s="67">
+      <c r="H92" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="I92" s="68">
         <v>45557</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" ht="47.25" spans="1:9">
       <c r="A93" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B93" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="C93" s="79"/>
-      <c r="D93" s="70">
-        <v>7799</v>
+        <v>164</v>
+      </c>
+      <c r="B93" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" s="42"/>
+      <c r="D93" s="67">
+        <v>9099</v>
       </c>
       <c r="E93" s="50">
-        <v>6899</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G93" s="80">
-        <v>400</v>
-      </c>
-      <c r="H93" s="81" t="s">
+        <v>8299</v>
+      </c>
+      <c r="F93" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G93" s="76">
+        <v>200</v>
+      </c>
+      <c r="H93" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="I93" s="67">
+      <c r="I93" s="68">
         <v>45557</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" ht="47.25" spans="1:9">
       <c r="A94" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B94" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="79"/>
-      <c r="D94" s="70">
-        <v>7799</v>
+      <c r="C94" s="42"/>
+      <c r="D94" s="67">
+        <v>9099</v>
       </c>
       <c r="E94" s="50">
-        <v>6899</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G94" s="75">
-        <v>400</v>
-      </c>
-      <c r="H94" s="82" t="s">
+        <v>8299</v>
+      </c>
+      <c r="F94" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G94" s="78">
+        <v>200</v>
+      </c>
+      <c r="H94" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="I94" s="67">
+      <c r="I94" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B95" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="79"/>
-      <c r="D95" s="70">
+      <c r="C95" s="80"/>
+      <c r="D95" s="71">
         <v>7799</v>
       </c>
       <c r="E95" s="50">
         <v>6899</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G95" s="75">
+        <v>201</v>
+      </c>
+      <c r="G95" s="81">
         <v>400</v>
       </c>
       <c r="H95" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="I95" s="67">
+        <v>202</v>
+      </c>
+      <c r="I95" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B96" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="C96" s="79"/>
-      <c r="D96" s="70">
+        <v>164</v>
+      </c>
+      <c r="B96" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" s="80"/>
+      <c r="D96" s="71">
         <v>7799</v>
       </c>
       <c r="E96" s="50">
         <v>6899</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G96" s="75">
+        <v>201</v>
+      </c>
+      <c r="G96" s="76">
         <v>400</v>
       </c>
-      <c r="H96" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="I96" s="67">
+      <c r="H96" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="I96" s="68">
         <v>45557</v>
       </c>
     </row>
-    <row r="97" ht="47.25" spans="1:9">
+    <row r="97" spans="1:9">
       <c r="A97" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B97" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="C97" s="79"/>
-      <c r="D97" s="70">
-        <v>6799</v>
+        <v>164</v>
+      </c>
+      <c r="B97" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" s="80"/>
+      <c r="D97" s="71">
+        <v>7799</v>
       </c>
       <c r="E97" s="50">
-        <v>5799</v>
-      </c>
-      <c r="F97" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G97" s="75">
+        <v>6899</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G97" s="76">
         <v>400</v>
       </c>
-      <c r="H97" s="72" t="s">
+      <c r="H97" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="I97" s="67">
+      <c r="I97" s="68">
         <v>45557</v>
       </c>
     </row>
-    <row r="98" ht="47.25" spans="1:9">
+    <row r="98" spans="1:9">
       <c r="A98" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B98" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="79"/>
-      <c r="D98" s="70">
-        <v>6799</v>
+      <c r="C98" s="80"/>
+      <c r="D98" s="71">
+        <v>7799</v>
       </c>
       <c r="E98" s="50">
-        <v>5799</v>
-      </c>
-      <c r="F98" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G98" s="75">
+        <v>6899</v>
+      </c>
+      <c r="F98" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G98" s="76">
         <v>400</v>
       </c>
-      <c r="H98" s="72" t="s">
+      <c r="H98" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="I98" s="67">
+      <c r="I98" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="99" ht="47.25" spans="1:9">
       <c r="A99" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B99" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B99" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="C99" s="79"/>
-      <c r="D99" s="70">
+      <c r="C99" s="80"/>
+      <c r="D99" s="71">
         <v>6799</v>
       </c>
       <c r="E99" s="50">
         <v>5799</v>
       </c>
       <c r="F99" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G99" s="75">
+        <v>210</v>
+      </c>
+      <c r="G99" s="76">
         <v>400</v>
       </c>
-      <c r="H99" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="I99" s="67">
+      <c r="H99" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="I99" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="100" ht="47.25" spans="1:9">
       <c r="A100" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B100" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="C100" s="79"/>
-      <c r="D100" s="70">
+        <v>164</v>
+      </c>
+      <c r="B100" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="C100" s="80"/>
+      <c r="D100" s="71">
         <v>6799</v>
       </c>
       <c r="E100" s="50">
         <v>5799</v>
       </c>
       <c r="F100" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G100" s="75">
+        <v>210</v>
+      </c>
+      <c r="G100" s="76">
         <v>400</v>
       </c>
-      <c r="H100" s="72" t="s">
-        <v>212</v>
-      </c>
-      <c r="I100" s="67">
+      <c r="H100" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="I100" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="101" ht="47.25" spans="1:9">
       <c r="A101" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B101" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" s="79"/>
-      <c r="D101" s="70">
+        <v>164</v>
+      </c>
+      <c r="B101" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="80"/>
+      <c r="D101" s="71">
         <v>6799</v>
       </c>
       <c r="E101" s="50">
         <v>5799</v>
       </c>
       <c r="F101" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G101" s="75">
+        <v>210</v>
+      </c>
+      <c r="G101" s="76">
         <v>400</v>
       </c>
-      <c r="H101" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="I101" s="67">
+      <c r="H101" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="I101" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="102" ht="47.25" spans="1:9">
       <c r="A102" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B102" s="78" t="s">
-        <v>215</v>
-      </c>
-      <c r="C102" s="79"/>
-      <c r="D102" s="70">
-        <v>6299</v>
+        <v>164</v>
+      </c>
+      <c r="B102" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102" s="80"/>
+      <c r="D102" s="71">
+        <v>6799</v>
       </c>
       <c r="E102" s="50">
-        <v>5299</v>
+        <v>5799</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G102" s="75">
+        <v>210</v>
+      </c>
+      <c r="G102" s="76">
         <v>400</v>
       </c>
-      <c r="H102" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="I102" s="67">
+      <c r="H102" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="I102" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="103" ht="47.25" spans="1:9">
       <c r="A103" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B103" s="78" t="s">
-        <v>217</v>
-      </c>
-      <c r="C103" s="79"/>
-      <c r="D103" s="70">
-        <v>6299</v>
+        <v>164</v>
+      </c>
+      <c r="B103" s="79" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" s="80"/>
+      <c r="D103" s="71">
+        <v>6799</v>
       </c>
       <c r="E103" s="50">
-        <v>5299</v>
+        <v>5799</v>
       </c>
       <c r="F103" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G103" s="75">
+        <v>210</v>
+      </c>
+      <c r="G103" s="76">
         <v>400</v>
       </c>
-      <c r="H103" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="I103" s="67">
+      <c r="H103" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="I103" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="104" ht="47.25" spans="1:9">
       <c r="A104" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B104" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="C104" s="79"/>
-      <c r="D104" s="70">
+        <v>164</v>
+      </c>
+      <c r="B104" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" s="80"/>
+      <c r="D104" s="71">
         <v>6299</v>
       </c>
       <c r="E104" s="50">
         <v>5299</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G104" s="75">
+        <v>210</v>
+      </c>
+      <c r="G104" s="76">
         <v>400</v>
       </c>
-      <c r="H104" s="72" t="s">
-        <v>220</v>
-      </c>
-      <c r="I104" s="67">
+      <c r="H104" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="I104" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="105" ht="47.25" spans="1:9">
       <c r="A105" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B105" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105" s="79"/>
-      <c r="D105" s="70">
+        <v>164</v>
+      </c>
+      <c r="B105" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="80"/>
+      <c r="D105" s="71">
         <v>6299</v>
       </c>
       <c r="E105" s="50">
         <v>5299</v>
       </c>
       <c r="F105" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G105" s="75">
+        <v>210</v>
+      </c>
+      <c r="G105" s="76">
         <v>400</v>
       </c>
-      <c r="H105" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="I105" s="67">
+      <c r="H105" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="I105" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="106" ht="47.25" spans="1:9">
       <c r="A106" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B106" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" s="83"/>
-      <c r="D106" s="66">
-        <v>5399</v>
+        <v>164</v>
+      </c>
+      <c r="B106" s="79" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="80"/>
+      <c r="D106" s="71">
+        <v>6299</v>
       </c>
       <c r="E106" s="50">
-        <v>4399</v>
+        <v>5299</v>
       </c>
       <c r="F106" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="G106" s="75">
+        <v>210</v>
+      </c>
+      <c r="G106" s="76">
         <v>400</v>
       </c>
-      <c r="H106" s="76" t="s">
+      <c r="H106" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="I106" s="67">
+      <c r="I106" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="107" ht="47.25" spans="1:9">
       <c r="A107" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B107" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="C107" s="83"/>
-      <c r="D107" s="66">
-        <v>5399</v>
+      <c r="C107" s="80"/>
+      <c r="D107" s="71">
+        <v>6299</v>
       </c>
       <c r="E107" s="50">
-        <v>4399</v>
+        <v>5299</v>
       </c>
       <c r="F107" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="G107" s="75">
+        <v>210</v>
+      </c>
+      <c r="G107" s="76">
         <v>400</v>
       </c>
-      <c r="H107" s="76" t="s">
+      <c r="H107" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="I107" s="67">
+      <c r="I107" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="108" ht="47.25" spans="1:9">
       <c r="A108" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B108" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B108" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="C108" s="83"/>
-      <c r="D108" s="66">
+      <c r="C108" s="84"/>
+      <c r="D108" s="67">
         <v>5399</v>
       </c>
       <c r="E108" s="50">
         <v>4399</v>
       </c>
       <c r="F108" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="G108" s="75">
+        <v>229</v>
+      </c>
+      <c r="G108" s="76">
         <v>400</v>
       </c>
-      <c r="H108" s="76" t="s">
-        <v>229</v>
-      </c>
-      <c r="I108" s="67">
+      <c r="H108" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="I108" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="109" ht="47.25" spans="1:9">
       <c r="A109" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B109" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="C109" s="83"/>
-      <c r="D109" s="66">
+        <v>164</v>
+      </c>
+      <c r="B109" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="84"/>
+      <c r="D109" s="67">
         <v>5399</v>
       </c>
       <c r="E109" s="50">
         <v>4399</v>
       </c>
       <c r="F109" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="G109" s="75">
+        <v>229</v>
+      </c>
+      <c r="G109" s="76">
         <v>400</v>
       </c>
-      <c r="H109" s="76" t="s">
-        <v>231</v>
-      </c>
-      <c r="I109" s="67">
+      <c r="H109" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="I109" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="110" ht="47.25" spans="1:9">
       <c r="A110" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B110" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="C110" s="83"/>
-      <c r="D110" s="66">
-        <v>4899</v>
+        <v>164</v>
+      </c>
+      <c r="B110" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" s="84"/>
+      <c r="D110" s="67">
+        <v>5399</v>
       </c>
       <c r="E110" s="50">
-        <v>3899</v>
+        <v>4399</v>
       </c>
       <c r="F110" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="G110" s="75">
+        <v>229</v>
+      </c>
+      <c r="G110" s="76">
         <v>400</v>
       </c>
-      <c r="H110" s="76" t="s">
-        <v>233</v>
-      </c>
-      <c r="I110" s="67">
+      <c r="H110" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="I110" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="111" ht="47.25" spans="1:9">
       <c r="A111" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B111" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="C111" s="83"/>
-      <c r="D111" s="66">
-        <v>4899</v>
+        <v>164</v>
+      </c>
+      <c r="B111" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="C111" s="84"/>
+      <c r="D111" s="67">
+        <v>5399</v>
       </c>
       <c r="E111" s="50">
-        <v>3899</v>
+        <v>4399</v>
       </c>
       <c r="F111" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="G111" s="75">
+        <v>229</v>
+      </c>
+      <c r="G111" s="76">
         <v>400</v>
       </c>
-      <c r="H111" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="I111" s="67">
+      <c r="H111" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="I111" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="112" ht="47.25" spans="1:9">
       <c r="A112" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B112" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="C112" s="83"/>
-      <c r="D112" s="66">
+        <v>164</v>
+      </c>
+      <c r="B112" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="C112" s="84"/>
+      <c r="D112" s="67">
         <v>4899</v>
       </c>
       <c r="E112" s="50">
         <v>3899</v>
       </c>
       <c r="F112" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="G112" s="75">
+        <v>229</v>
+      </c>
+      <c r="G112" s="76">
         <v>400</v>
       </c>
-      <c r="H112" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="I112" s="67">
+      <c r="H112" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="I112" s="68">
         <v>45557</v>
       </c>
     </row>
     <row r="113" ht="47.25" spans="1:9">
       <c r="A113" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B113" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="C113" s="83"/>
-      <c r="D113" s="66">
+        <v>164</v>
+      </c>
+      <c r="B113" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" s="84"/>
+      <c r="D113" s="67">
         <v>4899</v>
       </c>
       <c r="E113" s="50">
         <v>3899</v>
       </c>
       <c r="F113" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="G113" s="75">
+        <v>229</v>
+      </c>
+      <c r="G113" s="76">
         <v>400</v>
       </c>
-      <c r="H113" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="I113" s="67">
+      <c r="H113" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="I113" s="68">
         <v>45557</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" ht="47.25" spans="1:9">
       <c r="A114" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B114" s="78" t="s">
-        <v>240</v>
-      </c>
-      <c r="C114" s="79"/>
-      <c r="D114" s="70">
-        <v>4599</v>
+        <v>164</v>
+      </c>
+      <c r="B114" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="84"/>
+      <c r="D114" s="67">
+        <v>4899</v>
       </c>
       <c r="E114" s="50">
         <v>3899</v>
       </c>
-      <c r="F114" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G114" s="75">
-        <v>200</v>
-      </c>
-      <c r="H114" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="I114" s="67"/>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="F114" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="G114" s="76">
+        <v>400</v>
+      </c>
+      <c r="H114" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="I114" s="68">
+        <v>45557</v>
+      </c>
+    </row>
+    <row r="115" ht="47.25" spans="1:9">
       <c r="A115" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B115" s="78" t="s">
-        <v>242</v>
-      </c>
-      <c r="C115" s="79"/>
-      <c r="D115" s="70">
-        <v>4599</v>
+        <v>164</v>
+      </c>
+      <c r="B115" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="84"/>
+      <c r="D115" s="67">
+        <v>4899</v>
       </c>
       <c r="E115" s="50">
         <v>3899</v>
       </c>
-      <c r="F115" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G115" s="75">
-        <v>200</v>
-      </c>
-      <c r="H115" s="82" t="s">
-        <v>243</v>
-      </c>
-      <c r="I115" s="67"/>
+      <c r="F115" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="G115" s="76">
+        <v>400</v>
+      </c>
+      <c r="H115" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="I115" s="68">
+        <v>45557</v>
+      </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B116" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="C116" s="79"/>
-      <c r="D116" s="70">
+        <v>164</v>
+      </c>
+      <c r="B116" s="79" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" s="80"/>
+      <c r="D116" s="71">
         <v>4599</v>
       </c>
       <c r="E116" s="50">
         <v>3899</v>
       </c>
       <c r="F116" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G116" s="75">
+        <v>201</v>
+      </c>
+      <c r="G116" s="76">
         <v>200</v>
       </c>
-      <c r="H116" s="82" t="s">
-        <v>245</v>
-      </c>
-      <c r="I116" s="67"/>
+      <c r="H116" s="83" t="s">
+        <v>246</v>
+      </c>
+      <c r="I116" s="68"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B117" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="C117" s="79"/>
-      <c r="D117" s="70">
+        <v>164</v>
+      </c>
+      <c r="B117" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="C117" s="80"/>
+      <c r="D117" s="71">
         <v>4599</v>
       </c>
       <c r="E117" s="50">
         <v>3899</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G117" s="75">
+        <v>201</v>
+      </c>
+      <c r="G117" s="76">
         <v>200</v>
       </c>
-      <c r="H117" s="82" t="s">
-        <v>247</v>
-      </c>
-      <c r="I117" s="67"/>
+      <c r="H117" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="I117" s="68"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B118" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="C118" s="84">
-        <v>0.15</v>
-      </c>
-      <c r="D118" s="70">
-        <v>4099</v>
+        <v>164</v>
+      </c>
+      <c r="B118" s="79" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" s="80"/>
+      <c r="D118" s="71">
+        <v>4599</v>
       </c>
       <c r="E118" s="50">
-        <v>3399</v>
+        <v>3899</v>
       </c>
       <c r="F118" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G118" s="75">
+        <v>201</v>
+      </c>
+      <c r="G118" s="76">
         <v>200</v>
       </c>
-      <c r="H118" s="82" t="s">
-        <v>249</v>
-      </c>
-      <c r="I118" s="67"/>
+      <c r="H118" s="83" t="s">
+        <v>250</v>
+      </c>
+      <c r="I118" s="68"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B119" s="78" t="s">
-        <v>250</v>
-      </c>
-      <c r="C119" s="84">
-        <v>0.15</v>
-      </c>
-      <c r="D119" s="70">
-        <v>4099</v>
+        <v>164</v>
+      </c>
+      <c r="B119" s="79" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119" s="80"/>
+      <c r="D119" s="71">
+        <v>4599</v>
       </c>
       <c r="E119" s="50">
-        <v>3399</v>
+        <v>3899</v>
       </c>
       <c r="F119" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G119" s="75">
+        <v>201</v>
+      </c>
+      <c r="G119" s="76">
         <v>200</v>
       </c>
-      <c r="H119" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="I119" s="67"/>
+      <c r="H119" s="83" t="s">
+        <v>252</v>
+      </c>
+      <c r="I119" s="68"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B120" s="78" t="s">
-        <v>252</v>
-      </c>
-      <c r="C120" s="84">
+        <v>164</v>
+      </c>
+      <c r="B120" s="79" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" s="85">
         <v>0.15</v>
       </c>
-      <c r="D120" s="70">
+      <c r="D120" s="71">
         <v>4099</v>
       </c>
       <c r="E120" s="50">
         <v>3399</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G120" s="75">
+        <v>201</v>
+      </c>
+      <c r="G120" s="76">
         <v>200</v>
       </c>
-      <c r="H120" s="82" t="s">
-        <v>253</v>
-      </c>
-      <c r="I120" s="67"/>
+      <c r="H120" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="I120" s="68"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B121" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="C121" s="84">
+        <v>164</v>
+      </c>
+      <c r="B121" s="79" t="s">
+        <v>255</v>
+      </c>
+      <c r="C121" s="85">
         <v>0.15</v>
       </c>
-      <c r="D121" s="70">
+      <c r="D121" s="71">
         <v>4099</v>
       </c>
       <c r="E121" s="50">
         <v>3399</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G121" s="77">
+        <v>201</v>
+      </c>
+      <c r="G121" s="76">
         <v>200</v>
       </c>
-      <c r="H121" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="I121" s="67"/>
-    </row>
-    <row r="122" ht="78.75" spans="1:9">
+      <c r="H121" s="83" t="s">
+        <v>256</v>
+      </c>
+      <c r="I121" s="68"/>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B122" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="C122" s="42"/>
-      <c r="D122" s="70">
-        <v>5799</v>
+        <v>164</v>
+      </c>
+      <c r="B122" s="79" t="s">
+        <v>257</v>
+      </c>
+      <c r="C122" s="85">
+        <v>0.15</v>
+      </c>
+      <c r="D122" s="71">
+        <v>4099</v>
       </c>
       <c r="E122" s="50">
-        <v>5499</v>
-      </c>
-      <c r="F122" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G122" s="86"/>
-      <c r="H122" s="81" t="s">
+        <v>3399</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G122" s="76">
+        <v>200</v>
+      </c>
+      <c r="H122" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="I122" s="67"/>
-    </row>
-    <row r="123" ht="78.75" spans="1:9">
+      <c r="I122" s="68"/>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B123" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B123" s="79" t="s">
         <v>259</v>
       </c>
-      <c r="C123" s="42"/>
-      <c r="D123" s="70">
-        <v>5799</v>
+      <c r="C123" s="85">
+        <v>0.15</v>
+      </c>
+      <c r="D123" s="71">
+        <v>4099</v>
       </c>
       <c r="E123" s="50">
-        <v>5499</v>
-      </c>
-      <c r="F123" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G123" s="86"/>
-      <c r="H123" s="82" t="s">
+        <v>3399</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G123" s="78">
+        <v>200</v>
+      </c>
+      <c r="H123" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="I123" s="67"/>
+      <c r="I123" s="68"/>
     </row>
     <row r="124" ht="78.75" spans="1:9">
       <c r="A124" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B124" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B124" s="79" t="s">
         <v>261</v>
       </c>
       <c r="C124" s="42"/>
-      <c r="D124" s="70">
+      <c r="D124" s="71">
         <v>5799</v>
       </c>
       <c r="E124" s="50">
         <v>5499</v>
       </c>
       <c r="F124" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G124" s="86"/>
+        <v>262</v>
+      </c>
+      <c r="G124" s="87"/>
       <c r="H124" s="82" t="s">
-        <v>262</v>
-      </c>
-      <c r="I124" s="67"/>
+        <v>263</v>
+      </c>
+      <c r="I124" s="68"/>
     </row>
     <row r="125" ht="78.75" spans="1:9">
       <c r="A125" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B125" s="78" t="s">
-        <v>263</v>
+        <v>164</v>
+      </c>
+      <c r="B125" s="79" t="s">
+        <v>264</v>
       </c>
       <c r="C125" s="42"/>
-      <c r="D125" s="70">
+      <c r="D125" s="71">
         <v>5799</v>
       </c>
       <c r="E125" s="50">
         <v>5499</v>
       </c>
       <c r="F125" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G125" s="86"/>
-      <c r="H125" s="82" t="s">
-        <v>264</v>
-      </c>
-      <c r="I125" s="67"/>
+        <v>262</v>
+      </c>
+      <c r="G125" s="87"/>
+      <c r="H125" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="I125" s="68"/>
     </row>
     <row r="126" ht="78.75" spans="1:9">
       <c r="A126" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B126" s="64" t="s">
-        <v>265</v>
+        <v>164</v>
+      </c>
+      <c r="B126" s="79" t="s">
+        <v>266</v>
       </c>
       <c r="C126" s="42"/>
-      <c r="D126" s="66">
-        <v>5299</v>
+      <c r="D126" s="71">
+        <v>5799</v>
       </c>
       <c r="E126" s="50">
-        <v>4999</v>
+        <v>5499</v>
       </c>
       <c r="F126" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G126" s="86"/>
-      <c r="H126" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="I126" s="67"/>
+        <v>262</v>
+      </c>
+      <c r="G126" s="87"/>
+      <c r="H126" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="I126" s="68"/>
     </row>
     <row r="127" ht="78.75" spans="1:9">
       <c r="A127" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B127" s="64" t="s">
-        <v>267</v>
+        <v>164</v>
+      </c>
+      <c r="B127" s="79" t="s">
+        <v>268</v>
       </c>
       <c r="C127" s="42"/>
-      <c r="D127" s="66">
-        <v>5299</v>
+      <c r="D127" s="71">
+        <v>5799</v>
       </c>
       <c r="E127" s="50">
-        <v>4999</v>
+        <v>5499</v>
       </c>
       <c r="F127" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G127" s="86"/>
-      <c r="H127" s="87" t="s">
-        <v>268</v>
-      </c>
-      <c r="I127" s="67"/>
+        <v>262</v>
+      </c>
+      <c r="G127" s="87"/>
+      <c r="H127" s="83" t="s">
+        <v>269</v>
+      </c>
+      <c r="I127" s="68"/>
     </row>
     <row r="128" ht="78.75" spans="1:9">
       <c r="A128" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B128" s="64" t="s">
-        <v>269</v>
+        <v>164</v>
+      </c>
+      <c r="B128" s="65" t="s">
+        <v>270</v>
       </c>
       <c r="C128" s="42"/>
-      <c r="D128" s="66">
+      <c r="D128" s="67">
         <v>5299</v>
       </c>
       <c r="E128" s="50">
         <v>4999</v>
       </c>
       <c r="F128" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G128" s="86"/>
-      <c r="H128" s="87" t="s">
-        <v>270</v>
-      </c>
-      <c r="I128" s="67"/>
+        <v>262</v>
+      </c>
+      <c r="G128" s="87"/>
+      <c r="H128" s="88" t="s">
+        <v>271</v>
+      </c>
+      <c r="I128" s="68"/>
     </row>
     <row r="129" ht="78.75" spans="1:9">
       <c r="A129" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B129" s="64" t="s">
-        <v>271</v>
+        <v>164</v>
+      </c>
+      <c r="B129" s="65" t="s">
+        <v>272</v>
       </c>
       <c r="C129" s="42"/>
-      <c r="D129" s="66">
+      <c r="D129" s="67">
         <v>5299</v>
       </c>
       <c r="E129" s="50">
         <v>4999</v>
       </c>
       <c r="F129" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G129" s="86"/>
-      <c r="H129" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="I129" s="67"/>
-    </row>
-    <row r="130" ht="31.5" spans="1:9">
+        <v>262</v>
+      </c>
+      <c r="G129" s="87"/>
+      <c r="H129" s="88" t="s">
+        <v>273</v>
+      </c>
+      <c r="I129" s="68"/>
+    </row>
+    <row r="130" ht="78.75" spans="1:9">
       <c r="A130" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B130" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="C130" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="D130" s="66">
-        <v>1999</v>
+        <v>164</v>
+      </c>
+      <c r="B130" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="C130" s="42"/>
+      <c r="D130" s="67">
+        <v>5299</v>
       </c>
       <c r="E130" s="50">
-        <v>1929</v>
+        <v>4999</v>
       </c>
       <c r="F130" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="G130" s="89">
-        <v>70</v>
-      </c>
-      <c r="H130" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="G130" s="87"/>
+      <c r="H130" s="88" t="s">
         <v>275</v>
       </c>
-      <c r="I130" s="67"/>
-    </row>
-    <row r="131" ht="31.5" spans="1:9">
+      <c r="I130" s="68"/>
+    </row>
+    <row r="131" ht="78.75" spans="1:9">
       <c r="A131" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B131" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="C131" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="D131" s="66">
-        <v>1999</v>
+      <c r="C131" s="42"/>
+      <c r="D131" s="67">
+        <v>5299</v>
       </c>
       <c r="E131" s="50">
-        <v>1929</v>
+        <v>4999</v>
       </c>
       <c r="F131" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="G131" s="91">
-        <v>70</v>
-      </c>
-      <c r="H131" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="G131" s="87"/>
+      <c r="H131" s="88" t="s">
         <v>277</v>
       </c>
-      <c r="I131" s="67"/>
+      <c r="I131" s="68"/>
     </row>
     <row r="132" ht="31.5" spans="1:9">
       <c r="A132" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B132" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B132" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="C132" s="88">
+      <c r="C132" s="89">
         <v>0.03</v>
       </c>
-      <c r="D132" s="66">
+      <c r="D132" s="67">
         <v>1999</v>
       </c>
       <c r="E132" s="50">
         <v>1929</v>
       </c>
       <c r="F132" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="G132" s="91">
+        <v>279</v>
+      </c>
+      <c r="G132" s="90">
         <v>70</v>
       </c>
-      <c r="H132" s="87" t="s">
+      <c r="H132" s="91" t="s">
+        <v>280</v>
+      </c>
+      <c r="I132" s="68"/>
+    </row>
+    <row r="133" ht="31.5" spans="1:9">
+      <c r="A133" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B133" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" s="89">
+        <v>0.03</v>
+      </c>
+      <c r="D133" s="67">
+        <v>1999</v>
+      </c>
+      <c r="E133" s="50">
+        <v>1929</v>
+      </c>
+      <c r="F133" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="I132" s="67"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B133" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="C133" s="84">
-        <v>0.1</v>
-      </c>
-      <c r="D133" s="70">
-        <v>1699</v>
-      </c>
-      <c r="E133" s="50">
-        <v>1499</v>
-      </c>
-      <c r="F133" s="25" t="s">
-        <v>281</v>
-      </c>
       <c r="G133" s="92">
-        <v>200</v>
-      </c>
-      <c r="H133" s="93"/>
-      <c r="I133" s="67"/>
-    </row>
-    <row r="134" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="H133" s="88" t="s">
+        <v>282</v>
+      </c>
+      <c r="I133" s="68"/>
+    </row>
+    <row r="134" ht="31.5" spans="1:9">
       <c r="A134" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B134" s="78" t="s">
-        <v>282</v>
-      </c>
-      <c r="C134" s="84">
-        <v>0.1</v>
-      </c>
-      <c r="D134" s="70">
-        <v>1699</v>
+        <v>164</v>
+      </c>
+      <c r="B134" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" s="89">
+        <v>0.03</v>
+      </c>
+      <c r="D134" s="67">
+        <v>1999</v>
       </c>
       <c r="E134" s="50">
-        <v>1499</v>
-      </c>
-      <c r="F134" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="G134" s="94">
-        <v>200</v>
-      </c>
-      <c r="H134" s="53"/>
-      <c r="I134" s="67"/>
+        <v>1929</v>
+      </c>
+      <c r="F134" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="G134" s="92">
+        <v>70</v>
+      </c>
+      <c r="H134" s="88" t="s">
+        <v>284</v>
+      </c>
+      <c r="I134" s="68"/>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B135" s="78" t="s">
-        <v>283</v>
-      </c>
-      <c r="C135" s="84">
+        <v>164</v>
+      </c>
+      <c r="B135" s="79" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135" s="85">
         <v>0.1</v>
       </c>
-      <c r="D135" s="70">
+      <c r="D135" s="71">
         <v>1699</v>
       </c>
       <c r="E135" s="50">
         <v>1499</v>
       </c>
       <c r="F135" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="G135" s="94">
+        <v>286</v>
+      </c>
+      <c r="G135" s="93">
         <v>200</v>
       </c>
-      <c r="H135" s="53"/>
-      <c r="I135" s="67"/>
-    </row>
-    <row r="136" ht="78.75" spans="1:9">
+      <c r="H135" s="94"/>
+      <c r="I135" s="68"/>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B136" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="C136" s="88">
+        <v>164</v>
+      </c>
+      <c r="B136" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" s="85">
         <v>0.1</v>
       </c>
-      <c r="D136" s="66">
-        <v>1099</v>
+      <c r="D136" s="71">
+        <v>1699</v>
       </c>
       <c r="E136" s="50">
-        <v>1099</v>
-      </c>
-      <c r="F136" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="G136" s="52"/>
-      <c r="H136" s="95" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F136" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I136" s="67"/>
-    </row>
-    <row r="137" ht="78.75" spans="1:9">
+      <c r="G136" s="95">
+        <v>200</v>
+      </c>
+      <c r="H136" s="53"/>
+      <c r="I136" s="68"/>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B137" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="C137" s="88">
+        <v>164</v>
+      </c>
+      <c r="B137" s="79" t="s">
+        <v>288</v>
+      </c>
+      <c r="C137" s="85">
         <v>0.1</v>
       </c>
-      <c r="D137" s="66">
-        <v>1099</v>
+      <c r="D137" s="71">
+        <v>1699</v>
       </c>
       <c r="E137" s="50">
-        <v>1099</v>
-      </c>
-      <c r="F137" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="G137" s="52"/>
-      <c r="H137" s="95" t="s">
-        <v>288</v>
-      </c>
-      <c r="I137" s="67"/>
+        <v>1499</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="G137" s="95">
+        <v>200</v>
+      </c>
+      <c r="H137" s="53"/>
+      <c r="I137" s="68"/>
     </row>
     <row r="138" ht="78.75" spans="1:9">
       <c r="A138" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B138" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B138" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="C138" s="88">
+      <c r="C138" s="89">
         <v>0.1</v>
       </c>
-      <c r="D138" s="66">
+      <c r="D138" s="67">
         <v>1099</v>
       </c>
       <c r="E138" s="50">
         <v>1099</v>
       </c>
       <c r="F138" s="39" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G138" s="52"/>
-      <c r="H138" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="I138" s="67"/>
+      <c r="H138" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="I138" s="68"/>
     </row>
     <row r="139" ht="78.75" spans="1:9">
       <c r="A139" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B139" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="C139" s="79"/>
-      <c r="D139" s="96">
-        <v>899</v>
-      </c>
-      <c r="E139" s="60">
-        <v>899</v>
+        <v>164</v>
+      </c>
+      <c r="B139" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C139" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="D139" s="67">
+        <v>1099</v>
+      </c>
+      <c r="E139" s="50">
+        <v>1099</v>
       </c>
       <c r="F139" s="39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G139" s="52"/>
-      <c r="H139" s="97" t="s">
+      <c r="H139" s="96" t="s">
         <v>293</v>
       </c>
-      <c r="I139" s="67"/>
+      <c r="I139" s="68"/>
     </row>
     <row r="140" ht="78.75" spans="1:9">
       <c r="A140" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B140" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="C140" s="79"/>
-      <c r="D140" s="96">
-        <v>899</v>
-      </c>
-      <c r="E140" s="60">
-        <v>899</v>
+      <c r="C140" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="D140" s="67">
+        <v>1099</v>
+      </c>
+      <c r="E140" s="50">
+        <v>1099</v>
       </c>
       <c r="F140" s="39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G140" s="52"/>
-      <c r="H140" s="97" t="s">
+      <c r="H140" s="96" t="s">
         <v>295</v>
       </c>
-      <c r="I140" s="67"/>
+      <c r="I140" s="68"/>
     </row>
     <row r="141" ht="78.75" spans="1:9">
       <c r="A141" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B141" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B141" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="C141" s="79"/>
-      <c r="D141" s="96">
+      <c r="C141" s="80"/>
+      <c r="D141" s="97">
         <v>899</v>
       </c>
-      <c r="E141" s="60">
+      <c r="E141" s="61">
         <v>899</v>
       </c>
       <c r="F141" s="39" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G141" s="52"/>
-      <c r="H141" s="97" t="s">
+      <c r="H141" s="98" t="s">
+        <v>298</v>
+      </c>
+      <c r="I141" s="68"/>
+    </row>
+    <row r="142" ht="78.75" spans="1:9">
+      <c r="A142" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B142" s="79" t="s">
+        <v>299</v>
+      </c>
+      <c r="C142" s="80"/>
+      <c r="D142" s="97">
+        <v>899</v>
+      </c>
+      <c r="E142" s="61">
+        <v>899</v>
+      </c>
+      <c r="F142" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="I141" s="67"/>
-    </row>
-    <row r="142" ht="47.25" spans="1:9">
-      <c r="A142" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B142" s="64" t="s">
-        <v>298</v>
-      </c>
-      <c r="C142" s="83"/>
-      <c r="D142" s="98">
-        <v>799</v>
-      </c>
-      <c r="E142" s="60">
-        <v>799</v>
-      </c>
-      <c r="F142" s="39" t="s">
-        <v>299</v>
-      </c>
       <c r="G142" s="52"/>
-      <c r="H142" s="95" t="s">
+      <c r="H142" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="I142" s="67"/>
-    </row>
-    <row r="143" ht="47.25" spans="1:9">
+      <c r="I142" s="68"/>
+    </row>
+    <row r="143" ht="78.75" spans="1:9">
       <c r="A143" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B143" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B143" s="79" t="s">
         <v>301</v>
       </c>
-      <c r="C143" s="83"/>
-      <c r="D143" s="98">
-        <v>799</v>
-      </c>
-      <c r="E143" s="60">
-        <v>799</v>
+      <c r="C143" s="80"/>
+      <c r="D143" s="97">
+        <v>899</v>
+      </c>
+      <c r="E143" s="61">
+        <v>899</v>
       </c>
       <c r="F143" s="39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G143" s="52"/>
-      <c r="H143" s="95" t="s">
+      <c r="H143" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="I143" s="67"/>
+      <c r="I143" s="68"/>
     </row>
     <row r="144" ht="47.25" spans="1:9">
       <c r="A144" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B144" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B144" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="C144" s="83"/>
-      <c r="D144" s="98">
+      <c r="C144" s="84"/>
+      <c r="D144" s="99">
         <v>799</v>
       </c>
-      <c r="E144" s="60">
+      <c r="E144" s="61">
         <v>799</v>
       </c>
       <c r="F144" s="39" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G144" s="52"/>
-      <c r="H144" s="95" t="s">
+      <c r="H144" s="96" t="s">
+        <v>305</v>
+      </c>
+      <c r="I144" s="68"/>
+    </row>
+    <row r="145" ht="47.25" spans="1:9">
+      <c r="A145" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B145" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="C145" s="84"/>
+      <c r="D145" s="99">
+        <v>799</v>
+      </c>
+      <c r="E145" s="61">
+        <v>799</v>
+      </c>
+      <c r="F145" s="39" t="s">
         <v>304</v>
       </c>
-      <c r="I144" s="67"/>
+      <c r="G145" s="52"/>
+      <c r="H145" s="96" t="s">
+        <v>307</v>
+      </c>
+      <c r="I145" s="68"/>
+    </row>
+    <row r="146" ht="47.25" spans="1:9">
+      <c r="A146" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B146" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="C146" s="84"/>
+      <c r="D146" s="99">
+        <v>799</v>
+      </c>
+      <c r="E146" s="61">
+        <v>799</v>
+      </c>
+      <c r="F146" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G146" s="52"/>
+      <c r="H146" s="96" t="s">
+        <v>309</v>
+      </c>
+      <c r="I146" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/promo_list.xlsx
+++ b/promo_list.xlsx
@@ -1457,7 +1457,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1505,11 +1505,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
@@ -1518,12 +1513,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2033,19 +2022,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2054,131 +2052,122 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2233,9 +2222,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2251,7 +2237,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2269,7 +2255,7 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2278,7 +2264,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2287,8 +2273,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2300,7 +2286,7 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2309,58 +2295,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2369,14 +2352,14 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2385,74 +2368,53 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2804,8 +2766,8 @@
   <sheetPr/>
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I167" sqref="A1:I167"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2869,16 +2831,16 @@
         <v>11</v>
       </c>
       <c r="G2" s="17"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="62"/>
+      <c r="I2" s="60"/>
     </row>
     <row r="3" ht="47.25" spans="1:9">
       <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="14"/>
@@ -2892,16 +2854,16 @@
         <v>11</v>
       </c>
       <c r="G3" s="17"/>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="62"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" ht="47.25" spans="1:9">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="14"/>
@@ -2915,1817 +2877,1817 @@
         <v>11</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" ht="78.75" spans="1:9">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>0.03</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>5699</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>5699</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" ht="78.75" spans="1:9">
       <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>0.03</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>5699</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>5699</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="61"/>
     </row>
     <row r="7" ht="78.75" spans="1:9">
       <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>0.03</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>5699</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>5699</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="61"/>
     </row>
     <row r="8" ht="189" spans="1:9">
       <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>0.03</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>4499</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>4269</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>200</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="61"/>
     </row>
     <row r="9" ht="189" spans="1:9">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>0.03</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>4499</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>4269</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="29">
         <v>200</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="61"/>
     </row>
     <row r="10" ht="189" spans="1:9">
       <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>0.03</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>4499</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>4269</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <v>200</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="63"/>
+      <c r="I10" s="61"/>
     </row>
     <row r="11" ht="173.25" spans="1:9">
       <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>0.03</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>2699</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>2639</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="32">
         <v>50</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="63"/>
+      <c r="I11" s="61"/>
     </row>
     <row r="12" ht="173.25" spans="1:9">
       <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>0.03</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>2699</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>2639</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <v>50</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="63"/>
+      <c r="I12" s="61"/>
     </row>
     <row r="13" ht="173.25" spans="1:9">
       <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>0.03</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="27">
         <v>2199</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <v>2139</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="29">
         <v>50</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="61"/>
     </row>
     <row r="14" ht="173.25" spans="1:9">
       <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>0.03</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="27">
         <v>2199</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <v>2139</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <v>50</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="61"/>
     </row>
     <row r="15" ht="173.25" spans="1:9">
       <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>0.03</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="27">
         <v>2199</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <v>2139</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="29">
         <v>50</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="61"/>
     </row>
     <row r="16" ht="173.25" spans="1:9">
       <c r="A16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>0.1</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>1899</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>1799</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="32">
         <v>90</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="61"/>
     </row>
     <row r="17" ht="173.25" spans="1:9">
       <c r="A17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>0.1</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>1899</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>1799</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="32">
         <v>90</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="61"/>
     </row>
     <row r="18" ht="31.5" spans="1:9">
       <c r="A18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="28">
+      <c r="C18" s="33"/>
+      <c r="D18" s="27">
         <v>1299</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>1299</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="63"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="61"/>
     </row>
     <row r="19" ht="31.5" spans="1:9">
       <c r="A19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="28">
+      <c r="C19" s="33"/>
+      <c r="D19" s="27">
         <v>1299</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>1299</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="63"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="61"/>
     </row>
     <row r="20" ht="173.25" spans="1:9">
       <c r="A20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="21">
+      <c r="C20" s="37"/>
+      <c r="D20" s="20">
         <v>1699</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <v>1699</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="25" t="s">
+      <c r="G20" s="36"/>
+      <c r="H20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="63"/>
+      <c r="I20" s="61"/>
     </row>
     <row r="21" ht="173.25" spans="1:9">
       <c r="A21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="21">
+      <c r="C21" s="37"/>
+      <c r="D21" s="20">
         <v>1699</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>1699</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25" t="s">
+      <c r="G21" s="23"/>
+      <c r="H21" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="63"/>
+      <c r="I21" s="61"/>
     </row>
     <row r="22" ht="173.25" spans="1:9">
       <c r="A22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <v>0.03</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <v>1399</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>1219</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <v>160</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="63"/>
+      <c r="I22" s="61"/>
     </row>
     <row r="23" ht="173.25" spans="1:9">
       <c r="A23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>0.03</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="27">
         <v>1399</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>1219</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <v>160</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="61"/>
     </row>
     <row r="24" ht="173.25" spans="1:9">
       <c r="A24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>0.03</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <v>1399</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>1219</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="36">
         <v>160</v>
       </c>
-      <c r="H24" s="31" t="s">
+      <c r="H24" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="63"/>
+      <c r="I24" s="61"/>
     </row>
     <row r="25" ht="63" spans="1:9">
       <c r="A25" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>0.03</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="38">
         <v>999</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="39">
         <v>969</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="36">
         <v>30</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="63"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" ht="63" spans="1:9">
       <c r="A26" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>0.03</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="38">
         <v>999</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="39">
         <v>969</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="40">
         <v>30</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="63"/>
+      <c r="I26" s="61"/>
     </row>
     <row r="27" ht="173.25" spans="1:9">
       <c r="A27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="26">
         <v>0.03</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="41">
         <v>899</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="39">
         <v>869</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="40">
         <v>30</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="63"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="61"/>
     </row>
     <row r="28" ht="173.25" spans="1:9">
       <c r="A28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="26">
         <v>0.03</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="41">
         <v>899</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="39">
         <v>869</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="36">
         <v>30</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="63"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="61"/>
     </row>
     <row r="29" ht="173.25" spans="1:9">
       <c r="A29" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="19">
         <v>0.03</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="38">
         <v>799</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="39">
         <v>744</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="36">
         <v>50</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="63"/>
+      <c r="I29" s="61"/>
     </row>
     <row r="30" ht="173.25" spans="1:9">
       <c r="A30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="19">
         <v>0.03</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="38">
         <v>799</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="39">
         <v>744</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <v>50</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="63"/>
+      <c r="I30" s="61"/>
     </row>
     <row r="31" ht="173.25" spans="1:9">
       <c r="A31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="42">
+      <c r="C31" s="33"/>
+      <c r="D31" s="41">
         <v>599</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="39">
         <v>489</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="23">
         <v>100</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="63"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" ht="173.25" spans="1:9">
       <c r="A32" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="42">
+      <c r="C32" s="33"/>
+      <c r="D32" s="41">
         <v>599</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="39">
         <v>489</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="29">
         <v>100</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="I32" s="63"/>
+      <c r="I32" s="61"/>
     </row>
     <row r="33" ht="94.5" spans="1:9">
       <c r="A33" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45">
+      <c r="C33" s="43"/>
+      <c r="D33" s="44">
         <v>3999</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="45">
         <v>3999</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="63"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="61"/>
     </row>
     <row r="34" ht="94.5" spans="1:9">
       <c r="A34" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45">
+      <c r="C34" s="43"/>
+      <c r="D34" s="44">
         <v>3999</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="45">
         <v>3999</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="48"/>
+      <c r="G34" s="34"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="63"/>
+      <c r="I34" s="61"/>
     </row>
     <row r="35" ht="94.5" spans="1:9">
       <c r="A35" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45">
+      <c r="C35" s="43"/>
+      <c r="D35" s="44">
         <v>3999</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="45">
         <v>3999</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="48"/>
+      <c r="G35" s="34"/>
       <c r="H35" s="12"/>
-      <c r="I35" s="63"/>
+      <c r="I35" s="61"/>
     </row>
     <row r="36" ht="94.5" spans="1:9">
       <c r="A36" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="48">
         <v>0.1</v>
       </c>
-      <c r="D36" s="51">
+      <c r="D36" s="49">
         <v>2599</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="45">
         <v>2599</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G36" s="48"/>
+      <c r="G36" s="34"/>
       <c r="H36" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="63"/>
+      <c r="I36" s="61"/>
     </row>
     <row r="37" ht="94.5" spans="1:9">
       <c r="A37" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="48">
         <v>0.1</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="49">
         <v>2599</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="45">
         <v>2599</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="48"/>
+      <c r="G37" s="34"/>
       <c r="H37" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="I37" s="63"/>
+      <c r="I37" s="61"/>
     </row>
     <row r="38" ht="31.5" spans="1:9">
       <c r="A38" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="45">
+      <c r="C38" s="50"/>
+      <c r="D38" s="44">
         <v>2199</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="45">
         <v>1999</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="34">
         <v>130</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I38" s="63"/>
+      <c r="I38" s="61"/>
     </row>
     <row r="39" ht="31.5" spans="1:9">
       <c r="A39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="45">
+      <c r="C39" s="50"/>
+      <c r="D39" s="44">
         <v>2199</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="45">
         <v>1999</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="34">
         <v>130</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I39" s="63"/>
+      <c r="I39" s="61"/>
     </row>
     <row r="40" ht="31.5" spans="1:9">
       <c r="A40" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="45">
+      <c r="C40" s="50"/>
+      <c r="D40" s="44">
         <v>2199</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="45">
         <v>1999</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G40" s="34">
         <v>130</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I40" s="63"/>
+      <c r="I40" s="61"/>
     </row>
     <row r="41" ht="94.5" spans="1:9">
       <c r="A41" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="45">
+      <c r="C41" s="50"/>
+      <c r="D41" s="44">
         <v>1399</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="45">
         <v>1399</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="25" t="s">
+      <c r="G41" s="34"/>
+      <c r="H41" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="I41" s="63"/>
+      <c r="I41" s="61"/>
     </row>
     <row r="42" ht="94.5" spans="1:9">
       <c r="A42" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="45">
+      <c r="C42" s="50"/>
+      <c r="D42" s="44">
         <v>1399</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="45">
         <v>1399</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G42" s="48"/>
-      <c r="H42" s="25" t="s">
+      <c r="G42" s="34"/>
+      <c r="H42" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="I42" s="63"/>
+      <c r="I42" s="61"/>
     </row>
     <row r="43" ht="94.5" spans="1:9">
       <c r="A43" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="45">
+      <c r="C43" s="50"/>
+      <c r="D43" s="44">
         <v>1799</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E43" s="44">
         <v>1799</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="48"/>
-      <c r="H43" s="25" t="s">
+      <c r="G43" s="34"/>
+      <c r="H43" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="I43" s="63"/>
+      <c r="I43" s="61"/>
     </row>
     <row r="44" ht="94.5" spans="1:9">
       <c r="A44" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="52"/>
-      <c r="D44" s="45">
+      <c r="C44" s="50"/>
+      <c r="D44" s="44">
         <v>1799</v>
       </c>
-      <c r="E44" s="45">
+      <c r="E44" s="44">
         <v>1799</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="G44" s="48"/>
-      <c r="H44" s="25" t="s">
+      <c r="G44" s="34"/>
+      <c r="H44" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="I44" s="63"/>
+      <c r="I44" s="61"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="51">
+      <c r="C45" s="51"/>
+      <c r="D45" s="49">
         <v>1099</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="45">
         <v>1099</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="48"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="34"/>
       <c r="H45" s="12"/>
-      <c r="I45" s="63"/>
+      <c r="I45" s="61"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="51">
+      <c r="C46" s="51"/>
+      <c r="D46" s="49">
         <v>1099</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="45">
         <v>1099</v>
       </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="48"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="34"/>
       <c r="H46" s="12"/>
-      <c r="I46" s="63"/>
+      <c r="I46" s="61"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="45">
+      <c r="C47" s="43"/>
+      <c r="D47" s="44">
         <v>1099</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="45">
         <v>1099</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="48"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="34"/>
       <c r="H47" s="12"/>
-      <c r="I47" s="63"/>
+      <c r="I47" s="61"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="45">
+      <c r="C48" s="43"/>
+      <c r="D48" s="44">
         <v>1099</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="45">
         <v>1099</v>
       </c>
-      <c r="F48" s="54"/>
-      <c r="G48" s="48"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="34"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="63"/>
+      <c r="I48" s="61"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="55">
+      <c r="C49" s="43"/>
+      <c r="D49" s="53">
         <v>699</v>
       </c>
-      <c r="E49" s="56">
+      <c r="E49" s="54">
         <v>699</v>
       </c>
-      <c r="F49" s="54"/>
-      <c r="G49" s="48"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="34"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="63"/>
+      <c r="I49" s="61"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="55">
+      <c r="C50" s="43"/>
+      <c r="D50" s="53">
         <v>699</v>
       </c>
-      <c r="E50" s="56">
+      <c r="E50" s="54">
         <v>699</v>
       </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="48"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="34"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="63"/>
+      <c r="I50" s="61"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="57">
+      <c r="C51" s="51"/>
+      <c r="D51" s="55">
         <v>799</v>
       </c>
-      <c r="E51" s="56">
+      <c r="E51" s="54">
         <v>799</v>
       </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="48"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="34"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="63"/>
+      <c r="I51" s="61"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="57">
+      <c r="C52" s="51"/>
+      <c r="D52" s="55">
         <v>799</v>
       </c>
-      <c r="E52" s="56">
+      <c r="E52" s="54">
         <v>799</v>
       </c>
-      <c r="F52" s="54"/>
-      <c r="G52" s="48"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="34"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="63"/>
+      <c r="I52" s="61"/>
     </row>
     <row r="53" ht="31.5" spans="1:9">
       <c r="A53" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="45">
+      <c r="C53" s="56"/>
+      <c r="D53" s="44">
         <v>4599</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="45">
         <v>4499</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G53" s="48"/>
-      <c r="H53" s="25" t="s">
+      <c r="G53" s="34"/>
+      <c r="H53" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="I53" s="63"/>
+      <c r="I53" s="61"/>
     </row>
     <row r="54" ht="31.5" spans="1:9">
       <c r="A54" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="45">
+      <c r="C54" s="56"/>
+      <c r="D54" s="44">
         <v>4599</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="45">
         <v>4499</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="48"/>
-      <c r="H54" s="25" t="s">
+      <c r="G54" s="34"/>
+      <c r="H54" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="I54" s="63"/>
+      <c r="I54" s="61"/>
     </row>
     <row r="55" ht="47.25" spans="1:9">
       <c r="A55" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="58">
+      <c r="C55" s="56">
         <v>0.1</v>
       </c>
-      <c r="D55" s="45">
+      <c r="D55" s="44">
         <v>1999</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="45">
         <v>1999</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G55" s="48"/>
-      <c r="H55" s="25" t="s">
+      <c r="G55" s="34"/>
+      <c r="H55" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="I55" s="63"/>
+      <c r="I55" s="61"/>
     </row>
     <row r="56" ht="47.25" spans="1:9">
       <c r="A56" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="58">
+      <c r="C56" s="56">
         <v>0.1</v>
       </c>
-      <c r="D56" s="45">
+      <c r="D56" s="44">
         <v>1999</v>
       </c>
-      <c r="E56" s="46">
+      <c r="E56" s="45">
         <v>1999</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G56" s="48"/>
-      <c r="H56" s="25" t="s">
+      <c r="G56" s="34"/>
+      <c r="H56" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="I56" s="63"/>
+      <c r="I56" s="61"/>
     </row>
     <row r="57" ht="47.25" spans="1:9">
       <c r="A57" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="58">
+      <c r="C57" s="56">
         <v>0.1</v>
       </c>
-      <c r="D57" s="45">
+      <c r="D57" s="44">
         <v>1999</v>
       </c>
-      <c r="E57" s="46">
+      <c r="E57" s="45">
         <v>1999</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G57" s="48"/>
-      <c r="H57" s="25" t="s">
+      <c r="G57" s="34"/>
+      <c r="H57" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="I57" s="63"/>
+      <c r="I57" s="61"/>
     </row>
     <row r="58" ht="47.25" spans="1:9">
       <c r="A58" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="45">
+      <c r="C58" s="43"/>
+      <c r="D58" s="44">
         <v>2399</v>
       </c>
-      <c r="E58" s="46">
+      <c r="E58" s="45">
         <v>2399</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G58" s="48"/>
-      <c r="H58" s="25" t="s">
+      <c r="G58" s="34"/>
+      <c r="H58" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="I58" s="63"/>
+      <c r="I58" s="61"/>
     </row>
     <row r="59" ht="47.25" spans="1:9">
       <c r="A59" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="45">
+      <c r="C59" s="43"/>
+      <c r="D59" s="44">
         <v>2399</v>
       </c>
-      <c r="E59" s="46">
+      <c r="E59" s="45">
         <v>2399</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G59" s="48"/>
-      <c r="H59" s="25" t="s">
+      <c r="G59" s="34"/>
+      <c r="H59" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="I59" s="63"/>
+      <c r="I59" s="61"/>
     </row>
     <row r="60" ht="31.5" spans="1:9">
       <c r="A60" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="61">
+      <c r="C60" s="58"/>
+      <c r="D60" s="59">
         <v>3299</v>
       </c>
-      <c r="E60" s="46">
+      <c r="E60" s="45">
         <v>3299</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="48"/>
-      <c r="H60" s="31" t="s">
+      <c r="G60" s="34"/>
+      <c r="H60" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="I60" s="63"/>
+      <c r="I60" s="61"/>
     </row>
     <row r="61" ht="31.5" spans="1:9">
       <c r="A61" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="61">
+      <c r="C61" s="58"/>
+      <c r="D61" s="59">
         <v>3299</v>
       </c>
-      <c r="E61" s="46">
+      <c r="E61" s="45">
         <v>3299</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F61" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G61" s="48"/>
-      <c r="H61" s="31" t="s">
+      <c r="G61" s="34"/>
+      <c r="H61" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="I61" s="63"/>
+      <c r="I61" s="61"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="45">
+      <c r="C62" s="43"/>
+      <c r="D62" s="44">
         <v>1399</v>
       </c>
-      <c r="E62" s="46">
+      <c r="E62" s="45">
         <v>1399</v>
       </c>
-      <c r="F62" s="54" t="s">
+      <c r="F62" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="G62" s="48"/>
+      <c r="G62" s="34"/>
       <c r="H62" s="12"/>
-      <c r="I62" s="63"/>
+      <c r="I62" s="61"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="45">
+      <c r="C63" s="43"/>
+      <c r="D63" s="44">
         <v>1399</v>
       </c>
-      <c r="E63" s="46">
+      <c r="E63" s="45">
         <v>1399</v>
       </c>
-      <c r="F63" s="54" t="s">
+      <c r="F63" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="G63" s="48"/>
+      <c r="G63" s="34"/>
       <c r="H63" s="12"/>
-      <c r="I63" s="63"/>
+      <c r="I63" s="61"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="61">
+      <c r="C64" s="58"/>
+      <c r="D64" s="59">
         <v>1199</v>
       </c>
-      <c r="E64" s="46">
+      <c r="E64" s="45">
         <v>1199</v>
       </c>
-      <c r="F64" s="54"/>
-      <c r="G64" s="48"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="34"/>
       <c r="H64" s="12"/>
-      <c r="I64" s="63"/>
+      <c r="I64" s="61"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61">
+      <c r="C65" s="58"/>
+      <c r="D65" s="59">
         <v>1199</v>
       </c>
-      <c r="E65" s="46">
+      <c r="E65" s="45">
         <v>1199</v>
       </c>
-      <c r="F65" s="54"/>
-      <c r="G65" s="48"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="34"/>
       <c r="H65" s="12"/>
-      <c r="I65" s="63"/>
+      <c r="I65" s="61"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="55">
+      <c r="C66" s="43"/>
+      <c r="D66" s="53">
         <v>749</v>
       </c>
-      <c r="E66" s="56">
+      <c r="E66" s="54">
         <v>749</v>
       </c>
-      <c r="F66" s="54"/>
-      <c r="G66" s="48"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="34"/>
       <c r="H66" s="12"/>
-      <c r="I66" s="63"/>
+      <c r="I66" s="61"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="44"/>
-      <c r="D67" s="55">
+      <c r="C67" s="43"/>
+      <c r="D67" s="53">
         <v>749</v>
       </c>
-      <c r="E67" s="56">
+      <c r="E67" s="54">
         <v>749</v>
       </c>
-      <c r="F67" s="54"/>
-      <c r="G67" s="48"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="34"/>
       <c r="H67" s="12"/>
-      <c r="I67" s="63"/>
+      <c r="I67" s="61"/>
     </row>
     <row r="68" ht="141.75" spans="1:9">
       <c r="A68" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="45">
+      <c r="C68" s="43"/>
+      <c r="D68" s="44">
         <v>3699</v>
       </c>
-      <c r="E68" s="46">
+      <c r="E68" s="45">
         <v>3699</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G68" s="48"/>
-      <c r="H68" s="25" t="s">
+      <c r="G68" s="34"/>
+      <c r="H68" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I68" s="63"/>
+      <c r="I68" s="61"/>
     </row>
     <row r="69" ht="141.75" spans="1:9">
       <c r="A69" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="45">
+      <c r="C69" s="43"/>
+      <c r="D69" s="44">
         <v>3699</v>
       </c>
-      <c r="E69" s="46">
+      <c r="E69" s="45">
         <v>3699</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G69" s="48"/>
-      <c r="H69" s="25" t="s">
+      <c r="G69" s="34"/>
+      <c r="H69" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="I69" s="63"/>
+      <c r="I69" s="61"/>
     </row>
     <row r="70" ht="141.75" spans="1:9">
       <c r="A70" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="45">
+      <c r="C70" s="43"/>
+      <c r="D70" s="44">
         <v>4899</v>
       </c>
-      <c r="E70" s="46">
+      <c r="E70" s="45">
         <v>4899</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G70" s="48"/>
-      <c r="H70" s="25" t="s">
+      <c r="G70" s="34"/>
+      <c r="H70" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="I70" s="63"/>
+      <c r="I70" s="61"/>
     </row>
     <row r="71" ht="141.75" spans="1:9">
       <c r="A71" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="45">
+      <c r="C71" s="43"/>
+      <c r="D71" s="44">
         <v>4899</v>
       </c>
-      <c r="E71" s="46">
+      <c r="E71" s="45">
         <v>4899</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G71" s="48"/>
-      <c r="H71" s="25" t="s">
+      <c r="G71" s="34"/>
+      <c r="H71" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="I71" s="63"/>
+      <c r="I71" s="61"/>
     </row>
     <row r="72" ht="141.75" spans="1:9">
       <c r="A72" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="45">
+      <c r="C72" s="50"/>
+      <c r="D72" s="44">
         <v>6599</v>
       </c>
-      <c r="E72" s="46">
+      <c r="E72" s="45">
         <v>6599</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G72" s="48"/>
-      <c r="H72" s="25" t="s">
+      <c r="G72" s="34"/>
+      <c r="H72" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="I72" s="63"/>
+      <c r="I72" s="61"/>
     </row>
     <row r="73" ht="94.5" spans="1:9">
       <c r="A73" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="52"/>
-      <c r="D73" s="45">
+      <c r="C73" s="50"/>
+      <c r="D73" s="44">
         <v>5199</v>
       </c>
-      <c r="E73" s="46">
+      <c r="E73" s="45">
         <v>5199</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G73" s="48"/>
-      <c r="H73" s="25" t="s">
+      <c r="G73" s="34"/>
+      <c r="H73" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I73" s="63"/>
+      <c r="I73" s="61"/>
     </row>
     <row r="74" ht="94.5" spans="1:9">
       <c r="A74" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="52"/>
-      <c r="D74" s="45">
+      <c r="C74" s="50"/>
+      <c r="D74" s="44">
         <v>5199</v>
       </c>
-      <c r="E74" s="46">
+      <c r="E74" s="45">
         <v>5199</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G74" s="48"/>
-      <c r="H74" s="25" t="s">
+      <c r="G74" s="34"/>
+      <c r="H74" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="I74" s="63"/>
+      <c r="I74" s="61"/>
     </row>
     <row r="75" ht="31.5" spans="1:9">
       <c r="A75" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="45">
+      <c r="C75" s="43"/>
+      <c r="D75" s="44">
         <v>3799</v>
       </c>
-      <c r="E75" s="46">
+      <c r="E75" s="45">
         <v>3799</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F75" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="G75" s="48"/>
-      <c r="H75" s="25" t="s">
+      <c r="G75" s="34"/>
+      <c r="H75" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="I75" s="63"/>
+      <c r="I75" s="61"/>
     </row>
     <row r="76" ht="31.5" spans="1:9">
       <c r="A76" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="45">
+      <c r="C76" s="43"/>
+      <c r="D76" s="44">
         <v>3799</v>
       </c>
-      <c r="E76" s="46">
+      <c r="E76" s="45">
         <v>3799</v>
       </c>
-      <c r="F76" s="23" t="s">
+      <c r="F76" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="G76" s="48"/>
-      <c r="H76" s="25" t="s">
+      <c r="G76" s="34"/>
+      <c r="H76" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="I76" s="63"/>
+      <c r="I76" s="61"/>
     </row>
     <row r="77" ht="31.5" spans="1:9">
       <c r="A77" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="C77" s="44"/>
-      <c r="D77" s="45">
+      <c r="C77" s="43"/>
+      <c r="D77" s="44">
         <v>3799</v>
       </c>
-      <c r="E77" s="46">
+      <c r="E77" s="45">
         <v>3799</v>
       </c>
-      <c r="F77" s="23" t="s">
+      <c r="F77" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="G77" s="48"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="63"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="61"/>
     </row>
     <row r="78" ht="31.5" spans="1:9">
       <c r="A78" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="C78" s="44"/>
-      <c r="D78" s="45">
+      <c r="C78" s="43"/>
+      <c r="D78" s="44">
         <v>3499</v>
       </c>
-      <c r="E78" s="46">
+      <c r="E78" s="45">
         <v>3499</v>
       </c>
-      <c r="F78" s="23" t="s">
+      <c r="F78" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G78" s="48"/>
-      <c r="H78" s="25" t="s">
+      <c r="G78" s="34"/>
+      <c r="H78" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="I78" s="63"/>
+      <c r="I78" s="61"/>
     </row>
     <row r="79" ht="31.5" spans="1:9">
       <c r="A79" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="45">
+      <c r="C79" s="43"/>
+      <c r="D79" s="44">
         <v>3499</v>
       </c>
-      <c r="E79" s="46">
+      <c r="E79" s="45">
         <v>3499</v>
       </c>
-      <c r="F79" s="23" t="s">
+      <c r="F79" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G79" s="48"/>
-      <c r="H79" s="25" t="s">
+      <c r="G79" s="34"/>
+      <c r="H79" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="I79" s="63"/>
+      <c r="I79" s="61"/>
     </row>
     <row r="80" ht="31.5" spans="1:9">
       <c r="A80" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="C80" s="44"/>
-      <c r="D80" s="45">
+      <c r="C80" s="43"/>
+      <c r="D80" s="44">
         <v>3499</v>
       </c>
-      <c r="E80" s="46">
+      <c r="E80" s="45">
         <v>3499</v>
       </c>
-      <c r="F80" s="23" t="s">
+      <c r="F80" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G80" s="48"/>
-      <c r="H80" s="25" t="s">
+      <c r="G80" s="34"/>
+      <c r="H80" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="I80" s="63"/>
+      <c r="I80" s="61"/>
     </row>
     <row r="81" ht="47.25" spans="1:9">
       <c r="A81" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="65" t="s">
+      <c r="B81" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="38"/>
-      <c r="D81" s="66">
+      <c r="C81" s="37"/>
+      <c r="D81" s="64">
         <v>4999</v>
       </c>
-      <c r="E81" s="46">
+      <c r="E81" s="45">
         <v>4349</v>
       </c>
-      <c r="F81" s="23" t="s">
+      <c r="F81" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G81" s="67">
+      <c r="G81" s="65">
         <v>200</v>
       </c>
-      <c r="H81" s="68" t="s">
+      <c r="H81" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="I81" s="63">
+      <c r="I81" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -4733,26 +4695,26 @@
       <c r="A82" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B82" s="65" t="s">
+      <c r="B82" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="C82" s="38"/>
-      <c r="D82" s="66">
+      <c r="C82" s="37"/>
+      <c r="D82" s="64">
         <v>4999</v>
       </c>
-      <c r="E82" s="46">
+      <c r="E82" s="45">
         <v>4349</v>
       </c>
-      <c r="F82" s="23" t="s">
+      <c r="F82" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G82" s="67">
+      <c r="G82" s="65">
         <v>200</v>
       </c>
-      <c r="H82" s="68" t="s">
+      <c r="H82" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="I82" s="63">
+      <c r="I82" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -4760,26 +4722,26 @@
       <c r="A83" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B83" s="65" t="s">
+      <c r="B83" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="66">
+      <c r="C83" s="37"/>
+      <c r="D83" s="64">
         <v>4999</v>
       </c>
-      <c r="E83" s="46">
+      <c r="E83" s="45">
         <v>4349</v>
       </c>
-      <c r="F83" s="23" t="s">
+      <c r="F83" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G83" s="67">
+      <c r="G83" s="65">
         <v>200</v>
       </c>
-      <c r="H83" s="68" t="s">
+      <c r="H83" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="I83" s="63">
+      <c r="I83" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -4787,26 +4749,26 @@
       <c r="A84" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B84" s="65" t="s">
+      <c r="B84" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="66">
+      <c r="C84" s="37"/>
+      <c r="D84" s="64">
         <v>4999</v>
       </c>
-      <c r="E84" s="46">
+      <c r="E84" s="45">
         <v>4349</v>
       </c>
-      <c r="F84" s="23" t="s">
+      <c r="F84" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G84" s="67">
+      <c r="G84" s="65">
         <v>200</v>
       </c>
-      <c r="H84" s="68" t="s">
+      <c r="H84" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="I84" s="63">
+      <c r="I84" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -4814,26 +4776,26 @@
       <c r="A85" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="C85" s="38"/>
-      <c r="D85" s="66">
+      <c r="C85" s="37"/>
+      <c r="D85" s="64">
         <v>5599</v>
       </c>
-      <c r="E85" s="46">
+      <c r="E85" s="45">
         <v>4949</v>
       </c>
-      <c r="F85" s="23" t="s">
+      <c r="F85" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G85" s="67">
+      <c r="G85" s="65">
         <v>200</v>
       </c>
-      <c r="H85" s="68" t="s">
+      <c r="H85" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="I85" s="63">
+      <c r="I85" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -4841,26 +4803,26 @@
       <c r="A86" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B86" s="65" t="s">
+      <c r="B86" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="C86" s="38"/>
-      <c r="D86" s="66">
+      <c r="C86" s="37"/>
+      <c r="D86" s="64">
         <v>5599</v>
       </c>
-      <c r="E86" s="46">
+      <c r="E86" s="45">
         <v>4949</v>
       </c>
-      <c r="F86" s="23" t="s">
+      <c r="F86" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G86" s="67">
+      <c r="G86" s="65">
         <v>200</v>
       </c>
-      <c r="H86" s="68" t="s">
+      <c r="H86" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="I86" s="63">
+      <c r="I86" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -4868,26 +4830,26 @@
       <c r="A87" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="65" t="s">
+      <c r="B87" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C87" s="38"/>
-      <c r="D87" s="66">
+      <c r="C87" s="37"/>
+      <c r="D87" s="64">
         <v>5599</v>
       </c>
-      <c r="E87" s="46">
+      <c r="E87" s="45">
         <v>4949</v>
       </c>
-      <c r="F87" s="23" t="s">
+      <c r="F87" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G87" s="67">
+      <c r="G87" s="65">
         <v>200</v>
       </c>
-      <c r="H87" s="68" t="s">
+      <c r="H87" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="I87" s="63">
+      <c r="I87" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -4895,26 +4857,26 @@
       <c r="A88" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B88" s="65" t="s">
+      <c r="B88" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="38"/>
-      <c r="D88" s="66">
+      <c r="C88" s="37"/>
+      <c r="D88" s="64">
         <v>5599</v>
       </c>
-      <c r="E88" s="46">
+      <c r="E88" s="45">
         <v>4949</v>
       </c>
-      <c r="F88" s="23" t="s">
+      <c r="F88" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G88" s="67">
+      <c r="G88" s="65">
         <v>200</v>
       </c>
-      <c r="H88" s="68" t="s">
+      <c r="H88" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="I88" s="63">
+      <c r="I88" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -4922,26 +4884,26 @@
       <c r="A89" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B89" s="69" t="s">
+      <c r="B89" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="C89" s="38"/>
-      <c r="D89" s="61">
+      <c r="C89" s="37"/>
+      <c r="D89" s="59">
         <v>7299</v>
       </c>
-      <c r="E89" s="46">
+      <c r="E89" s="45">
         <v>6349</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="F89" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G89" s="70">
+      <c r="G89" s="68">
         <v>200</v>
       </c>
       <c r="H89" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="I89" s="63">
+      <c r="I89" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -4949,26 +4911,26 @@
       <c r="A90" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B90" s="69" t="s">
+      <c r="B90" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="C90" s="38"/>
-      <c r="D90" s="61">
+      <c r="C90" s="37"/>
+      <c r="D90" s="59">
         <v>7299</v>
       </c>
-      <c r="E90" s="46">
+      <c r="E90" s="45">
         <v>6349</v>
       </c>
-      <c r="F90" s="23" t="s">
+      <c r="F90" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G90" s="70">
+      <c r="G90" s="68">
         <v>200</v>
       </c>
       <c r="H90" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="I90" s="63">
+      <c r="I90" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -4976,26 +4938,26 @@
       <c r="A91" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B91" s="69" t="s">
+      <c r="B91" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="38"/>
-      <c r="D91" s="61">
+      <c r="C91" s="37"/>
+      <c r="D91" s="59">
         <v>7299</v>
       </c>
-      <c r="E91" s="46">
+      <c r="E91" s="45">
         <v>6349</v>
       </c>
-      <c r="F91" s="23" t="s">
+      <c r="F91" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G91" s="70">
+      <c r="G91" s="68">
         <v>200</v>
       </c>
       <c r="H91" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="I91" s="63">
+      <c r="I91" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5003,26 +4965,26 @@
       <c r="A92" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B92" s="69" t="s">
+      <c r="B92" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="C92" s="38"/>
-      <c r="D92" s="61">
+      <c r="C92" s="37"/>
+      <c r="D92" s="59">
         <v>7899</v>
       </c>
-      <c r="E92" s="46">
+      <c r="E92" s="45">
         <v>6899</v>
       </c>
-      <c r="F92" s="23" t="s">
+      <c r="F92" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G92" s="70">
+      <c r="G92" s="68">
         <v>200</v>
       </c>
       <c r="H92" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="I92" s="63">
+      <c r="I92" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5030,26 +4992,26 @@
       <c r="A93" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B93" s="69" t="s">
+      <c r="B93" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="61">
+      <c r="C93" s="37"/>
+      <c r="D93" s="59">
         <v>7899</v>
       </c>
-      <c r="E93" s="46">
+      <c r="E93" s="45">
         <v>6899</v>
       </c>
-      <c r="F93" s="23" t="s">
+      <c r="F93" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G93" s="70">
+      <c r="G93" s="68">
         <v>200</v>
       </c>
       <c r="H93" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="I93" s="63">
+      <c r="I93" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5057,26 +5019,26 @@
       <c r="A94" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B94" s="69" t="s">
+      <c r="B94" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="C94" s="38"/>
-      <c r="D94" s="61">
+      <c r="C94" s="37"/>
+      <c r="D94" s="59">
         <v>7899</v>
       </c>
-      <c r="E94" s="46">
+      <c r="E94" s="45">
         <v>6899</v>
       </c>
-      <c r="F94" s="23" t="s">
+      <c r="F94" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G94" s="70">
+      <c r="G94" s="68">
         <v>200</v>
       </c>
       <c r="H94" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I94" s="63">
+      <c r="I94" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5084,26 +5046,26 @@
       <c r="A95" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B95" s="69" t="s">
+      <c r="B95" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="38"/>
-      <c r="D95" s="61">
+      <c r="C95" s="37"/>
+      <c r="D95" s="59">
         <v>9099</v>
       </c>
-      <c r="E95" s="46">
+      <c r="E95" s="45">
         <v>7999</v>
       </c>
-      <c r="F95" s="23" t="s">
+      <c r="F95" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G95" s="70">
+      <c r="G95" s="68">
         <v>200</v>
       </c>
       <c r="H95" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="I95" s="63">
+      <c r="I95" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5111,26 +5073,26 @@
       <c r="A96" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B96" s="69" t="s">
+      <c r="B96" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="C96" s="38"/>
-      <c r="D96" s="61">
+      <c r="C96" s="37"/>
+      <c r="D96" s="59">
         <v>9099</v>
       </c>
-      <c r="E96" s="46">
+      <c r="E96" s="45">
         <v>7999</v>
       </c>
-      <c r="F96" s="23" t="s">
+      <c r="F96" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G96" s="70">
+      <c r="G96" s="68">
         <v>200</v>
       </c>
       <c r="H96" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="I96" s="63">
+      <c r="I96" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5138,26 +5100,26 @@
       <c r="A97" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B97" s="69" t="s">
+      <c r="B97" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="C97" s="38"/>
-      <c r="D97" s="61">
+      <c r="C97" s="37"/>
+      <c r="D97" s="59">
         <v>9099</v>
       </c>
-      <c r="E97" s="46">
+      <c r="E97" s="45">
         <v>7999</v>
       </c>
-      <c r="F97" s="23" t="s">
+      <c r="F97" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G97" s="70">
+      <c r="G97" s="68">
         <v>200</v>
       </c>
       <c r="H97" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="I97" s="63">
+      <c r="I97" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5168,23 +5130,23 @@
       <c r="B98" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="66">
+      <c r="C98" s="69"/>
+      <c r="D98" s="64">
         <v>7799</v>
       </c>
-      <c r="E98" s="46">
+      <c r="E98" s="45">
         <v>6899</v>
       </c>
-      <c r="F98" s="54" t="s">
+      <c r="F98" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G98" s="70">
+      <c r="G98" s="68">
         <v>400</v>
       </c>
-      <c r="H98" s="72" t="s">
+      <c r="H98" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="I98" s="63">
+      <c r="I98" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5195,23 +5157,23 @@
       <c r="B99" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C99" s="71"/>
-      <c r="D99" s="66">
+      <c r="C99" s="69"/>
+      <c r="D99" s="64">
         <v>7799</v>
       </c>
-      <c r="E99" s="46">
+      <c r="E99" s="45">
         <v>6899</v>
       </c>
-      <c r="F99" s="54" t="s">
+      <c r="F99" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G99" s="70">
+      <c r="G99" s="68">
         <v>400</v>
       </c>
-      <c r="H99" s="72" t="s">
+      <c r="H99" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="I99" s="63">
+      <c r="I99" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5222,23 +5184,23 @@
       <c r="B100" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C100" s="71"/>
-      <c r="D100" s="66">
+      <c r="C100" s="69"/>
+      <c r="D100" s="64">
         <v>7799</v>
       </c>
-      <c r="E100" s="46">
+      <c r="E100" s="45">
         <v>6899</v>
       </c>
-      <c r="F100" s="54" t="s">
+      <c r="F100" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G100" s="70">
+      <c r="G100" s="68">
         <v>400</v>
       </c>
-      <c r="H100" s="72" t="s">
+      <c r="H100" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="I100" s="63">
+      <c r="I100" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5249,23 +5211,23 @@
       <c r="B101" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C101" s="71"/>
-      <c r="D101" s="66">
+      <c r="C101" s="69"/>
+      <c r="D101" s="64">
         <v>7799</v>
       </c>
-      <c r="E101" s="46">
+      <c r="E101" s="45">
         <v>6899</v>
       </c>
-      <c r="F101" s="54" t="s">
+      <c r="F101" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G101" s="70">
+      <c r="G101" s="68">
         <v>400</v>
       </c>
-      <c r="H101" s="72" t="s">
+      <c r="H101" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="I101" s="63">
+      <c r="I101" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5276,25 +5238,25 @@
       <c r="B102" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C102" s="73">
+      <c r="C102" s="71">
         <v>0.03</v>
       </c>
-      <c r="D102" s="66">
+      <c r="D102" s="64">
         <v>6799</v>
       </c>
-      <c r="E102" s="46">
-        <v>5799</v>
-      </c>
-      <c r="F102" s="23" t="s">
+      <c r="E102" s="45">
+        <v>5899</v>
+      </c>
+      <c r="F102" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G102" s="70">
-        <v>400</v>
-      </c>
-      <c r="H102" s="68" t="s">
+      <c r="G102" s="68">
+        <v>300</v>
+      </c>
+      <c r="H102" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="I102" s="63">
+      <c r="I102" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5305,25 +5267,25 @@
       <c r="B103" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C103" s="73">
+      <c r="C103" s="71">
         <v>0.03</v>
       </c>
-      <c r="D103" s="66">
+      <c r="D103" s="64">
         <v>6799</v>
       </c>
-      <c r="E103" s="46">
+      <c r="E103" s="45">
         <v>5899</v>
       </c>
-      <c r="F103" s="23" t="s">
+      <c r="F103" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G103" s="70">
+      <c r="G103" s="68">
         <v>300</v>
       </c>
-      <c r="H103" s="68" t="s">
+      <c r="H103" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="I103" s="63">
+      <c r="I103" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5334,25 +5296,25 @@
       <c r="B104" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C104" s="73">
+      <c r="C104" s="71">
         <v>0.03</v>
       </c>
-      <c r="D104" s="66">
+      <c r="D104" s="64">
         <v>6799</v>
       </c>
-      <c r="E104" s="46">
+      <c r="E104" s="45">
         <v>5899</v>
       </c>
-      <c r="F104" s="23" t="s">
+      <c r="F104" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G104" s="70">
+      <c r="G104" s="68">
         <v>300</v>
       </c>
-      <c r="H104" s="68" t="s">
+      <c r="H104" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="I104" s="63">
+      <c r="I104" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5363,25 +5325,25 @@
       <c r="B105" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="73">
+      <c r="C105" s="71">
         <v>0.03</v>
       </c>
-      <c r="D105" s="66">
+      <c r="D105" s="64">
         <v>6799</v>
       </c>
-      <c r="E105" s="46">
+      <c r="E105" s="45">
         <v>5899</v>
       </c>
-      <c r="F105" s="23" t="s">
+      <c r="F105" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G105" s="70">
+      <c r="G105" s="68">
         <v>300</v>
       </c>
-      <c r="H105" s="68" t="s">
+      <c r="H105" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="I105" s="63">
+      <c r="I105" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5392,25 +5354,25 @@
       <c r="B106" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C106" s="73">
+      <c r="C106" s="71">
         <v>0.03</v>
       </c>
-      <c r="D106" s="66">
+      <c r="D106" s="64">
         <v>6799</v>
       </c>
-      <c r="E106" s="46">
+      <c r="E106" s="45">
         <v>5899</v>
       </c>
-      <c r="F106" s="23" t="s">
+      <c r="F106" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G106" s="70">
+      <c r="G106" s="68">
         <v>300</v>
       </c>
-      <c r="H106" s="68" t="s">
+      <c r="H106" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="I106" s="63">
+      <c r="I106" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5421,25 +5383,25 @@
       <c r="B107" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C107" s="73">
+      <c r="C107" s="71">
         <v>0.03</v>
       </c>
-      <c r="D107" s="66">
+      <c r="D107" s="64">
         <v>6299</v>
       </c>
-      <c r="E107" s="46">
+      <c r="E107" s="45">
         <v>5399</v>
       </c>
-      <c r="F107" s="23" t="s">
+      <c r="F107" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G107" s="70">
+      <c r="G107" s="68">
         <v>300</v>
       </c>
-      <c r="H107" s="68" t="s">
+      <c r="H107" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="I107" s="63">
+      <c r="I107" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5450,25 +5412,25 @@
       <c r="B108" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="73">
+      <c r="C108" s="71">
         <v>0.03</v>
       </c>
-      <c r="D108" s="66">
+      <c r="D108" s="64">
         <v>6299</v>
       </c>
-      <c r="E108" s="46">
+      <c r="E108" s="45">
         <v>5399</v>
       </c>
-      <c r="F108" s="23" t="s">
+      <c r="F108" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G108" s="70">
+      <c r="G108" s="68">
         <v>300</v>
       </c>
-      <c r="H108" s="68" t="s">
+      <c r="H108" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="I108" s="63">
+      <c r="I108" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5479,25 +5441,25 @@
       <c r="B109" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C109" s="73">
+      <c r="C109" s="71">
         <v>0.03</v>
       </c>
-      <c r="D109" s="66">
+      <c r="D109" s="64">
         <v>6299</v>
       </c>
-      <c r="E109" s="46">
+      <c r="E109" s="45">
         <v>5399</v>
       </c>
-      <c r="F109" s="23" t="s">
+      <c r="F109" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G109" s="70">
+      <c r="G109" s="68">
         <v>300</v>
       </c>
-      <c r="H109" s="68" t="s">
+      <c r="H109" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="I109" s="63">
+      <c r="I109" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5508,25 +5470,25 @@
       <c r="B110" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C110" s="73">
+      <c r="C110" s="71">
         <v>0.03</v>
       </c>
-      <c r="D110" s="66">
+      <c r="D110" s="64">
         <v>6299</v>
       </c>
-      <c r="E110" s="46">
+      <c r="E110" s="45">
         <v>5399</v>
       </c>
-      <c r="F110" s="23" t="s">
+      <c r="F110" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G110" s="70">
+      <c r="G110" s="68">
         <v>300</v>
       </c>
-      <c r="H110" s="68" t="s">
+      <c r="H110" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="I110" s="63">
+      <c r="I110" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5534,28 +5496,28 @@
       <c r="A111" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="59" t="s">
+      <c r="B111" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="C111" s="73">
+      <c r="C111" s="71">
         <v>0.03</v>
       </c>
-      <c r="D111" s="61">
+      <c r="D111" s="59">
         <v>5399</v>
       </c>
-      <c r="E111" s="46">
+      <c r="E111" s="45">
         <v>4499</v>
       </c>
-      <c r="F111" s="23" t="s">
+      <c r="F111" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G111" s="70">
+      <c r="G111" s="68">
         <v>300</v>
       </c>
       <c r="H111" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="I111" s="63">
+      <c r="I111" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5563,28 +5525,28 @@
       <c r="A112" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B112" s="59" t="s">
+      <c r="B112" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="C112" s="73">
+      <c r="C112" s="71">
         <v>0.03</v>
       </c>
-      <c r="D112" s="61">
+      <c r="D112" s="59">
         <v>5399</v>
       </c>
-      <c r="E112" s="46">
+      <c r="E112" s="45">
         <v>4499</v>
       </c>
-      <c r="F112" s="23" t="s">
+      <c r="F112" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G112" s="70">
+      <c r="G112" s="68">
         <v>300</v>
       </c>
       <c r="H112" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="I112" s="63">
+      <c r="I112" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5592,28 +5554,28 @@
       <c r="A113" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B113" s="59" t="s">
+      <c r="B113" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="C113" s="73">
+      <c r="C113" s="71">
         <v>0.03</v>
       </c>
-      <c r="D113" s="61">
+      <c r="D113" s="59">
         <v>5399</v>
       </c>
-      <c r="E113" s="46">
+      <c r="E113" s="45">
         <v>4499</v>
       </c>
-      <c r="F113" s="23" t="s">
+      <c r="F113" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G113" s="70">
+      <c r="G113" s="68">
         <v>300</v>
       </c>
       <c r="H113" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="I113" s="63">
+      <c r="I113" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5621,28 +5583,28 @@
       <c r="A114" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B114" s="59" t="s">
+      <c r="B114" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="C114" s="73">
+      <c r="C114" s="71">
         <v>0.03</v>
       </c>
-      <c r="D114" s="61">
+      <c r="D114" s="59">
         <v>5399</v>
       </c>
-      <c r="E114" s="46">
+      <c r="E114" s="45">
         <v>4499</v>
       </c>
-      <c r="F114" s="23" t="s">
+      <c r="F114" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G114" s="70">
+      <c r="G114" s="68">
         <v>300</v>
       </c>
       <c r="H114" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="I114" s="63">
+      <c r="I114" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5650,28 +5612,28 @@
       <c r="A115" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B115" s="59" t="s">
+      <c r="B115" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="C115" s="73">
+      <c r="C115" s="71">
         <v>0.03</v>
       </c>
-      <c r="D115" s="61">
+      <c r="D115" s="59">
         <v>4899</v>
       </c>
-      <c r="E115" s="46">
+      <c r="E115" s="45">
         <v>3999</v>
       </c>
-      <c r="F115" s="23" t="s">
+      <c r="F115" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G115" s="70">
+      <c r="G115" s="68">
         <v>300</v>
       </c>
       <c r="H115" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="I115" s="63">
+      <c r="I115" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5679,28 +5641,28 @@
       <c r="A116" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B116" s="59" t="s">
+      <c r="B116" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="C116" s="73">
+      <c r="C116" s="71">
         <v>0.03</v>
       </c>
-      <c r="D116" s="61">
+      <c r="D116" s="59">
         <v>4899</v>
       </c>
-      <c r="E116" s="46">
+      <c r="E116" s="45">
         <v>3999</v>
       </c>
-      <c r="F116" s="23" t="s">
+      <c r="F116" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G116" s="70">
+      <c r="G116" s="68">
         <v>300</v>
       </c>
       <c r="H116" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="I116" s="63">
+      <c r="I116" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5708,28 +5670,28 @@
       <c r="A117" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B117" s="59" t="s">
+      <c r="B117" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="C117" s="73">
+      <c r="C117" s="71">
         <v>0.03</v>
       </c>
-      <c r="D117" s="61">
+      <c r="D117" s="59">
         <v>4899</v>
       </c>
-      <c r="E117" s="46">
+      <c r="E117" s="45">
         <v>3999</v>
       </c>
-      <c r="F117" s="23" t="s">
+      <c r="F117" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G117" s="70">
+      <c r="G117" s="68">
         <v>300</v>
       </c>
       <c r="H117" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="I117" s="63">
+      <c r="I117" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5737,28 +5699,28 @@
       <c r="A118" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B118" s="59" t="s">
+      <c r="B118" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="C118" s="73">
+      <c r="C118" s="71">
         <v>0.03</v>
       </c>
-      <c r="D118" s="61">
+      <c r="D118" s="59">
         <v>4899</v>
       </c>
-      <c r="E118" s="46">
+      <c r="E118" s="45">
         <v>3999</v>
       </c>
-      <c r="F118" s="23" t="s">
+      <c r="F118" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G118" s="70">
+      <c r="G118" s="68">
         <v>300</v>
       </c>
       <c r="H118" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="I118" s="63">
+      <c r="I118" s="61">
         <v>45557</v>
       </c>
     </row>
@@ -5769,25 +5731,25 @@
       <c r="B119" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C119" s="73">
+      <c r="C119" s="71">
         <v>0.03</v>
       </c>
-      <c r="D119" s="66">
+      <c r="D119" s="64">
         <v>4599</v>
       </c>
-      <c r="E119" s="46">
+      <c r="E119" s="45">
         <v>3969</v>
       </c>
-      <c r="F119" s="54" t="s">
+      <c r="F119" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G119" s="70">
+      <c r="G119" s="68">
         <v>130</v>
       </c>
-      <c r="H119" s="72" t="s">
+      <c r="H119" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="I119" s="63"/>
+      <c r="I119" s="61"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="12" t="s">
@@ -5796,25 +5758,25 @@
       <c r="B120" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C120" s="73">
+      <c r="C120" s="71">
         <v>0.03</v>
       </c>
-      <c r="D120" s="66">
+      <c r="D120" s="64">
         <v>4599</v>
       </c>
-      <c r="E120" s="46">
+      <c r="E120" s="45">
         <v>3969</v>
       </c>
-      <c r="F120" s="54" t="s">
+      <c r="F120" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G120" s="70">
+      <c r="G120" s="68">
         <v>130</v>
       </c>
-      <c r="H120" s="72" t="s">
+      <c r="H120" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="I120" s="63"/>
+      <c r="I120" s="61"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="12" t="s">
@@ -5823,25 +5785,25 @@
       <c r="B121" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="C121" s="73">
+      <c r="C121" s="71">
         <v>0.03</v>
       </c>
-      <c r="D121" s="66">
+      <c r="D121" s="64">
         <v>4599</v>
       </c>
-      <c r="E121" s="46">
+      <c r="E121" s="45">
         <v>3969</v>
       </c>
-      <c r="F121" s="54" t="s">
+      <c r="F121" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G121" s="70">
+      <c r="G121" s="68">
         <v>130</v>
       </c>
-      <c r="H121" s="72" t="s">
+      <c r="H121" s="70" t="s">
         <v>257</v>
       </c>
-      <c r="I121" s="63"/>
+      <c r="I121" s="61"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="12" t="s">
@@ -5850,25 +5812,25 @@
       <c r="B122" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C122" s="73">
+      <c r="C122" s="71">
         <v>0.03</v>
       </c>
-      <c r="D122" s="66">
+      <c r="D122" s="64">
         <v>4599</v>
       </c>
-      <c r="E122" s="46">
+      <c r="E122" s="45">
         <v>3969</v>
       </c>
-      <c r="F122" s="54" t="s">
+      <c r="F122" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G122" s="70">
+      <c r="G122" s="68">
         <v>130</v>
       </c>
-      <c r="H122" s="72" t="s">
+      <c r="H122" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="I122" s="63"/>
+      <c r="I122" s="61"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="12" t="s">
@@ -5877,25 +5839,25 @@
       <c r="B123" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="C123" s="74">
+      <c r="C123" s="72">
         <v>0.15</v>
       </c>
-      <c r="D123" s="66">
+      <c r="D123" s="64">
         <v>4099</v>
       </c>
-      <c r="E123" s="46">
+      <c r="E123" s="45">
         <v>3399</v>
       </c>
-      <c r="F123" s="54" t="s">
+      <c r="F123" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G123" s="70">
+      <c r="G123" s="68">
         <v>200</v>
       </c>
-      <c r="H123" s="72" t="s">
+      <c r="H123" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="I123" s="63"/>
+      <c r="I123" s="61"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="12" t="s">
@@ -5904,25 +5866,25 @@
       <c r="B124" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C124" s="74">
+      <c r="C124" s="72">
         <v>0.15</v>
       </c>
-      <c r="D124" s="66">
+      <c r="D124" s="64">
         <v>4099</v>
       </c>
-      <c r="E124" s="46">
+      <c r="E124" s="45">
         <v>3399</v>
       </c>
-      <c r="F124" s="54" t="s">
+      <c r="F124" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G124" s="70">
+      <c r="G124" s="68">
         <v>200</v>
       </c>
-      <c r="H124" s="72" t="s">
+      <c r="H124" s="70" t="s">
         <v>263</v>
       </c>
-      <c r="I124" s="63"/>
+      <c r="I124" s="61"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="12" t="s">
@@ -5931,25 +5893,25 @@
       <c r="B125" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C125" s="74">
+      <c r="C125" s="72">
         <v>0.15</v>
       </c>
-      <c r="D125" s="66">
+      <c r="D125" s="64">
         <v>4099</v>
       </c>
-      <c r="E125" s="46">
+      <c r="E125" s="45">
         <v>3399</v>
       </c>
-      <c r="F125" s="54" t="s">
+      <c r="F125" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G125" s="70">
+      <c r="G125" s="68">
         <v>200</v>
       </c>
-      <c r="H125" s="72" t="s">
+      <c r="H125" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="I125" s="63"/>
+      <c r="I125" s="61"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="12" t="s">
@@ -5958,25 +5920,25 @@
       <c r="B126" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="C126" s="74">
+      <c r="C126" s="72">
         <v>0.15</v>
       </c>
-      <c r="D126" s="66">
+      <c r="D126" s="64">
         <v>4099</v>
       </c>
-      <c r="E126" s="46">
+      <c r="E126" s="45">
         <v>3399</v>
       </c>
-      <c r="F126" s="54" t="s">
+      <c r="F126" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G126" s="70">
+      <c r="G126" s="68">
         <v>200</v>
       </c>
-      <c r="H126" s="72" t="s">
+      <c r="H126" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="I126" s="63"/>
+      <c r="I126" s="61"/>
     </row>
     <row r="127" ht="78.75" spans="1:9">
       <c r="A127" s="12" t="s">
@@ -5985,21 +5947,21 @@
       <c r="B127" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="C127" s="38"/>
-      <c r="D127" s="66">
+      <c r="C127" s="37"/>
+      <c r="D127" s="64">
         <v>5799</v>
       </c>
-      <c r="E127" s="46">
+      <c r="E127" s="45">
         <v>5499</v>
       </c>
-      <c r="F127" s="23" t="s">
+      <c r="F127" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="G127" s="48"/>
-      <c r="H127" s="72" t="s">
+      <c r="G127" s="34"/>
+      <c r="H127" s="70" t="s">
         <v>270</v>
       </c>
-      <c r="I127" s="63"/>
+      <c r="I127" s="61"/>
     </row>
     <row r="128" ht="78.75" spans="1:9">
       <c r="A128" s="12" t="s">
@@ -6008,21 +5970,21 @@
       <c r="B128" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C128" s="38"/>
-      <c r="D128" s="66">
+      <c r="C128" s="37"/>
+      <c r="D128" s="64">
         <v>5799</v>
       </c>
-      <c r="E128" s="46">
+      <c r="E128" s="45">
         <v>5499</v>
       </c>
-      <c r="F128" s="23" t="s">
+      <c r="F128" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="G128" s="48"/>
-      <c r="H128" s="72" t="s">
+      <c r="G128" s="34"/>
+      <c r="H128" s="70" t="s">
         <v>272</v>
       </c>
-      <c r="I128" s="63"/>
+      <c r="I128" s="61"/>
     </row>
     <row r="129" ht="78.75" spans="1:9">
       <c r="A129" s="12" t="s">
@@ -6031,21 +5993,21 @@
       <c r="B129" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C129" s="38"/>
-      <c r="D129" s="66">
+      <c r="C129" s="37"/>
+      <c r="D129" s="64">
         <v>5799</v>
       </c>
-      <c r="E129" s="46">
+      <c r="E129" s="45">
         <v>5499</v>
       </c>
-      <c r="F129" s="23" t="s">
+      <c r="F129" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="G129" s="48"/>
-      <c r="H129" s="72" t="s">
+      <c r="G129" s="34"/>
+      <c r="H129" s="70" t="s">
         <v>274</v>
       </c>
-      <c r="I129" s="63"/>
+      <c r="I129" s="61"/>
     </row>
     <row r="130" ht="78.75" spans="1:9">
       <c r="A130" s="12" t="s">
@@ -6054,194 +6016,194 @@
       <c r="B130" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C130" s="38"/>
-      <c r="D130" s="66">
+      <c r="C130" s="37"/>
+      <c r="D130" s="64">
         <v>5799</v>
       </c>
-      <c r="E130" s="46">
+      <c r="E130" s="45">
         <v>5499</v>
       </c>
-      <c r="F130" s="23" t="s">
+      <c r="F130" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="G130" s="48"/>
-      <c r="H130" s="72" t="s">
+      <c r="G130" s="34"/>
+      <c r="H130" s="70" t="s">
         <v>276</v>
       </c>
-      <c r="I130" s="63"/>
+      <c r="I130" s="61"/>
     </row>
     <row r="131" ht="78.75" spans="1:9">
       <c r="A131" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B131" s="59" t="s">
+      <c r="B131" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="C131" s="38"/>
-      <c r="D131" s="61">
+      <c r="C131" s="37"/>
+      <c r="D131" s="59">
         <v>5299</v>
       </c>
-      <c r="E131" s="46">
+      <c r="E131" s="45">
         <v>4999</v>
       </c>
-      <c r="F131" s="23" t="s">
+      <c r="F131" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="G131" s="48"/>
-      <c r="H131" s="75" t="s">
+      <c r="G131" s="34"/>
+      <c r="H131" s="73" t="s">
         <v>278</v>
       </c>
-      <c r="I131" s="63"/>
+      <c r="I131" s="61"/>
     </row>
     <row r="132" ht="78.75" spans="1:9">
       <c r="A132" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B132" s="59" t="s">
+      <c r="B132" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="C132" s="38"/>
-      <c r="D132" s="61">
+      <c r="C132" s="37"/>
+      <c r="D132" s="59">
         <v>5299</v>
       </c>
-      <c r="E132" s="46">
+      <c r="E132" s="45">
         <v>4999</v>
       </c>
-      <c r="F132" s="23" t="s">
+      <c r="F132" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="G132" s="48"/>
-      <c r="H132" s="75" t="s">
+      <c r="G132" s="34"/>
+      <c r="H132" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="I132" s="63"/>
+      <c r="I132" s="61"/>
     </row>
     <row r="133" ht="78.75" spans="1:9">
       <c r="A133" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B133" s="59" t="s">
+      <c r="B133" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="C133" s="38"/>
-      <c r="D133" s="61">
+      <c r="C133" s="37"/>
+      <c r="D133" s="59">
         <v>5299</v>
       </c>
-      <c r="E133" s="46">
+      <c r="E133" s="45">
         <v>4999</v>
       </c>
-      <c r="F133" s="23" t="s">
+      <c r="F133" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="G133" s="48"/>
-      <c r="H133" s="75" t="s">
+      <c r="G133" s="34"/>
+      <c r="H133" s="73" t="s">
         <v>282</v>
       </c>
-      <c r="I133" s="63"/>
+      <c r="I133" s="61"/>
     </row>
     <row r="134" ht="78.75" spans="1:9">
       <c r="A134" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B134" s="59" t="s">
+      <c r="B134" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="C134" s="38"/>
-      <c r="D134" s="61">
+      <c r="C134" s="37"/>
+      <c r="D134" s="59">
         <v>5299</v>
       </c>
-      <c r="E134" s="46">
+      <c r="E134" s="45">
         <v>4999</v>
       </c>
-      <c r="F134" s="23" t="s">
+      <c r="F134" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="G134" s="48"/>
-      <c r="H134" s="75" t="s">
+      <c r="G134" s="34"/>
+      <c r="H134" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="I134" s="63"/>
+      <c r="I134" s="61"/>
     </row>
     <row r="135" ht="31.5" spans="1:9">
       <c r="A135" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B135" s="59" t="s">
+      <c r="B135" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="C135" s="76">
+      <c r="C135" s="74">
         <v>0.03</v>
       </c>
-      <c r="D135" s="61">
+      <c r="D135" s="59">
         <v>1999</v>
       </c>
-      <c r="E135" s="46">
+      <c r="E135" s="45">
         <v>1929</v>
       </c>
-      <c r="F135" s="23" t="s">
+      <c r="F135" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="G135" s="77">
+      <c r="G135" s="75">
         <v>70</v>
       </c>
-      <c r="H135" s="75" t="s">
+      <c r="H135" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="I135" s="63"/>
+      <c r="I135" s="61"/>
     </row>
     <row r="136" ht="31.5" spans="1:9">
       <c r="A136" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B136" s="59" t="s">
+      <c r="B136" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="C136" s="76">
+      <c r="C136" s="74">
         <v>0.03</v>
       </c>
-      <c r="D136" s="61">
+      <c r="D136" s="59">
         <v>1999</v>
       </c>
-      <c r="E136" s="46">
+      <c r="E136" s="45">
         <v>1929</v>
       </c>
-      <c r="F136" s="23" t="s">
+      <c r="F136" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="G136" s="77">
+      <c r="G136" s="75">
         <v>70</v>
       </c>
-      <c r="H136" s="75" t="s">
+      <c r="H136" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="I136" s="63"/>
+      <c r="I136" s="61"/>
     </row>
     <row r="137" ht="31.5" spans="1:9">
       <c r="A137" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B137" s="59" t="s">
+      <c r="B137" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="C137" s="76">
+      <c r="C137" s="74">
         <v>0.03</v>
       </c>
-      <c r="D137" s="61">
+      <c r="D137" s="59">
         <v>1999</v>
       </c>
-      <c r="E137" s="46">
+      <c r="E137" s="45">
         <v>1929</v>
       </c>
-      <c r="F137" s="23" t="s">
+      <c r="F137" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="G137" s="77">
+      <c r="G137" s="75">
         <v>70</v>
       </c>
-      <c r="H137" s="75" t="s">
+      <c r="H137" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="I137" s="63"/>
+      <c r="I137" s="61"/>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="12" t="s">
@@ -6250,23 +6212,23 @@
       <c r="B138" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C138" s="74">
+      <c r="C138" s="72">
         <v>0.1</v>
       </c>
-      <c r="D138" s="66">
+      <c r="D138" s="64">
         <v>1699</v>
       </c>
-      <c r="E138" s="46">
+      <c r="E138" s="45">
         <v>1499</v>
       </c>
-      <c r="F138" s="54" t="s">
+      <c r="F138" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="G138" s="67">
+      <c r="G138" s="65">
         <v>200</v>
       </c>
       <c r="H138" s="12"/>
-      <c r="I138" s="63"/>
+      <c r="I138" s="61"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="12" t="s">
@@ -6275,23 +6237,23 @@
       <c r="B139" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C139" s="74">
+      <c r="C139" s="72">
         <v>0.1</v>
       </c>
-      <c r="D139" s="66">
+      <c r="D139" s="64">
         <v>1699</v>
       </c>
-      <c r="E139" s="46">
+      <c r="E139" s="45">
         <v>1499</v>
       </c>
-      <c r="F139" s="54" t="s">
+      <c r="F139" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="G139" s="67">
+      <c r="G139" s="65">
         <v>200</v>
       </c>
       <c r="H139" s="12"/>
-      <c r="I139" s="63"/>
+      <c r="I139" s="61"/>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="12" t="s">
@@ -6300,98 +6262,98 @@
       <c r="B140" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C140" s="74">
+      <c r="C140" s="72">
         <v>0.1</v>
       </c>
-      <c r="D140" s="66">
+      <c r="D140" s="64">
         <v>1699</v>
       </c>
-      <c r="E140" s="46">
+      <c r="E140" s="45">
         <v>1499</v>
       </c>
-      <c r="F140" s="54" t="s">
+      <c r="F140" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="G140" s="67">
+      <c r="G140" s="65">
         <v>200</v>
       </c>
       <c r="H140" s="12"/>
-      <c r="I140" s="63"/>
+      <c r="I140" s="61"/>
     </row>
     <row r="141" ht="78.75" spans="1:9">
       <c r="A141" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B141" s="59" t="s">
+      <c r="B141" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="C141" s="76">
+      <c r="C141" s="74">
         <v>0.1</v>
       </c>
-      <c r="D141" s="61">
+      <c r="D141" s="59">
         <v>1099</v>
       </c>
-      <c r="E141" s="46">
+      <c r="E141" s="45">
         <v>1099</v>
       </c>
-      <c r="F141" s="23" t="s">
+      <c r="F141" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="G141" s="48"/>
-      <c r="H141" s="78" t="s">
+      <c r="G141" s="34"/>
+      <c r="H141" s="76" t="s">
         <v>298</v>
       </c>
-      <c r="I141" s="63"/>
+      <c r="I141" s="61"/>
     </row>
     <row r="142" ht="78.75" spans="1:9">
       <c r="A142" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B142" s="59" t="s">
+      <c r="B142" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="C142" s="76">
+      <c r="C142" s="74">
         <v>0.1</v>
       </c>
-      <c r="D142" s="61">
+      <c r="D142" s="59">
         <v>1099</v>
       </c>
-      <c r="E142" s="46">
+      <c r="E142" s="45">
         <v>1099</v>
       </c>
-      <c r="F142" s="23" t="s">
+      <c r="F142" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="G142" s="48"/>
-      <c r="H142" s="78" t="s">
+      <c r="G142" s="34"/>
+      <c r="H142" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="I142" s="63"/>
+      <c r="I142" s="61"/>
     </row>
     <row r="143" ht="78.75" spans="1:9">
       <c r="A143" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B143" s="59" t="s">
+      <c r="B143" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="C143" s="76">
+      <c r="C143" s="74">
         <v>0.1</v>
       </c>
-      <c r="D143" s="61">
+      <c r="D143" s="59">
         <v>1099</v>
       </c>
-      <c r="E143" s="46">
+      <c r="E143" s="45">
         <v>1099</v>
       </c>
-      <c r="F143" s="23" t="s">
+      <c r="F143" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="G143" s="48"/>
-      <c r="H143" s="78" t="s">
+      <c r="G143" s="34"/>
+      <c r="H143" s="76" t="s">
         <v>302</v>
       </c>
-      <c r="I143" s="63"/>
+      <c r="I143" s="61"/>
     </row>
     <row r="144" ht="78.75" spans="1:9">
       <c r="A144" s="12" t="s">
@@ -6400,21 +6362,21 @@
       <c r="B144" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C144" s="71"/>
-      <c r="D144" s="79">
+      <c r="C144" s="69"/>
+      <c r="D144" s="77">
         <v>899</v>
       </c>
-      <c r="E144" s="56">
+      <c r="E144" s="54">
         <v>899</v>
       </c>
-      <c r="F144" s="23" t="s">
+      <c r="F144" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="G144" s="48"/>
-      <c r="H144" s="80" t="s">
+      <c r="G144" s="34"/>
+      <c r="H144" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="I144" s="63"/>
+      <c r="I144" s="61"/>
     </row>
     <row r="145" ht="78.75" spans="1:9">
       <c r="A145" s="12" t="s">
@@ -6423,21 +6385,21 @@
       <c r="B145" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C145" s="71"/>
-      <c r="D145" s="79">
+      <c r="C145" s="69"/>
+      <c r="D145" s="77">
         <v>899</v>
       </c>
-      <c r="E145" s="56">
+      <c r="E145" s="54">
         <v>899</v>
       </c>
-      <c r="F145" s="23" t="s">
+      <c r="F145" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="G145" s="48"/>
-      <c r="H145" s="80" t="s">
+      <c r="G145" s="34"/>
+      <c r="H145" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="I145" s="63"/>
+      <c r="I145" s="61"/>
     </row>
     <row r="146" ht="78.75" spans="1:9">
       <c r="A146" s="12" t="s">
@@ -6446,474 +6408,474 @@
       <c r="B146" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C146" s="71"/>
-      <c r="D146" s="79">
+      <c r="C146" s="69"/>
+      <c r="D146" s="77">
         <v>899</v>
       </c>
-      <c r="E146" s="56">
+      <c r="E146" s="54">
         <v>899</v>
       </c>
-      <c r="F146" s="23" t="s">
+      <c r="F146" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="G146" s="48"/>
-      <c r="H146" s="80" t="s">
+      <c r="G146" s="34"/>
+      <c r="H146" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="I146" s="63"/>
+      <c r="I146" s="61"/>
     </row>
     <row r="147" ht="47.25" spans="1:9">
       <c r="A147" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B147" s="59" t="s">
+      <c r="B147" s="57" t="s">
         <v>310</v>
       </c>
-      <c r="C147" s="81"/>
-      <c r="D147" s="82">
+      <c r="C147" s="79"/>
+      <c r="D147" s="80">
         <v>799</v>
       </c>
-      <c r="E147" s="56">
+      <c r="E147" s="54">
         <v>799</v>
       </c>
-      <c r="F147" s="23" t="s">
+      <c r="F147" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="G147" s="48"/>
-      <c r="H147" s="78" t="s">
+      <c r="G147" s="34"/>
+      <c r="H147" s="76" t="s">
         <v>312</v>
       </c>
-      <c r="I147" s="63"/>
+      <c r="I147" s="61"/>
     </row>
     <row r="148" ht="47.25" spans="1:9">
       <c r="A148" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B148" s="59" t="s">
+      <c r="B148" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="C148" s="81"/>
-      <c r="D148" s="82">
+      <c r="C148" s="79"/>
+      <c r="D148" s="80">
         <v>799</v>
       </c>
-      <c r="E148" s="56">
+      <c r="E148" s="54">
         <v>799</v>
       </c>
-      <c r="F148" s="23" t="s">
+      <c r="F148" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="G148" s="48"/>
-      <c r="H148" s="78" t="s">
+      <c r="G148" s="34"/>
+      <c r="H148" s="76" t="s">
         <v>314</v>
       </c>
-      <c r="I148" s="63"/>
+      <c r="I148" s="61"/>
     </row>
     <row r="149" ht="47.25" spans="1:9">
       <c r="A149" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B149" s="59" t="s">
+      <c r="B149" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="C149" s="81"/>
-      <c r="D149" s="82">
+      <c r="C149" s="79"/>
+      <c r="D149" s="80">
         <v>799</v>
       </c>
-      <c r="E149" s="56">
+      <c r="E149" s="54">
         <v>799</v>
       </c>
-      <c r="F149" s="23" t="s">
+      <c r="F149" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="G149" s="48"/>
-      <c r="H149" s="78" t="s">
+      <c r="G149" s="34"/>
+      <c r="H149" s="76" t="s">
         <v>316</v>
       </c>
-      <c r="I149" s="63"/>
+      <c r="I149" s="61"/>
     </row>
     <row r="150" ht="78.75" spans="1:9">
       <c r="A150" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B150" s="59" t="s">
+      <c r="B150" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="C150" s="83"/>
-      <c r="D150" s="82">
+      <c r="C150" s="79"/>
+      <c r="D150" s="80">
         <v>449</v>
       </c>
-      <c r="E150" s="82">
+      <c r="E150" s="80">
         <v>449</v>
       </c>
-      <c r="F150" s="84" t="s">
+      <c r="F150" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="G150" s="48"/>
-      <c r="H150" s="85" t="s">
+      <c r="G150" s="34"/>
+      <c r="H150" s="76" t="s">
         <v>319</v>
       </c>
-      <c r="I150" s="92"/>
+      <c r="I150" s="61"/>
     </row>
     <row r="151" ht="78.75" spans="1:9">
       <c r="A151" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B151" s="59" t="s">
+      <c r="B151" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="C151" s="83"/>
-      <c r="D151" s="82">
+      <c r="C151" s="79"/>
+      <c r="D151" s="80">
         <v>449</v>
       </c>
-      <c r="E151" s="82">
+      <c r="E151" s="80">
         <v>449</v>
       </c>
-      <c r="F151" s="84" t="s">
+      <c r="F151" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="G151" s="48"/>
-      <c r="H151" s="85" t="s">
+      <c r="G151" s="34"/>
+      <c r="H151" s="76" t="s">
         <v>321</v>
       </c>
-      <c r="I151" s="92"/>
+      <c r="I151" s="61"/>
     </row>
     <row r="152" ht="78.75" spans="1:9">
       <c r="A152" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B152" s="59" t="s">
+      <c r="B152" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="C152" s="83"/>
-      <c r="D152" s="82">
+      <c r="C152" s="79"/>
+      <c r="D152" s="80">
         <v>449</v>
       </c>
-      <c r="E152" s="82">
+      <c r="E152" s="80">
         <v>449</v>
       </c>
-      <c r="F152" s="84" t="s">
+      <c r="F152" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="G152" s="48"/>
-      <c r="H152" s="85" t="s">
+      <c r="G152" s="34"/>
+      <c r="H152" s="76" t="s">
         <v>323</v>
       </c>
-      <c r="I152" s="92"/>
+      <c r="I152" s="61"/>
     </row>
     <row r="153" ht="110.25" spans="1:9">
-      <c r="A153" s="86" t="s">
+      <c r="A153" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C153" s="87"/>
+      <c r="C153" s="37"/>
       <c r="D153" s="15">
         <v>3999</v>
       </c>
       <c r="E153" s="15">
         <v>3999</v>
       </c>
-      <c r="F153" s="84" t="s">
+      <c r="F153" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="G153" s="88"/>
-      <c r="H153" s="86"/>
-      <c r="I153" s="92"/>
+      <c r="G153" s="81"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="61"/>
     </row>
     <row r="154" ht="110.25" spans="1:9">
-      <c r="A154" s="86" t="s">
+      <c r="A154" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="C154" s="87"/>
+      <c r="C154" s="37"/>
       <c r="D154" s="15">
         <v>3999</v>
       </c>
       <c r="E154" s="15">
         <v>3999</v>
       </c>
-      <c r="F154" s="84" t="s">
+      <c r="F154" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="G154" s="88"/>
-      <c r="H154" s="86"/>
-      <c r="I154" s="92"/>
+      <c r="G154" s="81"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="61"/>
     </row>
     <row r="155" ht="110.25" spans="1:9">
-      <c r="A155" s="86" t="s">
+      <c r="A155" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B155" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C155" s="87"/>
+      <c r="C155" s="37"/>
       <c r="D155" s="15">
         <v>3999</v>
       </c>
       <c r="E155" s="15">
         <v>3999</v>
       </c>
-      <c r="F155" s="84" t="s">
+      <c r="F155" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="G155" s="88"/>
-      <c r="H155" s="86"/>
-      <c r="I155" s="92"/>
+      <c r="G155" s="81"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="61"/>
     </row>
     <row r="156" ht="110.25" spans="1:9">
-      <c r="A156" s="86" t="s">
+      <c r="A156" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B156" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C156" s="87"/>
+      <c r="C156" s="37"/>
       <c r="D156" s="15">
         <v>3999</v>
       </c>
       <c r="E156" s="15">
         <v>3999</v>
       </c>
-      <c r="F156" s="84" t="s">
+      <c r="F156" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="G156" s="88"/>
-      <c r="H156" s="86"/>
-      <c r="I156" s="92"/>
+      <c r="G156" s="81"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="61"/>
     </row>
     <row r="157" ht="110.25" spans="1:9">
-      <c r="A157" s="86" t="s">
+      <c r="A157" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B157" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C157" s="87"/>
+      <c r="C157" s="37"/>
       <c r="D157" s="15">
         <v>4499</v>
       </c>
       <c r="E157" s="15">
         <v>4499</v>
       </c>
-      <c r="F157" s="84" t="s">
+      <c r="F157" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="G157" s="88"/>
-      <c r="H157" s="86"/>
-      <c r="I157" s="92"/>
+      <c r="G157" s="81"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="61"/>
     </row>
     <row r="158" ht="110.25" spans="1:9">
-      <c r="A158" s="86" t="s">
+      <c r="A158" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C158" s="87"/>
+      <c r="C158" s="37"/>
       <c r="D158" s="15">
         <v>4499</v>
       </c>
       <c r="E158" s="15">
         <v>4499</v>
       </c>
-      <c r="F158" s="84" t="s">
+      <c r="F158" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="G158" s="88"/>
-      <c r="H158" s="86"/>
-      <c r="I158" s="92"/>
+      <c r="G158" s="81"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="61"/>
     </row>
     <row r="159" ht="110.25" spans="1:9">
-      <c r="A159" s="86" t="s">
+      <c r="A159" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="B159" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C159" s="87"/>
+      <c r="C159" s="37"/>
       <c r="D159" s="15">
         <v>4499</v>
       </c>
       <c r="E159" s="15">
         <v>4499</v>
       </c>
-      <c r="F159" s="84" t="s">
+      <c r="F159" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="G159" s="88"/>
-      <c r="H159" s="86"/>
-      <c r="I159" s="92"/>
+      <c r="G159" s="81"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="61"/>
     </row>
     <row r="160" ht="110.25" spans="1:9">
-      <c r="A160" s="86" t="s">
+      <c r="A160" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B160" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="C160" s="87"/>
+      <c r="C160" s="37"/>
       <c r="D160" s="15">
         <v>4499</v>
       </c>
       <c r="E160" s="15">
         <v>4499</v>
       </c>
-      <c r="F160" s="84" t="s">
+      <c r="F160" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="G160" s="88"/>
-      <c r="H160" s="86"/>
-      <c r="I160" s="92"/>
+      <c r="G160" s="81"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="61"/>
     </row>
     <row r="161" ht="110.25" spans="1:9">
-      <c r="A161" s="86" t="s">
+      <c r="A161" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B161" s="89" t="s">
+      <c r="B161" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="C161" s="87"/>
-      <c r="D161" s="90">
+      <c r="C161" s="37"/>
+      <c r="D161" s="82">
         <v>5699</v>
       </c>
-      <c r="E161" s="90">
+      <c r="E161" s="82">
         <v>5699</v>
       </c>
-      <c r="F161" s="84" t="s">
+      <c r="F161" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="G161" s="91"/>
-      <c r="H161" s="86"/>
-      <c r="I161" s="92"/>
+      <c r="G161" s="83"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="61"/>
     </row>
     <row r="162" ht="110.25" spans="1:9">
-      <c r="A162" s="86" t="s">
+      <c r="A162" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B162" s="89" t="s">
+      <c r="B162" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="C162" s="87"/>
-      <c r="D162" s="90">
+      <c r="C162" s="37"/>
+      <c r="D162" s="82">
         <v>6199</v>
       </c>
-      <c r="E162" s="90">
+      <c r="E162" s="82">
         <v>6199</v>
       </c>
-      <c r="F162" s="84" t="s">
+      <c r="F162" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="G162" s="91"/>
-      <c r="H162" s="86"/>
-      <c r="I162" s="92"/>
+      <c r="G162" s="83"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="61"/>
     </row>
     <row r="163" ht="110.25" spans="1:9">
-      <c r="A163" s="86" t="s">
+      <c r="A163" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B163" s="89" t="s">
+      <c r="B163" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="C163" s="87"/>
-      <c r="D163" s="90">
+      <c r="C163" s="37"/>
+      <c r="D163" s="82">
         <v>6199</v>
       </c>
-      <c r="E163" s="90">
+      <c r="E163" s="82">
         <v>6199</v>
       </c>
-      <c r="F163" s="84" t="s">
+      <c r="F163" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="G163" s="91"/>
-      <c r="H163" s="86"/>
-      <c r="I163" s="92"/>
+      <c r="G163" s="83"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="61"/>
     </row>
     <row r="164" ht="110.25" spans="1:9">
-      <c r="A164" s="86" t="s">
+      <c r="A164" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B164" s="89" t="s">
+      <c r="B164" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="C164" s="87"/>
-      <c r="D164" s="90">
+      <c r="C164" s="37"/>
+      <c r="D164" s="82">
         <v>6199</v>
       </c>
-      <c r="E164" s="90">
+      <c r="E164" s="82">
         <v>6199</v>
       </c>
-      <c r="F164" s="84" t="s">
+      <c r="F164" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="G164" s="91"/>
-      <c r="H164" s="86"/>
-      <c r="I164" s="92"/>
+      <c r="G164" s="83"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="61"/>
     </row>
     <row r="165" ht="110.25" spans="1:9">
-      <c r="A165" s="86" t="s">
+      <c r="A165" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B165" s="89" t="s">
+      <c r="B165" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="C165" s="87"/>
-      <c r="D165" s="90">
+      <c r="C165" s="37"/>
+      <c r="D165" s="82">
         <v>6199</v>
       </c>
-      <c r="E165" s="90">
+      <c r="E165" s="82">
         <v>6199</v>
       </c>
-      <c r="F165" s="84" t="s">
+      <c r="F165" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="G165" s="91"/>
-      <c r="H165" s="86"/>
-      <c r="I165" s="92"/>
+      <c r="G165" s="83"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="61"/>
     </row>
     <row r="166" ht="110.25" spans="1:9">
-      <c r="A166" s="86" t="s">
+      <c r="A166" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B166" s="89" t="s">
+      <c r="B166" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="C166" s="87"/>
-      <c r="D166" s="90">
+      <c r="C166" s="37"/>
+      <c r="D166" s="82">
         <v>6799</v>
       </c>
-      <c r="E166" s="90">
+      <c r="E166" s="82">
         <v>6799</v>
       </c>
-      <c r="F166" s="84" t="s">
+      <c r="F166" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="G166" s="91"/>
-      <c r="H166" s="86"/>
-      <c r="I166" s="92"/>
+      <c r="G166" s="83"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="61"/>
     </row>
     <row r="167" ht="110.25" spans="1:9">
-      <c r="A167" s="86" t="s">
+      <c r="A167" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B167" s="89" t="s">
+      <c r="B167" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="C167" s="87"/>
-      <c r="D167" s="90">
+      <c r="C167" s="37"/>
+      <c r="D167" s="82">
         <v>7999</v>
       </c>
-      <c r="E167" s="90">
+      <c r="E167" s="82">
         <v>7999</v>
       </c>
-      <c r="F167" s="84" t="s">
+      <c r="F167" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="G167" s="91"/>
-      <c r="H167" s="86"/>
-      <c r="I167" s="92"/>
+      <c r="G167" s="83"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/promo_list.xlsx
+++ b/promo_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="346">
   <si>
     <t>BRAND</t>
   </si>
@@ -1403,6 +1403,14 @@
 *until further notice</t>
   </si>
   <si>
+    <t>Key in VOU-TUV-PIXEL9-700
+- Open for all customers, allowing one-time redemption per SON
+AND
+Premium Google Services* (6 months Google One Premium 2 TB plan and 6 months Fitbit
+Premium)
+ *until further notice</t>
+  </si>
+  <si>
     <t>Pixel 9 128GB-Porcelain</t>
   </si>
   <si>
@@ -1432,6 +1440,14 @@
 AND
 - Premium Google Services* (1 Year Google One AI Premium plan and 6 month Fitbit Premium)
 *until further notice</t>
+  </si>
+  <si>
+    <t>Key in VOU-TUV-PIXEL9-1100
+- Open for all customers, allowing one-time redemption per SON
+AND
+Premium Google Services* (6 months Google One Premium 2 TB plan and 6 months Fitbit
+Premium)
+ *until further notice</t>
   </si>
   <si>
     <t>Pixel 9 Pro XL 256GB-Obsidian</t>
@@ -2179,7 +2195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2427,6 +2443,9 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -2784,8 +2803,8 @@
   <sheetPr/>
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -6600,7 +6619,7 @@
       </c>
       <c r="I152" s="63"/>
     </row>
-    <row r="153" ht="110.25" spans="1:9">
+    <row r="153" ht="157.5" spans="1:9">
       <c r="A153" s="14" t="s">
         <v>326</v>
       </c>
@@ -6612,307 +6631,337 @@
         <v>3999</v>
       </c>
       <c r="E153" s="17">
-        <v>3999</v>
+        <v>3299</v>
       </c>
       <c r="F153" s="24" t="s">
         <v>328</v>
       </c>
       <c r="G153" s="83"/>
-      <c r="H153" s="14"/>
+      <c r="H153" s="84" t="s">
+        <v>329</v>
+      </c>
       <c r="I153" s="63"/>
     </row>
-    <row r="154" ht="110.25" spans="1:9">
+    <row r="154" ht="157.5" spans="1:9">
       <c r="A154" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C154" s="39"/>
       <c r="D154" s="17">
         <v>3999</v>
       </c>
       <c r="E154" s="17">
-        <v>3999</v>
+        <v>3299</v>
       </c>
       <c r="F154" s="24" t="s">
         <v>328</v>
       </c>
       <c r="G154" s="83"/>
-      <c r="H154" s="14"/>
+      <c r="H154" s="84" t="s">
+        <v>329</v>
+      </c>
       <c r="I154" s="63"/>
     </row>
-    <row r="155" ht="110.25" spans="1:9">
+    <row r="155" ht="157.5" spans="1:9">
       <c r="A155" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C155" s="39"/>
       <c r="D155" s="17">
         <v>3999</v>
       </c>
       <c r="E155" s="17">
-        <v>3999</v>
+        <v>3299</v>
       </c>
       <c r="F155" s="24" t="s">
         <v>328</v>
       </c>
       <c r="G155" s="83"/>
-      <c r="H155" s="14"/>
+      <c r="H155" s="84" t="s">
+        <v>329</v>
+      </c>
       <c r="I155" s="63"/>
     </row>
-    <row r="156" ht="110.25" spans="1:9">
+    <row r="156" ht="157.5" spans="1:9">
       <c r="A156" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C156" s="39"/>
       <c r="D156" s="17">
         <v>3999</v>
       </c>
       <c r="E156" s="17">
-        <v>3999</v>
+        <v>3299</v>
       </c>
       <c r="F156" s="24" t="s">
         <v>328</v>
       </c>
       <c r="G156" s="83"/>
-      <c r="H156" s="14"/>
+      <c r="H156" s="84" t="s">
+        <v>329</v>
+      </c>
       <c r="I156" s="63"/>
     </row>
-    <row r="157" ht="110.25" spans="1:9">
+    <row r="157" ht="157.5" spans="1:9">
       <c r="A157" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C157" s="39"/>
       <c r="D157" s="17">
         <v>4499</v>
       </c>
       <c r="E157" s="17">
-        <v>4499</v>
+        <v>3799</v>
       </c>
       <c r="F157" s="24" t="s">
         <v>328</v>
       </c>
       <c r="G157" s="83"/>
-      <c r="H157" s="14"/>
+      <c r="H157" s="84" t="s">
+        <v>329</v>
+      </c>
       <c r="I157" s="63"/>
     </row>
-    <row r="158" ht="110.25" spans="1:9">
+    <row r="158" ht="157.5" spans="1:9">
       <c r="A158" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C158" s="39"/>
       <c r="D158" s="17">
         <v>4499</v>
       </c>
       <c r="E158" s="17">
-        <v>4499</v>
+        <v>3799</v>
       </c>
       <c r="F158" s="24" t="s">
         <v>328</v>
       </c>
       <c r="G158" s="83"/>
-      <c r="H158" s="14"/>
+      <c r="H158" s="84" t="s">
+        <v>329</v>
+      </c>
       <c r="I158" s="63"/>
     </row>
-    <row r="159" ht="110.25" spans="1:9">
+    <row r="159" ht="157.5" spans="1:9">
       <c r="A159" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C159" s="39"/>
       <c r="D159" s="17">
         <v>4499</v>
       </c>
       <c r="E159" s="17">
-        <v>4499</v>
+        <v>3799</v>
       </c>
       <c r="F159" s="24" t="s">
         <v>328</v>
       </c>
       <c r="G159" s="83"/>
-      <c r="H159" s="14"/>
+      <c r="H159" s="84" t="s">
+        <v>329</v>
+      </c>
       <c r="I159" s="63"/>
     </row>
-    <row r="160" ht="110.25" spans="1:9">
+    <row r="160" ht="157.5" spans="1:9">
       <c r="A160" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C160" s="39"/>
       <c r="D160" s="17">
         <v>4499</v>
       </c>
       <c r="E160" s="17">
-        <v>4499</v>
+        <v>3799</v>
       </c>
       <c r="F160" s="24" t="s">
         <v>328</v>
       </c>
       <c r="G160" s="83"/>
-      <c r="H160" s="14"/>
+      <c r="H160" s="84" t="s">
+        <v>329</v>
+      </c>
       <c r="I160" s="63"/>
     </row>
-    <row r="161" ht="110.25" spans="1:9">
+    <row r="161" ht="157.5" spans="1:9">
       <c r="A161" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B161" s="59" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C161" s="39"/>
-      <c r="D161" s="84">
+      <c r="D161" s="85">
         <v>5699</v>
       </c>
-      <c r="E161" s="84">
-        <v>5699</v>
+      <c r="E161" s="85">
+        <v>4599</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="G161" s="85"/>
-      <c r="H161" s="14"/>
+        <v>338</v>
+      </c>
+      <c r="G161" s="86"/>
+      <c r="H161" s="84" t="s">
+        <v>339</v>
+      </c>
       <c r="I161" s="63"/>
     </row>
-    <row r="162" ht="110.25" spans="1:9">
+    <row r="162" ht="157.5" spans="1:9">
       <c r="A162" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B162" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="C162" s="39"/>
+      <c r="D162" s="85">
+        <v>6199</v>
+      </c>
+      <c r="E162" s="85">
+        <v>5099</v>
+      </c>
+      <c r="F162" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="C162" s="39"/>
-      <c r="D162" s="84">
-        <v>6199</v>
-      </c>
-      <c r="E162" s="84">
-        <v>6199</v>
-      </c>
-      <c r="F162" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="G162" s="85"/>
-      <c r="H162" s="14"/>
+      <c r="G162" s="86"/>
+      <c r="H162" s="84" t="s">
+        <v>339</v>
+      </c>
       <c r="I162" s="63"/>
     </row>
-    <row r="163" ht="110.25" spans="1:9">
+    <row r="163" ht="157.5" spans="1:9">
       <c r="A163" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B163" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="C163" s="39"/>
+      <c r="D163" s="85">
+        <v>6199</v>
+      </c>
+      <c r="E163" s="85">
+        <v>5099</v>
+      </c>
+      <c r="F163" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="G163" s="86"/>
+      <c r="H163" s="84" t="s">
         <v>339</v>
       </c>
-      <c r="C163" s="39"/>
-      <c r="D163" s="84">
-        <v>6199</v>
-      </c>
-      <c r="E163" s="84">
-        <v>6199</v>
-      </c>
-      <c r="F163" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="G163" s="85"/>
-      <c r="H163" s="14"/>
       <c r="I163" s="63"/>
     </row>
-    <row r="164" ht="110.25" spans="1:9">
+    <row r="164" ht="157.5" spans="1:9">
       <c r="A164" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B164" s="59" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C164" s="39"/>
-      <c r="D164" s="84">
+      <c r="D164" s="85">
         <v>6199</v>
       </c>
-      <c r="E164" s="84">
-        <v>6199</v>
+      <c r="E164" s="85">
+        <v>5099</v>
       </c>
       <c r="F164" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="G164" s="85"/>
-      <c r="H164" s="14"/>
+        <v>338</v>
+      </c>
+      <c r="G164" s="86"/>
+      <c r="H164" s="84" t="s">
+        <v>339</v>
+      </c>
       <c r="I164" s="63"/>
     </row>
-    <row r="165" ht="110.25" spans="1:9">
+    <row r="165" ht="157.5" spans="1:9">
       <c r="A165" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B165" s="59" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C165" s="39"/>
-      <c r="D165" s="84">
+      <c r="D165" s="85">
         <v>6199</v>
       </c>
-      <c r="E165" s="84">
-        <v>6199</v>
+      <c r="E165" s="85">
+        <v>5099</v>
       </c>
       <c r="F165" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="G165" s="85"/>
-      <c r="H165" s="14"/>
+        <v>338</v>
+      </c>
+      <c r="G165" s="86"/>
+      <c r="H165" s="84" t="s">
+        <v>339</v>
+      </c>
       <c r="I165" s="63"/>
     </row>
-    <row r="166" ht="110.25" spans="1:9">
+    <row r="166" ht="157.5" spans="1:9">
       <c r="A166" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B166" s="59" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C166" s="39"/>
-      <c r="D166" s="84">
+      <c r="D166" s="85">
         <v>6799</v>
       </c>
-      <c r="E166" s="84">
-        <v>6799</v>
+      <c r="E166" s="85">
+        <v>5699</v>
       </c>
       <c r="F166" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="G166" s="85"/>
-      <c r="H166" s="14"/>
+        <v>338</v>
+      </c>
+      <c r="G166" s="86"/>
+      <c r="H166" s="84" t="s">
+        <v>339</v>
+      </c>
       <c r="I166" s="63"/>
     </row>
-    <row r="167" ht="110.25" spans="1:9">
+    <row r="167" ht="157.5" spans="1:9">
       <c r="A167" s="14" t="s">
         <v>326</v>
       </c>
       <c r="B167" s="59" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C167" s="39"/>
-      <c r="D167" s="84">
+      <c r="D167" s="85">
         <v>7999</v>
       </c>
-      <c r="E167" s="84">
-        <v>7999</v>
+      <c r="E167" s="85">
+        <v>6899</v>
       </c>
       <c r="F167" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="G167" s="85"/>
-      <c r="H167" s="14"/>
+        <v>338</v>
+      </c>
+      <c r="G167" s="86"/>
+      <c r="H167" s="84" t="s">
+        <v>339</v>
+      </c>
       <c r="I167" s="63"/>
     </row>
   </sheetData>

--- a/promo_list.xlsx
+++ b/promo_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="396">
   <si>
     <t>BRAND</t>
   </si>
@@ -63,7 +63,8 @@
   </si>
   <si>
     <t>- HONOR SuperCharge Wireless Charger Stand worth RM299 (HON-WIRELESS-CHR-STD)
-- HONOR 365-days Screen Protection worth RM1,599*</t>
+- HONOR 365-days Screen Protection worth RM1,599*
+*until further notice</t>
   </si>
   <si>
     <t>PAC-V3-GRN+WIRE.C.S</t>
@@ -86,7 +87,8 @@
   <si>
     <t>- HONOR CHOICE Haylou Watch worth RM499 (HON-CHOICE-HAYLOY-WT)
 - Riversong Air X7 Ultra TWS Earbuds worth RM229 (RIV-AIR-X7-ULTRA)
-- Honor 365-day Screen Protection* worth RM1599 *until further notice</t>
+- Magic V2 Gift Box (Car Holder + VIP Card) worth RM149
+(HON-V2-PRE.ORD-GIFBX / HON-V2-LAUNCH-GIFBX) *While Stocks Last</t>
   </si>
   <si>
     <t>PAC-V2-PR+HY+X7U</t>
@@ -138,7 +140,6 @@
     <t>- Honor Earbuds X6 White worth RM299 (HON-EARBUDS-X6-WHITE)
 - Riversong Vision 10 Pro (10,000mAH) worth RM119 (RIV-VISION10-PRO)
 AND
-- Honor 1 Year Extended Warranty worth RM299
 - Honor 365-day Front &amp; Back Crack Replacement worth RM599
 *until further notice
 TOP UP: HONOR Thermos Insulation Kettle worth RM129 (Random color), (FG-HON-THERM-KETTLE) *While Stocks Last</t>
@@ -187,7 +188,9 @@
   </si>
   <si>
     <t>TOP UP  HONOR Thermos Insulation Kettle worth RM129 (Random color)
-(FG-HON-THERM-KETTLE) *While Stocks Last</t>
+(FG-HON-THERM-KETTLE) *While Stocks Last
+- 365-day Front and Back Crack Replacement worth RM500*
+*until further notice</t>
   </si>
   <si>
     <t>HONOR 200 Lite 5G (8+512) Starry Blue</t>
@@ -196,13 +199,14 @@
     <t>HONOR X9b 5G Midnight Black (12+512)</t>
   </si>
   <si>
-    <t>- Honor Choice Earbuds X5
-- WHITE worth RM259 (HON-CHOICE-BUDS-X5.W)
+    <t>- Honor Choice Earbuds X5 - WHITE worth RM259 (HON-CHOICE-BUDS-X5.W)
 TOP UP:
-- Canvas Bag - HONOR Talents 3 (Random color) worth RM79 (FG-HON-CANVAS-BAG) *While Stocks Last
-- Honor X9b Phone case (random design) worth RM99 (HON-X9B-PHONE-CASE) *While stock last
+- Canvas Bag - HONOR Talents 3 (Random color) worth RM79 (FG-HON-CANVAS-BAG)
+*While Stocks Last
+- Honor X9b Phone case (random design) worth RM99
+ (HON-X9B-PHONE-CASE) *While stock last
 AND
-Honor 365-day Front &amp; Back Crack Replacement
+- Honor 365-day Front &amp; Back Crack Replacement
 *until further notice</t>
   </si>
   <si>
@@ -253,13 +257,10 @@
     <t>Honor X7b 5G (8+256) Crystal Silver</t>
   </si>
   <si>
-    <t>TOP UP: Phone Holder (HONOR FG) worth RM59 (FG-HON-PHON-HOLDER) *While Stocks Last
-Additional FG worth RM99 *While Stocks Last:
-- HONOR Thermos Cup (Lotus Leaf)
-(FG-THERMOS-CUP-LEAF)
-OR
-- HONOR Thermos Cup (A Dozen Strange Birds)
-(FG-THERMOS-CUP-BIRD)</t>
+    <t>TOP UP Phone Holder (HONOR FG) worth RM59 (FG-HON-PHON-HOLDER) *While Stocks Last
+Additional FG worth RM99 *While Stocks Last
+ - HONOR Thermos Cup (Lotus Leaf) 
+ - FG-THERMOS-CUP-LEAF</t>
   </si>
   <si>
     <t>Honor X7b 5G (8+256) Emerald Green</t>
@@ -309,6 +310,9 @@
 *While Stocks Last</t>
   </si>
   <si>
+    <t>PAC-FDN3-FLP-BK+QUBE</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -319,6 +323,9 @@
     </r>
   </si>
   <si>
+    <t>PAC-FDN3-FLP-GD+QUBE</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -329,6 +336,9 @@
     </r>
   </si>
   <si>
+    <t>PAC-FDN3-FLP-PK+QUBE</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -339,13 +349,10 @@
     </r>
   </si>
   <si>
-    <t>- OPPO TWS Buds A40Pro White worth RM109 (OPP-TWS-BUDS-A40P-WT)
+    <t>OPPO TWS Buds A40Pro White worth RM109 (OPP-TWS-BUDS-A40P-WT) @ PAC-TWS-BUDS-A40P-WT
 OR
-- OPPO Enco Air3 - White worth RM249 (OPP-ENCO-AIR3-WHITE)
+OPPO Enco Air3 - White worth RM249 (OPP-ENCO-AIR3-WHITE) @ PAC-ENCO-AIR3-WHITE
 *While Stocks Last</t>
-  </si>
-  <si>
-    <t>PAC-RENO12P-BR+A40P OR PAC-RENO12P-BR+AIR3</t>
   </si>
   <si>
     <r>
@@ -358,9 +365,6 @@
     </r>
   </si>
   <si>
-    <t>PAC-RENO12P-SL+A40P OR PAC-RENO12P-SL+AIR3</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -371,11 +375,11 @@
     </r>
   </si>
   <si>
-    <t>- OPPO Enco Buds2 - Blue worth RM129 (OPP-ENCO-BUDS2-BLUE)
+    <t>OPPO Enco Buds2 - Blue worth RM129 (OPP-ENCO-BUDS2-BLUE) @ PAC-ENCO-BUDS2-BLUE
 *While Stocks Last</t>
   </si>
   <si>
-    <t>PAC-RENO12-BR-DIS or PAC-RENO12-BR+BD2</t>
+    <t>PAC-RENO12-BR-DIS</t>
   </si>
   <si>
     <r>
@@ -388,7 +392,7 @@
     </r>
   </si>
   <si>
-    <t>PAC-RENO12-SL-DIS or PAC-RENO12-SL+BD2</t>
+    <t>PAC-RENO12-SL-DIS</t>
   </si>
   <si>
     <r>
@@ -401,7 +405,7 @@
     </r>
   </si>
   <si>
-    <t>PAC-RENO12-PK-DIS or PAC-RENO12-PK+BD2</t>
+    <t>PAC-RENO12-PK-DIS</t>
   </si>
   <si>
     <r>
@@ -414,15 +418,16 @@
     </r>
   </si>
   <si>
-    <t>- OPPO Enco Buds2 - Blue worth RM129 (OPP-ENCO-BUDS2-BLUE)
+    <t>- Reno12F GiftBox worth RM129
+(Newmine Powerbank 10K mAh + Ollie Car Phone Holder + Type-C Earphone) 
+(FG-RENO12F-GIFYBOX)
 *While Stocks Last
 OR
-- Reno12F GiftBox worth RM129
-(Newmine Powerbank 10K mAh + Ollie Car Phone Holder + Type-C Earphone)
-(FG-RENO12F-GIFYBOX) *While Stocks Last</t>
-  </si>
-  <si>
-    <t>PAC-RN12F-256-GR+BOX or PAC-RN12F-256-GR+BD2</t>
+- OPPO Enco Buds2 - White worth RM129 (OPP-ENCO-BUDS2-WHITE) @ OPP-ENCO-BUDS2-WHITE
+*While Stocks Last</t>
+  </si>
+  <si>
+    <t>PAC-RN12F-256-GR+BOX</t>
   </si>
   <si>
     <r>
@@ -435,13 +440,13 @@
     </r>
   </si>
   <si>
-    <t>PAC-RN12F-256-OR+BOX or PAC-RN12F-256-OR+BD2</t>
+    <t xml:space="preserve">PAC-RN12F-256-OR+BOX </t>
   </si>
   <si>
     <t>OPPO Reno12 F 5G Olive Green (12+512)</t>
   </si>
   <si>
-    <t>PAC-RN12F-512-GR+BOX or PAC-RN12F-512-GR+BD2</t>
+    <t>PAC-RN12F-512-GR+BOX or PAC-RN12F-512-GR-DIS</t>
   </si>
   <si>
     <t>OPPO Reno12 F 5G Amber Orange (12+512)</t>
@@ -490,6 +495,12 @@
     </r>
   </si>
   <si>
+    <t>OPPO A3 (8+256) Sparkle Black</t>
+  </si>
+  <si>
+    <t>OPPO A3 (8+256) Starlight White</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -638,8 +649,10 @@
     </r>
   </si>
   <si>
-    <t>- DJI OSMO Mobile Se worth RM459* (DJI-OSMOMOBILE-SE)
-- vivo TWS 3e - White worth RM199* (VIO-TWS-3E-BUDS-WHT)</t>
+    <t>-DJI OSMO Mobile Se worth RM459* (DJI-OSMOMOBILE-SE)
+-vivo TWS 3e - White worth RM199* (VIO-TWS-3E-BUDS-WHT)
+-vivo Care 180 days Extended Warranty worth RM159*
+-vivo Care 180 days Screen Protection Warranty worth RM259*</t>
   </si>
   <si>
     <t>PAC-V40P-WT+OSMO+3E</t>
@@ -742,7 +755,7 @@
 </t>
   </si>
   <si>
-    <t>PAC-P70-256-BK+EYE OR PAC-P70-256-BK+P3.S</t>
+    <t>PAC-P70-256-BK+EYE or PAC-P70-256-BK+P3.S</t>
   </si>
   <si>
     <r>
@@ -872,6 +885,9 @@
     </r>
   </si>
   <si>
+    <t>No Free Gift</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -915,113 +931,209 @@
     <t>PAC-M14-256-WT+B8P</t>
   </si>
   <si>
+    <t>Xiaomi 14T (12+256) Titan Blue</t>
+  </si>
+  <si>
+    <t>- Redmi Buds 5 Pro (radom color) worth RM299 (XMI-BUDS5PRO)
+- Xiaomi 67W HyperCharge Combo worth RM99(XMI-67W-HYP.CHR)
+Total RM1,478 *Whle Stocks Last
+Additional Free Gift (By redemption)
+ 1. 1 Google One - 6 months, 100GB Cloud storage plan*
+ 2. Spotify.Premium - Get 4 months for free*
+ 3. Airport VIP lounge - DRAGONPASS One-time VIP lounge*
+ Value Added Service (Automatic available with purchase)
+ 1. 24-months - warranty*
+ 2. 1 free screen - replace in 6 months*
+ 3. 1 out of warranty - Labor-free repair *
+ 4. Exclusive VIP - VIP customer service*</t>
+  </si>
+  <si>
+    <t>PAC-M14T-256-BU+FG</t>
+  </si>
+  <si>
+    <t>Xiaomi 14T (12+256) Titan Black</t>
+  </si>
+  <si>
+    <t>PAC-M14T-256-BK+FG</t>
+  </si>
+  <si>
+    <t>Xiaomi 14T (12+256) Lemon Green</t>
+  </si>
+  <si>
+    <t>PAC-M14T-256-GN+FG</t>
+  </si>
+  <si>
+    <t>Xiaomi 14T (12+512) Titan Blue</t>
+  </si>
+  <si>
+    <t>PAC-M14T-512-BU+FG</t>
+  </si>
+  <si>
+    <t>Xiaomi 14T (12+512) Titan Black</t>
+  </si>
+  <si>
+    <t>PAC-M14T-512-BK+FG</t>
+  </si>
+  <si>
+    <t>Xiaomi 14T (12+512) Lemon Green</t>
+  </si>
+  <si>
+    <t>PAC-M14T-512-GN+FG</t>
+  </si>
+  <si>
+    <t>Xiaomi 14T Pro (12+256) Titan Blue</t>
+  </si>
+  <si>
+    <t>- Xiaomi OpenWear Stereo (radom color) worth RM599 (XMI-OPENWAER-STEREO)
+- Xiaomi 120W HyperCharge Combo worth RM199 (XMI-120W-HYP.CHR)
+Total RM1,478 *Whle Stocks Last
+Additional Free Gift (By redemption)
+ 1. 1 Google One - 6 months, 100GB Cloud storage plan*
+ 2. Spotify.Premium - Get 4 months for free*
+ 3. Airport VIP lounge - DRAGONPASS One-time VIP lounge*
+ Value Added Service (Automatic available with purchase)
+ 1. 24-months - warranty*
+ 2. 1 free screen - replace in 6 months*
+ 3. 1 out of warranty - Labor-free repair *
+ 4. Exclusive VIP - VIP customer service*</t>
+  </si>
+  <si>
+    <t>PAC-M14T.P-256-BU+FG</t>
+  </si>
+  <si>
+    <t>Xiaomi 14T Pro (12+256) Titan Black</t>
+  </si>
+  <si>
+    <t>PAC-M14T.P-256-BK+FG</t>
+  </si>
+  <si>
+    <t>Xiaomi 14T Pro (12+256) Titan Grey</t>
+  </si>
+  <si>
+    <t>PAC-M14T.P-256-GY+FG</t>
+  </si>
+  <si>
+    <t>Xiaomi 14T Pro (12+512) Titan Blue</t>
+  </si>
+  <si>
+    <t>PAC-M14T.P-512-BU+FG</t>
+  </si>
+  <si>
+    <t>Xiaomi 14T Pro (12+512) Titan Black</t>
+  </si>
+  <si>
+    <t>PAC-M14T.P-512-BK+FG</t>
+  </si>
+  <si>
+    <t>Xiaomi 14T Pro (12+512) Titan Grey</t>
+  </si>
+  <si>
+    <t>PAC-M14T.P-512-GY+FG</t>
+  </si>
+  <si>
     <t>SAMSUNG</t>
   </si>
   <si>
     <t>Galaxy Z Flip6 (12+256) Blue</t>
   </si>
   <si>
-    <t>Riversong PowerKub G65 wotrth RM199 (RIV-POWERKUB-G65)
-*PROMO UNTIL 22 SEPT 2024 ONLY!*</t>
-  </si>
-  <si>
-    <t>PAC-F741BLBA+G65</t>
+    <t>PAC-F741BLBA-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Flip6 (12+256) Mint</t>
   </si>
   <si>
-    <t>PAC-F741BLGA+G65</t>
+    <t>PAC-F741BLGA-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Flip6 (12+256) Silver Shadow</t>
   </si>
   <si>
-    <t>PAC-F741BZSA+G65</t>
+    <t>PAC-F741BZSA-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Flip6 (12+256) Yellow</t>
   </si>
   <si>
-    <t>PAC-F741BZYA+G65</t>
+    <t>PAC-F741BZYA-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Flip6 (12+512) Blue</t>
   </si>
   <si>
-    <t>PAC-F741BLBE+G65</t>
+    <t>PAC-F741BLBE-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Flip6 (12+512) Mint</t>
   </si>
   <si>
-    <t>PAC-F741BLGE+G65</t>
+    <t>PAC-F741BLGE-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Flip6 (12+512) Silver Shadow</t>
   </si>
   <si>
-    <t>PAC-F741BZSE+G65</t>
+    <t>PAC-F741BZSE-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Flip6 (12+512) Yellow</t>
   </si>
   <si>
-    <t>PAC-F741BZYE+G65</t>
+    <t>PAC-F741BZYE-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+256) Navy</t>
   </si>
   <si>
-    <t>PAC-F956BDBD+G65</t>
+    <t>PAC-F956BDBD-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+256) Pink</t>
   </si>
   <si>
-    <t>PAC-F956BLID+G65</t>
+    <t>PAC-F956BLID-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+256) Silver Shadow</t>
   </si>
   <si>
-    <t>PAC-F956BZSD+G65</t>
+    <t>PAC-F956BZSD-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+512) Navy</t>
   </si>
   <si>
-    <t>PAC-F956BDBG+G65</t>
+    <t>PAC-F956BDBG-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+512) Pink</t>
   </si>
   <si>
-    <t>PAC-F956BLIG+G65</t>
+    <t>PAC-F956BLIG-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+512) Silver Shadow</t>
   </si>
   <si>
-    <t>PAC-F956BZSG+G65</t>
+    <t>PAC-F956BZSG-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+1TB) Navy</t>
   </si>
   <si>
-    <t>PAC-F956BDBH+G65</t>
+    <t>PAC-F956BDBH-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+1TB) Pink</t>
   </si>
   <si>
-    <t>PAC-F956BLIH+G65</t>
+    <t>PAC-F956BLIH-DIS</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+1TB) Silver Shadow</t>
   </si>
   <si>
-    <t>PAC-F956BZSH+G65</t>
+    <t>PAC-F956BZSH-DIS</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Black (12+1TB)</t>
@@ -1054,68 +1166,60 @@
     <t>Galaxy S24 ULTRA 5G Green (12+512)</t>
   </si>
   <si>
-    <t>Riversong Air X7 Ultra TWS Earbuds worth RM229 (RIV-AIR-X7-ULTRA)
-*PROMO UNTIL 22 SEPT 2024 ONLY!*</t>
-  </si>
-  <si>
-    <t>PAC-S928BLGQ+X7</t>
+    <t>PAC-S928BLGQ-DIS</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Black (12+512)</t>
   </si>
   <si>
-    <t>PAC-S928BZKQ+X7</t>
+    <t>PAC-S928BZKQ-DIS</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Gray (12+512)</t>
   </si>
   <si>
-    <t>PAC-S928BZTQ+X7</t>
+    <t>PAC-S928BZTQ-DIS</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Violet (12+512)</t>
   </si>
   <si>
-    <t>PAC-S928BZVQ+X7</t>
+    <t>PAC-S928BZVQ-DIS</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Yellow (12+512)</t>
   </si>
   <si>
-    <t>PAC-S928BZYQ+X7</t>
+    <t>PAC-S928BZYQ-DIS</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Black (12+256)</t>
   </si>
   <si>
-    <t>PAC-S928BZKC+X7</t>
+    <t>PAC-S928BZKC-DIS</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Gray (12+256)</t>
   </si>
   <si>
-    <t>PAC-S928BZTC+X7</t>
+    <t>PAC-S928BZTC-DIS</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Violet (12+256)</t>
   </si>
   <si>
-    <t>PAC-S928BZVC+X7</t>
+    <t>PAC-S928BZVC-DIS</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Yellow (12+256)</t>
   </si>
   <si>
-    <t>PAC-S928BZYC+X7</t>
+    <t>PAC-S928BZYC-DIS</t>
   </si>
   <si>
     <t>Galaxy S24+ 5G Gray (12+512)</t>
   </si>
   <si>
-    <t>No Free Gift
-*PROMO UNTIL 22 SEPT 2024 ONLY!*</t>
-  </si>
-  <si>
     <t>PAC-S926BZAC-DIS</t>
   </si>
   <si>
@@ -1207,6 +1311,57 @@
   </si>
   <si>
     <t>PAC-S921BZYC-DIS</t>
+  </si>
+  <si>
+    <t>Galaxy S24 FE 5G (8+256) Blue</t>
+  </si>
+  <si>
+    <t>35W Super Fast Wall Charger (RIV-POWERKUBG-35) worth RM119*</t>
+  </si>
+  <si>
+    <t>PAC-S721BLBC+35W</t>
+  </si>
+  <si>
+    <t>Galaxy S24 FE 5G (8+256) Mint</t>
+  </si>
+  <si>
+    <t>PAC-S721BLGC+35W</t>
+  </si>
+  <si>
+    <t>Galaxy S24 FE 5G (8+256) Gray</t>
+  </si>
+  <si>
+    <t>PAC-S721BZAC+35W</t>
+  </si>
+  <si>
+    <t>Galaxy S24 FE 5G (8+256) Graphite</t>
+  </si>
+  <si>
+    <t>PAC-S721BZKC+35W</t>
+  </si>
+  <si>
+    <t>Galaxy S24 FE 5G (8+512) Blue</t>
+  </si>
+  <si>
+    <t>PAC-S721BLBH+35W</t>
+  </si>
+  <si>
+    <t>Galaxy S24 FE 5G (8+512) Mint</t>
+  </si>
+  <si>
+    <t>PAC-S721BLGH+35W</t>
+  </si>
+  <si>
+    <t>Galaxy S24 FE 5G (8+512) Gray</t>
+  </si>
+  <si>
+    <t>PAC-S721BZAH+35W</t>
+  </si>
+  <si>
+    <t>Galaxy S24 FE 5G (8+512) Graphite</t>
+  </si>
+  <si>
+    <t>PAC-S721BZKH+35W</t>
   </si>
   <si>
     <t>Galaxy S23 Ultra 5G Lavender (12+512)</t>
@@ -1266,29 +1421,31 @@
     <t>Galaxy A55 5G (12+256GB) Light Blue</t>
   </si>
   <si>
-    <t>- Samsung Galaxy Buds FE worth RM399 (SAM-SM-R400NZAAXME) *While Stocks Last
-- Samsung 1 Year Extended Warranty worth RM129 (until 31 December 2024)</t>
-  </si>
-  <si>
-    <t>PAC-A556ELBD+R400</t>
+    <t>- Galaxy Fit3 - Gray worth RM299
+(SAM-SM-R390NZAAXME)
+AND
+Samsung 1 Year Extended Warranty worth RM129 (until 31 December 2024)</t>
+  </si>
+  <si>
+    <t>PAC-A556ELBD+R390</t>
   </si>
   <si>
     <t>Galaxy A55 5G (12+256GB) Light Violet</t>
   </si>
   <si>
-    <t>PAC-A556ELVD+R400</t>
+    <t>PAC-A556ELVD+R390</t>
   </si>
   <si>
     <t>Galaxy A55 5G (12+256GB) Black</t>
   </si>
   <si>
-    <t>PAC-A556EZKD+R400</t>
+    <t>PAC-A556EZKD+R390</t>
   </si>
   <si>
     <t>Galaxy A35 5G (8+256GB) Light Blue</t>
   </si>
   <si>
-    <t>- Samsung 1 Year Extended Warranty worth RM129 (until 31 December 2024)</t>
+    <t>Samsung 1 Year Extended Warranty worth RM129 (until 31 December 2024)</t>
   </si>
   <si>
     <t>Galaxy A35 5G (8+256GB) Light Violet</t>
@@ -1301,9 +1458,9 @@
   </si>
   <si>
     <t>- 15W Travel Adapter (USB-C) (without cable) (Black) worth RM59 (SAM-EP- T1510NBEGGB)
-A25 Clear Case worth RM39 (SAM-GP-FPA256VAATW)
+- A25 Clear Case worth RM39 (SAM-GP-FPA256VAATW)
 @PAC-FPA256VAATW
-- Samsung 1 Year Extended Warranty worth RM129 (until 31 December 2024)</t>
+- Samsung 1 Year Extended Warranty worth RM99 (until 31 December 2024)</t>
   </si>
   <si>
     <t>PAC-A256EZB+T1510NB</t>
@@ -1370,9 +1527,12 @@
     <t>Galaxy A06 (4+128GB) Light Blu</t>
   </si>
   <si>
-    <t>25W Super Fast Charging Travel Adapter Black (without cable) worth RM (SAM-EP-T2510NBEGGB)
+    <t>25W Super Fast Charging Travel Adapter Black (without cable) worth RM (SAM-EP_x0002_T2510NBEGGB)
 OR
-25W Super Fast Charging Travel Adapter White (without cable) worth RM89 (SAM-EPT2510NWEGGB)</t>
+25W Super Fast Charging Travel Adapter White (without cable) worth RM89 (SAM-EP_x0002_T2510NWEGGB)
+*While Stocks Last
+AND
+Samsung 1 Year Extended Warranty worth RM49 (until 31 December 2024)</t>
   </si>
   <si>
     <t>PAC-A065FLBG+T2510NB OR PAC-A065FLBG+T2510NW</t>
@@ -1396,19 +1556,7 @@
     <t>Pixel 9 128GB-Obsidian</t>
   </si>
   <si>
-    <t>Key in VOU-TUV-PIXEL9-700 (Pixel 9 Trade Up Voucher RM700)
-*only for those trade in old device and purchase Pixel 9
-AND
-- Premium Google Services* (6 months Google One Premium 2 TB plan and 6 months Fitbit Premium)
-*until further notice</t>
-  </si>
-  <si>
-    <t>Key in VOU-TUV-PIXEL9-700
-- Open for all customers, allowing one-time redemption per SON
-AND
-Premium Google Services* (6 months Google One Premium 2 TB plan and 6 months Fitbit
-Premium)
- *until further notice</t>
+    <t>Key in VOU-PIXEL9-630</t>
   </si>
   <si>
     <t>Pixel 9 128GB-Porcelain</t>
@@ -1432,22 +1580,34 @@
     <t>Pixel 9 256GB-Peony</t>
   </si>
   <si>
+    <t>Pixel 9 Pro 128GB-Obsidian</t>
+  </si>
+  <si>
+    <t>Key in VOU-PIXEL9PRO-800</t>
+  </si>
+  <si>
+    <t>Pixel 9 Pro 256GB-Rose Quartz</t>
+  </si>
+  <si>
+    <t>Pixel 9 Pro 256GB-Obsidian</t>
+  </si>
+  <si>
+    <t>Pixel 9 Pro 256GB-Porcelain</t>
+  </si>
+  <si>
+    <t>Pixel 9 Pro 256GB-Hazel</t>
+  </si>
+  <si>
+    <t>Pixel 9 Pro 512GB-Obsidian</t>
+  </si>
+  <si>
+    <t>Pixel 9 Pro 512GB-Hazel</t>
+  </si>
+  <si>
     <t>Pixel 9 Pro XL 128GB-Obsidian</t>
   </si>
   <si>
-    <t>Key in VOU-TUV-PIXEL9-1100  (Pixel 9 Pro XL Trade Up Voucher RM1100)
-*only for those trade in old device and purchase Pixel 9 Pro XL
-AND
-- Premium Google Services* (1 Year Google One AI Premium plan and 6 month Fitbit Premium)
-*until further notice</t>
-  </si>
-  <si>
-    <t>Key in VOU-TUV-PIXEL9-1100
-- Open for all customers, allowing one-time redemption per SON
-AND
-Premium Google Services* (6 months Google One Premium 2 TB plan and 6 months Fitbit
-Premium)
- *until further notice</t>
+    <t>Key in VOU-PIXEL9PROXL-980</t>
   </si>
   <si>
     <t>Pixel 9 Pro XL 256GB-Obsidian</t>
@@ -2195,7 +2355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2311,7 +2471,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2390,6 +2550,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2405,29 +2568,29 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -2801,13 +2964,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191:F196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13.1666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="51" style="2" customWidth="1"/>
@@ -2850,7 +3013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="47.25" spans="1:9">
+    <row r="2" ht="62.4" spans="1:9">
       <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
@@ -2873,7 +3036,7 @@
       </c>
       <c r="I2" s="62"/>
     </row>
-    <row r="3" ht="47.25" spans="1:9">
+    <row r="3" ht="62.4" spans="1:9">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -2896,7 +3059,7 @@
       </c>
       <c r="I3" s="62"/>
     </row>
-    <row r="4" ht="47.25" spans="1:9">
+    <row r="4" ht="62.4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
@@ -2919,16 +3082,14 @@
       </c>
       <c r="I4" s="62"/>
     </row>
-    <row r="5" ht="78.75" spans="1:9">
+    <row r="5" ht="93.6" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21">
-        <v>0.03</v>
-      </c>
+      <c r="C5" s="21"/>
       <c r="D5" s="22">
         <v>5699</v>
       </c>
@@ -2944,16 +3105,14 @@
       </c>
       <c r="I5" s="63"/>
     </row>
-    <row r="6" ht="78.75" spans="1:9">
+    <row r="6" ht="93.6" spans="1:9">
       <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21">
-        <v>0.03</v>
-      </c>
+      <c r="C6" s="21"/>
       <c r="D6" s="22">
         <v>5699</v>
       </c>
@@ -2969,16 +3128,14 @@
       </c>
       <c r="I6" s="63"/>
     </row>
-    <row r="7" ht="78.75" spans="1:9">
+    <row r="7" ht="93.6" spans="1:9">
       <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="21">
-        <v>0.03</v>
-      </c>
+      <c r="C7" s="21"/>
       <c r="D7" s="22">
         <v>5699</v>
       </c>
@@ -2994,223 +3151,191 @@
       </c>
       <c r="I7" s="63"/>
     </row>
-    <row r="8" ht="189" spans="1:9">
+    <row r="8" ht="171.6" spans="1:9">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="C8" s="28"/>
       <c r="D8" s="29">
-        <v>4499</v>
+        <v>3999</v>
       </c>
       <c r="E8" s="23">
-        <v>4269</v>
+        <v>3999</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="31">
-        <v>200</v>
-      </c>
+      <c r="G8" s="31"/>
       <c r="H8" s="32" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="63"/>
     </row>
-    <row r="9" ht="189" spans="1:9">
+    <row r="9" ht="171.6" spans="1:9">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="29">
-        <v>4499</v>
+        <v>3999</v>
       </c>
       <c r="E9" s="23">
-        <v>4269</v>
+        <v>3999</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="31">
-        <v>200</v>
-      </c>
+      <c r="G9" s="31"/>
       <c r="H9" s="32" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="63"/>
     </row>
-    <row r="10" ht="189" spans="1:9">
+    <row r="10" ht="171.6" spans="1:9">
       <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="29">
-        <v>4499</v>
+        <v>3999</v>
       </c>
       <c r="E10" s="23">
-        <v>4269</v>
+        <v>3999</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="31">
-        <v>200</v>
-      </c>
+      <c r="G10" s="31"/>
       <c r="H10" s="32" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="63"/>
     </row>
-    <row r="11" ht="173.25" spans="1:9">
+    <row r="11" ht="140.4" spans="1:9">
       <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="21">
-        <v>0.03</v>
-      </c>
+      <c r="C11" s="21"/>
       <c r="D11" s="22">
-        <v>2699</v>
+        <v>2499</v>
       </c>
       <c r="E11" s="23">
-        <v>2639</v>
+        <v>2499</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="34">
-        <v>50</v>
-      </c>
+      <c r="G11" s="34"/>
       <c r="H11" s="26" t="s">
         <v>33</v>
       </c>
       <c r="I11" s="63"/>
     </row>
-    <row r="12" ht="173.25" spans="1:9">
+    <row r="12" ht="140.4" spans="1:9">
       <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="21">
-        <v>0.03</v>
-      </c>
+      <c r="C12" s="21"/>
       <c r="D12" s="22">
-        <v>2699</v>
+        <v>2499</v>
       </c>
       <c r="E12" s="23">
-        <v>2639</v>
+        <v>2499</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="34">
-        <v>50</v>
-      </c>
+      <c r="G12" s="34"/>
       <c r="H12" s="26" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="63"/>
     </row>
-    <row r="13" ht="173.25" spans="1:9">
+    <row r="13" ht="140.4" spans="1:9">
       <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="C13" s="28"/>
       <c r="D13" s="29">
-        <v>2199</v>
+        <v>1999</v>
       </c>
       <c r="E13" s="23">
-        <v>2139</v>
+        <v>1999</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="31">
-        <v>50</v>
-      </c>
+      <c r="G13" s="31"/>
       <c r="H13" s="32" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="63"/>
     </row>
-    <row r="14" ht="173.25" spans="1:9">
+    <row r="14" ht="140.4" spans="1:9">
       <c r="A14" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="C14" s="28"/>
       <c r="D14" s="29">
-        <v>2199</v>
+        <v>1999</v>
       </c>
       <c r="E14" s="23">
-        <v>2139</v>
+        <v>1999</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="31">
-        <v>50</v>
-      </c>
+      <c r="G14" s="31"/>
       <c r="H14" s="32" t="s">
         <v>39</v>
       </c>
       <c r="I14" s="63"/>
     </row>
-    <row r="15" ht="173.25" spans="1:9">
+    <row r="15" ht="140.4" spans="1:9">
       <c r="A15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="28">
-        <v>0.03</v>
-      </c>
+      <c r="C15" s="28"/>
       <c r="D15" s="29">
-        <v>2199</v>
+        <v>1999</v>
       </c>
       <c r="E15" s="23">
-        <v>2139</v>
+        <v>1999</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="31">
-        <v>50</v>
-      </c>
+      <c r="G15" s="31"/>
       <c r="H15" s="32" t="s">
         <v>41</v>
       </c>
       <c r="I15" s="63"/>
     </row>
-    <row r="16" ht="173.25" spans="1:9">
+    <row r="16" ht="140.4" spans="1:9">
       <c r="A16" s="14" t="s">
         <v>9</v>
       </c>
@@ -3221,23 +3346,21 @@
         <v>0.1</v>
       </c>
       <c r="D16" s="22">
-        <v>1899</v>
+        <v>1699</v>
       </c>
       <c r="E16" s="23">
-        <v>1799</v>
+        <v>1699</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="34">
-        <v>90</v>
-      </c>
+      <c r="G16" s="34"/>
       <c r="H16" s="26" t="s">
         <v>43</v>
       </c>
       <c r="I16" s="63"/>
     </row>
-    <row r="17" ht="173.25" spans="1:9">
+    <row r="17" ht="140.4" spans="1:9">
       <c r="A17" s="14" t="s">
         <v>9</v>
       </c>
@@ -3248,23 +3371,21 @@
         <v>0.1</v>
       </c>
       <c r="D17" s="22">
-        <v>1899</v>
+        <v>1699</v>
       </c>
       <c r="E17" s="23">
-        <v>1799</v>
+        <v>1699</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="34">
-        <v>90</v>
-      </c>
+      <c r="G17" s="34"/>
       <c r="H17" s="26" t="s">
         <v>45</v>
       </c>
       <c r="I17" s="63"/>
     </row>
-    <row r="18" ht="31.5" spans="1:9">
+    <row r="18" ht="78" spans="1:9">
       <c r="A18" s="14" t="s">
         <v>9</v>
       </c>
@@ -3285,7 +3406,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="63"/>
     </row>
-    <row r="19" ht="31.5" spans="1:9">
+    <row r="19" ht="78" spans="1:9">
       <c r="A19" s="14" t="s">
         <v>9</v>
       </c>
@@ -3306,60 +3427,68 @@
       <c r="H19" s="37"/>
       <c r="I19" s="63"/>
     </row>
-    <row r="20" ht="173.25" spans="1:9">
+    <row r="20" ht="202.8" spans="1:9">
       <c r="A20" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="39">
+        <v>0.03</v>
+      </c>
       <c r="D20" s="22">
         <v>1699</v>
       </c>
       <c r="E20" s="23">
-        <v>1699</v>
+        <v>1529</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="38">
+        <v>150</v>
+      </c>
       <c r="H20" s="26" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="63"/>
     </row>
-    <row r="21" ht="173.25" spans="1:9">
+    <row r="21" ht="202.8" spans="1:9">
       <c r="A21" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="39">
+        <v>0.03</v>
+      </c>
       <c r="D21" s="22">
         <v>1699</v>
       </c>
       <c r="E21" s="23">
-        <v>1699</v>
+        <v>1529</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="25">
+        <v>150</v>
+      </c>
       <c r="H21" s="26" t="s">
         <v>53</v>
       </c>
       <c r="I21" s="63"/>
     </row>
-    <row r="22" ht="173.25" spans="1:9">
+    <row r="22" ht="202.8" spans="1:9">
       <c r="A22" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="39">
         <v>0.03</v>
       </c>
       <c r="D22" s="29">
@@ -3379,14 +3508,14 @@
       </c>
       <c r="I22" s="63"/>
     </row>
-    <row r="23" ht="173.25" spans="1:9">
+    <row r="23" ht="202.8" spans="1:9">
       <c r="A23" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="39">
         <v>0.03</v>
       </c>
       <c r="D23" s="29">
@@ -3406,14 +3535,14 @@
       </c>
       <c r="I23" s="63"/>
     </row>
-    <row r="24" ht="173.25" spans="1:9">
+    <row r="24" ht="202.8" spans="1:9">
       <c r="A24" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="39">
         <v>0.03</v>
       </c>
       <c r="D24" s="29">
@@ -3433,7 +3562,7 @@
       </c>
       <c r="I24" s="63"/>
     </row>
-    <row r="25" ht="63" spans="1:9">
+    <row r="25" ht="62.4" spans="1:9">
       <c r="A25" s="14" t="s">
         <v>9</v>
       </c>
@@ -3460,7 +3589,7 @@
       </c>
       <c r="I25" s="63"/>
     </row>
-    <row r="26" ht="63" spans="1:9">
+    <row r="26" ht="62.4" spans="1:9">
       <c r="A26" s="14" t="s">
         <v>9</v>
       </c>
@@ -3487,7 +3616,7 @@
       </c>
       <c r="I26" s="63"/>
     </row>
-    <row r="27" ht="173.25" spans="1:9">
+    <row r="27" ht="78" spans="1:9">
       <c r="A27" s="14" t="s">
         <v>9</v>
       </c>
@@ -3512,7 +3641,7 @@
       <c r="H27" s="37"/>
       <c r="I27" s="63"/>
     </row>
-    <row r="28" ht="173.25" spans="1:9">
+    <row r="28" ht="78" spans="1:9">
       <c r="A28" s="14" t="s">
         <v>9</v>
       </c>
@@ -3537,7 +3666,7 @@
       <c r="H28" s="37"/>
       <c r="I28" s="63"/>
     </row>
-    <row r="29" ht="173.25" spans="1:9">
+    <row r="29" ht="78" spans="1:9">
       <c r="A29" s="14" t="s">
         <v>9</v>
       </c>
@@ -3551,20 +3680,20 @@
         <v>799</v>
       </c>
       <c r="E29" s="41">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>66</v>
       </c>
       <c r="G29" s="38">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>69</v>
       </c>
       <c r="I29" s="63"/>
     </row>
-    <row r="30" ht="173.25" spans="1:9">
+    <row r="30" ht="78" spans="1:9">
       <c r="A30" s="14" t="s">
         <v>9</v>
       </c>
@@ -3578,20 +3707,20 @@
         <v>799</v>
       </c>
       <c r="E30" s="41">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>66</v>
       </c>
       <c r="G30" s="25">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H30" s="26" t="s">
         <v>71</v>
       </c>
       <c r="I30" s="63"/>
     </row>
-    <row r="31" ht="173.25" spans="1:9">
+    <row r="31" spans="1:9">
       <c r="A31" s="14" t="s">
         <v>9</v>
       </c>
@@ -3605,9 +3734,7 @@
       <c r="E31" s="41">
         <v>489</v>
       </c>
-      <c r="F31" s="24" t="s">
-        <v>66</v>
-      </c>
+      <c r="F31" s="24"/>
       <c r="G31" s="25">
         <v>100</v>
       </c>
@@ -3616,7 +3743,7 @@
       </c>
       <c r="I31" s="63"/>
     </row>
-    <row r="32" ht="173.25" spans="1:9">
+    <row r="32" spans="1:9">
       <c r="A32" s="14" t="s">
         <v>9</v>
       </c>
@@ -3630,9 +3757,7 @@
       <c r="E32" s="41">
         <v>489</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>66</v>
-      </c>
+      <c r="F32" s="24"/>
       <c r="G32" s="31">
         <v>100</v>
       </c>
@@ -3641,7 +3766,7 @@
       </c>
       <c r="I32" s="63"/>
     </row>
-    <row r="33" ht="94.5" spans="1:9">
+    <row r="33" ht="93.6" spans="1:9">
       <c r="A33" s="14" t="s">
         <v>76</v>
       </c>
@@ -3659,15 +3784,17 @@
         <v>78</v>
       </c>
       <c r="G33" s="31"/>
-      <c r="H33" s="48"/>
+      <c r="H33" s="48" t="s">
+        <v>79</v>
+      </c>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" ht="94.5" spans="1:9">
+    <row r="34" ht="93.6" spans="1:9">
       <c r="A34" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="45"/>
       <c r="D34" s="46">
@@ -3680,15 +3807,17 @@
         <v>78</v>
       </c>
       <c r="G34" s="36"/>
-      <c r="H34" s="14"/>
+      <c r="H34" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="I34" s="63"/>
     </row>
-    <row r="35" ht="94.5" spans="1:9">
+    <row r="35" ht="93.6" spans="1:9">
       <c r="A35" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="46">
@@ -3701,19 +3830,19 @@
         <v>78</v>
       </c>
       <c r="G35" s="36"/>
-      <c r="H35" s="14"/>
+      <c r="H35" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="I35" s="63"/>
     </row>
-    <row r="36" ht="94.5" spans="1:9">
+    <row r="36" ht="93.6" spans="1:9">
       <c r="A36" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="50">
-        <v>0.1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C36" s="50"/>
       <c r="D36" s="51">
         <v>2599</v>
       </c>
@@ -3721,24 +3850,20 @@
         <v>2599</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G36" s="36"/>
-      <c r="H36" s="14" t="s">
-        <v>83</v>
-      </c>
+      <c r="H36" s="14"/>
       <c r="I36" s="63"/>
     </row>
-    <row r="37" ht="94.5" spans="1:9">
+    <row r="37" ht="93.6" spans="1:9">
       <c r="A37" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="50">
-        <v>0.1</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C37" s="50"/>
       <c r="D37" s="51">
         <v>2599</v>
       </c>
@@ -3746,141 +3871,153 @@
         <v>2599</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G37" s="36"/>
-      <c r="H37" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="H37" s="14"/>
       <c r="I37" s="63"/>
     </row>
-    <row r="38" ht="31.5" spans="1:9">
+    <row r="38" ht="31.2" spans="1:9">
       <c r="A38" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="45"/>
+        <v>87</v>
+      </c>
+      <c r="C38" s="52">
+        <v>0.03</v>
+      </c>
       <c r="D38" s="46">
         <v>2199</v>
       </c>
       <c r="E38" s="47">
-        <v>1999</v>
+        <v>2039</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G38" s="36">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I38" s="63"/>
     </row>
-    <row r="39" ht="31.5" spans="1:9">
+    <row r="39" ht="31.2" spans="1:9">
       <c r="A39" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="45"/>
+        <v>90</v>
+      </c>
+      <c r="C39" s="52">
+        <v>0.03</v>
+      </c>
       <c r="D39" s="46">
         <v>2199</v>
       </c>
       <c r="E39" s="47">
-        <v>1999</v>
+        <v>2039</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G39" s="36">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I39" s="63"/>
     </row>
-    <row r="40" ht="31.5" spans="1:9">
+    <row r="40" ht="31.2" spans="1:9">
       <c r="A40" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="45"/>
+        <v>92</v>
+      </c>
+      <c r="C40" s="52">
+        <v>0.03</v>
+      </c>
       <c r="D40" s="46">
         <v>2199</v>
       </c>
       <c r="E40" s="47">
-        <v>1999</v>
+        <v>2039</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G40" s="36">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I40" s="63"/>
     </row>
-    <row r="41" ht="94.5" spans="1:9">
+    <row r="41" ht="140.4" spans="1:9">
       <c r="A41" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="45"/>
+        <v>94</v>
+      </c>
+      <c r="C41" s="52">
+        <v>0.1</v>
+      </c>
       <c r="D41" s="46">
         <v>1399</v>
       </c>
       <c r="E41" s="47">
-        <v>1399</v>
+        <v>1299</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="36"/>
+        <v>95</v>
+      </c>
+      <c r="G41" s="36">
+        <v>80</v>
+      </c>
       <c r="H41" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I41" s="63"/>
     </row>
-    <row r="42" ht="94.5" spans="1:9">
+    <row r="42" ht="140.4" spans="1:9">
       <c r="A42" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="45"/>
+        <v>97</v>
+      </c>
+      <c r="C42" s="52">
+        <v>0.1</v>
+      </c>
       <c r="D42" s="46">
         <v>1399</v>
       </c>
       <c r="E42" s="47">
-        <v>1399</v>
+        <v>1299</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" s="36"/>
+        <v>95</v>
+      </c>
+      <c r="G42" s="36">
+        <v>80</v>
+      </c>
       <c r="H42" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I42" s="63"/>
     </row>
-    <row r="43" ht="94.5" spans="1:9">
+    <row r="43" ht="140.4" spans="1:9">
       <c r="A43" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="52">
         <v>0.03</v>
@@ -3892,22 +4029,22 @@
         <v>1629</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G43" s="36">
         <v>100</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I43" s="63"/>
     </row>
-    <row r="44" ht="94.5" spans="1:9">
+    <row r="44" ht="140.4" spans="1:9">
       <c r="A44" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="52">
         <v>0.03</v>
@@ -3919,13 +4056,13 @@
         <v>1629</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G44" s="36">
         <v>100</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I44" s="63"/>
     </row>
@@ -3934,7 +4071,7 @@
         <v>76</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="53"/>
       <c r="D45" s="51">
@@ -3953,7 +4090,7 @@
         <v>76</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" s="53"/>
       <c r="D46" s="51">
@@ -3972,7 +4109,7 @@
         <v>76</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="46">
@@ -3991,7 +4128,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" s="45"/>
       <c r="D48" s="46">
@@ -4010,14 +4147,14 @@
         <v>76</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" s="45"/>
-      <c r="D49" s="55">
-        <v>699</v>
-      </c>
-      <c r="E49" s="56">
-        <v>699</v>
+      <c r="D49" s="46">
+        <v>749</v>
+      </c>
+      <c r="E49" s="47">
+        <v>749</v>
       </c>
       <c r="F49" s="54"/>
       <c r="G49" s="36"/>
@@ -4029,14 +4166,14 @@
         <v>76</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="45"/>
-      <c r="D50" s="55">
-        <v>699</v>
-      </c>
-      <c r="E50" s="56">
-        <v>699</v>
+      <c r="D50" s="46">
+        <v>749</v>
+      </c>
+      <c r="E50" s="47">
+        <v>749</v>
       </c>
       <c r="F50" s="54"/>
       <c r="G50" s="36"/>
@@ -4047,158 +4184,144 @@
       <c r="A51" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="57">
-        <v>0.03</v>
-      </c>
-      <c r="D51" s="58">
-        <v>799</v>
+      <c r="B51" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="45"/>
+      <c r="D51" s="55">
+        <v>699</v>
       </c>
       <c r="E51" s="56">
-        <v>759</v>
+        <v>699</v>
       </c>
       <c r="F51" s="54"/>
-      <c r="G51" s="36">
-        <v>30</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="14"/>
       <c r="I51" s="63"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="57">
+      <c r="C52" s="45"/>
+      <c r="D52" s="55">
+        <v>699</v>
+      </c>
+      <c r="E52" s="56">
+        <v>699</v>
+      </c>
+      <c r="F52" s="54"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="63"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="57">
         <v>0.03</v>
       </c>
-      <c r="D52" s="58">
+      <c r="D53" s="58">
         <v>799</v>
       </c>
-      <c r="E52" s="56">
+      <c r="E53" s="56">
         <v>759</v>
       </c>
-      <c r="F52" s="54"/>
-      <c r="G52" s="36">
+      <c r="F53" s="54"/>
+      <c r="G53" s="36">
         <v>30</v>
       </c>
-      <c r="H52" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="I52" s="63"/>
-    </row>
-    <row r="53" ht="31.5" spans="1:9">
-      <c r="A53" s="14" t="s">
+      <c r="H53" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="I53" s="63"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="46">
+      <c r="C54" s="57">
+        <v>0.03</v>
+      </c>
+      <c r="D54" s="58">
+        <v>799</v>
+      </c>
+      <c r="E54" s="56">
+        <v>759</v>
+      </c>
+      <c r="F54" s="54"/>
+      <c r="G54" s="36">
+        <v>30</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" s="63"/>
+    </row>
+    <row r="55" ht="31.2" spans="1:9">
+      <c r="A55" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="46">
         <v>4599</v>
       </c>
-      <c r="E53" s="47">
+      <c r="E55" s="47">
         <v>4499</v>
       </c>
-      <c r="F53" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="36"/>
-      <c r="H53" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I53" s="63"/>
-    </row>
-    <row r="54" ht="31.5" spans="1:9">
-      <c r="A54" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="46">
-        <v>4599</v>
-      </c>
-      <c r="E54" s="47">
-        <v>4499</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="36"/>
-      <c r="H54" s="26" t="s">
+      <c r="F55" s="24" t="s">
         <v>117</v>
-      </c>
-      <c r="I54" s="63"/>
-    </row>
-    <row r="55" ht="47.25" spans="1:9">
-      <c r="A55" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D55" s="46">
-        <v>1999</v>
-      </c>
-      <c r="E55" s="47">
-        <v>1999</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>120</v>
       </c>
       <c r="G55" s="36"/>
       <c r="H55" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I55" s="63"/>
     </row>
-    <row r="56" ht="47.25" spans="1:9">
+    <row r="56" ht="31.2" spans="1:9">
       <c r="A56" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="21">
-        <v>0.1</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C56" s="21"/>
       <c r="D56" s="46">
-        <v>1999</v>
+        <v>4599</v>
       </c>
       <c r="E56" s="47">
-        <v>1999</v>
+        <v>4499</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G56" s="36"/>
       <c r="H56" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I56" s="63"/>
     </row>
-    <row r="57" ht="47.25" spans="1:9">
+    <row r="57" ht="46.8" spans="1:9">
       <c r="A57" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="21">
-        <v>0.1</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C57" s="21"/>
       <c r="D57" s="46">
         <v>1999</v>
       </c>
@@ -4206,199 +4329,207 @@
         <v>1999</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G57" s="36"/>
       <c r="H57" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I57" s="63"/>
+    </row>
+    <row r="58" ht="46.8" spans="1:9">
+      <c r="A58" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="I57" s="63"/>
-    </row>
-    <row r="58" ht="47.25" spans="1:9">
-      <c r="A58" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="45"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="46">
-        <v>2399</v>
+        <v>1999</v>
       </c>
       <c r="E58" s="47">
-        <v>2399</v>
+        <v>1999</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G58" s="36"/>
       <c r="H58" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" s="63"/>
+    </row>
+    <row r="59" ht="46.8" spans="1:9">
+      <c r="A59" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="I58" s="63"/>
-    </row>
-    <row r="59" ht="47.25" spans="1:9">
-      <c r="A59" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="45"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="46">
-        <v>2399</v>
+        <v>1999</v>
       </c>
       <c r="E59" s="47">
-        <v>2399</v>
+        <v>1999</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G59" s="36"/>
       <c r="H59" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" s="63"/>
+    </row>
+    <row r="60" ht="46.8" spans="1:9">
+      <c r="A60" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="I59" s="63"/>
-    </row>
-    <row r="60" ht="31.5" spans="1:9">
-      <c r="A60" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="59" t="s">
+      <c r="C60" s="45"/>
+      <c r="D60" s="46">
+        <v>2399</v>
+      </c>
+      <c r="E60" s="47">
+        <v>2399</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="36"/>
+      <c r="H60" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="61">
+      <c r="I60" s="63"/>
+    </row>
+    <row r="61" ht="46.8" spans="1:9">
+      <c r="A61" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="45"/>
+      <c r="D61" s="46">
+        <v>2399</v>
+      </c>
+      <c r="E61" s="47">
+        <v>2399</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="36"/>
+      <c r="H61" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I61" s="63"/>
+    </row>
+    <row r="62" ht="62.4" spans="1:9">
+      <c r="A62" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="60"/>
+      <c r="D62" s="61">
         <v>3299</v>
       </c>
-      <c r="E60" s="47">
+      <c r="E62" s="47">
         <v>3299</v>
       </c>
-      <c r="F60" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G60" s="36"/>
-      <c r="H60" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="I60" s="63"/>
-    </row>
-    <row r="61" ht="31.5" spans="1:9">
-      <c r="A61" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="61">
+      <c r="F62" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" s="36"/>
+      <c r="H62" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I62" s="63"/>
+    </row>
+    <row r="63" ht="62.4" spans="1:9">
+      <c r="A63" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="60"/>
+      <c r="D63" s="61">
         <v>3299</v>
       </c>
-      <c r="E61" s="47">
+      <c r="E63" s="47">
         <v>3299</v>
       </c>
-      <c r="F61" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G61" s="36"/>
-      <c r="H61" s="32" t="s">
+      <c r="F63" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="I61" s="63"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="45"/>
-      <c r="D62" s="46">
-        <v>1399</v>
-      </c>
-      <c r="E62" s="47">
-        <v>1399</v>
-      </c>
-      <c r="F62" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="G62" s="36"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="63"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="44" t="s">
+      <c r="G63" s="36"/>
+      <c r="H63" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="46">
-        <v>1399</v>
-      </c>
-      <c r="E63" s="47">
-        <v>1399</v>
-      </c>
-      <c r="F63" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="14"/>
       <c r="I63" s="63"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B64" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="61">
-        <v>1199</v>
-      </c>
-      <c r="E64" s="47">
-        <v>1199</v>
-      </c>
-      <c r="F64" s="54"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="46">
+        <v>1299</v>
+      </c>
+      <c r="E64" s="46">
+        <v>1299</v>
+      </c>
+      <c r="F64" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="G64" s="36"/>
       <c r="H64" s="14"/>
       <c r="I64" s="63"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="45"/>
+      <c r="D65" s="46">
+        <v>1299</v>
+      </c>
+      <c r="E65" s="46">
+        <v>1299</v>
+      </c>
+      <c r="F65" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61">
-        <v>1199</v>
-      </c>
-      <c r="E65" s="47">
-        <v>1199</v>
-      </c>
-      <c r="F65" s="54"/>
       <c r="G65" s="36"/>
       <c r="H65" s="14"/>
       <c r="I65" s="63"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B66" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="55">
-        <v>749</v>
-      </c>
-      <c r="E66" s="56">
-        <v>749</v>
+        <v>121</v>
+      </c>
+      <c r="B66" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="60"/>
+      <c r="D66" s="61">
+        <v>1099</v>
+      </c>
+      <c r="E66" s="61">
+        <v>1099</v>
       </c>
       <c r="F66" s="54"/>
       <c r="G66" s="36"/>
@@ -4407,236 +4538,228 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B67" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C67" s="45"/>
-      <c r="D67" s="55">
-        <v>749</v>
-      </c>
-      <c r="E67" s="56">
-        <v>749</v>
+        <v>121</v>
+      </c>
+      <c r="B67" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="60"/>
+      <c r="D67" s="61">
+        <v>1099</v>
+      </c>
+      <c r="E67" s="61">
+        <v>1099</v>
       </c>
       <c r="F67" s="54"/>
       <c r="G67" s="36"/>
       <c r="H67" s="14"/>
       <c r="I67" s="63"/>
     </row>
-    <row r="68" ht="141.75" spans="1:9">
+    <row r="68" spans="1:9">
       <c r="A68" s="14" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B68" s="44" t="s">
         <v>143</v>
       </c>
       <c r="C68" s="45"/>
-      <c r="D68" s="46">
-        <v>3699</v>
-      </c>
-      <c r="E68" s="47">
-        <v>3699</v>
-      </c>
-      <c r="F68" s="24" t="s">
+      <c r="D68" s="55">
+        <v>749</v>
+      </c>
+      <c r="E68" s="56">
+        <v>749</v>
+      </c>
+      <c r="F68" s="54"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="63"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="G68" s="36"/>
-      <c r="H68" s="26" t="s">
+      <c r="C69" s="45"/>
+      <c r="D69" s="55">
+        <v>749</v>
+      </c>
+      <c r="E69" s="56">
+        <v>749</v>
+      </c>
+      <c r="F69" s="54"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="63"/>
+    </row>
+    <row r="70" ht="140.4" spans="1:9">
+      <c r="A70" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="I68" s="63"/>
-    </row>
-    <row r="69" ht="141.75" spans="1:9">
-      <c r="A69" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B69" s="44" t="s">
+      <c r="B70" s="44" t="s">
         <v>146</v>
-      </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="46">
-        <v>3699</v>
-      </c>
-      <c r="E69" s="47">
-        <v>3699</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G69" s="36"/>
-      <c r="H69" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="I69" s="63"/>
-    </row>
-    <row r="70" ht="141.75" spans="1:9">
-      <c r="A70" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" s="44" t="s">
-        <v>148</v>
       </c>
       <c r="C70" s="45"/>
       <c r="D70" s="46">
-        <v>4899</v>
+        <v>2999</v>
       </c>
       <c r="E70" s="47">
-        <v>4899</v>
+        <v>2999</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G70" s="36"/>
       <c r="H70" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="I70" s="63"/>
+    </row>
+    <row r="71" ht="140.4" spans="1:9">
+      <c r="A71" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="44" t="s">
         <v>149</v>
-      </c>
-      <c r="I70" s="63"/>
-    </row>
-    <row r="71" ht="141.75" spans="1:9">
-      <c r="A71" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" s="44" t="s">
-        <v>150</v>
       </c>
       <c r="C71" s="45"/>
       <c r="D71" s="46">
-        <v>4899</v>
+        <v>2999</v>
       </c>
       <c r="E71" s="47">
-        <v>4899</v>
+        <v>2999</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G71" s="36"/>
       <c r="H71" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I71" s="63"/>
+    </row>
+    <row r="72" ht="140.4" spans="1:9">
+      <c r="A72" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="44" t="s">
         <v>151</v>
-      </c>
-      <c r="I71" s="63"/>
-    </row>
-    <row r="72" ht="141.75" spans="1:9">
-      <c r="A72" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B72" s="44" t="s">
-        <v>152</v>
       </c>
       <c r="C72" s="45"/>
       <c r="D72" s="46">
-        <v>6599</v>
+        <v>3999</v>
       </c>
       <c r="E72" s="47">
-        <v>6599</v>
+        <v>3999</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G72" s="36"/>
       <c r="H72" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="I72" s="63"/>
+    </row>
+    <row r="73" ht="140.4" spans="1:9">
+      <c r="A73" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="44" t="s">
         <v>153</v>
-      </c>
-      <c r="I72" s="63"/>
-    </row>
-    <row r="73" ht="94.5" spans="1:9">
-      <c r="A73" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B73" s="44" t="s">
-        <v>155</v>
       </c>
       <c r="C73" s="45"/>
       <c r="D73" s="46">
-        <v>5199</v>
+        <v>3999</v>
       </c>
       <c r="E73" s="47">
-        <v>5199</v>
+        <v>3999</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G73" s="36"/>
       <c r="H73" s="26" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I73" s="63"/>
     </row>
-    <row r="74" ht="94.5" spans="1:9">
+    <row r="74" ht="140.4" spans="1:9">
       <c r="A74" s="14" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C74" s="45"/>
       <c r="D74" s="46">
-        <v>5199</v>
+        <v>5499</v>
       </c>
       <c r="E74" s="47">
-        <v>5199</v>
+        <v>5499</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G74" s="36"/>
       <c r="H74" s="26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I74" s="63"/>
     </row>
-    <row r="75" ht="31.5" spans="1:9">
+    <row r="75" ht="93.6" spans="1:9">
       <c r="A75" s="14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C75" s="45"/>
       <c r="D75" s="46">
-        <v>3799</v>
+        <v>5199</v>
       </c>
       <c r="E75" s="47">
-        <v>3799</v>
+        <v>5199</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G75" s="36"/>
       <c r="H75" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I75" s="63"/>
     </row>
-    <row r="76" ht="31.5" spans="1:9">
+    <row r="76" ht="93.6" spans="1:9">
       <c r="A76" s="14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C76" s="45"/>
       <c r="D76" s="46">
-        <v>3799</v>
+        <v>5199</v>
       </c>
       <c r="E76" s="47">
-        <v>3799</v>
+        <v>5199</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G76" s="36"/>
       <c r="H76" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I76" s="63"/>
     </row>
-    <row r="77" ht="31.5" spans="1:9">
+    <row r="77" ht="31.2" spans="1:9">
       <c r="A77" s="14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C77" s="45"/>
       <c r="D77" s="46">
@@ -4646,64 +4769,64 @@
         <v>3799</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G77" s="36"/>
-      <c r="H77" s="64"/>
+      <c r="H77" s="26" t="s">
+        <v>165</v>
+      </c>
       <c r="I77" s="63"/>
     </row>
-    <row r="78" ht="31.5" spans="1:9">
+    <row r="78" ht="31.2" spans="1:9">
       <c r="A78" s="14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B78" s="44" t="s">
         <v>166</v>
       </c>
       <c r="C78" s="45"/>
       <c r="D78" s="46">
-        <v>3499</v>
+        <v>3799</v>
       </c>
       <c r="E78" s="47">
-        <v>3499</v>
+        <v>3799</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G78" s="36"/>
       <c r="H78" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I78" s="63"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="44" t="s">
         <v>168</v>
-      </c>
-      <c r="I78" s="63"/>
-    </row>
-    <row r="79" ht="31.5" spans="1:9">
-      <c r="A79" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B79" s="44" t="s">
-        <v>169</v>
       </c>
       <c r="C79" s="45"/>
       <c r="D79" s="46">
-        <v>3499</v>
+        <v>3799</v>
       </c>
       <c r="E79" s="47">
-        <v>3499</v>
+        <v>3799</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G79" s="36"/>
-      <c r="H79" s="26" t="s">
+      <c r="H79" s="64"/>
+      <c r="I79" s="63"/>
+    </row>
+    <row r="80" ht="31.2" spans="1:9">
+      <c r="A80" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="I79" s="63"/>
-    </row>
-    <row r="80" ht="31.5" spans="1:9">
-      <c r="A80" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B80" s="44" t="s">
-        <v>171</v>
       </c>
       <c r="C80" s="45"/>
       <c r="D80" s="46">
@@ -4713,7 +4836,7 @@
         <v>3499</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G80" s="36"/>
       <c r="H80" s="26" t="s">
@@ -4721,2248 +4844,2795 @@
       </c>
       <c r="I80" s="63"/>
     </row>
-    <row r="81" ht="47.25" spans="1:9">
+    <row r="81" ht="31.2" spans="1:9">
       <c r="A81" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="B81" s="65" t="s">
+      <c r="C81" s="45"/>
+      <c r="D81" s="46">
+        <v>3499</v>
+      </c>
+      <c r="E81" s="47">
+        <v>3499</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G81" s="36"/>
+      <c r="H81" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="39"/>
-      <c r="D81" s="66">
+      <c r="I81" s="63"/>
+    </row>
+    <row r="82" ht="31.2" spans="1:9">
+      <c r="A82" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="45"/>
+      <c r="D82" s="46">
+        <v>3499</v>
+      </c>
+      <c r="E82" s="47">
+        <v>3499</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G82" s="36"/>
+      <c r="H82" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="I82" s="63"/>
+    </row>
+    <row r="83" ht="218.4" spans="1:9">
+      <c r="A83" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="66"/>
+      <c r="D83" s="67">
+        <v>1899</v>
+      </c>
+      <c r="E83" s="67">
+        <v>1899</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G83" s="68"/>
+      <c r="H83" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="I83" s="63"/>
+    </row>
+    <row r="84" ht="218.4" spans="1:9">
+      <c r="A84" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="66"/>
+      <c r="D84" s="67">
+        <v>1899</v>
+      </c>
+      <c r="E84" s="67">
+        <v>1899</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G84" s="68"/>
+      <c r="H84" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="I84" s="63"/>
+    </row>
+    <row r="85" ht="218.4" spans="1:9">
+      <c r="A85" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="66"/>
+      <c r="D85" s="67">
+        <v>1899</v>
+      </c>
+      <c r="E85" s="47">
+        <v>1899</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G85" s="68"/>
+      <c r="H85" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="I85" s="63"/>
+    </row>
+    <row r="86" ht="218.4" spans="1:9">
+      <c r="A86" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="66"/>
+      <c r="D86" s="67">
+        <v>2199</v>
+      </c>
+      <c r="E86" s="47">
+        <v>2199</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G86" s="68"/>
+      <c r="H86" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="I86" s="63"/>
+    </row>
+    <row r="87" ht="218.4" spans="1:9">
+      <c r="A87" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="66"/>
+      <c r="D87" s="67">
+        <v>2199</v>
+      </c>
+      <c r="E87" s="47">
+        <v>2199</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G87" s="68"/>
+      <c r="H87" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="I87" s="63"/>
+    </row>
+    <row r="88" ht="218.4" spans="1:9">
+      <c r="A88" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="66"/>
+      <c r="D88" s="67">
+        <v>2199</v>
+      </c>
+      <c r="E88" s="47">
+        <v>2199</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G88" s="68"/>
+      <c r="H88" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="I88" s="63"/>
+    </row>
+    <row r="89" ht="234" spans="1:9">
+      <c r="A89" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" s="66"/>
+      <c r="D89" s="67">
+        <v>2599</v>
+      </c>
+      <c r="E89" s="47">
+        <v>2599</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G89" s="68"/>
+      <c r="H89" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="I89" s="63"/>
+    </row>
+    <row r="90" ht="234" spans="1:9">
+      <c r="A90" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="66"/>
+      <c r="D90" s="67">
+        <v>2599</v>
+      </c>
+      <c r="E90" s="47">
+        <v>2599</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G90" s="68"/>
+      <c r="H90" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="I90" s="63"/>
+    </row>
+    <row r="91" ht="234" spans="1:9">
+      <c r="A91" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="66"/>
+      <c r="D91" s="67">
+        <v>2599</v>
+      </c>
+      <c r="E91" s="47">
+        <v>2599</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G91" s="68"/>
+      <c r="H91" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="I91" s="63"/>
+    </row>
+    <row r="92" ht="234" spans="1:9">
+      <c r="A92" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="66"/>
+      <c r="D92" s="67">
+        <v>2999</v>
+      </c>
+      <c r="E92" s="47">
+        <v>2999</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G92" s="68"/>
+      <c r="H92" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="I92" s="63"/>
+    </row>
+    <row r="93" ht="234" spans="1:9">
+      <c r="A93" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" s="66"/>
+      <c r="D93" s="67">
+        <v>2999</v>
+      </c>
+      <c r="E93" s="47">
+        <v>2999</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G93" s="68"/>
+      <c r="H93" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="I93" s="63"/>
+    </row>
+    <row r="94" ht="234" spans="1:9">
+      <c r="A94" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="66"/>
+      <c r="D94" s="67">
+        <v>2999</v>
+      </c>
+      <c r="E94" s="47">
+        <v>2999</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G94" s="68"/>
+      <c r="H94" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="I94" s="63"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="66"/>
+      <c r="D95" s="67">
         <v>4999</v>
       </c>
-      <c r="E81" s="47">
-        <v>4349</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G81" s="67">
-        <v>200</v>
-      </c>
-      <c r="H81" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="I81" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="82" ht="47.25" spans="1:9">
-      <c r="A82" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B82" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="C82" s="39"/>
-      <c r="D82" s="66">
+      <c r="E95" s="47">
+        <v>4699</v>
+      </c>
+      <c r="F95" s="24"/>
+      <c r="G95" s="68"/>
+      <c r="H95" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="I95" s="63"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" s="65" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="66"/>
+      <c r="D96" s="67">
         <v>4999</v>
       </c>
-      <c r="E82" s="47">
-        <v>4349</v>
-      </c>
-      <c r="F82" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G82" s="67">
-        <v>200</v>
-      </c>
-      <c r="H82" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="I82" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="83" ht="47.25" spans="1:9">
-      <c r="A83" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B83" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="C83" s="39"/>
-      <c r="D83" s="66">
+      <c r="E96" s="47">
+        <v>4699</v>
+      </c>
+      <c r="F96" s="24"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="I96" s="63"/>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" s="66"/>
+      <c r="D97" s="67">
         <v>4999</v>
       </c>
-      <c r="E83" s="47">
-        <v>4349</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G83" s="67">
-        <v>200</v>
-      </c>
-      <c r="H83" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="I83" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="84" ht="47.25" spans="1:9">
-      <c r="A84" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="C84" s="39"/>
-      <c r="D84" s="66">
-        <v>4999</v>
-      </c>
-      <c r="E84" s="47">
-        <v>4349</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G84" s="67">
-        <v>200</v>
-      </c>
-      <c r="H84" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="I84" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="85" ht="47.25" spans="1:9">
-      <c r="A85" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B85" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="C85" s="39"/>
-      <c r="D85" s="66">
-        <v>5599</v>
-      </c>
-      <c r="E85" s="47">
-        <v>4949</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G85" s="67">
-        <v>200</v>
-      </c>
-      <c r="H85" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="I85" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="86" ht="47.25" spans="1:9">
-      <c r="A86" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B86" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="C86" s="39"/>
-      <c r="D86" s="66">
-        <v>5599</v>
-      </c>
-      <c r="E86" s="47">
-        <v>4949</v>
-      </c>
-      <c r="F86" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G86" s="67">
-        <v>200</v>
-      </c>
-      <c r="H86" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="I86" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="87" ht="47.25" spans="1:9">
-      <c r="A87" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B87" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="C87" s="39"/>
-      <c r="D87" s="66">
-        <v>5599</v>
-      </c>
-      <c r="E87" s="47">
-        <v>4949</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G87" s="67">
-        <v>200</v>
-      </c>
-      <c r="H87" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="I87" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="88" ht="47.25" spans="1:9">
-      <c r="A88" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="C88" s="39"/>
-      <c r="D88" s="66">
-        <v>5599</v>
-      </c>
-      <c r="E88" s="47">
-        <v>4949</v>
-      </c>
-      <c r="F88" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G88" s="67">
-        <v>200</v>
-      </c>
-      <c r="H88" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="I88" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="89" ht="47.25" spans="1:9">
-      <c r="A89" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B89" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="C89" s="39"/>
-      <c r="D89" s="61">
-        <v>7299</v>
-      </c>
-      <c r="E89" s="47">
-        <v>6349</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G89" s="70">
-        <v>200</v>
-      </c>
-      <c r="H89" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="I89" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="90" ht="47.25" spans="1:9">
-      <c r="A90" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B90" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="C90" s="39"/>
-      <c r="D90" s="61">
-        <v>7299</v>
-      </c>
-      <c r="E90" s="47">
-        <v>6349</v>
-      </c>
-      <c r="F90" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G90" s="70">
-        <v>200</v>
-      </c>
-      <c r="H90" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="I90" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="91" ht="47.25" spans="1:9">
-      <c r="A91" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B91" s="69" t="s">
-        <v>195</v>
-      </c>
-      <c r="C91" s="39"/>
-      <c r="D91" s="61">
-        <v>7299</v>
-      </c>
-      <c r="E91" s="47">
-        <v>6349</v>
-      </c>
-      <c r="F91" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G91" s="70">
-        <v>200</v>
-      </c>
-      <c r="H91" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="I91" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="92" ht="47.25" spans="1:9">
-      <c r="A92" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B92" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C92" s="39"/>
-      <c r="D92" s="61">
-        <v>7899</v>
-      </c>
-      <c r="E92" s="47">
-        <v>6899</v>
-      </c>
-      <c r="F92" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G92" s="70">
-        <v>200</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="I92" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="93" ht="47.25" spans="1:9">
-      <c r="A93" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B93" s="69" t="s">
-        <v>199</v>
-      </c>
-      <c r="C93" s="39"/>
-      <c r="D93" s="61">
-        <v>7899</v>
-      </c>
-      <c r="E93" s="47">
-        <v>6899</v>
-      </c>
-      <c r="F93" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G93" s="70">
-        <v>200</v>
-      </c>
-      <c r="H93" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="I93" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="94" ht="47.25" spans="1:9">
-      <c r="A94" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B94" s="69" t="s">
-        <v>201</v>
-      </c>
-      <c r="C94" s="39"/>
-      <c r="D94" s="61">
-        <v>7899</v>
-      </c>
-      <c r="E94" s="47">
-        <v>6899</v>
-      </c>
-      <c r="F94" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G94" s="70">
-        <v>200</v>
-      </c>
-      <c r="H94" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="I94" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="95" ht="47.25" spans="1:9">
-      <c r="A95" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B95" s="69" t="s">
-        <v>203</v>
-      </c>
-      <c r="C95" s="39"/>
-      <c r="D95" s="61">
-        <v>9099</v>
-      </c>
-      <c r="E95" s="47">
-        <v>7999</v>
-      </c>
-      <c r="F95" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G95" s="70">
-        <v>200</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="I95" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="96" ht="47.25" spans="1:9">
-      <c r="A96" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B96" s="69" t="s">
-        <v>205</v>
-      </c>
-      <c r="C96" s="39"/>
-      <c r="D96" s="61">
-        <v>9099</v>
-      </c>
-      <c r="E96" s="47">
-        <v>7999</v>
-      </c>
-      <c r="F96" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G96" s="70">
-        <v>200</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="I96" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="97" ht="47.25" spans="1:9">
-      <c r="A97" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B97" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="C97" s="39"/>
-      <c r="D97" s="61">
-        <v>9099</v>
-      </c>
       <c r="E97" s="47">
-        <v>7999</v>
-      </c>
-      <c r="F97" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G97" s="70">
-        <v>200</v>
-      </c>
-      <c r="H97" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="I97" s="63">
-        <v>45557</v>
-      </c>
+        <v>4699</v>
+      </c>
+      <c r="F97" s="24"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="I97" s="63"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C98" s="71"/>
-      <c r="D98" s="66">
-        <v>7799</v>
+        <v>203</v>
+      </c>
+      <c r="B98" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" s="66"/>
+      <c r="D98" s="67">
+        <v>4999</v>
       </c>
       <c r="E98" s="47">
-        <v>6899</v>
-      </c>
-      <c r="F98" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G98" s="70">
-        <v>400</v>
-      </c>
-      <c r="H98" s="72" t="s">
+        <v>4699</v>
+      </c>
+      <c r="F98" s="24"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="I98" s="63">
-        <v>45557</v>
-      </c>
+      <c r="I98" s="63"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B99" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="C99" s="71"/>
-      <c r="D99" s="66">
-        <v>7799</v>
+      <c r="C99" s="66"/>
+      <c r="D99" s="67">
+        <v>5599</v>
       </c>
       <c r="E99" s="47">
-        <v>6899</v>
-      </c>
-      <c r="F99" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G99" s="70">
-        <v>400</v>
-      </c>
-      <c r="H99" s="72" t="s">
+        <v>5299</v>
+      </c>
+      <c r="F99" s="24"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="I99" s="63">
-        <v>45557</v>
-      </c>
+      <c r="I99" s="63"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B100" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="C100" s="71"/>
-      <c r="D100" s="66">
-        <v>7799</v>
+      <c r="C100" s="66"/>
+      <c r="D100" s="67">
+        <v>5599</v>
       </c>
       <c r="E100" s="47">
-        <v>6899</v>
-      </c>
-      <c r="F100" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G100" s="70">
-        <v>400</v>
-      </c>
-      <c r="H100" s="72" t="s">
+        <v>5299</v>
+      </c>
+      <c r="F100" s="24"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="I100" s="63">
-        <v>45557</v>
-      </c>
+      <c r="I100" s="63"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B101" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="C101" s="71"/>
-      <c r="D101" s="66">
+      <c r="C101" s="66"/>
+      <c r="D101" s="67">
+        <v>5599</v>
+      </c>
+      <c r="E101" s="47">
+        <v>5299</v>
+      </c>
+      <c r="F101" s="24"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="I101" s="63"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="66"/>
+      <c r="D102" s="67">
+        <v>5599</v>
+      </c>
+      <c r="E102" s="47">
+        <v>5299</v>
+      </c>
+      <c r="F102" s="24"/>
+      <c r="G102" s="68"/>
+      <c r="H102" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="I102" s="63"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" s="66"/>
+      <c r="D103" s="61">
+        <v>7299</v>
+      </c>
+      <c r="E103" s="47">
+        <v>6499</v>
+      </c>
+      <c r="F103" s="24"/>
+      <c r="G103" s="71">
+        <v>200</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="I103" s="63"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C104" s="66"/>
+      <c r="D104" s="61">
+        <v>7299</v>
+      </c>
+      <c r="E104" s="47">
+        <v>6499</v>
+      </c>
+      <c r="F104" s="24"/>
+      <c r="G104" s="71">
+        <v>200</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="I104" s="63"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C105" s="66"/>
+      <c r="D105" s="61">
+        <v>7299</v>
+      </c>
+      <c r="E105" s="47">
+        <v>6499</v>
+      </c>
+      <c r="F105" s="24"/>
+      <c r="G105" s="71">
+        <v>200</v>
+      </c>
+      <c r="H105" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I105" s="63"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="66"/>
+      <c r="D106" s="61">
+        <v>7899</v>
+      </c>
+      <c r="E106" s="47">
+        <v>7099</v>
+      </c>
+      <c r="F106" s="24"/>
+      <c r="G106" s="71">
+        <v>200</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I106" s="63"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C107" s="66"/>
+      <c r="D107" s="61">
+        <v>7899</v>
+      </c>
+      <c r="E107" s="47">
+        <v>7099</v>
+      </c>
+      <c r="F107" s="24"/>
+      <c r="G107" s="71">
+        <v>200</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="I107" s="63"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B108" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" s="66"/>
+      <c r="D108" s="61">
+        <v>7899</v>
+      </c>
+      <c r="E108" s="47">
+        <v>7099</v>
+      </c>
+      <c r="F108" s="24"/>
+      <c r="G108" s="71">
+        <v>200</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="I108" s="63"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" s="70" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="66"/>
+      <c r="D109" s="61">
+        <v>9099</v>
+      </c>
+      <c r="E109" s="47">
+        <v>8299</v>
+      </c>
+      <c r="F109" s="24"/>
+      <c r="G109" s="71">
+        <v>200</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="I109" s="63"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B110" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="66"/>
+      <c r="D110" s="61">
+        <v>9099</v>
+      </c>
+      <c r="E110" s="47">
+        <v>8299</v>
+      </c>
+      <c r="F110" s="24"/>
+      <c r="G110" s="71">
+        <v>200</v>
+      </c>
+      <c r="H110" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I110" s="63"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B111" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" s="66"/>
+      <c r="D111" s="61">
+        <v>9099</v>
+      </c>
+      <c r="E111" s="47">
+        <v>8299</v>
+      </c>
+      <c r="F111" s="24"/>
+      <c r="G111" s="71">
+        <v>200</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="I111" s="63"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D112" s="67">
         <v>7799</v>
       </c>
-      <c r="E101" s="47">
-        <v>6899</v>
-      </c>
-      <c r="F101" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G101" s="70">
-        <v>400</v>
-      </c>
-      <c r="H101" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="I101" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="102" ht="47.25" spans="1:9">
-      <c r="A102" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="C102" s="73">
+      <c r="E112" s="47">
+        <v>7019</v>
+      </c>
+      <c r="F112" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G112" s="71">
+        <v>280</v>
+      </c>
+      <c r="H112" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="I112" s="63"/>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C113" s="72">
         <v>0.03</v>
       </c>
-      <c r="D102" s="66">
+      <c r="D113" s="67">
+        <v>7799</v>
+      </c>
+      <c r="E113" s="47">
+        <v>7019</v>
+      </c>
+      <c r="F113" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G113" s="71">
+        <v>280</v>
+      </c>
+      <c r="H113" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="I113" s="63"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D114" s="67">
+        <v>7799</v>
+      </c>
+      <c r="E114" s="47">
+        <v>7019</v>
+      </c>
+      <c r="F114" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G114" s="71">
+        <v>280</v>
+      </c>
+      <c r="H114" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="I114" s="63"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C115" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D115" s="67">
+        <v>7799</v>
+      </c>
+      <c r="E115" s="47">
+        <v>7019</v>
+      </c>
+      <c r="F115" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G115" s="71">
+        <v>280</v>
+      </c>
+      <c r="H115" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="I115" s="63"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D116" s="67">
         <v>6799</v>
       </c>
-      <c r="E102" s="47">
+      <c r="E116" s="47">
         <v>5899</v>
       </c>
-      <c r="F102" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="G102" s="70">
+      <c r="F116" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G116" s="71">
         <v>300</v>
       </c>
-      <c r="H102" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="I102" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="103" ht="47.25" spans="1:9">
-      <c r="A103" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C103" s="73">
+      <c r="H116" s="69" t="s">
+        <v>248</v>
+      </c>
+      <c r="I116" s="63"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" s="72">
         <v>0.03</v>
       </c>
-      <c r="D103" s="66">
+      <c r="D117" s="67">
         <v>6799</v>
       </c>
-      <c r="E103" s="47">
+      <c r="E117" s="47">
         <v>5899</v>
       </c>
-      <c r="F103" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="G103" s="70">
+      <c r="F117" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G117" s="71">
         <v>300</v>
       </c>
-      <c r="H103" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="I103" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="104" ht="47.25" spans="1:9">
-      <c r="A104" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C104" s="73">
+      <c r="H117" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="I117" s="63"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" s="72">
         <v>0.03</v>
       </c>
-      <c r="D104" s="66">
+      <c r="D118" s="67">
         <v>6799</v>
       </c>
-      <c r="E104" s="47">
+      <c r="E118" s="47">
         <v>5899</v>
       </c>
-      <c r="F104" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="G104" s="70">
+      <c r="F118" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G118" s="71">
         <v>300</v>
       </c>
-      <c r="H104" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="I104" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="105" ht="47.25" spans="1:9">
-      <c r="A105" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C105" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D105" s="66">
-        <v>6799</v>
-      </c>
-      <c r="E105" s="47">
-        <v>5899</v>
-      </c>
-      <c r="F105" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="G105" s="70">
-        <v>300</v>
-      </c>
-      <c r="H105" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="I105" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="106" ht="47.25" spans="1:9">
-      <c r="A106" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C106" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D106" s="66">
-        <v>6799</v>
-      </c>
-      <c r="E106" s="47">
-        <v>5899</v>
-      </c>
-      <c r="F106" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="G106" s="70">
-        <v>300</v>
-      </c>
-      <c r="H106" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="I106" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="107" ht="47.25" spans="1:9">
-      <c r="A107" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C107" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D107" s="66">
-        <v>6299</v>
-      </c>
-      <c r="E107" s="47">
-        <v>5399</v>
-      </c>
-      <c r="F107" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="G107" s="70">
-        <v>300</v>
-      </c>
-      <c r="H107" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="I107" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="108" ht="47.25" spans="1:9">
-      <c r="A108" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C108" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D108" s="66">
-        <v>6299</v>
-      </c>
-      <c r="E108" s="47">
-        <v>5399</v>
-      </c>
-      <c r="F108" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="G108" s="70">
-        <v>300</v>
-      </c>
-      <c r="H108" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="I108" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="109" ht="47.25" spans="1:9">
-      <c r="A109" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C109" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D109" s="66">
-        <v>6299</v>
-      </c>
-      <c r="E109" s="47">
-        <v>5399</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="G109" s="70">
-        <v>300</v>
-      </c>
-      <c r="H109" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="I109" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="110" ht="47.25" spans="1:9">
-      <c r="A110" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C110" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D110" s="66">
-        <v>6299</v>
-      </c>
-      <c r="E110" s="47">
-        <v>5399</v>
-      </c>
-      <c r="F110" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="G110" s="70">
-        <v>300</v>
-      </c>
-      <c r="H110" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="I110" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="111" ht="47.25" spans="1:9">
-      <c r="A111" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B111" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="C111" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D111" s="61">
-        <v>5399</v>
-      </c>
-      <c r="E111" s="47">
-        <v>4499</v>
-      </c>
-      <c r="F111" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="G111" s="70">
-        <v>300</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="I111" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="112" ht="47.25" spans="1:9">
-      <c r="A112" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B112" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="C112" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D112" s="61">
-        <v>5399</v>
-      </c>
-      <c r="E112" s="47">
-        <v>4499</v>
-      </c>
-      <c r="F112" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="G112" s="70">
-        <v>300</v>
-      </c>
-      <c r="H112" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="I112" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="113" ht="47.25" spans="1:9">
-      <c r="A113" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B113" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="C113" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D113" s="61">
-        <v>5399</v>
-      </c>
-      <c r="E113" s="47">
-        <v>4499</v>
-      </c>
-      <c r="F113" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="G113" s="70">
-        <v>300</v>
-      </c>
-      <c r="H113" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="I113" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="114" ht="47.25" spans="1:9">
-      <c r="A114" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B114" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="C114" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D114" s="61">
-        <v>5399</v>
-      </c>
-      <c r="E114" s="47">
-        <v>4499</v>
-      </c>
-      <c r="F114" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="G114" s="70">
-        <v>300</v>
-      </c>
-      <c r="H114" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="I114" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="115" ht="47.25" spans="1:9">
-      <c r="A115" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B115" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="C115" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D115" s="61">
-        <v>4899</v>
-      </c>
-      <c r="E115" s="47">
-        <v>3999</v>
-      </c>
-      <c r="F115" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="G115" s="70">
-        <v>300</v>
-      </c>
-      <c r="H115" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="I115" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="116" ht="47.25" spans="1:9">
-      <c r="A116" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B116" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="C116" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D116" s="61">
-        <v>4899</v>
-      </c>
-      <c r="E116" s="47">
-        <v>3999</v>
-      </c>
-      <c r="F116" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="G116" s="70">
-        <v>300</v>
-      </c>
-      <c r="H116" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="I116" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="117" ht="47.25" spans="1:9">
-      <c r="A117" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B117" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="C117" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D117" s="61">
-        <v>4899</v>
-      </c>
-      <c r="E117" s="47">
-        <v>3999</v>
-      </c>
-      <c r="F117" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="G117" s="70">
-        <v>300</v>
-      </c>
-      <c r="H117" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="I117" s="63">
-        <v>45557</v>
-      </c>
-    </row>
-    <row r="118" ht="47.25" spans="1:9">
-      <c r="A118" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B118" s="59" t="s">
+      <c r="H118" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="C118" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D118" s="61">
-        <v>4899</v>
-      </c>
-      <c r="E118" s="47">
-        <v>3999</v>
-      </c>
-      <c r="F118" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="G118" s="70">
-        <v>300</v>
-      </c>
-      <c r="H118" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="I118" s="63">
-        <v>45557</v>
-      </c>
+      <c r="I118" s="63"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="14" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B119" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C119" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D119" s="67">
+        <v>6799</v>
+      </c>
+      <c r="E119" s="47">
+        <v>5899</v>
+      </c>
+      <c r="F119" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G119" s="71">
+        <v>300</v>
+      </c>
+      <c r="H119" s="69" t="s">
         <v>254</v>
-      </c>
-      <c r="C119" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D119" s="66">
-        <v>4599</v>
-      </c>
-      <c r="E119" s="47">
-        <v>3969</v>
-      </c>
-      <c r="F119" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G119" s="70">
-        <v>130</v>
-      </c>
-      <c r="H119" s="72" t="s">
-        <v>255</v>
       </c>
       <c r="I119" s="63"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="14" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B120" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D120" s="67">
+        <v>6799</v>
+      </c>
+      <c r="E120" s="47">
+        <v>5899</v>
+      </c>
+      <c r="F120" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G120" s="71">
+        <v>300</v>
+      </c>
+      <c r="H120" s="69" t="s">
         <v>256</v>
-      </c>
-      <c r="C120" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D120" s="66">
-        <v>4599</v>
-      </c>
-      <c r="E120" s="47">
-        <v>3969</v>
-      </c>
-      <c r="F120" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G120" s="70">
-        <v>130</v>
-      </c>
-      <c r="H120" s="72" t="s">
-        <v>257</v>
       </c>
       <c r="I120" s="63"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="14" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B121" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C121" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D121" s="67">
+        <v>6299</v>
+      </c>
+      <c r="E121" s="47">
+        <v>5399</v>
+      </c>
+      <c r="F121" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G121" s="71">
+        <v>300</v>
+      </c>
+      <c r="H121" s="69" t="s">
         <v>258</v>
-      </c>
-      <c r="C121" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D121" s="66">
-        <v>4599</v>
-      </c>
-      <c r="E121" s="47">
-        <v>3969</v>
-      </c>
-      <c r="F121" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G121" s="70">
-        <v>130</v>
-      </c>
-      <c r="H121" s="72" t="s">
-        <v>259</v>
       </c>
       <c r="I121" s="63"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="14" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B122" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C122" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D122" s="67">
+        <v>6299</v>
+      </c>
+      <c r="E122" s="47">
+        <v>5399</v>
+      </c>
+      <c r="F122" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G122" s="71">
+        <v>300</v>
+      </c>
+      <c r="H122" s="69" t="s">
         <v>260</v>
-      </c>
-      <c r="C122" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D122" s="66">
-        <v>4599</v>
-      </c>
-      <c r="E122" s="47">
-        <v>3969</v>
-      </c>
-      <c r="F122" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G122" s="70">
-        <v>130</v>
-      </c>
-      <c r="H122" s="72" t="s">
-        <v>261</v>
       </c>
       <c r="I122" s="63"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="14" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B123" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C123" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D123" s="67">
+        <v>6299</v>
+      </c>
+      <c r="E123" s="47">
+        <v>5399</v>
+      </c>
+      <c r="F123" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G123" s="71">
+        <v>300</v>
+      </c>
+      <c r="H123" s="69" t="s">
         <v>262</v>
-      </c>
-      <c r="C123" s="74">
-        <v>0.15</v>
-      </c>
-      <c r="D123" s="66">
-        <v>4099</v>
-      </c>
-      <c r="E123" s="47">
-        <v>3399</v>
-      </c>
-      <c r="F123" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G123" s="70">
-        <v>200</v>
-      </c>
-      <c r="H123" s="72" t="s">
-        <v>263</v>
       </c>
       <c r="I123" s="63"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="14" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B124" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C124" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D124" s="67">
+        <v>6299</v>
+      </c>
+      <c r="E124" s="47">
+        <v>5399</v>
+      </c>
+      <c r="F124" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G124" s="71">
+        <v>300</v>
+      </c>
+      <c r="H124" s="69" t="s">
         <v>264</v>
-      </c>
-      <c r="C124" s="74">
-        <v>0.15</v>
-      </c>
-      <c r="D124" s="66">
-        <v>4099</v>
-      </c>
-      <c r="E124" s="47">
-        <v>3399</v>
-      </c>
-      <c r="F124" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G124" s="70">
-        <v>200</v>
-      </c>
-      <c r="H124" s="72" t="s">
-        <v>265</v>
       </c>
       <c r="I124" s="63"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B125" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B125" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="C125" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D125" s="61">
+        <v>5399</v>
+      </c>
+      <c r="E125" s="47">
+        <v>4599</v>
+      </c>
+      <c r="F125" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G125" s="71">
+        <v>300</v>
+      </c>
+      <c r="H125" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="C125" s="74">
-        <v>0.15</v>
-      </c>
-      <c r="D125" s="66">
-        <v>4099</v>
-      </c>
-      <c r="E125" s="47">
-        <v>3399</v>
-      </c>
-      <c r="F125" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G125" s="70">
-        <v>200</v>
-      </c>
-      <c r="H125" s="72" t="s">
-        <v>267</v>
       </c>
       <c r="I125" s="63"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B126" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B126" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D126" s="61">
+        <v>5399</v>
+      </c>
+      <c r="E126" s="47">
+        <v>4599</v>
+      </c>
+      <c r="F126" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G126" s="71">
+        <v>300</v>
+      </c>
+      <c r="H126" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="C126" s="74">
+      <c r="I126" s="63"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B127" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="C127" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D127" s="61">
+        <v>5399</v>
+      </c>
+      <c r="E127" s="47">
+        <v>4599</v>
+      </c>
+      <c r="F127" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G127" s="71">
+        <v>300</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="I127" s="63"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" s="59" t="s">
+        <v>271</v>
+      </c>
+      <c r="C128" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D128" s="61">
+        <v>5399</v>
+      </c>
+      <c r="E128" s="47">
+        <v>4599</v>
+      </c>
+      <c r="F128" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G128" s="71">
+        <v>300</v>
+      </c>
+      <c r="H128" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="I128" s="63"/>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B129" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D129" s="61">
+        <v>4899</v>
+      </c>
+      <c r="E129" s="47">
+        <v>4099</v>
+      </c>
+      <c r="F129" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G129" s="71">
+        <v>300</v>
+      </c>
+      <c r="H129" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="I129" s="63"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B130" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D130" s="61">
+        <v>4899</v>
+      </c>
+      <c r="E130" s="47">
+        <v>4099</v>
+      </c>
+      <c r="F130" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G130" s="71">
+        <v>300</v>
+      </c>
+      <c r="H130" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="I130" s="63"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D131" s="61">
+        <v>4899</v>
+      </c>
+      <c r="E131" s="47">
+        <v>4099</v>
+      </c>
+      <c r="F131" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G131" s="71">
+        <v>300</v>
+      </c>
+      <c r="H131" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="I131" s="63"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="C132" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D132" s="61">
+        <v>4899</v>
+      </c>
+      <c r="E132" s="47">
+        <v>4099</v>
+      </c>
+      <c r="F132" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G132" s="71">
+        <v>300</v>
+      </c>
+      <c r="H132" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="I132" s="63"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D133" s="67">
+        <v>4599</v>
+      </c>
+      <c r="E133" s="47">
+        <v>3969</v>
+      </c>
+      <c r="F133" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G133" s="71">
+        <v>130</v>
+      </c>
+      <c r="H133" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="I133" s="63"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D134" s="67">
+        <v>4599</v>
+      </c>
+      <c r="E134" s="47">
+        <v>3969</v>
+      </c>
+      <c r="F134" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G134" s="71">
+        <v>130</v>
+      </c>
+      <c r="H134" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="I134" s="63"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D135" s="67">
+        <v>4599</v>
+      </c>
+      <c r="E135" s="47">
+        <v>3969</v>
+      </c>
+      <c r="F135" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G135" s="71">
+        <v>130</v>
+      </c>
+      <c r="H135" s="73" t="s">
+        <v>286</v>
+      </c>
+      <c r="I135" s="63"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C136" s="72">
+        <v>0.03</v>
+      </c>
+      <c r="D136" s="67">
+        <v>4599</v>
+      </c>
+      <c r="E136" s="47">
+        <v>3969</v>
+      </c>
+      <c r="F136" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G136" s="71">
+        <v>130</v>
+      </c>
+      <c r="H136" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="I136" s="63"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C137" s="74">
         <v>0.15</v>
       </c>
-      <c r="D126" s="66">
+      <c r="D137" s="67">
         <v>4099</v>
       </c>
-      <c r="E126" s="47">
+      <c r="E137" s="47">
         <v>3399</v>
       </c>
-      <c r="F126" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="G126" s="70">
+      <c r="F137" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G137" s="71">
         <v>200</v>
       </c>
-      <c r="H126" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="I126" s="63"/>
-    </row>
-    <row r="127" ht="78.75" spans="1:9">
-      <c r="A127" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C127" s="39"/>
-      <c r="D127" s="66">
-        <v>5799</v>
-      </c>
-      <c r="E127" s="47">
-        <v>5499</v>
-      </c>
-      <c r="F127" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="G127" s="36"/>
-      <c r="H127" s="72" t="s">
-        <v>272</v>
-      </c>
-      <c r="I127" s="63"/>
-    </row>
-    <row r="128" ht="78.75" spans="1:9">
-      <c r="A128" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C128" s="39"/>
-      <c r="D128" s="66">
-        <v>5799</v>
-      </c>
-      <c r="E128" s="47">
-        <v>5499</v>
-      </c>
-      <c r="F128" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="G128" s="36"/>
-      <c r="H128" s="72" t="s">
-        <v>274</v>
-      </c>
-      <c r="I128" s="63"/>
-    </row>
-    <row r="129" ht="78.75" spans="1:9">
-      <c r="A129" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="C129" s="39"/>
-      <c r="D129" s="66">
-        <v>5799</v>
-      </c>
-      <c r="E129" s="47">
-        <v>5499</v>
-      </c>
-      <c r="F129" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="G129" s="36"/>
-      <c r="H129" s="72" t="s">
-        <v>276</v>
-      </c>
-      <c r="I129" s="63"/>
-    </row>
-    <row r="130" ht="78.75" spans="1:9">
-      <c r="A130" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C130" s="39"/>
-      <c r="D130" s="66">
-        <v>5799</v>
-      </c>
-      <c r="E130" s="47">
-        <v>5499</v>
-      </c>
-      <c r="F130" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="G130" s="36"/>
-      <c r="H130" s="72" t="s">
-        <v>278</v>
-      </c>
-      <c r="I130" s="63"/>
-    </row>
-    <row r="131" ht="78.75" spans="1:9">
-      <c r="A131" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B131" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="C131" s="39"/>
-      <c r="D131" s="61">
-        <v>5299</v>
-      </c>
-      <c r="E131" s="47">
-        <v>4999</v>
-      </c>
-      <c r="F131" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="G131" s="36"/>
-      <c r="H131" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="I131" s="63"/>
-    </row>
-    <row r="132" ht="78.75" spans="1:9">
-      <c r="A132" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B132" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="C132" s="39"/>
-      <c r="D132" s="61">
-        <v>5299</v>
-      </c>
-      <c r="E132" s="47">
-        <v>4999</v>
-      </c>
-      <c r="F132" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="G132" s="36"/>
-      <c r="H132" s="75" t="s">
-        <v>282</v>
-      </c>
-      <c r="I132" s="63"/>
-    </row>
-    <row r="133" ht="78.75" spans="1:9">
-      <c r="A133" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B133" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="C133" s="39"/>
-      <c r="D133" s="61">
-        <v>5299</v>
-      </c>
-      <c r="E133" s="47">
-        <v>4999</v>
-      </c>
-      <c r="F133" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="G133" s="36"/>
-      <c r="H133" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="I133" s="63"/>
-    </row>
-    <row r="134" ht="78.75" spans="1:9">
-      <c r="A134" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B134" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="C134" s="39"/>
-      <c r="D134" s="61">
-        <v>5299</v>
-      </c>
-      <c r="E134" s="47">
-        <v>4999</v>
-      </c>
-      <c r="F134" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="G134" s="36"/>
-      <c r="H134" s="75" t="s">
-        <v>286</v>
-      </c>
-      <c r="I134" s="63"/>
-    </row>
-    <row r="135" ht="31.5" spans="1:9">
-      <c r="A135" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B135" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="C135" s="76">
-        <v>0.03</v>
-      </c>
-      <c r="D135" s="61">
-        <v>1999</v>
-      </c>
-      <c r="E135" s="47">
-        <v>1929</v>
-      </c>
-      <c r="F135" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="G135" s="77">
-        <v>70</v>
-      </c>
-      <c r="H135" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="I135" s="63"/>
-    </row>
-    <row r="136" ht="31.5" spans="1:9">
-      <c r="A136" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B136" s="59" t="s">
+      <c r="H137" s="73" t="s">
         <v>290</v>
-      </c>
-      <c r="C136" s="76">
-        <v>0.03</v>
-      </c>
-      <c r="D136" s="61">
-        <v>1999</v>
-      </c>
-      <c r="E136" s="47">
-        <v>1929</v>
-      </c>
-      <c r="F136" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="G136" s="77">
-        <v>70</v>
-      </c>
-      <c r="H136" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="I136" s="63"/>
-    </row>
-    <row r="137" ht="31.5" spans="1:9">
-      <c r="A137" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B137" s="59" t="s">
-        <v>292</v>
-      </c>
-      <c r="C137" s="76">
-        <v>0.03</v>
-      </c>
-      <c r="D137" s="61">
-        <v>1999</v>
-      </c>
-      <c r="E137" s="47">
-        <v>1929</v>
-      </c>
-      <c r="F137" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="G137" s="77">
-        <v>70</v>
-      </c>
-      <c r="H137" s="75" t="s">
-        <v>293</v>
       </c>
       <c r="I137" s="63"/>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="14" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C138" s="74">
-        <v>0.1</v>
-      </c>
-      <c r="D138" s="66">
-        <v>1699</v>
+        <v>0.15</v>
+      </c>
+      <c r="D138" s="67">
+        <v>4099</v>
       </c>
       <c r="E138" s="47">
-        <v>1499</v>
+        <v>3399</v>
       </c>
       <c r="F138" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="G138" s="67">
+        <v>239</v>
+      </c>
+      <c r="G138" s="71">
         <v>200</v>
       </c>
-      <c r="H138" s="14"/>
+      <c r="H138" s="73" t="s">
+        <v>292</v>
+      </c>
       <c r="I138" s="63"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="14" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C139" s="74">
-        <v>0.1</v>
-      </c>
-      <c r="D139" s="66">
-        <v>1699</v>
+        <v>0.15</v>
+      </c>
+      <c r="D139" s="67">
+        <v>4099</v>
       </c>
       <c r="E139" s="47">
-        <v>1499</v>
+        <v>3399</v>
       </c>
       <c r="F139" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="G139" s="67">
+        <v>239</v>
+      </c>
+      <c r="G139" s="71">
         <v>200</v>
       </c>
-      <c r="H139" s="14"/>
+      <c r="H139" s="73" t="s">
+        <v>294</v>
+      </c>
       <c r="I139" s="63"/>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="14" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="B140" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C140" s="74">
+        <v>0.15</v>
+      </c>
+      <c r="D140" s="67">
+        <v>4099</v>
+      </c>
+      <c r="E140" s="47">
+        <v>3399</v>
+      </c>
+      <c r="F140" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="G140" s="71">
+        <v>200</v>
+      </c>
+      <c r="H140" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="I140" s="63"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B141" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C140" s="74">
+      <c r="C141" s="66"/>
+      <c r="D141" s="67">
+        <v>3299</v>
+      </c>
+      <c r="E141" s="47">
+        <v>2699</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G141" s="36">
+        <v>300</v>
+      </c>
+      <c r="H141" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="I141" s="63"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C142" s="66"/>
+      <c r="D142" s="67">
+        <v>3299</v>
+      </c>
+      <c r="E142" s="47">
+        <v>2699</v>
+      </c>
+      <c r="F142" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G142" s="36">
+        <v>300</v>
+      </c>
+      <c r="H142" s="73" t="s">
+        <v>301</v>
+      </c>
+      <c r="I142" s="63"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C143" s="66"/>
+      <c r="D143" s="67">
+        <v>3299</v>
+      </c>
+      <c r="E143" s="47">
+        <v>2699</v>
+      </c>
+      <c r="F143" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G143" s="36">
+        <v>300</v>
+      </c>
+      <c r="H143" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="I143" s="63"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C144" s="66"/>
+      <c r="D144" s="67">
+        <v>3299</v>
+      </c>
+      <c r="E144" s="47">
+        <v>2699</v>
+      </c>
+      <c r="F144" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G144" s="36">
+        <v>300</v>
+      </c>
+      <c r="H144" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="I144" s="63"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C145" s="66"/>
+      <c r="D145" s="67">
+        <v>3899</v>
+      </c>
+      <c r="E145" s="47">
+        <v>3299</v>
+      </c>
+      <c r="F145" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G145" s="36">
+        <v>300</v>
+      </c>
+      <c r="H145" s="73" t="s">
+        <v>307</v>
+      </c>
+      <c r="I145" s="63"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C146" s="66"/>
+      <c r="D146" s="67">
+        <v>3899</v>
+      </c>
+      <c r="E146" s="47">
+        <v>3299</v>
+      </c>
+      <c r="F146" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G146" s="36">
+        <v>300</v>
+      </c>
+      <c r="H146" s="73" t="s">
+        <v>309</v>
+      </c>
+      <c r="I146" s="63"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C147" s="66"/>
+      <c r="D147" s="67">
+        <v>3899</v>
+      </c>
+      <c r="E147" s="47">
+        <v>3299</v>
+      </c>
+      <c r="F147" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G147" s="36">
+        <v>300</v>
+      </c>
+      <c r="H147" s="73" t="s">
+        <v>311</v>
+      </c>
+      <c r="I147" s="63"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C148" s="66"/>
+      <c r="D148" s="67">
+        <v>3899</v>
+      </c>
+      <c r="E148" s="47">
+        <v>3299</v>
+      </c>
+      <c r="F148" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G148" s="36">
+        <v>300</v>
+      </c>
+      <c r="H148" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="I148" s="63"/>
+    </row>
+    <row r="149" ht="78" spans="1:9">
+      <c r="A149" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C149" s="66"/>
+      <c r="D149" s="67">
+        <v>5799</v>
+      </c>
+      <c r="E149" s="47">
+        <v>5499</v>
+      </c>
+      <c r="F149" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G149" s="36"/>
+      <c r="H149" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="I149" s="63"/>
+    </row>
+    <row r="150" ht="78" spans="1:9">
+      <c r="A150" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C150" s="66"/>
+      <c r="D150" s="67">
+        <v>5799</v>
+      </c>
+      <c r="E150" s="47">
+        <v>5499</v>
+      </c>
+      <c r="F150" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G150" s="36"/>
+      <c r="H150" s="73" t="s">
+        <v>318</v>
+      </c>
+      <c r="I150" s="63"/>
+    </row>
+    <row r="151" ht="78" spans="1:9">
+      <c r="A151" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C151" s="66"/>
+      <c r="D151" s="67">
+        <v>5799</v>
+      </c>
+      <c r="E151" s="47">
+        <v>5499</v>
+      </c>
+      <c r="F151" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G151" s="36"/>
+      <c r="H151" s="73" t="s">
+        <v>320</v>
+      </c>
+      <c r="I151" s="63"/>
+    </row>
+    <row r="152" ht="78" spans="1:9">
+      <c r="A152" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C152" s="66"/>
+      <c r="D152" s="67">
+        <v>5799</v>
+      </c>
+      <c r="E152" s="47">
+        <v>5499</v>
+      </c>
+      <c r="F152" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G152" s="36"/>
+      <c r="H152" s="73" t="s">
+        <v>322</v>
+      </c>
+      <c r="I152" s="63"/>
+    </row>
+    <row r="153" ht="78" spans="1:9">
+      <c r="A153" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B153" s="59" t="s">
+        <v>323</v>
+      </c>
+      <c r="C153" s="66"/>
+      <c r="D153" s="61">
+        <v>5299</v>
+      </c>
+      <c r="E153" s="47">
+        <v>4999</v>
+      </c>
+      <c r="F153" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G153" s="36"/>
+      <c r="H153" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="I153" s="63"/>
+    </row>
+    <row r="154" ht="78" spans="1:9">
+      <c r="A154" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B154" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="C154" s="66"/>
+      <c r="D154" s="61">
+        <v>5299</v>
+      </c>
+      <c r="E154" s="47">
+        <v>4999</v>
+      </c>
+      <c r="F154" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G154" s="36"/>
+      <c r="H154" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="I154" s="63"/>
+    </row>
+    <row r="155" ht="78" spans="1:9">
+      <c r="A155" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B155" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="C155" s="66"/>
+      <c r="D155" s="61">
+        <v>5299</v>
+      </c>
+      <c r="E155" s="47">
+        <v>4999</v>
+      </c>
+      <c r="F155" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G155" s="36"/>
+      <c r="H155" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="I155" s="63"/>
+    </row>
+    <row r="156" ht="78" spans="1:9">
+      <c r="A156" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B156" s="59" t="s">
+        <v>329</v>
+      </c>
+      <c r="C156" s="66"/>
+      <c r="D156" s="61">
+        <v>5299</v>
+      </c>
+      <c r="E156" s="47">
+        <v>4999</v>
+      </c>
+      <c r="F156" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G156" s="36"/>
+      <c r="H156" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="I156" s="63"/>
+    </row>
+    <row r="157" ht="93.6" spans="1:9">
+      <c r="A157" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B157" s="59" t="s">
+        <v>331</v>
+      </c>
+      <c r="C157" s="76">
         <v>0.1</v>
       </c>
-      <c r="D140" s="66">
+      <c r="D157" s="61">
+        <v>1999</v>
+      </c>
+      <c r="E157" s="47">
+        <v>1999</v>
+      </c>
+      <c r="F157" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="G157" s="77"/>
+      <c r="H157" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="I157" s="63"/>
+    </row>
+    <row r="158" ht="93.6" spans="1:9">
+      <c r="A158" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B158" s="59" t="s">
+        <v>334</v>
+      </c>
+      <c r="C158" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="D158" s="61">
+        <v>1999</v>
+      </c>
+      <c r="E158" s="47">
+        <v>1999</v>
+      </c>
+      <c r="F158" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="G158" s="77"/>
+      <c r="H158" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="I158" s="63"/>
+    </row>
+    <row r="159" ht="93.6" spans="1:9">
+      <c r="A159" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B159" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="C159" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="D159" s="61">
+        <v>1999</v>
+      </c>
+      <c r="E159" s="47">
+        <v>1999</v>
+      </c>
+      <c r="F159" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="G159" s="77"/>
+      <c r="H159" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="I159" s="63"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C160" s="74"/>
+      <c r="D160" s="67">
         <v>1699</v>
       </c>
-      <c r="E140" s="47">
-        <v>1499</v>
-      </c>
-      <c r="F140" s="54" t="s">
-        <v>295</v>
-      </c>
-      <c r="G140" s="67">
-        <v>200</v>
-      </c>
-      <c r="H140" s="14"/>
-      <c r="I140" s="63"/>
-    </row>
-    <row r="141" ht="78.75" spans="1:9">
-      <c r="A141" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B141" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="C141" s="76">
+      <c r="E160" s="47">
+        <v>1699</v>
+      </c>
+      <c r="F160" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G160" s="68"/>
+      <c r="H160" s="14"/>
+      <c r="I160" s="63"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C161" s="74"/>
+      <c r="D161" s="67">
+        <v>1699</v>
+      </c>
+      <c r="E161" s="47">
+        <v>1699</v>
+      </c>
+      <c r="F161" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G161" s="68"/>
+      <c r="H161" s="14"/>
+      <c r="I161" s="63"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C162" s="74"/>
+      <c r="D162" s="67">
+        <v>1699</v>
+      </c>
+      <c r="E162" s="47">
+        <v>1699</v>
+      </c>
+      <c r="F162" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G162" s="68"/>
+      <c r="H162" s="14"/>
+      <c r="I162" s="63"/>
+    </row>
+    <row r="163" ht="93.6" spans="1:9">
+      <c r="A163" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="C163" s="76">
         <v>0.1</v>
       </c>
-      <c r="D141" s="61">
+      <c r="D163" s="61">
         <v>1099</v>
       </c>
-      <c r="E141" s="47">
+      <c r="E163" s="47">
         <v>1099</v>
       </c>
-      <c r="F141" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G141" s="36"/>
-      <c r="H141" s="78" t="s">
-        <v>300</v>
-      </c>
-      <c r="I141" s="63"/>
-    </row>
-    <row r="142" ht="78.75" spans="1:9">
-      <c r="A142" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B142" s="59" t="s">
-        <v>301</v>
-      </c>
-      <c r="C142" s="76">
+      <c r="F163" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="G163" s="36"/>
+      <c r="H163" s="78" t="s">
+        <v>344</v>
+      </c>
+      <c r="I163" s="63"/>
+    </row>
+    <row r="164" ht="93.6" spans="1:9">
+      <c r="A164" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B164" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="C164" s="76">
         <v>0.1</v>
       </c>
-      <c r="D142" s="61">
+      <c r="D164" s="61">
         <v>1099</v>
       </c>
-      <c r="E142" s="47">
+      <c r="E164" s="47">
         <v>1099</v>
       </c>
-      <c r="F142" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G142" s="36"/>
-      <c r="H142" s="78" t="s">
-        <v>302</v>
-      </c>
-      <c r="I142" s="63"/>
-    </row>
-    <row r="143" ht="78.75" spans="1:9">
-      <c r="A143" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B143" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="C143" s="76">
+      <c r="F164" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="G164" s="36"/>
+      <c r="H164" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="I164" s="63"/>
+    </row>
+    <row r="165" ht="93.6" spans="1:9">
+      <c r="A165" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="C165" s="76">
         <v>0.1</v>
       </c>
-      <c r="D143" s="61">
+      <c r="D165" s="61">
         <v>1099</v>
       </c>
-      <c r="E143" s="47">
+      <c r="E165" s="47">
         <v>1099</v>
       </c>
-      <c r="F143" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="G143" s="36"/>
-      <c r="H143" s="78" t="s">
-        <v>304</v>
-      </c>
-      <c r="I143" s="63"/>
-    </row>
-    <row r="144" ht="78.75" spans="1:9">
-      <c r="A144" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C144" s="71"/>
-      <c r="D144" s="79">
+      <c r="F165" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="G165" s="36"/>
+      <c r="H165" s="78" t="s">
+        <v>348</v>
+      </c>
+      <c r="I165" s="63"/>
+    </row>
+    <row r="166" ht="78" spans="1:9">
+      <c r="A166" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C166" s="79"/>
+      <c r="D166" s="80">
         <v>899</v>
       </c>
-      <c r="E144" s="56">
+      <c r="E166" s="56">
         <v>899</v>
       </c>
-      <c r="F144" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="G144" s="36"/>
-      <c r="H144" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="I144" s="63"/>
-    </row>
-    <row r="145" ht="78.75" spans="1:9">
-      <c r="A145" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C145" s="71"/>
-      <c r="D145" s="79">
+      <c r="F166" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="G166" s="36"/>
+      <c r="H166" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="I166" s="63"/>
+    </row>
+    <row r="167" ht="78" spans="1:9">
+      <c r="A167" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C167" s="79"/>
+      <c r="D167" s="80">
         <v>899</v>
       </c>
-      <c r="E145" s="56">
+      <c r="E167" s="56">
         <v>899</v>
       </c>
-      <c r="F145" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="G145" s="36"/>
-      <c r="H145" s="80" t="s">
-        <v>309</v>
-      </c>
-      <c r="I145" s="63"/>
-    </row>
-    <row r="146" ht="78.75" spans="1:9">
-      <c r="A146" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C146" s="71"/>
-      <c r="D146" s="79">
+      <c r="F167" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="G167" s="36"/>
+      <c r="H167" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="I167" s="63"/>
+    </row>
+    <row r="168" ht="78" spans="1:9">
+      <c r="A168" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C168" s="79"/>
+      <c r="D168" s="80">
         <v>899</v>
       </c>
-      <c r="E146" s="56">
+      <c r="E168" s="56">
         <v>899</v>
       </c>
-      <c r="F146" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="G146" s="36"/>
-      <c r="H146" s="80" t="s">
-        <v>311</v>
-      </c>
-      <c r="I146" s="63"/>
-    </row>
-    <row r="147" ht="47.25" spans="1:9">
-      <c r="A147" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B147" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="C147" s="81"/>
-      <c r="D147" s="82">
+      <c r="F168" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="G168" s="36"/>
+      <c r="H168" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="I168" s="63"/>
+    </row>
+    <row r="169" ht="46.8" spans="1:9">
+      <c r="A169" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B169" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="C169" s="82"/>
+      <c r="D169" s="83">
         <v>799</v>
       </c>
-      <c r="E147" s="56">
+      <c r="E169" s="56">
         <v>799</v>
       </c>
-      <c r="F147" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="G147" s="36"/>
-      <c r="H147" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="I147" s="63"/>
-    </row>
-    <row r="148" ht="47.25" spans="1:9">
-      <c r="A148" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B148" s="59" t="s">
-        <v>315</v>
-      </c>
-      <c r="C148" s="81"/>
-      <c r="D148" s="82">
+      <c r="F169" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="G169" s="36"/>
+      <c r="H169" s="78" t="s">
+        <v>358</v>
+      </c>
+      <c r="I169" s="63"/>
+    </row>
+    <row r="170" ht="46.8" spans="1:9">
+      <c r="A170" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B170" s="59" t="s">
+        <v>359</v>
+      </c>
+      <c r="C170" s="82"/>
+      <c r="D170" s="83">
         <v>799</v>
       </c>
-      <c r="E148" s="56">
+      <c r="E170" s="56">
         <v>799</v>
       </c>
-      <c r="F148" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="G148" s="36"/>
-      <c r="H148" s="78" t="s">
-        <v>316</v>
-      </c>
-      <c r="I148" s="63"/>
-    </row>
-    <row r="149" ht="47.25" spans="1:9">
-      <c r="A149" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B149" s="59" t="s">
-        <v>317</v>
-      </c>
-      <c r="C149" s="81"/>
-      <c r="D149" s="82">
+      <c r="F170" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="G170" s="36"/>
+      <c r="H170" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="I170" s="63"/>
+    </row>
+    <row r="171" ht="46.8" spans="1:9">
+      <c r="A171" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B171" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="C171" s="82"/>
+      <c r="D171" s="83">
         <v>799</v>
       </c>
-      <c r="E149" s="56">
+      <c r="E171" s="56">
         <v>799</v>
       </c>
-      <c r="F149" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="G149" s="36"/>
-      <c r="H149" s="78" t="s">
-        <v>318</v>
-      </c>
-      <c r="I149" s="63"/>
-    </row>
-    <row r="150" ht="78.75" spans="1:9">
-      <c r="A150" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B150" s="59" t="s">
-        <v>319</v>
-      </c>
-      <c r="C150" s="81"/>
-      <c r="D150" s="82">
+      <c r="F171" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="G171" s="36"/>
+      <c r="H171" s="78" t="s">
+        <v>362</v>
+      </c>
+      <c r="I171" s="63"/>
+    </row>
+    <row r="172" ht="156" spans="1:9">
+      <c r="A172" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B172" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="C172" s="82"/>
+      <c r="D172" s="83">
         <v>449</v>
       </c>
-      <c r="E150" s="82">
+      <c r="E172" s="83">
         <v>449</v>
       </c>
-      <c r="F150" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="G150" s="36"/>
-      <c r="H150" s="78" t="s">
-        <v>321</v>
-      </c>
-      <c r="I150" s="63"/>
-    </row>
-    <row r="151" ht="78.75" spans="1:9">
-      <c r="A151" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B151" s="59" t="s">
-        <v>322</v>
-      </c>
-      <c r="C151" s="81"/>
-      <c r="D151" s="82">
+      <c r="F172" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="G172" s="36"/>
+      <c r="H172" s="78" t="s">
+        <v>365</v>
+      </c>
+      <c r="I172" s="63"/>
+    </row>
+    <row r="173" ht="156" spans="1:9">
+      <c r="A173" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B173" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="C173" s="82"/>
+      <c r="D173" s="83">
         <v>449</v>
       </c>
-      <c r="E151" s="82">
+      <c r="E173" s="83">
         <v>449</v>
       </c>
-      <c r="F151" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="G151" s="36"/>
-      <c r="H151" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="I151" s="63"/>
-    </row>
-    <row r="152" ht="78.75" spans="1:9">
-      <c r="A152" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B152" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="C152" s="81"/>
-      <c r="D152" s="82">
+      <c r="F173" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="G173" s="36"/>
+      <c r="H173" s="78" t="s">
+        <v>367</v>
+      </c>
+      <c r="I173" s="63"/>
+    </row>
+    <row r="174" ht="156" spans="1:9">
+      <c r="A174" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B174" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="C174" s="82"/>
+      <c r="D174" s="83">
         <v>449</v>
       </c>
-      <c r="E152" s="82">
+      <c r="E174" s="83">
         <v>449</v>
       </c>
-      <c r="F152" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="G152" s="36"/>
-      <c r="H152" s="78" t="s">
-        <v>325</v>
-      </c>
-      <c r="I152" s="63"/>
-    </row>
-    <row r="153" ht="157.5" spans="1:9">
-      <c r="A153" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="C153" s="39"/>
-      <c r="D153" s="17">
+      <c r="F174" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="G174" s="36"/>
+      <c r="H174" s="78" t="s">
+        <v>369</v>
+      </c>
+      <c r="I174" s="63"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B175" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C175" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D175" s="17">
         <v>3999</v>
       </c>
-      <c r="E153" s="17">
-        <v>3299</v>
-      </c>
-      <c r="F153" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="G153" s="83"/>
-      <c r="H153" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="I153" s="63"/>
-    </row>
-    <row r="154" ht="157.5" spans="1:9">
-      <c r="A154" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C154" s="39"/>
-      <c r="D154" s="17">
+      <c r="E175" s="17">
+        <v>3369</v>
+      </c>
+      <c r="F175" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G175" s="84"/>
+      <c r="H175" s="85"/>
+      <c r="I175" s="63"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C176" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D176" s="17">
         <v>3999</v>
       </c>
-      <c r="E154" s="17">
-        <v>3299</v>
-      </c>
-      <c r="F154" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="G154" s="83"/>
-      <c r="H154" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="I154" s="63"/>
-    </row>
-    <row r="155" ht="157.5" spans="1:9">
-      <c r="A155" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B155" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="C155" s="39"/>
-      <c r="D155" s="17">
+      <c r="E176" s="17">
+        <v>3369</v>
+      </c>
+      <c r="F176" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G176" s="84"/>
+      <c r="H176" s="85"/>
+      <c r="I176" s="63"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C177" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D177" s="17">
         <v>3999</v>
       </c>
-      <c r="E155" s="17">
-        <v>3299</v>
-      </c>
-      <c r="F155" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="G155" s="83"/>
-      <c r="H155" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="I155" s="63"/>
-    </row>
-    <row r="156" ht="157.5" spans="1:9">
-      <c r="A156" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B156" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C156" s="39"/>
-      <c r="D156" s="17">
+      <c r="E177" s="17">
+        <v>3369</v>
+      </c>
+      <c r="F177" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G177" s="84"/>
+      <c r="H177" s="85"/>
+      <c r="I177" s="63"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C178" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D178" s="17">
         <v>3999</v>
       </c>
-      <c r="E156" s="17">
-        <v>3299</v>
-      </c>
-      <c r="F156" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="G156" s="83"/>
-      <c r="H156" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="I156" s="63"/>
-    </row>
-    <row r="157" ht="157.5" spans="1:9">
-      <c r="A157" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B157" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C157" s="39"/>
-      <c r="D157" s="17">
+      <c r="E178" s="17">
+        <v>3369</v>
+      </c>
+      <c r="F178" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G178" s="84"/>
+      <c r="H178" s="85"/>
+      <c r="I178" s="63"/>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C179" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D179" s="17">
         <v>4499</v>
       </c>
-      <c r="E157" s="17">
-        <v>3799</v>
-      </c>
-      <c r="F157" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="G157" s="83"/>
-      <c r="H157" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="I157" s="63"/>
-    </row>
-    <row r="158" ht="157.5" spans="1:9">
-      <c r="A158" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B158" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="C158" s="39"/>
-      <c r="D158" s="17">
+      <c r="E179" s="17">
+        <v>3869</v>
+      </c>
+      <c r="F179" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G179" s="84"/>
+      <c r="H179" s="85"/>
+      <c r="I179" s="63"/>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C180" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D180" s="17">
         <v>4499</v>
       </c>
-      <c r="E158" s="17">
-        <v>3799</v>
-      </c>
-      <c r="F158" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="G158" s="83"/>
-      <c r="H158" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="I158" s="63"/>
-    </row>
-    <row r="159" ht="157.5" spans="1:9">
-      <c r="A159" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B159" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="C159" s="39"/>
-      <c r="D159" s="17">
+      <c r="E180" s="17">
+        <v>3869</v>
+      </c>
+      <c r="F180" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G180" s="84"/>
+      <c r="H180" s="85"/>
+      <c r="I180" s="63"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C181" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D181" s="17">
         <v>4499</v>
       </c>
-      <c r="E159" s="17">
-        <v>3799</v>
-      </c>
-      <c r="F159" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="G159" s="83"/>
-      <c r="H159" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="I159" s="63"/>
-    </row>
-    <row r="160" ht="157.5" spans="1:9">
-      <c r="A160" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B160" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="C160" s="39"/>
-      <c r="D160" s="17">
+      <c r="E181" s="17">
+        <v>3869</v>
+      </c>
+      <c r="F181" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G181" s="84"/>
+      <c r="H181" s="85"/>
+      <c r="I181" s="63"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C182" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D182" s="17">
         <v>4499</v>
       </c>
-      <c r="E160" s="17">
-        <v>3799</v>
-      </c>
-      <c r="F160" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="G160" s="83"/>
-      <c r="H160" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="I160" s="63"/>
-    </row>
-    <row r="161" ht="157.5" spans="1:9">
-      <c r="A161" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B161" s="59" t="s">
-        <v>337</v>
-      </c>
-      <c r="C161" s="39"/>
-      <c r="D161" s="85">
+      <c r="E182" s="17">
+        <v>3869</v>
+      </c>
+      <c r="F182" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G182" s="84"/>
+      <c r="H182" s="85"/>
+      <c r="I182" s="63"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B183" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C183" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="D183" s="86">
+        <v>5199</v>
+      </c>
+      <c r="E183" s="86">
+        <v>4399</v>
+      </c>
+      <c r="F183" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="G183" s="87"/>
+      <c r="H183" s="85"/>
+      <c r="I183" s="63"/>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B184" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="C184" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="D184" s="86">
         <v>5699</v>
       </c>
-      <c r="E161" s="85">
-        <v>4599</v>
-      </c>
-      <c r="F161" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="G161" s="86"/>
-      <c r="H161" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="I161" s="63"/>
-    </row>
-    <row r="162" ht="157.5" spans="1:9">
-      <c r="A162" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B162" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="C162" s="39"/>
-      <c r="D162" s="85">
+      <c r="E184" s="86">
+        <v>4899</v>
+      </c>
+      <c r="F184" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="G184" s="87"/>
+      <c r="H184" s="85"/>
+      <c r="I184" s="63"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B185" s="59" t="s">
+        <v>383</v>
+      </c>
+      <c r="C185" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="D185" s="86">
+        <v>5699</v>
+      </c>
+      <c r="E185" s="86">
+        <v>4899</v>
+      </c>
+      <c r="F185" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="G185" s="87"/>
+      <c r="H185" s="85"/>
+      <c r="I185" s="63"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="C186" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="D186" s="86">
+        <v>5699</v>
+      </c>
+      <c r="E186" s="86">
+        <v>4899</v>
+      </c>
+      <c r="F186" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="G186" s="87"/>
+      <c r="H186" s="85"/>
+      <c r="I186" s="63"/>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="C187" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="D187" s="86">
+        <v>5699</v>
+      </c>
+      <c r="E187" s="86">
+        <v>4899</v>
+      </c>
+      <c r="F187" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="G187" s="87"/>
+      <c r="H187" s="85"/>
+      <c r="I187" s="63"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B188" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="C188" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="D188" s="86">
+        <v>6299</v>
+      </c>
+      <c r="E188" s="86">
+        <v>5499</v>
+      </c>
+      <c r="F188" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="G188" s="87"/>
+      <c r="H188" s="85"/>
+      <c r="I188" s="63"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B189" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="C189" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="D189" s="86">
+        <v>6299</v>
+      </c>
+      <c r="E189" s="86">
+        <v>5499</v>
+      </c>
+      <c r="F189" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="G189" s="87"/>
+      <c r="H189" s="85"/>
+      <c r="I189" s="63"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B190" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="C190" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D190" s="86">
+        <v>5699</v>
+      </c>
+      <c r="E190" s="86">
+        <v>4719</v>
+      </c>
+      <c r="F190" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G190" s="87"/>
+      <c r="H190" s="85"/>
+      <c r="I190" s="63"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B191" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="C191" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D191" s="86">
         <v>6199</v>
       </c>
-      <c r="E162" s="85">
-        <v>5099</v>
-      </c>
-      <c r="F162" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="G162" s="86"/>
-      <c r="H162" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="I162" s="63"/>
-    </row>
-    <row r="163" ht="157.5" spans="1:9">
-      <c r="A163" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B163" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="C163" s="39"/>
-      <c r="D163" s="85">
+      <c r="E191" s="86">
+        <v>5219</v>
+      </c>
+      <c r="F191" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G191" s="87"/>
+      <c r="H191" s="85"/>
+      <c r="I191" s="63"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B192" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="C192" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D192" s="86">
         <v>6199</v>
       </c>
-      <c r="E163" s="85">
-        <v>5099</v>
-      </c>
-      <c r="F163" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="G163" s="86"/>
-      <c r="H163" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="I163" s="63"/>
-    </row>
-    <row r="164" ht="157.5" spans="1:9">
-      <c r="A164" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B164" s="59" t="s">
-        <v>342</v>
-      </c>
-      <c r="C164" s="39"/>
-      <c r="D164" s="85">
+      <c r="E192" s="86">
+        <v>5219</v>
+      </c>
+      <c r="F192" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G192" s="87"/>
+      <c r="H192" s="85"/>
+      <c r="I192" s="63"/>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B193" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="C193" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D193" s="86">
         <v>6199</v>
       </c>
-      <c r="E164" s="85">
-        <v>5099</v>
-      </c>
-      <c r="F164" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="G164" s="86"/>
-      <c r="H164" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="I164" s="63"/>
-    </row>
-    <row r="165" ht="157.5" spans="1:9">
-      <c r="A165" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B165" s="59" t="s">
-        <v>343</v>
-      </c>
-      <c r="C165" s="39"/>
-      <c r="D165" s="85">
+      <c r="E193" s="86">
+        <v>5219</v>
+      </c>
+      <c r="F193" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G193" s="87"/>
+      <c r="H193" s="85"/>
+      <c r="I193" s="63"/>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B194" s="59" t="s">
+        <v>393</v>
+      </c>
+      <c r="C194" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D194" s="86">
         <v>6199</v>
       </c>
-      <c r="E165" s="85">
-        <v>5099</v>
-      </c>
-      <c r="F165" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="G165" s="86"/>
-      <c r="H165" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="I165" s="63"/>
-    </row>
-    <row r="166" ht="157.5" spans="1:9">
-      <c r="A166" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B166" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="C166" s="39"/>
-      <c r="D166" s="85">
+      <c r="E194" s="86">
+        <v>5219</v>
+      </c>
+      <c r="F194" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G194" s="87"/>
+      <c r="H194" s="85"/>
+      <c r="I194" s="63"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B195" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="C195" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D195" s="86">
         <v>6799</v>
       </c>
-      <c r="E166" s="85">
-        <v>5699</v>
-      </c>
-      <c r="F166" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="G166" s="86"/>
-      <c r="H166" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="I166" s="63"/>
-    </row>
-    <row r="167" ht="157.5" spans="1:9">
-      <c r="A167" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B167" s="59" t="s">
-        <v>345</v>
-      </c>
-      <c r="C167" s="39"/>
-      <c r="D167" s="85">
+      <c r="E195" s="86">
+        <v>5819</v>
+      </c>
+      <c r="F195" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G195" s="87"/>
+      <c r="H195" s="85"/>
+      <c r="I195" s="63"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B196" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="C196" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="D196" s="86">
         <v>7999</v>
       </c>
-      <c r="E167" s="85">
-        <v>6899</v>
-      </c>
-      <c r="F167" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="G167" s="86"/>
-      <c r="H167" s="84" t="s">
-        <v>339</v>
-      </c>
-      <c r="I167" s="63"/>
+      <c r="E196" s="86">
+        <v>7019</v>
+      </c>
+      <c r="F196" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G196" s="87"/>
+      <c r="H196" s="85"/>
+      <c r="I196" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/promo_list.xlsx
+++ b/promo_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="392">
   <si>
     <t>BRAND</t>
   </si>
@@ -1037,6 +1037,10 @@
     <t>Galaxy Z Flip6 (12+256) Blue</t>
   </si>
   <si>
+    <t>Samsung 55 Years Anniversary Promotion
+(27 - 31 Oct)</t>
+  </si>
+  <si>
     <t>PAC-F741BLBA-DIS</t>
   </si>
   <si>
@@ -1085,232 +1089,217 @@
     <t>Galaxy Z Fold6 (12+256) Navy</t>
   </si>
   <si>
-    <t>PAC-F956BDBD-DIS</t>
+    <t>PAC-F956BDBDXME</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+256) Pink</t>
   </si>
   <si>
-    <t>PAC-F956BLID-DIS</t>
+    <t>PAC-F956BLIDXME</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+256) Silver Shadow</t>
   </si>
   <si>
-    <t>PAC-F956BZSD-DIS</t>
+    <t>PAC-F956BZSDXME</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+512) Navy</t>
   </si>
   <si>
-    <t>PAC-F956BDBG-DIS</t>
+    <t>PAC-F956BDBGXME</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+512) Pink</t>
   </si>
   <si>
-    <t>PAC-F956BLIG-DIS</t>
+    <t>PAC-F956BLIGXME</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+512) Silver Shadow</t>
   </si>
   <si>
-    <t>PAC-F956BZSG-DIS</t>
+    <t>PAC-F956BZSGXME</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+1TB) Navy</t>
   </si>
   <si>
-    <t>PAC-F956BDBH-DIS</t>
+    <t>PAC-F956BDBHXME</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+1TB) Pink</t>
   </si>
   <si>
-    <t>PAC-F956BLIH-DIS</t>
+    <t>PAC-F956BLIHXME</t>
   </si>
   <si>
     <t>Galaxy Z Fold6 (12+1TB) Silver Shadow</t>
   </si>
   <si>
-    <t>PAC-F956BZSH-DIS</t>
+    <t>PAC-F956BZSHXME</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Black (12+1TB)</t>
   </si>
   <si>
-    <t>Addtional rebate up to RM500 when trade in old device*</t>
-  </si>
-  <si>
-    <t>PAC-S928BZKW-DIS</t>
-  </si>
-  <si>
     <t>Galaxy S24 ULTRA 5G Gray (12+1TB)</t>
   </si>
   <si>
-    <t>PAC-S928BZTW-DIS</t>
-  </si>
-  <si>
     <t>Galaxy S24 ULTRA 5G Violet (12+1TB)</t>
   </si>
   <si>
-    <t>PAC-S928BZVW-DIS</t>
-  </si>
-  <si>
     <t>Galaxy S24 ULTRA 5G Yellow (12+1TB)</t>
   </si>
   <si>
-    <t>PAC-S928BZYW-DIS</t>
-  </si>
-  <si>
     <t>Galaxy S24 ULTRA 5G Green (12+512)</t>
   </si>
   <si>
-    <t>PAC-S928BLGQ-DIS</t>
+    <t>PAC-S928BLGQXME</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Black (12+512)</t>
   </si>
   <si>
-    <t>PAC-S928BZKQ-DIS</t>
+    <t>PAC-S928BZKQXME</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Gray (12+512)</t>
   </si>
   <si>
-    <t>PAC-S928BZTQ-DIS</t>
+    <t>PAC-S928BZTQXME</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Violet (12+512)</t>
   </si>
   <si>
-    <t>PAC-S928BZVQ-DIS</t>
+    <t>PAC-S928BZVQXME</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Yellow (12+512)</t>
   </si>
   <si>
-    <t>PAC-S928BZYQ-DIS</t>
+    <t>PAC-S928BZYQXME</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Black (12+256)</t>
   </si>
   <si>
-    <t>PAC-S928BZKC-DIS</t>
+    <t>PAC-S928BZKCXME</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Gray (12+256)</t>
   </si>
   <si>
-    <t>PAC-S928BZTC-DIS</t>
+    <t>PAC-S928BZTCXME</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Violet (12+256)</t>
   </si>
   <si>
-    <t>PAC-S928BZVC-DIS</t>
+    <t>PAC-S928BZVCXME</t>
   </si>
   <si>
     <t>Galaxy S24 ULTRA 5G Yellow (12+256)</t>
   </si>
   <si>
-    <t>PAC-S928BZYC-DIS</t>
+    <t>PAC-S928BZYCXME</t>
   </si>
   <si>
     <t>Galaxy S24+ 5G Gray (12+512)</t>
   </si>
   <si>
-    <t>PAC-S926BZAC-DIS</t>
+    <t>PAC-S926BZACXME</t>
   </si>
   <si>
     <t>Galaxy S24+ 5G Black (12+512)</t>
   </si>
   <si>
-    <t>PAC-S926BZKC-DIS</t>
+    <t>PAC-S926BZKCXME</t>
   </si>
   <si>
     <t>Galaxy S24+ 5G Violet (12+512)</t>
   </si>
   <si>
-    <t>PAC-S926BZVC-DIS</t>
+    <t>PAC-S926BZVCXME</t>
   </si>
   <si>
     <t>Galaxy S24+ 5G Yellow (12+512)</t>
   </si>
   <si>
-    <t>PAC-S926BZYC-DIS</t>
+    <t>PAC-S926BZYCXME</t>
   </si>
   <si>
     <t>Galaxy S24+ 5G Gray (12+256)</t>
   </si>
   <si>
-    <t>PAC-S926BZAB-DIS</t>
+    <t>PAC-S926BZABXME</t>
   </si>
   <si>
     <t>Galaxy S24+ 5G Black (12+256)</t>
   </si>
   <si>
-    <t>PAC-S926BZKB-DIS</t>
+    <t>PAC-S926BZKBXME</t>
   </si>
   <si>
     <t>Galaxy S24+ 5G Violet (12+256)</t>
   </si>
   <si>
-    <t>PAC-S926BZVB-DIS</t>
+    <t>PAC-S926BZVBXME</t>
   </si>
   <si>
     <t>Galaxy S24+ 5G Yellow (12+256)</t>
   </si>
   <si>
-    <t>PAC-S926BZYB-DIS</t>
+    <t>PAC-S926BZYBXME</t>
   </si>
   <si>
     <t>Galaxy S24 5G Gray (8+512)</t>
   </si>
   <si>
-    <t>PAC-S921BZAQ-DIS</t>
+    <t>PAC-S921BZAQXME</t>
   </si>
   <si>
     <t>Galaxy S24 5G Black (8+512)</t>
   </si>
   <si>
-    <t>PAC-S921BZKQ-DIS</t>
+    <t>PAC-S921BZKQXME</t>
   </si>
   <si>
     <t>Galaxy S24 5G Violet (8+512)</t>
   </si>
   <si>
-    <t>PAC-S921BZVQ-DIS</t>
+    <t>PAC-S921BZVQXME</t>
   </si>
   <si>
     <t>Galaxy S24 5G Yellow (8+512)</t>
   </si>
   <si>
-    <t>PAC-S921BZYQ-DIS</t>
+    <t>PAC-S921BZYQXME</t>
   </si>
   <si>
     <t>Galaxy S24 5G Gray (8+256)</t>
   </si>
   <si>
-    <t>PAC-S921BZAC-DIS</t>
+    <t>PAC-S921BZACXME</t>
   </si>
   <si>
     <t>Galaxy S24 5G Black (8+256)</t>
   </si>
   <si>
-    <t>PAC-S921BZKC-DIS</t>
+    <t>PAC-S921BZKCXME</t>
   </si>
   <si>
     <t>Galaxy S24 5G Violet (8+256)</t>
   </si>
   <si>
-    <t>PAC-S921BZVC-DIS</t>
+    <t>PAC-S921BZVCXME</t>
   </si>
   <si>
     <t>Galaxy S24 5G Yellow (8+256)</t>
   </si>
   <si>
-    <t>PAC-S921BZYC-DIS</t>
+    <t>PAC-S921BZYCXME</t>
   </si>
   <si>
     <t>Galaxy S24 FE 5G (8+256) Blue</t>
@@ -1639,7 +1628,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1708,6 +1697,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1868,7 +1862,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1877,7 +1871,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2086,7 +2122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2107,6 +2143,34 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2210,155 +2274,179 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2380,22 +2468,22 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2425,7 +2513,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2437,22 +2525,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2461,14 +2549,14 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2477,13 +2565,13 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2495,25 +2583,25 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2522,22 +2610,22 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2559,34 +2647,202 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2598,23 +2854,32 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2966,4673 +3231,4657 @@
   <sheetPr/>
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191:F196"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.1666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.16666666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="115.833333333333" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.33333333333333" style="6"/>
-    <col min="8" max="8" width="66.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="7"/>
-    <col min="10" max="16384" width="9.33333333333333" style="1"/>
+    <col min="1" max="1" width="13.1666666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="51" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.33333333333333" style="11" customWidth="1"/>
+    <col min="4" max="4" width="7.16666666666667" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.66666666666667" style="12" customWidth="1"/>
+    <col min="6" max="6" width="115.833333333333" style="13" customWidth="1"/>
+    <col min="7" max="7" width="9.33333333333333" style="14"/>
+    <col min="8" max="8" width="66.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15" style="15"/>
+    <col min="10" max="16384" width="9.33333333333333" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="62.4" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25">
         <v>6999</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="25">
         <v>6999</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="62"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" ht="62.4" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25">
         <v>6999</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="25">
         <v>6999</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="62"/>
+      <c r="I3" s="70"/>
     </row>
     <row r="4" ht="62.4" spans="1:9">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17">
+      <c r="C4" s="24"/>
+      <c r="D4" s="25">
         <v>6999</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="25">
         <v>6999</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" ht="93.6" spans="1:9">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30">
         <v>5699</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="31">
         <v>5699</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" ht="93.6" spans="1:9">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30">
         <v>5699</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="31">
         <v>5699</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="63"/>
+      <c r="I6" s="71"/>
     </row>
     <row r="7" ht="93.6" spans="1:9">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30">
         <v>5699</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="31">
         <v>5699</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="63"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" ht="171.6" spans="1:9">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29">
+      <c r="C8" s="36"/>
+      <c r="D8" s="37">
         <v>3999</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="31">
         <v>3999</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32" t="s">
+      <c r="G8" s="39"/>
+      <c r="H8" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="63"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" ht="171.6" spans="1:9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37">
         <v>3999</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="31">
         <v>3999</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32" t="s">
+      <c r="G9" s="39"/>
+      <c r="H9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="63"/>
+      <c r="I9" s="71"/>
     </row>
     <row r="10" ht="171.6" spans="1:9">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37">
         <v>3999</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="31">
         <v>3999</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32" t="s">
+      <c r="G10" s="39"/>
+      <c r="H10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="63"/>
+      <c r="I10" s="71"/>
     </row>
     <row r="11" ht="140.4" spans="1:9">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30">
         <v>2499</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="31">
         <v>2499</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="26" t="s">
+      <c r="G11" s="42"/>
+      <c r="H11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="63"/>
+      <c r="I11" s="71"/>
     </row>
     <row r="12" ht="140.4" spans="1:9">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22">
+      <c r="C12" s="29"/>
+      <c r="D12" s="30">
         <v>2499</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="31">
         <v>2499</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="26" t="s">
+      <c r="G12" s="42"/>
+      <c r="H12" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="63"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" ht="140.4" spans="1:9">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29">
+      <c r="C13" s="36"/>
+      <c r="D13" s="37">
         <v>1999</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="31">
         <v>1999</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32" t="s">
+      <c r="G13" s="39"/>
+      <c r="H13" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" ht="140.4" spans="1:9">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29">
+      <c r="C14" s="36"/>
+      <c r="D14" s="37">
         <v>1999</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="31">
         <v>1999</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32" t="s">
+      <c r="G14" s="39"/>
+      <c r="H14" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" ht="140.4" spans="1:9">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29">
+      <c r="C15" s="36"/>
+      <c r="D15" s="37">
         <v>1999</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="31">
         <v>1999</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32" t="s">
+      <c r="G15" s="39"/>
+      <c r="H15" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="71"/>
     </row>
     <row r="16" ht="140.4" spans="1:9">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="29">
         <v>0.1</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="30">
         <v>1699</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="31">
         <v>1699</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="26" t="s">
+      <c r="G16" s="42"/>
+      <c r="H16" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="63"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" ht="140.4" spans="1:9">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="29">
         <v>0.1</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="30">
         <v>1699</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="31">
         <v>1699</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="26" t="s">
+      <c r="G17" s="42"/>
+      <c r="H17" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="63"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" ht="78" spans="1:9">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="29">
+      <c r="C18" s="43"/>
+      <c r="D18" s="37">
         <v>1299</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="31">
         <v>1299</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="63"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="71"/>
     </row>
     <row r="19" ht="78" spans="1:9">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="29">
+      <c r="C19" s="43"/>
+      <c r="D19" s="37">
         <v>1299</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="31">
         <v>1299</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="63"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="71"/>
     </row>
     <row r="20" ht="202.8" spans="1:9">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="47">
         <v>0.03</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="30">
         <v>1699</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="31">
         <v>1529</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="46">
         <v>150</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="63"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" ht="202.8" spans="1:9">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="47">
         <v>0.03</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="30">
         <v>1699</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="31">
         <v>1529</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="33">
         <v>150</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="63"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" ht="202.8" spans="1:9">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="47">
         <v>0.03</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="37">
         <v>1399</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="31">
         <v>1219</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="33">
         <v>160</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I22" s="63"/>
+      <c r="I22" s="71"/>
     </row>
     <row r="23" ht="202.8" spans="1:9">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="47">
         <v>0.03</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="37">
         <v>1399</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="31">
         <v>1219</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="46">
         <v>160</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="63"/>
+      <c r="I23" s="71"/>
     </row>
     <row r="24" ht="202.8" spans="1:9">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="47">
         <v>0.03</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="37">
         <v>1399</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="31">
         <v>1219</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="46">
         <v>160</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="63"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" ht="62.4" spans="1:9">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="29">
         <v>0.03</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="48">
         <v>999</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="49">
         <v>969</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="46">
         <v>30</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="63"/>
+      <c r="I25" s="71"/>
     </row>
     <row r="26" ht="62.4" spans="1:9">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="29">
         <v>0.03</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="48">
         <v>999</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="49">
         <v>969</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="42">
+      <c r="G26" s="50">
         <v>30</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="63"/>
+      <c r="I26" s="71"/>
     </row>
     <row r="27" ht="78" spans="1:9">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="36">
         <v>0.03</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="51">
         <v>899</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="49">
         <v>869</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="50">
         <v>30</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="63"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="71"/>
     </row>
     <row r="28" ht="78" spans="1:9">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="36">
         <v>0.03</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="51">
         <v>899</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="49">
         <v>869</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="46">
         <v>30</v>
       </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="63"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="71"/>
     </row>
     <row r="29" ht="78" spans="1:9">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="29">
         <v>0.03</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D29" s="48">
         <v>799</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="49">
         <v>714</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="46">
         <v>75</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="63"/>
+      <c r="I29" s="71"/>
     </row>
     <row r="30" ht="78" spans="1:9">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="29">
         <v>0.03</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="48">
         <v>799</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="49">
         <v>714</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="33">
         <v>75</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="63"/>
+      <c r="I30" s="71"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="43">
+      <c r="C31" s="43"/>
+      <c r="D31" s="51">
         <v>599</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="49">
         <v>489</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25">
+      <c r="F31" s="32"/>
+      <c r="G31" s="33">
         <v>100</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="63"/>
+      <c r="I31" s="71"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="43">
+      <c r="C32" s="43"/>
+      <c r="D32" s="51">
         <v>599</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="49">
         <v>489</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="31">
+      <c r="F32" s="32"/>
+      <c r="G32" s="39">
         <v>100</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="I32" s="63"/>
+      <c r="I32" s="71"/>
     </row>
     <row r="33" ht="93.6" spans="1:9">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46">
+      <c r="C33" s="53"/>
+      <c r="D33" s="54">
         <v>3999</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="55">
         <v>3999</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="48" t="s">
+      <c r="G33" s="39"/>
+      <c r="H33" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I33" s="63"/>
+      <c r="I33" s="71"/>
     </row>
     <row r="34" ht="93.6" spans="1:9">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="46">
+      <c r="C34" s="53"/>
+      <c r="D34" s="54">
         <v>3999</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="55">
         <v>3999</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="14" t="s">
+      <c r="G34" s="44"/>
+      <c r="H34" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="63"/>
+      <c r="I34" s="71"/>
     </row>
     <row r="35" ht="93.6" spans="1:9">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46">
+      <c r="C35" s="53"/>
+      <c r="D35" s="54">
         <v>3999</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="55">
         <v>3999</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="14" t="s">
+      <c r="G35" s="44"/>
+      <c r="H35" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="I35" s="63"/>
+      <c r="I35" s="71"/>
     </row>
     <row r="36" ht="93.6" spans="1:9">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51">
+      <c r="C36" s="58"/>
+      <c r="D36" s="59">
         <v>2599</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="55">
         <v>2599</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="63"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="71"/>
     </row>
     <row r="37" ht="93.6" spans="1:9">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51">
+      <c r="C37" s="58"/>
+      <c r="D37" s="59">
         <v>2599</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="55">
         <v>2599</v>
       </c>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="63"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="71"/>
     </row>
     <row r="38" ht="31.2" spans="1:9">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="60">
         <v>0.03</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="54">
         <v>2199</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="55">
         <v>2039</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="44">
         <v>100</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="63"/>
+      <c r="I38" s="71"/>
     </row>
     <row r="39" ht="31.2" spans="1:9">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="52">
+      <c r="C39" s="60">
         <v>0.03</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="54">
         <v>2199</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="55">
         <v>2039</v>
       </c>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="44">
         <v>100</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="I39" s="63"/>
+      <c r="I39" s="71"/>
     </row>
     <row r="40" ht="31.2" spans="1:9">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="52">
+      <c r="C40" s="60">
         <v>0.03</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="54">
         <v>2199</v>
       </c>
-      <c r="E40" s="47">
+      <c r="E40" s="55">
         <v>2039</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="44">
         <v>100</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I40" s="63"/>
+      <c r="I40" s="71"/>
     </row>
     <row r="41" ht="140.4" spans="1:9">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="52">
+      <c r="C41" s="60">
         <v>0.1</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="54">
         <v>1399</v>
       </c>
-      <c r="E41" s="47">
+      <c r="E41" s="55">
         <v>1299</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="44">
         <v>80</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="I41" s="63"/>
+      <c r="I41" s="71"/>
     </row>
     <row r="42" ht="140.4" spans="1:9">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="52">
+      <c r="C42" s="60">
         <v>0.1</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="54">
         <v>1399</v>
       </c>
-      <c r="E42" s="47">
+      <c r="E42" s="55">
         <v>1299</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="44">
         <v>80</v>
       </c>
-      <c r="H42" s="26" t="s">
+      <c r="H42" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="I42" s="63"/>
+      <c r="I42" s="71"/>
     </row>
     <row r="43" ht="140.4" spans="1:9">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="52">
+      <c r="C43" s="60">
         <v>0.03</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="54">
         <v>1799</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="54">
         <v>1629</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="44">
         <v>100</v>
       </c>
-      <c r="H43" s="26" t="s">
+      <c r="H43" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="I43" s="63"/>
+      <c r="I43" s="71"/>
     </row>
     <row r="44" ht="140.4" spans="1:9">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="52">
+      <c r="C44" s="60">
         <v>0.03</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="54">
         <v>1799</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="54">
         <v>1629</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="44">
         <v>100</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="I44" s="63"/>
+      <c r="I44" s="71"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="51">
+      <c r="C45" s="61"/>
+      <c r="D45" s="59">
         <v>1099</v>
       </c>
-      <c r="E45" s="47">
+      <c r="E45" s="55">
         <v>1099</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="63"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="71"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="51">
+      <c r="C46" s="61"/>
+      <c r="D46" s="59">
         <v>1099</v>
       </c>
-      <c r="E46" s="47">
+      <c r="E46" s="55">
         <v>1099</v>
       </c>
-      <c r="F46" s="54"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="63"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="71"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="46">
+      <c r="C47" s="53"/>
+      <c r="D47" s="54">
         <v>1099</v>
       </c>
-      <c r="E47" s="47">
+      <c r="E47" s="55">
         <v>1099</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="63"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="71"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="46">
+      <c r="C48" s="53"/>
+      <c r="D48" s="54">
         <v>1099</v>
       </c>
-      <c r="E48" s="47">
+      <c r="E48" s="55">
         <v>1099</v>
       </c>
-      <c r="F48" s="54"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="63"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="71"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="46">
+      <c r="C49" s="53"/>
+      <c r="D49" s="54">
         <v>749</v>
       </c>
-      <c r="E49" s="47">
+      <c r="E49" s="55">
         <v>749</v>
       </c>
-      <c r="F49" s="54"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="63"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="71"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="46">
+      <c r="C50" s="53"/>
+      <c r="D50" s="54">
         <v>749</v>
       </c>
-      <c r="E50" s="47">
+      <c r="E50" s="55">
         <v>749</v>
       </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="63"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="71"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="55">
+      <c r="C51" s="53"/>
+      <c r="D51" s="63">
         <v>699</v>
       </c>
-      <c r="E51" s="56">
+      <c r="E51" s="64">
         <v>699</v>
       </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="63"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="71"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="55">
+      <c r="C52" s="53"/>
+      <c r="D52" s="63">
         <v>699</v>
       </c>
-      <c r="E52" s="56">
+      <c r="E52" s="64">
         <v>699</v>
       </c>
-      <c r="F52" s="54"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="63"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="71"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="57">
+      <c r="C53" s="65">
         <v>0.03</v>
       </c>
-      <c r="D53" s="58">
+      <c r="D53" s="66">
         <v>799</v>
       </c>
-      <c r="E53" s="56">
+      <c r="E53" s="64">
         <v>759</v>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="36">
+      <c r="F53" s="62"/>
+      <c r="G53" s="44">
         <v>30</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H53" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="I53" s="63"/>
+      <c r="I53" s="71"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="B54" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="57">
+      <c r="C54" s="65">
         <v>0.03</v>
       </c>
-      <c r="D54" s="58">
+      <c r="D54" s="66">
         <v>799</v>
       </c>
-      <c r="E54" s="56">
+      <c r="E54" s="64">
         <v>759</v>
       </c>
-      <c r="F54" s="54"/>
-      <c r="G54" s="36">
+      <c r="F54" s="62"/>
+      <c r="G54" s="44">
         <v>30</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="I54" s="63"/>
+      <c r="I54" s="71"/>
     </row>
     <row r="55" ht="31.2" spans="1:9">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="46">
+      <c r="C55" s="29"/>
+      <c r="D55" s="54">
         <v>4599</v>
       </c>
-      <c r="E55" s="47">
+      <c r="E55" s="55">
         <v>4499</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="G55" s="36"/>
-      <c r="H55" s="26" t="s">
+      <c r="G55" s="44"/>
+      <c r="H55" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="I55" s="63"/>
+      <c r="I55" s="71"/>
     </row>
     <row r="56" ht="31.2" spans="1:9">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="46">
+      <c r="C56" s="29"/>
+      <c r="D56" s="54">
         <v>4599</v>
       </c>
-      <c r="E56" s="47">
+      <c r="E56" s="55">
         <v>4499</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="G56" s="36"/>
-      <c r="H56" s="26" t="s">
+      <c r="G56" s="44"/>
+      <c r="H56" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="I56" s="63"/>
+      <c r="I56" s="71"/>
     </row>
     <row r="57" ht="46.8" spans="1:9">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="46">
+      <c r="C57" s="29"/>
+      <c r="D57" s="54">
         <v>1999</v>
       </c>
-      <c r="E57" s="47">
+      <c r="E57" s="55">
         <v>1999</v>
       </c>
-      <c r="F57" s="24" t="s">
+      <c r="F57" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G57" s="36"/>
-      <c r="H57" s="26" t="s">
+      <c r="G57" s="44"/>
+      <c r="H57" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="I57" s="63"/>
+      <c r="I57" s="71"/>
     </row>
     <row r="58" ht="46.8" spans="1:9">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="46">
+      <c r="C58" s="29"/>
+      <c r="D58" s="54">
         <v>1999</v>
       </c>
-      <c r="E58" s="47">
+      <c r="E58" s="55">
         <v>1999</v>
       </c>
-      <c r="F58" s="24" t="s">
+      <c r="F58" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G58" s="36"/>
-      <c r="H58" s="26" t="s">
+      <c r="G58" s="44"/>
+      <c r="H58" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="I58" s="63"/>
+      <c r="I58" s="71"/>
     </row>
     <row r="59" ht="46.8" spans="1:9">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="46">
+      <c r="C59" s="29"/>
+      <c r="D59" s="54">
         <v>1999</v>
       </c>
-      <c r="E59" s="47">
+      <c r="E59" s="55">
         <v>1999</v>
       </c>
-      <c r="F59" s="24" t="s">
+      <c r="F59" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G59" s="36"/>
-      <c r="H59" s="26" t="s">
+      <c r="G59" s="44"/>
+      <c r="H59" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="I59" s="63"/>
+      <c r="I59" s="71"/>
     </row>
     <row r="60" ht="46.8" spans="1:9">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="45"/>
-      <c r="D60" s="46">
+      <c r="C60" s="53"/>
+      <c r="D60" s="54">
         <v>2399</v>
       </c>
-      <c r="E60" s="47">
+      <c r="E60" s="55">
         <v>2399</v>
       </c>
-      <c r="F60" s="24" t="s">
+      <c r="F60" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G60" s="36"/>
-      <c r="H60" s="26" t="s">
+      <c r="G60" s="44"/>
+      <c r="H60" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="I60" s="63"/>
+      <c r="I60" s="71"/>
     </row>
     <row r="61" ht="46.8" spans="1:9">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="45"/>
-      <c r="D61" s="46">
+      <c r="C61" s="53"/>
+      <c r="D61" s="54">
         <v>2399</v>
       </c>
-      <c r="E61" s="47">
+      <c r="E61" s="55">
         <v>2399</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G61" s="36"/>
-      <c r="H61" s="26" t="s">
+      <c r="G61" s="44"/>
+      <c r="H61" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="I61" s="63"/>
+      <c r="I61" s="71"/>
     </row>
     <row r="62" ht="62.4" spans="1:9">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="61">
+      <c r="C62" s="68"/>
+      <c r="D62" s="69">
         <v>3299</v>
       </c>
-      <c r="E62" s="47">
+      <c r="E62" s="55">
         <v>3299</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="G62" s="36"/>
-      <c r="H62" s="32" t="s">
+      <c r="G62" s="44"/>
+      <c r="H62" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="I62" s="63"/>
+      <c r="I62" s="71"/>
     </row>
     <row r="63" ht="62.4" spans="1:9">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="61">
+      <c r="C63" s="68"/>
+      <c r="D63" s="69">
         <v>3299</v>
       </c>
-      <c r="E63" s="47">
+      <c r="E63" s="55">
         <v>3299</v>
       </c>
-      <c r="F63" s="24" t="s">
+      <c r="F63" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="32" t="s">
+      <c r="G63" s="44"/>
+      <c r="H63" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="I63" s="63"/>
+      <c r="I63" s="71"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="46">
+      <c r="C64" s="53"/>
+      <c r="D64" s="54">
         <v>1299</v>
       </c>
-      <c r="E64" s="46">
+      <c r="E64" s="54">
         <v>1299</v>
       </c>
-      <c r="F64" s="54" t="s">
+      <c r="F64" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="G64" s="36"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="63"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="71"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="45"/>
-      <c r="D65" s="46">
+      <c r="C65" s="53"/>
+      <c r="D65" s="54">
         <v>1299</v>
       </c>
-      <c r="E65" s="46">
+      <c r="E65" s="54">
         <v>1299</v>
       </c>
-      <c r="F65" s="54" t="s">
+      <c r="F65" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="G65" s="36"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="63"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="71"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="60"/>
-      <c r="D66" s="61">
+      <c r="C66" s="68"/>
+      <c r="D66" s="69">
         <v>1099</v>
       </c>
-      <c r="E66" s="61">
+      <c r="E66" s="69">
         <v>1099</v>
       </c>
-      <c r="F66" s="54"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="63"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="71"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61">
+      <c r="C67" s="68"/>
+      <c r="D67" s="69">
         <v>1099</v>
       </c>
-      <c r="E67" s="61">
+      <c r="E67" s="69">
         <v>1099</v>
       </c>
-      <c r="F67" s="54"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="63"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="71"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="45"/>
-      <c r="D68" s="55">
+      <c r="C68" s="53"/>
+      <c r="D68" s="63">
         <v>749</v>
       </c>
-      <c r="E68" s="56">
+      <c r="E68" s="64">
         <v>749</v>
       </c>
-      <c r="F68" s="54"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="63"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="71"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="55">
+      <c r="C69" s="53"/>
+      <c r="D69" s="63">
         <v>749</v>
       </c>
-      <c r="E69" s="56">
+      <c r="E69" s="64">
         <v>749</v>
       </c>
-      <c r="F69" s="54"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="63"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="71"/>
     </row>
     <row r="70" ht="140.4" spans="1:9">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="45"/>
-      <c r="D70" s="46">
+      <c r="C70" s="53"/>
+      <c r="D70" s="54">
         <v>2999</v>
       </c>
-      <c r="E70" s="47">
+      <c r="E70" s="55">
         <v>2999</v>
       </c>
-      <c r="F70" s="24" t="s">
+      <c r="F70" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="G70" s="36"/>
-      <c r="H70" s="26" t="s">
+      <c r="G70" s="44"/>
+      <c r="H70" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="I70" s="63"/>
+      <c r="I70" s="71"/>
     </row>
     <row r="71" ht="140.4" spans="1:9">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="45"/>
-      <c r="D71" s="46">
+      <c r="C71" s="53"/>
+      <c r="D71" s="54">
         <v>2999</v>
       </c>
-      <c r="E71" s="47">
+      <c r="E71" s="55">
         <v>2999</v>
       </c>
-      <c r="F71" s="24" t="s">
+      <c r="F71" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="G71" s="36"/>
-      <c r="H71" s="26" t="s">
+      <c r="G71" s="44"/>
+      <c r="H71" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="I71" s="63"/>
+      <c r="I71" s="71"/>
     </row>
     <row r="72" ht="140.4" spans="1:9">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="46">
+      <c r="C72" s="53"/>
+      <c r="D72" s="54">
         <v>3999</v>
       </c>
-      <c r="E72" s="47">
+      <c r="E72" s="55">
         <v>3999</v>
       </c>
-      <c r="F72" s="24" t="s">
+      <c r="F72" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="G72" s="36"/>
-      <c r="H72" s="26" t="s">
+      <c r="G72" s="44"/>
+      <c r="H72" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="I72" s="63"/>
+      <c r="I72" s="71"/>
     </row>
     <row r="73" ht="140.4" spans="1:9">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="45"/>
-      <c r="D73" s="46">
+      <c r="C73" s="53"/>
+      <c r="D73" s="54">
         <v>3999</v>
       </c>
-      <c r="E73" s="47">
+      <c r="E73" s="55">
         <v>3999</v>
       </c>
-      <c r="F73" s="24" t="s">
+      <c r="F73" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="G73" s="36"/>
-      <c r="H73" s="26" t="s">
+      <c r="G73" s="44"/>
+      <c r="H73" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="I73" s="63"/>
+      <c r="I73" s="71"/>
     </row>
     <row r="74" ht="140.4" spans="1:9">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="45"/>
-      <c r="D74" s="46">
+      <c r="C74" s="53"/>
+      <c r="D74" s="54">
         <v>5499</v>
       </c>
-      <c r="E74" s="47">
+      <c r="E74" s="55">
         <v>5499</v>
       </c>
-      <c r="F74" s="24" t="s">
+      <c r="F74" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="G74" s="36"/>
-      <c r="H74" s="26" t="s">
+      <c r="G74" s="44"/>
+      <c r="H74" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="I74" s="63"/>
+      <c r="I74" s="71"/>
     </row>
     <row r="75" ht="93.6" spans="1:9">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B75" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="46">
+      <c r="C75" s="53"/>
+      <c r="D75" s="54">
         <v>5199</v>
       </c>
-      <c r="E75" s="47">
+      <c r="E75" s="55">
         <v>5199</v>
       </c>
-      <c r="F75" s="24" t="s">
+      <c r="F75" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="26" t="s">
+      <c r="G75" s="44"/>
+      <c r="H75" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="I75" s="63"/>
+      <c r="I75" s="71"/>
     </row>
     <row r="76" ht="93.6" spans="1:9">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="46">
+      <c r="C76" s="53"/>
+      <c r="D76" s="54">
         <v>5199</v>
       </c>
-      <c r="E76" s="47">
+      <c r="E76" s="55">
         <v>5199</v>
       </c>
-      <c r="F76" s="24" t="s">
+      <c r="F76" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="G76" s="36"/>
-      <c r="H76" s="26" t="s">
+      <c r="G76" s="44"/>
+      <c r="H76" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="I76" s="63"/>
+      <c r="I76" s="71"/>
     </row>
     <row r="77" ht="31.2" spans="1:9">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="B77" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C77" s="45"/>
-      <c r="D77" s="46">
+      <c r="C77" s="53"/>
+      <c r="D77" s="54">
         <v>3799</v>
       </c>
-      <c r="E77" s="47">
+      <c r="E77" s="55">
         <v>3799</v>
       </c>
-      <c r="F77" s="24" t="s">
+      <c r="F77" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="G77" s="36"/>
-      <c r="H77" s="26" t="s">
+      <c r="G77" s="44"/>
+      <c r="H77" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="I77" s="63"/>
+      <c r="I77" s="71"/>
     </row>
     <row r="78" ht="31.2" spans="1:9">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="44" t="s">
+      <c r="B78" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="45"/>
-      <c r="D78" s="46">
+      <c r="C78" s="53"/>
+      <c r="D78" s="54">
         <v>3799</v>
       </c>
-      <c r="E78" s="47">
+      <c r="E78" s="55">
         <v>3799</v>
       </c>
-      <c r="F78" s="24" t="s">
+      <c r="F78" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="G78" s="36"/>
-      <c r="H78" s="26" t="s">
+      <c r="G78" s="44"/>
+      <c r="H78" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="I78" s="63"/>
+      <c r="I78" s="71"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="45"/>
-      <c r="D79" s="46">
+      <c r="C79" s="53"/>
+      <c r="D79" s="54">
         <v>3799</v>
       </c>
-      <c r="E79" s="47">
+      <c r="E79" s="55">
         <v>3799</v>
       </c>
-      <c r="F79" s="24" t="s">
+      <c r="F79" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G79" s="36"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="63"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="71"/>
     </row>
     <row r="80" ht="31.2" spans="1:9">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B80" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="45"/>
-      <c r="D80" s="46">
+      <c r="C80" s="53"/>
+      <c r="D80" s="54">
         <v>3499</v>
       </c>
-      <c r="E80" s="47">
+      <c r="E80" s="55">
         <v>3499</v>
       </c>
-      <c r="F80" s="24" t="s">
+      <c r="F80" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G80" s="36"/>
-      <c r="H80" s="26" t="s">
+      <c r="G80" s="44"/>
+      <c r="H80" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="I80" s="63"/>
+      <c r="I80" s="71"/>
     </row>
     <row r="81" ht="31.2" spans="1:9">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B81" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="C81" s="45"/>
-      <c r="D81" s="46">
+      <c r="C81" s="53"/>
+      <c r="D81" s="54">
         <v>3499</v>
       </c>
-      <c r="E81" s="47">
+      <c r="E81" s="55">
         <v>3499</v>
       </c>
-      <c r="F81" s="24" t="s">
+      <c r="F81" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G81" s="36"/>
-      <c r="H81" s="26" t="s">
+      <c r="G81" s="44"/>
+      <c r="H81" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="I81" s="63"/>
+      <c r="I81" s="71"/>
     </row>
     <row r="82" ht="31.2" spans="1:9">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="44" t="s">
+      <c r="B82" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="C82" s="45"/>
-      <c r="D82" s="46">
+      <c r="C82" s="53"/>
+      <c r="D82" s="54">
         <v>3499</v>
       </c>
-      <c r="E82" s="47">
+      <c r="E82" s="55">
         <v>3499</v>
       </c>
-      <c r="F82" s="24" t="s">
+      <c r="F82" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G82" s="36"/>
-      <c r="H82" s="26" t="s">
+      <c r="G82" s="44"/>
+      <c r="H82" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="I82" s="63"/>
+      <c r="I82" s="71"/>
     </row>
     <row r="83" ht="218.4" spans="1:9">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B83" s="65" t="s">
+      <c r="B83" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="C83" s="66"/>
-      <c r="D83" s="67">
+      <c r="C83" s="74"/>
+      <c r="D83" s="75">
         <v>1899</v>
       </c>
-      <c r="E83" s="67">
+      <c r="E83" s="75">
         <v>1899</v>
       </c>
-      <c r="F83" s="24" t="s">
+      <c r="F83" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G83" s="68"/>
-      <c r="H83" s="69" t="s">
+      <c r="G83" s="76"/>
+      <c r="H83" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="I83" s="63"/>
+      <c r="I83" s="71"/>
     </row>
     <row r="84" ht="218.4" spans="1:9">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B84" s="65" t="s">
+      <c r="B84" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="C84" s="66"/>
-      <c r="D84" s="67">
+      <c r="C84" s="74"/>
+      <c r="D84" s="75">
         <v>1899</v>
       </c>
-      <c r="E84" s="67">
+      <c r="E84" s="75">
         <v>1899</v>
       </c>
-      <c r="F84" s="24" t="s">
+      <c r="F84" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G84" s="68"/>
-      <c r="H84" s="69" t="s">
+      <c r="G84" s="76"/>
+      <c r="H84" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="I84" s="63"/>
+      <c r="I84" s="71"/>
     </row>
     <row r="85" ht="218.4" spans="1:9">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="C85" s="66"/>
-      <c r="D85" s="67">
+      <c r="C85" s="74"/>
+      <c r="D85" s="75">
         <v>1899</v>
       </c>
-      <c r="E85" s="47">
+      <c r="E85" s="55">
         <v>1899</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F85" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G85" s="68"/>
-      <c r="H85" s="69" t="s">
+      <c r="G85" s="76"/>
+      <c r="H85" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="I85" s="63"/>
+      <c r="I85" s="71"/>
     </row>
     <row r="86" ht="218.4" spans="1:9">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B86" s="65" t="s">
+      <c r="B86" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="C86" s="66"/>
-      <c r="D86" s="67">
+      <c r="C86" s="74"/>
+      <c r="D86" s="75">
         <v>2199</v>
       </c>
-      <c r="E86" s="47">
+      <c r="E86" s="55">
         <v>2199</v>
       </c>
-      <c r="F86" s="24" t="s">
+      <c r="F86" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G86" s="68"/>
-      <c r="H86" s="69" t="s">
+      <c r="G86" s="76"/>
+      <c r="H86" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="I86" s="63"/>
+      <c r="I86" s="71"/>
     </row>
     <row r="87" ht="218.4" spans="1:9">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B87" s="65" t="s">
+      <c r="B87" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="C87" s="66"/>
-      <c r="D87" s="67">
+      <c r="C87" s="74"/>
+      <c r="D87" s="75">
         <v>2199</v>
       </c>
-      <c r="E87" s="47">
+      <c r="E87" s="55">
         <v>2199</v>
       </c>
-      <c r="F87" s="24" t="s">
+      <c r="F87" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G87" s="68"/>
-      <c r="H87" s="69" t="s">
+      <c r="G87" s="76"/>
+      <c r="H87" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="I87" s="63"/>
+      <c r="I87" s="71"/>
     </row>
     <row r="88" ht="218.4" spans="1:9">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="65" t="s">
+      <c r="B88" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="C88" s="66"/>
-      <c r="D88" s="67">
+      <c r="C88" s="74"/>
+      <c r="D88" s="75">
         <v>2199</v>
       </c>
-      <c r="E88" s="47">
+      <c r="E88" s="55">
         <v>2199</v>
       </c>
-      <c r="F88" s="24" t="s">
+      <c r="F88" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G88" s="68"/>
-      <c r="H88" s="69" t="s">
+      <c r="G88" s="76"/>
+      <c r="H88" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="I88" s="63"/>
+      <c r="I88" s="71"/>
     </row>
     <row r="89" ht="234" spans="1:9">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B89" s="65" t="s">
+      <c r="B89" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="C89" s="66"/>
-      <c r="D89" s="67">
+      <c r="C89" s="74"/>
+      <c r="D89" s="75">
         <v>2599</v>
       </c>
-      <c r="E89" s="47">
+      <c r="E89" s="55">
         <v>2599</v>
       </c>
-      <c r="F89" s="24" t="s">
+      <c r="F89" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="G89" s="68"/>
-      <c r="H89" s="69" t="s">
+      <c r="G89" s="76"/>
+      <c r="H89" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="I89" s="63"/>
+      <c r="I89" s="71"/>
     </row>
     <row r="90" ht="234" spans="1:9">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B90" s="65" t="s">
+      <c r="B90" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="C90" s="66"/>
-      <c r="D90" s="67">
+      <c r="C90" s="74"/>
+      <c r="D90" s="75">
         <v>2599</v>
       </c>
-      <c r="E90" s="47">
+      <c r="E90" s="55">
         <v>2599</v>
       </c>
-      <c r="F90" s="24" t="s">
+      <c r="F90" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="G90" s="68"/>
-      <c r="H90" s="69" t="s">
+      <c r="G90" s="76"/>
+      <c r="H90" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="I90" s="63"/>
+      <c r="I90" s="71"/>
     </row>
     <row r="91" ht="234" spans="1:9">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B91" s="65" t="s">
+      <c r="B91" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="C91" s="66"/>
-      <c r="D91" s="67">
+      <c r="C91" s="74"/>
+      <c r="D91" s="75">
         <v>2599</v>
       </c>
-      <c r="E91" s="47">
+      <c r="E91" s="55">
         <v>2599</v>
       </c>
-      <c r="F91" s="24" t="s">
+      <c r="F91" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="G91" s="68"/>
-      <c r="H91" s="69" t="s">
+      <c r="G91" s="76"/>
+      <c r="H91" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="I91" s="63"/>
+      <c r="I91" s="71"/>
     </row>
     <row r="92" ht="234" spans="1:9">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="65" t="s">
+      <c r="B92" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="66"/>
-      <c r="D92" s="67">
+      <c r="C92" s="74"/>
+      <c r="D92" s="75">
         <v>2999</v>
       </c>
-      <c r="E92" s="47">
+      <c r="E92" s="55">
         <v>2999</v>
       </c>
-      <c r="F92" s="24" t="s">
+      <c r="F92" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="G92" s="68"/>
-      <c r="H92" s="69" t="s">
+      <c r="G92" s="76"/>
+      <c r="H92" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="I92" s="63"/>
+      <c r="I92" s="71"/>
     </row>
     <row r="93" ht="234" spans="1:9">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="65" t="s">
+      <c r="B93" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="66"/>
-      <c r="D93" s="67">
+      <c r="C93" s="74"/>
+      <c r="D93" s="75">
         <v>2999</v>
       </c>
-      <c r="E93" s="47">
+      <c r="E93" s="55">
         <v>2999</v>
       </c>
-      <c r="F93" s="24" t="s">
+      <c r="F93" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="G93" s="68"/>
-      <c r="H93" s="69" t="s">
+      <c r="G93" s="76"/>
+      <c r="H93" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="I93" s="63"/>
+      <c r="I93" s="71"/>
     </row>
     <row r="94" ht="234" spans="1:9">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B94" s="65" t="s">
+      <c r="B94" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="66"/>
-      <c r="D94" s="67">
+      <c r="C94" s="74"/>
+      <c r="D94" s="75">
         <v>2999</v>
       </c>
-      <c r="E94" s="47">
+      <c r="E94" s="55">
         <v>2999</v>
       </c>
-      <c r="F94" s="24" t="s">
+      <c r="F94" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="G94" s="68"/>
-      <c r="H94" s="69" t="s">
+      <c r="G94" s="76"/>
+      <c r="H94" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="I94" s="63"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B95" s="65" t="s">
+      <c r="I94" s="71"/>
+    </row>
+    <row r="95" s="1" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A95" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="C95" s="66"/>
-      <c r="D95" s="67">
+      <c r="C95" s="80"/>
+      <c r="D95" s="81">
         <v>4999</v>
       </c>
-      <c r="E95" s="47">
+      <c r="E95" s="81">
+        <v>4099</v>
+      </c>
+      <c r="F95" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G95" s="83">
+        <v>600</v>
+      </c>
+      <c r="H95" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="I95" s="112"/>
+    </row>
+    <row r="96" s="1" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A96" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" s="80"/>
+      <c r="D96" s="81">
+        <v>4999</v>
+      </c>
+      <c r="E96" s="81">
+        <v>4099</v>
+      </c>
+      <c r="F96" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G96" s="83">
+        <v>600</v>
+      </c>
+      <c r="H96" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="I96" s="112"/>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A97" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="C97" s="80"/>
+      <c r="D97" s="81">
+        <v>4999</v>
+      </c>
+      <c r="E97" s="81">
+        <v>4099</v>
+      </c>
+      <c r="F97" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G97" s="83">
+        <v>600</v>
+      </c>
+      <c r="H97" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="I97" s="112"/>
+    </row>
+    <row r="98" s="1" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A98" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="80"/>
+      <c r="D98" s="81">
+        <v>4999</v>
+      </c>
+      <c r="E98" s="81">
+        <v>4099</v>
+      </c>
+      <c r="F98" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G98" s="83">
+        <v>600</v>
+      </c>
+      <c r="H98" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="I98" s="112"/>
+    </row>
+    <row r="99" s="1" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A99" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" s="80"/>
+      <c r="D99" s="81">
+        <v>5599</v>
+      </c>
+      <c r="E99" s="81">
         <v>4699</v>
       </c>
-      <c r="F95" s="24"/>
-      <c r="G95" s="68"/>
-      <c r="H95" s="69" t="s">
+      <c r="F99" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="I95" s="63"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B96" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="C96" s="66"/>
-      <c r="D96" s="67">
+      <c r="G99" s="83">
+        <v>600</v>
+      </c>
+      <c r="H99" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="I99" s="112"/>
+    </row>
+    <row r="100" s="1" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A100" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="80"/>
+      <c r="D100" s="81">
+        <v>5599</v>
+      </c>
+      <c r="E100" s="81">
+        <v>4699</v>
+      </c>
+      <c r="F100" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G100" s="83">
+        <v>600</v>
+      </c>
+      <c r="H100" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="I100" s="112"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A101" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" s="80"/>
+      <c r="D101" s="81">
+        <v>5599</v>
+      </c>
+      <c r="E101" s="81">
+        <v>4699</v>
+      </c>
+      <c r="F101" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G101" s="83">
+        <v>600</v>
+      </c>
+      <c r="H101" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="I101" s="112"/>
+    </row>
+    <row r="102" s="1" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A102" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="80"/>
+      <c r="D102" s="81">
+        <v>5599</v>
+      </c>
+      <c r="E102" s="81">
+        <v>4699</v>
+      </c>
+      <c r="F102" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G102" s="83">
+        <v>600</v>
+      </c>
+      <c r="H102" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="I102" s="112"/>
+    </row>
+    <row r="103" s="2" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A103" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" s="87"/>
+      <c r="D103" s="88">
+        <v>7299</v>
+      </c>
+      <c r="E103" s="88">
+        <v>6399</v>
+      </c>
+      <c r="F103" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G103" s="89">
+        <v>700</v>
+      </c>
+      <c r="H103" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="I103" s="113"/>
+    </row>
+    <row r="104" s="2" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A104" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" s="87"/>
+      <c r="D104" s="88">
+        <v>7299</v>
+      </c>
+      <c r="E104" s="88">
+        <v>6399</v>
+      </c>
+      <c r="F104" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G104" s="89">
+        <v>700</v>
+      </c>
+      <c r="H104" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="I104" s="113"/>
+    </row>
+    <row r="105" s="2" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A105" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="87"/>
+      <c r="D105" s="88">
+        <v>7299</v>
+      </c>
+      <c r="E105" s="88">
+        <v>6399</v>
+      </c>
+      <c r="F105" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G105" s="89">
+        <v>700</v>
+      </c>
+      <c r="H105" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="I105" s="113"/>
+    </row>
+    <row r="106" s="2" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A106" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" s="87"/>
+      <c r="D106" s="88">
+        <v>7899</v>
+      </c>
+      <c r="E106" s="88">
+        <v>6999</v>
+      </c>
+      <c r="F106" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G106" s="89">
+        <v>700</v>
+      </c>
+      <c r="H106" s="90" t="s">
+        <v>228</v>
+      </c>
+      <c r="I106" s="113"/>
+    </row>
+    <row r="107" s="2" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A107" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="87"/>
+      <c r="D107" s="88">
+        <v>7899</v>
+      </c>
+      <c r="E107" s="88">
+        <v>6999</v>
+      </c>
+      <c r="F107" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G107" s="89">
+        <v>700</v>
+      </c>
+      <c r="H107" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="I107" s="113"/>
+    </row>
+    <row r="108" s="2" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A108" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B108" s="86" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" s="87"/>
+      <c r="D108" s="88">
+        <v>7899</v>
+      </c>
+      <c r="E108" s="88">
+        <v>6999</v>
+      </c>
+      <c r="F108" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G108" s="89">
+        <v>700</v>
+      </c>
+      <c r="H108" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="I108" s="113"/>
+    </row>
+    <row r="109" s="2" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A109" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="87"/>
+      <c r="D109" s="88">
+        <v>9099</v>
+      </c>
+      <c r="E109" s="88">
+        <v>8199</v>
+      </c>
+      <c r="F109" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G109" s="89">
+        <v>700</v>
+      </c>
+      <c r="H109" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="I109" s="113"/>
+    </row>
+    <row r="110" s="2" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A110" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B110" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="87"/>
+      <c r="D110" s="88">
+        <v>9099</v>
+      </c>
+      <c r="E110" s="88">
+        <v>8199</v>
+      </c>
+      <c r="F110" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G110" s="89">
+        <v>700</v>
+      </c>
+      <c r="H110" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="I110" s="113"/>
+    </row>
+    <row r="111" s="2" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A111" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B111" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="C111" s="87"/>
+      <c r="D111" s="88">
+        <v>9099</v>
+      </c>
+      <c r="E111" s="88">
+        <v>8199</v>
+      </c>
+      <c r="F111" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G111" s="89">
+        <v>700</v>
+      </c>
+      <c r="H111" s="90" t="s">
+        <v>238</v>
+      </c>
+      <c r="I111" s="113"/>
+    </row>
+    <row r="112" s="3" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A112" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" s="92" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" s="93"/>
+      <c r="D112" s="94">
+        <v>7799</v>
+      </c>
+      <c r="E112" s="94">
+        <v>7799</v>
+      </c>
+      <c r="F112" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="G112" s="96"/>
+      <c r="H112" s="97"/>
+      <c r="I112" s="114"/>
+    </row>
+    <row r="113" s="3" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A113" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" s="93"/>
+      <c r="D113" s="94">
+        <v>7799</v>
+      </c>
+      <c r="E113" s="94">
+        <v>7799</v>
+      </c>
+      <c r="F113" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="G113" s="96"/>
+      <c r="H113" s="97"/>
+      <c r="I113" s="114"/>
+    </row>
+    <row r="114" s="3" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A114" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="B114" s="92" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="93"/>
+      <c r="D114" s="94">
+        <v>7799</v>
+      </c>
+      <c r="E114" s="94">
+        <v>7799</v>
+      </c>
+      <c r="F114" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="G114" s="96"/>
+      <c r="H114" s="97"/>
+      <c r="I114" s="114"/>
+    </row>
+    <row r="115" s="3" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A115" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="B115" s="92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C115" s="93"/>
+      <c r="D115" s="94">
+        <v>7799</v>
+      </c>
+      <c r="E115" s="94">
+        <v>7799</v>
+      </c>
+      <c r="F115" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="G115" s="96"/>
+      <c r="H115" s="97"/>
+      <c r="I115" s="114"/>
+    </row>
+    <row r="116" s="4" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A116" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="B116" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" s="100"/>
+      <c r="D116" s="101">
+        <v>6799</v>
+      </c>
+      <c r="E116" s="101">
+        <v>5799</v>
+      </c>
+      <c r="F116" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G116" s="103">
+        <v>700</v>
+      </c>
+      <c r="H116" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="I116" s="115"/>
+    </row>
+    <row r="117" s="4" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A117" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="C117" s="100"/>
+      <c r="D117" s="101">
+        <v>6799</v>
+      </c>
+      <c r="E117" s="101">
+        <v>5799</v>
+      </c>
+      <c r="F117" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G117" s="103">
+        <v>700</v>
+      </c>
+      <c r="H117" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="I117" s="115"/>
+    </row>
+    <row r="118" s="4" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A118" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="B118" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C118" s="100"/>
+      <c r="D118" s="101">
+        <v>6799</v>
+      </c>
+      <c r="E118" s="101">
+        <v>5799</v>
+      </c>
+      <c r="F118" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G118" s="103">
+        <v>700</v>
+      </c>
+      <c r="H118" s="99" t="s">
+        <v>248</v>
+      </c>
+      <c r="I118" s="115"/>
+    </row>
+    <row r="119" s="4" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A119" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="B119" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="C119" s="100"/>
+      <c r="D119" s="101">
+        <v>6799</v>
+      </c>
+      <c r="E119" s="101">
+        <v>5799</v>
+      </c>
+      <c r="F119" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G119" s="103">
+        <v>700</v>
+      </c>
+      <c r="H119" s="99" t="s">
+        <v>250</v>
+      </c>
+      <c r="I119" s="115"/>
+    </row>
+    <row r="120" s="4" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A120" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="B120" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" s="100"/>
+      <c r="D120" s="101">
+        <v>6799</v>
+      </c>
+      <c r="E120" s="101">
+        <v>5799</v>
+      </c>
+      <c r="F120" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G120" s="103">
+        <v>700</v>
+      </c>
+      <c r="H120" s="99" t="s">
+        <v>252</v>
+      </c>
+      <c r="I120" s="115"/>
+    </row>
+    <row r="121" ht="31.2" spans="1:9">
+      <c r="A121" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C121" s="104"/>
+      <c r="D121" s="75">
+        <v>6299</v>
+      </c>
+      <c r="E121" s="55">
+        <v>5299</v>
+      </c>
+      <c r="F121" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G121" s="103">
+        <v>700</v>
+      </c>
+      <c r="H121" s="105" t="s">
+        <v>254</v>
+      </c>
+      <c r="I121" s="71"/>
+    </row>
+    <row r="122" ht="31.2" spans="1:9">
+      <c r="A122" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C122" s="104"/>
+      <c r="D122" s="75">
+        <v>6299</v>
+      </c>
+      <c r="E122" s="55">
+        <v>5299</v>
+      </c>
+      <c r="F122" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G122" s="103">
+        <v>700</v>
+      </c>
+      <c r="H122" s="105" t="s">
+        <v>256</v>
+      </c>
+      <c r="I122" s="71"/>
+    </row>
+    <row r="123" ht="31.2" spans="1:9">
+      <c r="A123" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C123" s="104"/>
+      <c r="D123" s="75">
+        <v>6299</v>
+      </c>
+      <c r="E123" s="55">
+        <v>5299</v>
+      </c>
+      <c r="F123" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G123" s="103">
+        <v>700</v>
+      </c>
+      <c r="H123" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="I123" s="71"/>
+    </row>
+    <row r="124" ht="31.2" spans="1:9">
+      <c r="A124" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" s="104"/>
+      <c r="D124" s="75">
+        <v>6299</v>
+      </c>
+      <c r="E124" s="55">
+        <v>5299</v>
+      </c>
+      <c r="F124" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G124" s="103">
+        <v>700</v>
+      </c>
+      <c r="H124" s="105" t="s">
+        <v>260</v>
+      </c>
+      <c r="I124" s="71"/>
+    </row>
+    <row r="125" s="5" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A125" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="B125" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" s="108"/>
+      <c r="D125" s="109">
+        <v>5399</v>
+      </c>
+      <c r="E125" s="109">
+        <v>4599</v>
+      </c>
+      <c r="F125" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G125" s="110">
+        <v>500</v>
+      </c>
+      <c r="H125" s="111" t="s">
+        <v>262</v>
+      </c>
+      <c r="I125" s="116"/>
+    </row>
+    <row r="126" s="5" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A126" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="B126" s="107" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126" s="108"/>
+      <c r="D126" s="109">
+        <v>5399</v>
+      </c>
+      <c r="E126" s="109">
+        <v>4599</v>
+      </c>
+      <c r="F126" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G126" s="110">
+        <v>500</v>
+      </c>
+      <c r="H126" s="111" t="s">
+        <v>264</v>
+      </c>
+      <c r="I126" s="116"/>
+    </row>
+    <row r="127" s="5" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A127" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="B127" s="107" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" s="108"/>
+      <c r="D127" s="109">
+        <v>5399</v>
+      </c>
+      <c r="E127" s="109">
+        <v>4599</v>
+      </c>
+      <c r="F127" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G127" s="110">
+        <v>500</v>
+      </c>
+      <c r="H127" s="111" t="s">
+        <v>266</v>
+      </c>
+      <c r="I127" s="116"/>
+    </row>
+    <row r="128" s="5" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A128" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="B128" s="107" t="s">
+        <v>267</v>
+      </c>
+      <c r="C128" s="108"/>
+      <c r="D128" s="109">
+        <v>5399</v>
+      </c>
+      <c r="E128" s="109">
+        <v>4599</v>
+      </c>
+      <c r="F128" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G128" s="110">
+        <v>500</v>
+      </c>
+      <c r="H128" s="111" t="s">
+        <v>268</v>
+      </c>
+      <c r="I128" s="116"/>
+    </row>
+    <row r="129" s="6" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A129" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="B129" s="118" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" s="119"/>
+      <c r="D129" s="120">
+        <v>4899</v>
+      </c>
+      <c r="E129" s="120">
+        <v>4099</v>
+      </c>
+      <c r="F129" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G129" s="121">
+        <v>500</v>
+      </c>
+      <c r="H129" s="122" t="s">
+        <v>270</v>
+      </c>
+      <c r="I129" s="152"/>
+    </row>
+    <row r="130" s="6" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A130" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="B130" s="118" t="s">
+        <v>271</v>
+      </c>
+      <c r="C130" s="119"/>
+      <c r="D130" s="120">
+        <v>4899</v>
+      </c>
+      <c r="E130" s="120">
+        <v>4099</v>
+      </c>
+      <c r="F130" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G130" s="121">
+        <v>500</v>
+      </c>
+      <c r="H130" s="123" t="s">
+        <v>272</v>
+      </c>
+      <c r="I130" s="152"/>
+    </row>
+    <row r="131" s="6" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A131" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" s="118" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" s="119"/>
+      <c r="D131" s="120">
+        <v>4899</v>
+      </c>
+      <c r="E131" s="120">
+        <v>4099</v>
+      </c>
+      <c r="F131" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G131" s="121">
+        <v>500</v>
+      </c>
+      <c r="H131" s="123" t="s">
+        <v>274</v>
+      </c>
+      <c r="I131" s="152"/>
+    </row>
+    <row r="132" s="6" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A132" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="B132" s="118" t="s">
+        <v>275</v>
+      </c>
+      <c r="C132" s="119"/>
+      <c r="D132" s="120">
+        <v>4899</v>
+      </c>
+      <c r="E132" s="120">
+        <v>4099</v>
+      </c>
+      <c r="F132" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G132" s="121">
+        <v>500</v>
+      </c>
+      <c r="H132" s="123" t="s">
+        <v>276</v>
+      </c>
+      <c r="I132" s="152"/>
+    </row>
+    <row r="133" s="7" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A133" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="B133" s="125" t="s">
+        <v>277</v>
+      </c>
+      <c r="C133" s="126"/>
+      <c r="D133" s="127">
+        <v>4599</v>
+      </c>
+      <c r="E133" s="127">
+        <v>3799</v>
+      </c>
+      <c r="F133" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G133" s="128">
+        <v>500</v>
+      </c>
+      <c r="H133" s="129" t="s">
+        <v>278</v>
+      </c>
+      <c r="I133" s="153"/>
+    </row>
+    <row r="134" s="7" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A134" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="B134" s="125" t="s">
+        <v>279</v>
+      </c>
+      <c r="C134" s="126"/>
+      <c r="D134" s="127">
+        <v>4599</v>
+      </c>
+      <c r="E134" s="127">
+        <v>3799</v>
+      </c>
+      <c r="F134" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G134" s="128">
+        <v>500</v>
+      </c>
+      <c r="H134" s="129" t="s">
+        <v>280</v>
+      </c>
+      <c r="I134" s="153"/>
+    </row>
+    <row r="135" s="7" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A135" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="B135" s="125" t="s">
+        <v>281</v>
+      </c>
+      <c r="C135" s="126"/>
+      <c r="D135" s="127">
+        <v>4599</v>
+      </c>
+      <c r="E135" s="127">
+        <v>3799</v>
+      </c>
+      <c r="F135" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G135" s="128">
+        <v>500</v>
+      </c>
+      <c r="H135" s="129" t="s">
+        <v>282</v>
+      </c>
+      <c r="I135" s="153"/>
+    </row>
+    <row r="136" s="7" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A136" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="B136" s="125" t="s">
+        <v>283</v>
+      </c>
+      <c r="C136" s="126"/>
+      <c r="D136" s="127">
+        <v>4599</v>
+      </c>
+      <c r="E136" s="127">
+        <v>3799</v>
+      </c>
+      <c r="F136" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G136" s="128">
+        <v>500</v>
+      </c>
+      <c r="H136" s="129" t="s">
+        <v>284</v>
+      </c>
+      <c r="I136" s="153"/>
+    </row>
+    <row r="137" s="8" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A137" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="B137" s="131" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" s="132">
+        <v>0.15</v>
+      </c>
+      <c r="D137" s="133">
+        <v>4099</v>
+      </c>
+      <c r="E137" s="133">
+        <v>3299</v>
+      </c>
+      <c r="F137" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G137" s="134">
+        <v>500</v>
+      </c>
+      <c r="H137" s="135" t="s">
+        <v>286</v>
+      </c>
+      <c r="I137" s="154"/>
+    </row>
+    <row r="138" s="8" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A138" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="B138" s="131" t="s">
+        <v>287</v>
+      </c>
+      <c r="C138" s="132">
+        <v>0.15</v>
+      </c>
+      <c r="D138" s="133">
+        <v>4099</v>
+      </c>
+      <c r="E138" s="133">
+        <v>3299</v>
+      </c>
+      <c r="F138" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G138" s="134">
+        <v>500</v>
+      </c>
+      <c r="H138" s="135" t="s">
+        <v>288</v>
+      </c>
+      <c r="I138" s="154"/>
+    </row>
+    <row r="139" s="8" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A139" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="B139" s="131" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" s="132">
+        <v>0.15</v>
+      </c>
+      <c r="D139" s="133">
+        <v>4099</v>
+      </c>
+      <c r="E139" s="133">
+        <v>3299</v>
+      </c>
+      <c r="F139" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G139" s="134">
+        <v>500</v>
+      </c>
+      <c r="H139" s="135" t="s">
+        <v>290</v>
+      </c>
+      <c r="I139" s="154"/>
+    </row>
+    <row r="140" s="8" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A140" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="B140" s="131" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="132">
+        <v>0.15</v>
+      </c>
+      <c r="D140" s="133">
+        <v>4099</v>
+      </c>
+      <c r="E140" s="133">
+        <v>3299</v>
+      </c>
+      <c r="F140" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="G140" s="134">
+        <v>500</v>
+      </c>
+      <c r="H140" s="136" t="s">
+        <v>292</v>
+      </c>
+      <c r="I140" s="154"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C141" s="74"/>
+      <c r="D141" s="75">
+        <v>3299</v>
+      </c>
+      <c r="E141" s="55">
+        <v>2699</v>
+      </c>
+      <c r="F141" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G141" s="44">
+        <v>300</v>
+      </c>
+      <c r="H141" s="137" t="s">
+        <v>295</v>
+      </c>
+      <c r="I141" s="71"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" s="74"/>
+      <c r="D142" s="75">
+        <v>3299</v>
+      </c>
+      <c r="E142" s="55">
+        <v>2699</v>
+      </c>
+      <c r="F142" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G142" s="44">
+        <v>300</v>
+      </c>
+      <c r="H142" s="137" t="s">
+        <v>297</v>
+      </c>
+      <c r="I142" s="71"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C143" s="74"/>
+      <c r="D143" s="75">
+        <v>3299</v>
+      </c>
+      <c r="E143" s="55">
+        <v>2699</v>
+      </c>
+      <c r="F143" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G143" s="44">
+        <v>300</v>
+      </c>
+      <c r="H143" s="137" t="s">
+        <v>299</v>
+      </c>
+      <c r="I143" s="71"/>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C144" s="74"/>
+      <c r="D144" s="75">
+        <v>3299</v>
+      </c>
+      <c r="E144" s="55">
+        <v>2699</v>
+      </c>
+      <c r="F144" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G144" s="44">
+        <v>300</v>
+      </c>
+      <c r="H144" s="137" t="s">
+        <v>301</v>
+      </c>
+      <c r="I144" s="71"/>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="C145" s="74"/>
+      <c r="D145" s="75">
+        <v>3899</v>
+      </c>
+      <c r="E145" s="55">
+        <v>3299</v>
+      </c>
+      <c r="F145" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G145" s="44">
+        <v>300</v>
+      </c>
+      <c r="H145" s="137" t="s">
+        <v>303</v>
+      </c>
+      <c r="I145" s="71"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="C146" s="74"/>
+      <c r="D146" s="75">
+        <v>3899</v>
+      </c>
+      <c r="E146" s="55">
+        <v>3299</v>
+      </c>
+      <c r="F146" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G146" s="44">
+        <v>300</v>
+      </c>
+      <c r="H146" s="137" t="s">
+        <v>305</v>
+      </c>
+      <c r="I146" s="71"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C147" s="74"/>
+      <c r="D147" s="75">
+        <v>3899</v>
+      </c>
+      <c r="E147" s="55">
+        <v>3299</v>
+      </c>
+      <c r="F147" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G147" s="44">
+        <v>300</v>
+      </c>
+      <c r="H147" s="137" t="s">
+        <v>307</v>
+      </c>
+      <c r="I147" s="71"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C148" s="74"/>
+      <c r="D148" s="75">
+        <v>3899</v>
+      </c>
+      <c r="E148" s="55">
+        <v>3299</v>
+      </c>
+      <c r="F148" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G148" s="44">
+        <v>300</v>
+      </c>
+      <c r="H148" s="137" t="s">
+        <v>309</v>
+      </c>
+      <c r="I148" s="71"/>
+    </row>
+    <row r="149" ht="78" spans="1:9">
+      <c r="A149" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="C149" s="74"/>
+      <c r="D149" s="75">
+        <v>5799</v>
+      </c>
+      <c r="E149" s="55">
+        <v>5499</v>
+      </c>
+      <c r="F149" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G149" s="44"/>
+      <c r="H149" s="137" t="s">
+        <v>312</v>
+      </c>
+      <c r="I149" s="71"/>
+    </row>
+    <row r="150" ht="78" spans="1:9">
+      <c r="A150" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C150" s="74"/>
+      <c r="D150" s="75">
+        <v>5799</v>
+      </c>
+      <c r="E150" s="55">
+        <v>5499</v>
+      </c>
+      <c r="F150" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G150" s="44"/>
+      <c r="H150" s="137" t="s">
+        <v>314</v>
+      </c>
+      <c r="I150" s="71"/>
+    </row>
+    <row r="151" ht="78" spans="1:9">
+      <c r="A151" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C151" s="74"/>
+      <c r="D151" s="75">
+        <v>5799</v>
+      </c>
+      <c r="E151" s="55">
+        <v>5499</v>
+      </c>
+      <c r="F151" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G151" s="44"/>
+      <c r="H151" s="137" t="s">
+        <v>316</v>
+      </c>
+      <c r="I151" s="71"/>
+    </row>
+    <row r="152" ht="78" spans="1:9">
+      <c r="A152" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C152" s="74"/>
+      <c r="D152" s="75">
+        <v>5799</v>
+      </c>
+      <c r="E152" s="55">
+        <v>5499</v>
+      </c>
+      <c r="F152" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G152" s="44"/>
+      <c r="H152" s="137" t="s">
+        <v>318</v>
+      </c>
+      <c r="I152" s="71"/>
+    </row>
+    <row r="153" ht="78" spans="1:9">
+      <c r="A153" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B153" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="C153" s="74"/>
+      <c r="D153" s="69">
+        <v>5299</v>
+      </c>
+      <c r="E153" s="55">
         <v>4999</v>
       </c>
-      <c r="E96" s="47">
-        <v>4699</v>
-      </c>
-      <c r="F96" s="24"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="I96" s="63"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B97" s="65" t="s">
-        <v>208</v>
-      </c>
-      <c r="C97" s="66"/>
-      <c r="D97" s="67">
+      <c r="F153" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G153" s="44"/>
+      <c r="H153" s="138" t="s">
+        <v>320</v>
+      </c>
+      <c r="I153" s="71"/>
+    </row>
+    <row r="154" ht="78" spans="1:9">
+      <c r="A154" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B154" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="C154" s="74"/>
+      <c r="D154" s="69">
+        <v>5299</v>
+      </c>
+      <c r="E154" s="55">
         <v>4999</v>
       </c>
-      <c r="E97" s="47">
-        <v>4699</v>
-      </c>
-      <c r="F97" s="24"/>
-      <c r="G97" s="68"/>
-      <c r="H97" s="69" t="s">
-        <v>209</v>
-      </c>
-      <c r="I97" s="63"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B98" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="C98" s="66"/>
-      <c r="D98" s="67">
+      <c r="F154" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G154" s="44"/>
+      <c r="H154" s="138" t="s">
+        <v>322</v>
+      </c>
+      <c r="I154" s="71"/>
+    </row>
+    <row r="155" ht="78" spans="1:9">
+      <c r="A155" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B155" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="C155" s="74"/>
+      <c r="D155" s="69">
+        <v>5299</v>
+      </c>
+      <c r="E155" s="55">
         <v>4999</v>
       </c>
-      <c r="E98" s="47">
-        <v>4699</v>
-      </c>
-      <c r="F98" s="24"/>
-      <c r="G98" s="68"/>
-      <c r="H98" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="I98" s="63"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B99" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="C99" s="66"/>
-      <c r="D99" s="67">
-        <v>5599</v>
-      </c>
-      <c r="E99" s="47">
+      <c r="F155" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G155" s="44"/>
+      <c r="H155" s="138" t="s">
+        <v>324</v>
+      </c>
+      <c r="I155" s="71"/>
+    </row>
+    <row r="156" ht="78" spans="1:9">
+      <c r="A156" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B156" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="C156" s="74"/>
+      <c r="D156" s="69">
         <v>5299</v>
       </c>
-      <c r="F99" s="24"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="I99" s="63"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" s="65" t="s">
-        <v>214</v>
-      </c>
-      <c r="C100" s="66"/>
-      <c r="D100" s="67">
-        <v>5599</v>
-      </c>
-      <c r="E100" s="47">
-        <v>5299</v>
-      </c>
-      <c r="F100" s="24"/>
-      <c r="G100" s="68"/>
-      <c r="H100" s="69" t="s">
-        <v>215</v>
-      </c>
-      <c r="I100" s="63"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="65" t="s">
-        <v>216</v>
-      </c>
-      <c r="C101" s="66"/>
-      <c r="D101" s="67">
-        <v>5599</v>
-      </c>
-      <c r="E101" s="47">
-        <v>5299</v>
-      </c>
-      <c r="F101" s="24"/>
-      <c r="G101" s="68"/>
-      <c r="H101" s="69" t="s">
-        <v>217</v>
-      </c>
-      <c r="I101" s="63"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B102" s="65" t="s">
-        <v>218</v>
-      </c>
-      <c r="C102" s="66"/>
-      <c r="D102" s="67">
-        <v>5599</v>
-      </c>
-      <c r="E102" s="47">
-        <v>5299</v>
-      </c>
-      <c r="F102" s="24"/>
-      <c r="G102" s="68"/>
-      <c r="H102" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="I102" s="63"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="C103" s="66"/>
-      <c r="D103" s="61">
-        <v>7299</v>
-      </c>
-      <c r="E103" s="47">
-        <v>6499</v>
-      </c>
-      <c r="F103" s="24"/>
-      <c r="G103" s="71">
-        <v>200</v>
-      </c>
-      <c r="H103" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="I103" s="63"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B104" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="C104" s="66"/>
-      <c r="D104" s="61">
-        <v>7299</v>
-      </c>
-      <c r="E104" s="47">
-        <v>6499</v>
-      </c>
-      <c r="F104" s="24"/>
-      <c r="G104" s="71">
-        <v>200</v>
-      </c>
-      <c r="H104" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="I104" s="63"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B105" s="70" t="s">
-        <v>224</v>
-      </c>
-      <c r="C105" s="66"/>
-      <c r="D105" s="61">
-        <v>7299</v>
-      </c>
-      <c r="E105" s="47">
-        <v>6499</v>
-      </c>
-      <c r="F105" s="24"/>
-      <c r="G105" s="71">
-        <v>200</v>
-      </c>
-      <c r="H105" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="I105" s="63"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B106" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="C106" s="66"/>
-      <c r="D106" s="61">
-        <v>7899</v>
-      </c>
-      <c r="E106" s="47">
-        <v>7099</v>
-      </c>
-      <c r="F106" s="24"/>
-      <c r="G106" s="71">
-        <v>200</v>
-      </c>
-      <c r="H106" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="I106" s="63"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B107" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="C107" s="66"/>
-      <c r="D107" s="61">
-        <v>7899</v>
-      </c>
-      <c r="E107" s="47">
-        <v>7099</v>
-      </c>
-      <c r="F107" s="24"/>
-      <c r="G107" s="71">
-        <v>200</v>
-      </c>
-      <c r="H107" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="I107" s="63"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B108" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="C108" s="66"/>
-      <c r="D108" s="61">
-        <v>7899</v>
-      </c>
-      <c r="E108" s="47">
-        <v>7099</v>
-      </c>
-      <c r="F108" s="24"/>
-      <c r="G108" s="71">
-        <v>200</v>
-      </c>
-      <c r="H108" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="I108" s="63"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B109" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="C109" s="66"/>
-      <c r="D109" s="61">
-        <v>9099</v>
-      </c>
-      <c r="E109" s="47">
-        <v>8299</v>
-      </c>
-      <c r="F109" s="24"/>
-      <c r="G109" s="71">
-        <v>200</v>
-      </c>
-      <c r="H109" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="I109" s="63"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B110" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="C110" s="66"/>
-      <c r="D110" s="61">
-        <v>9099</v>
-      </c>
-      <c r="E110" s="47">
-        <v>8299</v>
-      </c>
-      <c r="F110" s="24"/>
-      <c r="G110" s="71">
-        <v>200</v>
-      </c>
-      <c r="H110" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I110" s="63"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B111" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="C111" s="66"/>
-      <c r="D111" s="61">
-        <v>9099</v>
-      </c>
-      <c r="E111" s="47">
-        <v>8299</v>
-      </c>
-      <c r="F111" s="24"/>
-      <c r="G111" s="71">
-        <v>200</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="I111" s="63"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C112" s="72">
+      <c r="E156" s="55">
+        <v>4999</v>
+      </c>
+      <c r="F156" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="G156" s="44"/>
+      <c r="H156" s="138" t="s">
+        <v>326</v>
+      </c>
+      <c r="I156" s="71"/>
+    </row>
+    <row r="157" ht="93.6" spans="1:9">
+      <c r="A157" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B157" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="C157" s="139">
+        <v>0.1</v>
+      </c>
+      <c r="D157" s="69">
+        <v>1999</v>
+      </c>
+      <c r="E157" s="55">
+        <v>1999</v>
+      </c>
+      <c r="F157" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="G157" s="140"/>
+      <c r="H157" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="I157" s="71"/>
+    </row>
+    <row r="158" ht="93.6" spans="1:9">
+      <c r="A158" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B158" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="C158" s="139">
+        <v>0.1</v>
+      </c>
+      <c r="D158" s="69">
+        <v>1999</v>
+      </c>
+      <c r="E158" s="55">
+        <v>1999</v>
+      </c>
+      <c r="F158" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="G158" s="140"/>
+      <c r="H158" s="138" t="s">
+        <v>331</v>
+      </c>
+      <c r="I158" s="71"/>
+    </row>
+    <row r="159" ht="93.6" spans="1:9">
+      <c r="A159" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B159" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="C159" s="139">
+        <v>0.1</v>
+      </c>
+      <c r="D159" s="69">
+        <v>1999</v>
+      </c>
+      <c r="E159" s="55">
+        <v>1999</v>
+      </c>
+      <c r="F159" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="G159" s="140"/>
+      <c r="H159" s="138" t="s">
+        <v>333</v>
+      </c>
+      <c r="I159" s="71"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="C160" s="141"/>
+      <c r="D160" s="75">
+        <v>1699</v>
+      </c>
+      <c r="E160" s="55">
+        <v>1699</v>
+      </c>
+      <c r="F160" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="G160" s="76"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="71"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C161" s="141"/>
+      <c r="D161" s="75">
+        <v>1699</v>
+      </c>
+      <c r="E161" s="55">
+        <v>1699</v>
+      </c>
+      <c r="F161" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="G161" s="76"/>
+      <c r="H161" s="22"/>
+      <c r="I161" s="71"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="C162" s="141"/>
+      <c r="D162" s="75">
+        <v>1699</v>
+      </c>
+      <c r="E162" s="55">
+        <v>1699</v>
+      </c>
+      <c r="F162" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="G162" s="76"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="71"/>
+    </row>
+    <row r="163" ht="93.6" spans="1:9">
+      <c r="A163" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="C163" s="139">
+        <v>0.1</v>
+      </c>
+      <c r="D163" s="69">
+        <v>1099</v>
+      </c>
+      <c r="E163" s="55">
+        <v>1099</v>
+      </c>
+      <c r="F163" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="G163" s="44"/>
+      <c r="H163" s="142" t="s">
+        <v>340</v>
+      </c>
+      <c r="I163" s="71"/>
+    </row>
+    <row r="164" ht="93.6" spans="1:9">
+      <c r="A164" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B164" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="C164" s="139">
+        <v>0.1</v>
+      </c>
+      <c r="D164" s="69">
+        <v>1099</v>
+      </c>
+      <c r="E164" s="55">
+        <v>1099</v>
+      </c>
+      <c r="F164" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="G164" s="44"/>
+      <c r="H164" s="142" t="s">
+        <v>342</v>
+      </c>
+      <c r="I164" s="71"/>
+    </row>
+    <row r="165" ht="93.6" spans="1:9">
+      <c r="A165" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="C165" s="139">
+        <v>0.1</v>
+      </c>
+      <c r="D165" s="69">
+        <v>1099</v>
+      </c>
+      <c r="E165" s="55">
+        <v>1099</v>
+      </c>
+      <c r="F165" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="G165" s="44"/>
+      <c r="H165" s="142" t="s">
+        <v>344</v>
+      </c>
+      <c r="I165" s="71"/>
+    </row>
+    <row r="166" ht="78" spans="1:9">
+      <c r="A166" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="C166" s="143"/>
+      <c r="D166" s="144">
+        <v>899</v>
+      </c>
+      <c r="E166" s="64">
+        <v>899</v>
+      </c>
+      <c r="F166" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="G166" s="44"/>
+      <c r="H166" s="145" t="s">
+        <v>347</v>
+      </c>
+      <c r="I166" s="71"/>
+    </row>
+    <row r="167" ht="78" spans="1:9">
+      <c r="A167" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C167" s="143"/>
+      <c r="D167" s="144">
+        <v>899</v>
+      </c>
+      <c r="E167" s="64">
+        <v>899</v>
+      </c>
+      <c r="F167" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="G167" s="44"/>
+      <c r="H167" s="145" t="s">
+        <v>349</v>
+      </c>
+      <c r="I167" s="71"/>
+    </row>
+    <row r="168" ht="78" spans="1:9">
+      <c r="A168" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C168" s="143"/>
+      <c r="D168" s="144">
+        <v>899</v>
+      </c>
+      <c r="E168" s="64">
+        <v>899</v>
+      </c>
+      <c r="F168" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="G168" s="44"/>
+      <c r="H168" s="145" t="s">
+        <v>351</v>
+      </c>
+      <c r="I168" s="71"/>
+    </row>
+    <row r="169" ht="46.8" spans="1:9">
+      <c r="A169" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B169" s="67" t="s">
+        <v>352</v>
+      </c>
+      <c r="C169" s="146"/>
+      <c r="D169" s="147">
+        <v>799</v>
+      </c>
+      <c r="E169" s="64">
+        <v>799</v>
+      </c>
+      <c r="F169" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="G169" s="44"/>
+      <c r="H169" s="142" t="s">
+        <v>354</v>
+      </c>
+      <c r="I169" s="71"/>
+    </row>
+    <row r="170" ht="46.8" spans="1:9">
+      <c r="A170" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B170" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="C170" s="146"/>
+      <c r="D170" s="147">
+        <v>799</v>
+      </c>
+      <c r="E170" s="64">
+        <v>799</v>
+      </c>
+      <c r="F170" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="G170" s="44"/>
+      <c r="H170" s="142" t="s">
+        <v>356</v>
+      </c>
+      <c r="I170" s="71"/>
+    </row>
+    <row r="171" ht="46.8" spans="1:9">
+      <c r="A171" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B171" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="C171" s="146"/>
+      <c r="D171" s="147">
+        <v>799</v>
+      </c>
+      <c r="E171" s="64">
+        <v>799</v>
+      </c>
+      <c r="F171" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="G171" s="44"/>
+      <c r="H171" s="142" t="s">
+        <v>358</v>
+      </c>
+      <c r="I171" s="71"/>
+    </row>
+    <row r="172" ht="156" spans="1:9">
+      <c r="A172" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B172" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="C172" s="146"/>
+      <c r="D172" s="147">
+        <v>449</v>
+      </c>
+      <c r="E172" s="147">
+        <v>449</v>
+      </c>
+      <c r="F172" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G172" s="44"/>
+      <c r="H172" s="142" t="s">
+        <v>361</v>
+      </c>
+      <c r="I172" s="71"/>
+    </row>
+    <row r="173" ht="156" spans="1:9">
+      <c r="A173" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B173" s="67" t="s">
+        <v>362</v>
+      </c>
+      <c r="C173" s="146"/>
+      <c r="D173" s="147">
+        <v>449</v>
+      </c>
+      <c r="E173" s="147">
+        <v>449</v>
+      </c>
+      <c r="F173" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G173" s="44"/>
+      <c r="H173" s="142" t="s">
+        <v>363</v>
+      </c>
+      <c r="I173" s="71"/>
+    </row>
+    <row r="174" ht="156" spans="1:9">
+      <c r="A174" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B174" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="C174" s="146"/>
+      <c r="D174" s="147">
+        <v>449</v>
+      </c>
+      <c r="E174" s="147">
+        <v>449</v>
+      </c>
+      <c r="F174" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G174" s="44"/>
+      <c r="H174" s="142" t="s">
+        <v>365</v>
+      </c>
+      <c r="I174" s="71"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B175" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="C175" s="47">
         <v>0.03</v>
       </c>
-      <c r="D112" s="67">
-        <v>7799</v>
-      </c>
-      <c r="E112" s="47">
+      <c r="D175" s="25">
+        <v>3999</v>
+      </c>
+      <c r="E175" s="25">
+        <v>3369</v>
+      </c>
+      <c r="F175" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G175" s="148"/>
+      <c r="H175" s="149"/>
+      <c r="I175" s="71"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B176" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C176" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D176" s="25">
+        <v>3999</v>
+      </c>
+      <c r="E176" s="25">
+        <v>3369</v>
+      </c>
+      <c r="F176" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G176" s="148"/>
+      <c r="H176" s="149"/>
+      <c r="I176" s="71"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B177" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C177" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D177" s="25">
+        <v>3999</v>
+      </c>
+      <c r="E177" s="25">
+        <v>3369</v>
+      </c>
+      <c r="F177" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G177" s="148"/>
+      <c r="H177" s="149"/>
+      <c r="I177" s="71"/>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C178" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D178" s="25">
+        <v>3999</v>
+      </c>
+      <c r="E178" s="25">
+        <v>3369</v>
+      </c>
+      <c r="F178" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G178" s="148"/>
+      <c r="H178" s="149"/>
+      <c r="I178" s="71"/>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="C179" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D179" s="25">
+        <v>4499</v>
+      </c>
+      <c r="E179" s="25">
+        <v>3869</v>
+      </c>
+      <c r="F179" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G179" s="148"/>
+      <c r="H179" s="149"/>
+      <c r="I179" s="71"/>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="C180" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D180" s="25">
+        <v>4499</v>
+      </c>
+      <c r="E180" s="25">
+        <v>3869</v>
+      </c>
+      <c r="F180" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G180" s="148"/>
+      <c r="H180" s="149"/>
+      <c r="I180" s="71"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="C181" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D181" s="25">
+        <v>4499</v>
+      </c>
+      <c r="E181" s="25">
+        <v>3869</v>
+      </c>
+      <c r="F181" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G181" s="148"/>
+      <c r="H181" s="149"/>
+      <c r="I181" s="71"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B182" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="C182" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D182" s="25">
+        <v>4499</v>
+      </c>
+      <c r="E182" s="25">
+        <v>3869</v>
+      </c>
+      <c r="F182" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G182" s="148"/>
+      <c r="H182" s="149"/>
+      <c r="I182" s="71"/>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B183" s="67" t="s">
+        <v>376</v>
+      </c>
+      <c r="C183" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="D183" s="150">
+        <v>5199</v>
+      </c>
+      <c r="E183" s="150">
+        <v>4399</v>
+      </c>
+      <c r="F183" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="G183" s="151"/>
+      <c r="H183" s="149"/>
+      <c r="I183" s="71"/>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="C184" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="D184" s="150">
+        <v>5699</v>
+      </c>
+      <c r="E184" s="150">
+        <v>4899</v>
+      </c>
+      <c r="F184" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="G184" s="151"/>
+      <c r="H184" s="149"/>
+      <c r="I184" s="71"/>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="C185" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="D185" s="150">
+        <v>5699</v>
+      </c>
+      <c r="E185" s="150">
+        <v>4899</v>
+      </c>
+      <c r="F185" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="G185" s="151"/>
+      <c r="H185" s="149"/>
+      <c r="I185" s="71"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B186" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="C186" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="D186" s="150">
+        <v>5699</v>
+      </c>
+      <c r="E186" s="150">
+        <v>4899</v>
+      </c>
+      <c r="F186" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="G186" s="151"/>
+      <c r="H186" s="149"/>
+      <c r="I186" s="71"/>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B187" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="C187" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="D187" s="150">
+        <v>5699</v>
+      </c>
+      <c r="E187" s="150">
+        <v>4899</v>
+      </c>
+      <c r="F187" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="G187" s="151"/>
+      <c r="H187" s="149"/>
+      <c r="I187" s="71"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B188" s="67" t="s">
+        <v>382</v>
+      </c>
+      <c r="C188" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="D188" s="150">
+        <v>6299</v>
+      </c>
+      <c r="E188" s="150">
+        <v>5499</v>
+      </c>
+      <c r="F188" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="G188" s="151"/>
+      <c r="H188" s="149"/>
+      <c r="I188" s="71"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B189" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="C189" s="47">
+        <v>0.04</v>
+      </c>
+      <c r="D189" s="150">
+        <v>6299</v>
+      </c>
+      <c r="E189" s="150">
+        <v>5499</v>
+      </c>
+      <c r="F189" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="G189" s="151"/>
+      <c r="H189" s="149"/>
+      <c r="I189" s="71"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B190" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="C190" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D190" s="150">
+        <v>5699</v>
+      </c>
+      <c r="E190" s="150">
+        <v>4719</v>
+      </c>
+      <c r="F190" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G190" s="151"/>
+      <c r="H190" s="149"/>
+      <c r="I190" s="71"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B191" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="C191" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D191" s="150">
+        <v>6199</v>
+      </c>
+      <c r="E191" s="150">
+        <v>5219</v>
+      </c>
+      <c r="F191" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G191" s="151"/>
+      <c r="H191" s="149"/>
+      <c r="I191" s="71"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B192" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="C192" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D192" s="150">
+        <v>6199</v>
+      </c>
+      <c r="E192" s="150">
+        <v>5219</v>
+      </c>
+      <c r="F192" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G192" s="151"/>
+      <c r="H192" s="149"/>
+      <c r="I192" s="71"/>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B193" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="C193" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D193" s="150">
+        <v>6199</v>
+      </c>
+      <c r="E193" s="150">
+        <v>5219</v>
+      </c>
+      <c r="F193" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G193" s="151"/>
+      <c r="H193" s="149"/>
+      <c r="I193" s="71"/>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B194" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="C194" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D194" s="150">
+        <v>6199</v>
+      </c>
+      <c r="E194" s="150">
+        <v>5219</v>
+      </c>
+      <c r="F194" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G194" s="151"/>
+      <c r="H194" s="149"/>
+      <c r="I194" s="71"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B195" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="C195" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D195" s="150">
+        <v>6799</v>
+      </c>
+      <c r="E195" s="150">
+        <v>5819</v>
+      </c>
+      <c r="F195" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G195" s="151"/>
+      <c r="H195" s="149"/>
+      <c r="I195" s="71"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B196" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="C196" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D196" s="150">
+        <v>7999</v>
+      </c>
+      <c r="E196" s="150">
         <v>7019</v>
       </c>
-      <c r="F112" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G112" s="71">
-        <v>280</v>
-      </c>
-      <c r="H112" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="I112" s="63"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C113" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D113" s="67">
-        <v>7799</v>
-      </c>
-      <c r="E113" s="47">
-        <v>7019</v>
-      </c>
-      <c r="F113" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G113" s="71">
-        <v>280</v>
-      </c>
-      <c r="H113" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="I113" s="63"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C114" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D114" s="67">
-        <v>7799</v>
-      </c>
-      <c r="E114" s="47">
-        <v>7019</v>
-      </c>
-      <c r="F114" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G114" s="71">
-        <v>280</v>
-      </c>
-      <c r="H114" s="73" t="s">
-        <v>244</v>
-      </c>
-      <c r="I114" s="63"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C115" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D115" s="67">
-        <v>7799</v>
-      </c>
-      <c r="E115" s="47">
-        <v>7019</v>
-      </c>
-      <c r="F115" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G115" s="71">
-        <v>280</v>
-      </c>
-      <c r="H115" s="73" t="s">
-        <v>246</v>
-      </c>
-      <c r="I115" s="63"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C116" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D116" s="67">
-        <v>6799</v>
-      </c>
-      <c r="E116" s="47">
-        <v>5899</v>
-      </c>
-      <c r="F116" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G116" s="71">
-        <v>300</v>
-      </c>
-      <c r="H116" s="69" t="s">
-        <v>248</v>
-      </c>
-      <c r="I116" s="63"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C117" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D117" s="67">
-        <v>6799</v>
-      </c>
-      <c r="E117" s="47">
-        <v>5899</v>
-      </c>
-      <c r="F117" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G117" s="71">
-        <v>300</v>
-      </c>
-      <c r="H117" s="69" t="s">
-        <v>250</v>
-      </c>
-      <c r="I117" s="63"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C118" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D118" s="67">
-        <v>6799</v>
-      </c>
-      <c r="E118" s="47">
-        <v>5899</v>
-      </c>
-      <c r="F118" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G118" s="71">
-        <v>300</v>
-      </c>
-      <c r="H118" s="69" t="s">
-        <v>252</v>
-      </c>
-      <c r="I118" s="63"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C119" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D119" s="67">
-        <v>6799</v>
-      </c>
-      <c r="E119" s="47">
-        <v>5899</v>
-      </c>
-      <c r="F119" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G119" s="71">
-        <v>300</v>
-      </c>
-      <c r="H119" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="I119" s="63"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="C120" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D120" s="67">
-        <v>6799</v>
-      </c>
-      <c r="E120" s="47">
-        <v>5899</v>
-      </c>
-      <c r="F120" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G120" s="71">
-        <v>300</v>
-      </c>
-      <c r="H120" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="I120" s="63"/>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C121" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D121" s="67">
-        <v>6299</v>
-      </c>
-      <c r="E121" s="47">
-        <v>5399</v>
-      </c>
-      <c r="F121" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G121" s="71">
-        <v>300</v>
-      </c>
-      <c r="H121" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="I121" s="63"/>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C122" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D122" s="67">
-        <v>6299</v>
-      </c>
-      <c r="E122" s="47">
-        <v>5399</v>
-      </c>
-      <c r="F122" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G122" s="71">
-        <v>300</v>
-      </c>
-      <c r="H122" s="69" t="s">
-        <v>260</v>
-      </c>
-      <c r="I122" s="63"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C123" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D123" s="67">
-        <v>6299</v>
-      </c>
-      <c r="E123" s="47">
-        <v>5399</v>
-      </c>
-      <c r="F123" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G123" s="71">
-        <v>300</v>
-      </c>
-      <c r="H123" s="69" t="s">
-        <v>262</v>
-      </c>
-      <c r="I123" s="63"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C124" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D124" s="67">
-        <v>6299</v>
-      </c>
-      <c r="E124" s="47">
-        <v>5399</v>
-      </c>
-      <c r="F124" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G124" s="71">
-        <v>300</v>
-      </c>
-      <c r="H124" s="69" t="s">
-        <v>264</v>
-      </c>
-      <c r="I124" s="63"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B125" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="C125" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D125" s="61">
-        <v>5399</v>
-      </c>
-      <c r="E125" s="47">
-        <v>4599</v>
-      </c>
-      <c r="F125" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G125" s="71">
-        <v>300</v>
-      </c>
-      <c r="H125" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="I125" s="63"/>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B126" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="C126" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D126" s="61">
-        <v>5399</v>
-      </c>
-      <c r="E126" s="47">
-        <v>4599</v>
-      </c>
-      <c r="F126" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G126" s="71">
-        <v>300</v>
-      </c>
-      <c r="H126" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="I126" s="63"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B127" s="59" t="s">
-        <v>269</v>
-      </c>
-      <c r="C127" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D127" s="61">
-        <v>5399</v>
-      </c>
-      <c r="E127" s="47">
-        <v>4599</v>
-      </c>
-      <c r="F127" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G127" s="71">
-        <v>300</v>
-      </c>
-      <c r="H127" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="I127" s="63"/>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B128" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="C128" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D128" s="61">
-        <v>5399</v>
-      </c>
-      <c r="E128" s="47">
-        <v>4599</v>
-      </c>
-      <c r="F128" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G128" s="71">
-        <v>300</v>
-      </c>
-      <c r="H128" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="I128" s="63"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B129" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="C129" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D129" s="61">
-        <v>4899</v>
-      </c>
-      <c r="E129" s="47">
-        <v>4099</v>
-      </c>
-      <c r="F129" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G129" s="71">
-        <v>300</v>
-      </c>
-      <c r="H129" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="I129" s="63"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B130" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="C130" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D130" s="61">
-        <v>4899</v>
-      </c>
-      <c r="E130" s="47">
-        <v>4099</v>
-      </c>
-      <c r="F130" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G130" s="71">
-        <v>300</v>
-      </c>
-      <c r="H130" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="I130" s="63"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B131" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="C131" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D131" s="61">
-        <v>4899</v>
-      </c>
-      <c r="E131" s="47">
-        <v>4099</v>
-      </c>
-      <c r="F131" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G131" s="71">
-        <v>300</v>
-      </c>
-      <c r="H131" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="I131" s="63"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B132" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="C132" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D132" s="61">
-        <v>4899</v>
-      </c>
-      <c r="E132" s="47">
-        <v>4099</v>
-      </c>
-      <c r="F132" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G132" s="71">
-        <v>300</v>
-      </c>
-      <c r="H132" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="I132" s="63"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C133" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D133" s="67">
-        <v>4599</v>
-      </c>
-      <c r="E133" s="47">
-        <v>3969</v>
-      </c>
-      <c r="F133" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G133" s="71">
-        <v>130</v>
-      </c>
-      <c r="H133" s="73" t="s">
-        <v>282</v>
-      </c>
-      <c r="I133" s="63"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C134" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D134" s="67">
-        <v>4599</v>
-      </c>
-      <c r="E134" s="47">
-        <v>3969</v>
-      </c>
-      <c r="F134" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G134" s="71">
-        <v>130</v>
-      </c>
-      <c r="H134" s="73" t="s">
-        <v>284</v>
-      </c>
-      <c r="I134" s="63"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C135" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D135" s="67">
-        <v>4599</v>
-      </c>
-      <c r="E135" s="47">
-        <v>3969</v>
-      </c>
-      <c r="F135" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G135" s="71">
-        <v>130</v>
-      </c>
-      <c r="H135" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="I135" s="63"/>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C136" s="72">
-        <v>0.03</v>
-      </c>
-      <c r="D136" s="67">
-        <v>4599</v>
-      </c>
-      <c r="E136" s="47">
-        <v>3969</v>
-      </c>
-      <c r="F136" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G136" s="71">
-        <v>130</v>
-      </c>
-      <c r="H136" s="73" t="s">
-        <v>288</v>
-      </c>
-      <c r="I136" s="63"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B137" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C137" s="74">
-        <v>0.15</v>
-      </c>
-      <c r="D137" s="67">
-        <v>4099</v>
-      </c>
-      <c r="E137" s="47">
-        <v>3399</v>
-      </c>
-      <c r="F137" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G137" s="71">
-        <v>200</v>
-      </c>
-      <c r="H137" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="I137" s="63"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C138" s="74">
-        <v>0.15</v>
-      </c>
-      <c r="D138" s="67">
-        <v>4099</v>
-      </c>
-      <c r="E138" s="47">
-        <v>3399</v>
-      </c>
-      <c r="F138" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G138" s="71">
-        <v>200</v>
-      </c>
-      <c r="H138" s="73" t="s">
-        <v>292</v>
-      </c>
-      <c r="I138" s="63"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B139" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C139" s="74">
-        <v>0.15</v>
-      </c>
-      <c r="D139" s="67">
-        <v>4099</v>
-      </c>
-      <c r="E139" s="47">
-        <v>3399</v>
-      </c>
-      <c r="F139" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G139" s="71">
-        <v>200</v>
-      </c>
-      <c r="H139" s="73" t="s">
-        <v>294</v>
-      </c>
-      <c r="I139" s="63"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B140" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C140" s="74">
-        <v>0.15</v>
-      </c>
-      <c r="D140" s="67">
-        <v>4099</v>
-      </c>
-      <c r="E140" s="47">
-        <v>3399</v>
-      </c>
-      <c r="F140" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="G140" s="71">
-        <v>200</v>
-      </c>
-      <c r="H140" s="73" t="s">
-        <v>296</v>
-      </c>
-      <c r="I140" s="63"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C141" s="66"/>
-      <c r="D141" s="67">
-        <v>3299</v>
-      </c>
-      <c r="E141" s="47">
-        <v>2699</v>
-      </c>
-      <c r="F141" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="G141" s="36">
-        <v>300</v>
-      </c>
-      <c r="H141" s="73" t="s">
-        <v>299</v>
-      </c>
-      <c r="I141" s="63"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C142" s="66"/>
-      <c r="D142" s="67">
-        <v>3299</v>
-      </c>
-      <c r="E142" s="47">
-        <v>2699</v>
-      </c>
-      <c r="F142" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="G142" s="36">
-        <v>300</v>
-      </c>
-      <c r="H142" s="73" t="s">
-        <v>301</v>
-      </c>
-      <c r="I142" s="63"/>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C143" s="66"/>
-      <c r="D143" s="67">
-        <v>3299</v>
-      </c>
-      <c r="E143" s="47">
-        <v>2699</v>
-      </c>
-      <c r="F143" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="G143" s="36">
-        <v>300</v>
-      </c>
-      <c r="H143" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="I143" s="63"/>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C144" s="66"/>
-      <c r="D144" s="67">
-        <v>3299</v>
-      </c>
-      <c r="E144" s="47">
-        <v>2699</v>
-      </c>
-      <c r="F144" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="G144" s="36">
-        <v>300</v>
-      </c>
-      <c r="H144" s="73" t="s">
-        <v>305</v>
-      </c>
-      <c r="I144" s="63"/>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C145" s="66"/>
-      <c r="D145" s="67">
-        <v>3899</v>
-      </c>
-      <c r="E145" s="47">
-        <v>3299</v>
-      </c>
-      <c r="F145" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="G145" s="36">
-        <v>300</v>
-      </c>
-      <c r="H145" s="73" t="s">
-        <v>307</v>
-      </c>
-      <c r="I145" s="63"/>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C146" s="66"/>
-      <c r="D146" s="67">
-        <v>3899</v>
-      </c>
-      <c r="E146" s="47">
-        <v>3299</v>
-      </c>
-      <c r="F146" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="G146" s="36">
-        <v>300</v>
-      </c>
-      <c r="H146" s="73" t="s">
-        <v>309</v>
-      </c>
-      <c r="I146" s="63"/>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C147" s="66"/>
-      <c r="D147" s="67">
-        <v>3899</v>
-      </c>
-      <c r="E147" s="47">
-        <v>3299</v>
-      </c>
-      <c r="F147" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="G147" s="36">
-        <v>300</v>
-      </c>
-      <c r="H147" s="73" t="s">
-        <v>311</v>
-      </c>
-      <c r="I147" s="63"/>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C148" s="66"/>
-      <c r="D148" s="67">
-        <v>3899</v>
-      </c>
-      <c r="E148" s="47">
-        <v>3299</v>
-      </c>
-      <c r="F148" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="G148" s="36">
-        <v>300</v>
-      </c>
-      <c r="H148" s="73" t="s">
-        <v>313</v>
-      </c>
-      <c r="I148" s="63"/>
-    </row>
-    <row r="149" ht="78" spans="1:9">
-      <c r="A149" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C149" s="66"/>
-      <c r="D149" s="67">
-        <v>5799</v>
-      </c>
-      <c r="E149" s="47">
-        <v>5499</v>
-      </c>
-      <c r="F149" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="G149" s="36"/>
-      <c r="H149" s="73" t="s">
-        <v>316</v>
-      </c>
-      <c r="I149" s="63"/>
-    </row>
-    <row r="150" ht="78" spans="1:9">
-      <c r="A150" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B150" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C150" s="66"/>
-      <c r="D150" s="67">
-        <v>5799</v>
-      </c>
-      <c r="E150" s="47">
-        <v>5499</v>
-      </c>
-      <c r="F150" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="G150" s="36"/>
-      <c r="H150" s="73" t="s">
-        <v>318</v>
-      </c>
-      <c r="I150" s="63"/>
-    </row>
-    <row r="151" ht="78" spans="1:9">
-      <c r="A151" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B151" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C151" s="66"/>
-      <c r="D151" s="67">
-        <v>5799</v>
-      </c>
-      <c r="E151" s="47">
-        <v>5499</v>
-      </c>
-      <c r="F151" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="G151" s="36"/>
-      <c r="H151" s="73" t="s">
-        <v>320</v>
-      </c>
-      <c r="I151" s="63"/>
-    </row>
-    <row r="152" ht="78" spans="1:9">
-      <c r="A152" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="C152" s="66"/>
-      <c r="D152" s="67">
-        <v>5799</v>
-      </c>
-      <c r="E152" s="47">
-        <v>5499</v>
-      </c>
-      <c r="F152" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="G152" s="36"/>
-      <c r="H152" s="73" t="s">
-        <v>322</v>
-      </c>
-      <c r="I152" s="63"/>
-    </row>
-    <row r="153" ht="78" spans="1:9">
-      <c r="A153" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B153" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="C153" s="66"/>
-      <c r="D153" s="61">
-        <v>5299</v>
-      </c>
-      <c r="E153" s="47">
-        <v>4999</v>
-      </c>
-      <c r="F153" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="G153" s="36"/>
-      <c r="H153" s="75" t="s">
-        <v>324</v>
-      </c>
-      <c r="I153" s="63"/>
-    </row>
-    <row r="154" ht="78" spans="1:9">
-      <c r="A154" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B154" s="59" t="s">
-        <v>325</v>
-      </c>
-      <c r="C154" s="66"/>
-      <c r="D154" s="61">
-        <v>5299</v>
-      </c>
-      <c r="E154" s="47">
-        <v>4999</v>
-      </c>
-      <c r="F154" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="G154" s="36"/>
-      <c r="H154" s="75" t="s">
-        <v>326</v>
-      </c>
-      <c r="I154" s="63"/>
-    </row>
-    <row r="155" ht="78" spans="1:9">
-      <c r="A155" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B155" s="59" t="s">
-        <v>327</v>
-      </c>
-      <c r="C155" s="66"/>
-      <c r="D155" s="61">
-        <v>5299</v>
-      </c>
-      <c r="E155" s="47">
-        <v>4999</v>
-      </c>
-      <c r="F155" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="G155" s="36"/>
-      <c r="H155" s="75" t="s">
-        <v>328</v>
-      </c>
-      <c r="I155" s="63"/>
-    </row>
-    <row r="156" ht="78" spans="1:9">
-      <c r="A156" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B156" s="59" t="s">
-        <v>329</v>
-      </c>
-      <c r="C156" s="66"/>
-      <c r="D156" s="61">
-        <v>5299</v>
-      </c>
-      <c r="E156" s="47">
-        <v>4999</v>
-      </c>
-      <c r="F156" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="G156" s="36"/>
-      <c r="H156" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="I156" s="63"/>
-    </row>
-    <row r="157" ht="93.6" spans="1:9">
-      <c r="A157" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B157" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="C157" s="76">
-        <v>0.1</v>
-      </c>
-      <c r="D157" s="61">
-        <v>1999</v>
-      </c>
-      <c r="E157" s="47">
-        <v>1999</v>
-      </c>
-      <c r="F157" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="G157" s="77"/>
-      <c r="H157" s="75" t="s">
-        <v>333</v>
-      </c>
-      <c r="I157" s="63"/>
-    </row>
-    <row r="158" ht="93.6" spans="1:9">
-      <c r="A158" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B158" s="59" t="s">
-        <v>334</v>
-      </c>
-      <c r="C158" s="76">
-        <v>0.1</v>
-      </c>
-      <c r="D158" s="61">
-        <v>1999</v>
-      </c>
-      <c r="E158" s="47">
-        <v>1999</v>
-      </c>
-      <c r="F158" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="G158" s="77"/>
-      <c r="H158" s="75" t="s">
-        <v>335</v>
-      </c>
-      <c r="I158" s="63"/>
-    </row>
-    <row r="159" ht="93.6" spans="1:9">
-      <c r="A159" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B159" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="C159" s="76">
-        <v>0.1</v>
-      </c>
-      <c r="D159" s="61">
-        <v>1999</v>
-      </c>
-      <c r="E159" s="47">
-        <v>1999</v>
-      </c>
-      <c r="F159" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="G159" s="77"/>
-      <c r="H159" s="75" t="s">
-        <v>337</v>
-      </c>
-      <c r="I159" s="63"/>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B160" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="C160" s="74"/>
-      <c r="D160" s="67">
-        <v>1699</v>
-      </c>
-      <c r="E160" s="47">
-        <v>1699</v>
-      </c>
-      <c r="F160" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="G160" s="68"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="63"/>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B161" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="C161" s="74"/>
-      <c r="D161" s="67">
-        <v>1699</v>
-      </c>
-      <c r="E161" s="47">
-        <v>1699</v>
-      </c>
-      <c r="F161" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="G161" s="68"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="63"/>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="C162" s="74"/>
-      <c r="D162" s="67">
-        <v>1699</v>
-      </c>
-      <c r="E162" s="47">
-        <v>1699</v>
-      </c>
-      <c r="F162" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="G162" s="68"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="63"/>
-    </row>
-    <row r="163" ht="93.6" spans="1:9">
-      <c r="A163" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B163" s="59" t="s">
-        <v>342</v>
-      </c>
-      <c r="C163" s="76">
-        <v>0.1</v>
-      </c>
-      <c r="D163" s="61">
-        <v>1099</v>
-      </c>
-      <c r="E163" s="47">
-        <v>1099</v>
-      </c>
-      <c r="F163" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="G163" s="36"/>
-      <c r="H163" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="I163" s="63"/>
-    </row>
-    <row r="164" ht="93.6" spans="1:9">
-      <c r="A164" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B164" s="59" t="s">
-        <v>345</v>
-      </c>
-      <c r="C164" s="76">
-        <v>0.1</v>
-      </c>
-      <c r="D164" s="61">
-        <v>1099</v>
-      </c>
-      <c r="E164" s="47">
-        <v>1099</v>
-      </c>
-      <c r="F164" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="G164" s="36"/>
-      <c r="H164" s="78" t="s">
-        <v>346</v>
-      </c>
-      <c r="I164" s="63"/>
-    </row>
-    <row r="165" ht="93.6" spans="1:9">
-      <c r="A165" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B165" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="C165" s="76">
-        <v>0.1</v>
-      </c>
-      <c r="D165" s="61">
-        <v>1099</v>
-      </c>
-      <c r="E165" s="47">
-        <v>1099</v>
-      </c>
-      <c r="F165" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="G165" s="36"/>
-      <c r="H165" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="I165" s="63"/>
-    </row>
-    <row r="166" ht="78" spans="1:9">
-      <c r="A166" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B166" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="C166" s="79"/>
-      <c r="D166" s="80">
-        <v>899</v>
-      </c>
-      <c r="E166" s="56">
-        <v>899</v>
-      </c>
-      <c r="F166" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="G166" s="36"/>
-      <c r="H166" s="81" t="s">
-        <v>351</v>
-      </c>
-      <c r="I166" s="63"/>
-    </row>
-    <row r="167" ht="78" spans="1:9">
-      <c r="A167" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="C167" s="79"/>
-      <c r="D167" s="80">
-        <v>899</v>
-      </c>
-      <c r="E167" s="56">
-        <v>899</v>
-      </c>
-      <c r="F167" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="G167" s="36"/>
-      <c r="H167" s="81" t="s">
-        <v>353</v>
-      </c>
-      <c r="I167" s="63"/>
-    </row>
-    <row r="168" ht="78" spans="1:9">
-      <c r="A168" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="C168" s="79"/>
-      <c r="D168" s="80">
-        <v>899</v>
-      </c>
-      <c r="E168" s="56">
-        <v>899</v>
-      </c>
-      <c r="F168" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="G168" s="36"/>
-      <c r="H168" s="81" t="s">
-        <v>355</v>
-      </c>
-      <c r="I168" s="63"/>
-    </row>
-    <row r="169" ht="46.8" spans="1:9">
-      <c r="A169" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B169" s="59" t="s">
-        <v>356</v>
-      </c>
-      <c r="C169" s="82"/>
-      <c r="D169" s="83">
-        <v>799</v>
-      </c>
-      <c r="E169" s="56">
-        <v>799</v>
-      </c>
-      <c r="F169" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="G169" s="36"/>
-      <c r="H169" s="78" t="s">
-        <v>358</v>
-      </c>
-      <c r="I169" s="63"/>
-    </row>
-    <row r="170" ht="46.8" spans="1:9">
-      <c r="A170" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B170" s="59" t="s">
-        <v>359</v>
-      </c>
-      <c r="C170" s="82"/>
-      <c r="D170" s="83">
-        <v>799</v>
-      </c>
-      <c r="E170" s="56">
-        <v>799</v>
-      </c>
-      <c r="F170" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="G170" s="36"/>
-      <c r="H170" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="I170" s="63"/>
-    </row>
-    <row r="171" ht="46.8" spans="1:9">
-      <c r="A171" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B171" s="59" t="s">
-        <v>361</v>
-      </c>
-      <c r="C171" s="82"/>
-      <c r="D171" s="83">
-        <v>799</v>
-      </c>
-      <c r="E171" s="56">
-        <v>799</v>
-      </c>
-      <c r="F171" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="G171" s="36"/>
-      <c r="H171" s="78" t="s">
-        <v>362</v>
-      </c>
-      <c r="I171" s="63"/>
-    </row>
-    <row r="172" ht="156" spans="1:9">
-      <c r="A172" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B172" s="59" t="s">
-        <v>363</v>
-      </c>
-      <c r="C172" s="82"/>
-      <c r="D172" s="83">
-        <v>449</v>
-      </c>
-      <c r="E172" s="83">
-        <v>449</v>
-      </c>
-      <c r="F172" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="G172" s="36"/>
-      <c r="H172" s="78" t="s">
-        <v>365</v>
-      </c>
-      <c r="I172" s="63"/>
-    </row>
-    <row r="173" ht="156" spans="1:9">
-      <c r="A173" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B173" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="C173" s="82"/>
-      <c r="D173" s="83">
-        <v>449</v>
-      </c>
-      <c r="E173" s="83">
-        <v>449</v>
-      </c>
-      <c r="F173" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="G173" s="36"/>
-      <c r="H173" s="78" t="s">
-        <v>367</v>
-      </c>
-      <c r="I173" s="63"/>
-    </row>
-    <row r="174" ht="156" spans="1:9">
-      <c r="A174" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B174" s="59" t="s">
-        <v>368</v>
-      </c>
-      <c r="C174" s="82"/>
-      <c r="D174" s="83">
-        <v>449</v>
-      </c>
-      <c r="E174" s="83">
-        <v>449</v>
-      </c>
-      <c r="F174" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="G174" s="36"/>
-      <c r="H174" s="78" t="s">
-        <v>369</v>
-      </c>
-      <c r="I174" s="63"/>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B175" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="C175" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D175" s="17">
-        <v>3999</v>
-      </c>
-      <c r="E175" s="17">
-        <v>3369</v>
-      </c>
-      <c r="F175" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="G175" s="84"/>
-      <c r="H175" s="85"/>
-      <c r="I175" s="63"/>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="C176" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D176" s="17">
-        <v>3999</v>
-      </c>
-      <c r="E176" s="17">
-        <v>3369</v>
-      </c>
-      <c r="F176" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="G176" s="84"/>
-      <c r="H176" s="85"/>
-      <c r="I176" s="63"/>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B177" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="C177" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D177" s="17">
-        <v>3999</v>
-      </c>
-      <c r="E177" s="17">
-        <v>3369</v>
-      </c>
-      <c r="F177" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="G177" s="84"/>
-      <c r="H177" s="85"/>
-      <c r="I177" s="63"/>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C178" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D178" s="17">
-        <v>3999</v>
-      </c>
-      <c r="E178" s="17">
-        <v>3369</v>
-      </c>
-      <c r="F178" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="G178" s="84"/>
-      <c r="H178" s="85"/>
-      <c r="I178" s="63"/>
-    </row>
-    <row r="179" spans="1:9">
-      <c r="A179" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C179" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D179" s="17">
-        <v>4499</v>
-      </c>
-      <c r="E179" s="17">
-        <v>3869</v>
-      </c>
-      <c r="F179" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="G179" s="84"/>
-      <c r="H179" s="85"/>
-      <c r="I179" s="63"/>
-    </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="C180" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D180" s="17">
-        <v>4499</v>
-      </c>
-      <c r="E180" s="17">
-        <v>3869</v>
-      </c>
-      <c r="F180" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="G180" s="84"/>
-      <c r="H180" s="85"/>
-      <c r="I180" s="63"/>
-    </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="C181" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D181" s="17">
-        <v>4499</v>
-      </c>
-      <c r="E181" s="17">
-        <v>3869</v>
-      </c>
-      <c r="F181" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="G181" s="84"/>
-      <c r="H181" s="85"/>
-      <c r="I181" s="63"/>
-    </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="C182" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D182" s="17">
-        <v>4499</v>
-      </c>
-      <c r="E182" s="17">
-        <v>3869</v>
-      </c>
-      <c r="F182" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="G182" s="84"/>
-      <c r="H182" s="85"/>
-      <c r="I182" s="63"/>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B183" s="59" t="s">
-        <v>380</v>
-      </c>
-      <c r="C183" s="39">
-        <v>0.04</v>
-      </c>
-      <c r="D183" s="86">
-        <v>5199</v>
-      </c>
-      <c r="E183" s="86">
-        <v>4399</v>
-      </c>
-      <c r="F183" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="G183" s="87"/>
-      <c r="H183" s="85"/>
-      <c r="I183" s="63"/>
-    </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B184" s="59" t="s">
-        <v>382</v>
-      </c>
-      <c r="C184" s="39">
-        <v>0.04</v>
-      </c>
-      <c r="D184" s="86">
-        <v>5699</v>
-      </c>
-      <c r="E184" s="86">
-        <v>4899</v>
-      </c>
-      <c r="F184" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="G184" s="87"/>
-      <c r="H184" s="85"/>
-      <c r="I184" s="63"/>
-    </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B185" s="59" t="s">
-        <v>383</v>
-      </c>
-      <c r="C185" s="39">
-        <v>0.04</v>
-      </c>
-      <c r="D185" s="86">
-        <v>5699</v>
-      </c>
-      <c r="E185" s="86">
-        <v>4899</v>
-      </c>
-      <c r="F185" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="G185" s="87"/>
-      <c r="H185" s="85"/>
-      <c r="I185" s="63"/>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B186" s="59" t="s">
-        <v>384</v>
-      </c>
-      <c r="C186" s="39">
-        <v>0.04</v>
-      </c>
-      <c r="D186" s="86">
-        <v>5699</v>
-      </c>
-      <c r="E186" s="86">
-        <v>4899</v>
-      </c>
-      <c r="F186" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="G186" s="87"/>
-      <c r="H186" s="85"/>
-      <c r="I186" s="63"/>
-    </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B187" s="59" t="s">
+      <c r="F196" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="C187" s="39">
-        <v>0.04</v>
-      </c>
-      <c r="D187" s="86">
-        <v>5699</v>
-      </c>
-      <c r="E187" s="86">
-        <v>4899</v>
-      </c>
-      <c r="F187" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="G187" s="87"/>
-      <c r="H187" s="85"/>
-      <c r="I187" s="63"/>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B188" s="59" t="s">
-        <v>386</v>
-      </c>
-      <c r="C188" s="39">
-        <v>0.04</v>
-      </c>
-      <c r="D188" s="86">
-        <v>6299</v>
-      </c>
-      <c r="E188" s="86">
-        <v>5499</v>
-      </c>
-      <c r="F188" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="G188" s="87"/>
-      <c r="H188" s="85"/>
-      <c r="I188" s="63"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B189" s="59" t="s">
-        <v>387</v>
-      </c>
-      <c r="C189" s="39">
-        <v>0.04</v>
-      </c>
-      <c r="D189" s="86">
-        <v>6299</v>
-      </c>
-      <c r="E189" s="86">
-        <v>5499</v>
-      </c>
-      <c r="F189" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="G189" s="87"/>
-      <c r="H189" s="85"/>
-      <c r="I189" s="63"/>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B190" s="59" t="s">
-        <v>388</v>
-      </c>
-      <c r="C190" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D190" s="86">
-        <v>5699</v>
-      </c>
-      <c r="E190" s="86">
-        <v>4719</v>
-      </c>
-      <c r="F190" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="G190" s="87"/>
-      <c r="H190" s="85"/>
-      <c r="I190" s="63"/>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="A191" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B191" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="C191" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D191" s="86">
-        <v>6199</v>
-      </c>
-      <c r="E191" s="86">
-        <v>5219</v>
-      </c>
-      <c r="F191" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="G191" s="87"/>
-      <c r="H191" s="85"/>
-      <c r="I191" s="63"/>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B192" s="59" t="s">
-        <v>391</v>
-      </c>
-      <c r="C192" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D192" s="86">
-        <v>6199</v>
-      </c>
-      <c r="E192" s="86">
-        <v>5219</v>
-      </c>
-      <c r="F192" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="G192" s="87"/>
-      <c r="H192" s="85"/>
-      <c r="I192" s="63"/>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B193" s="59" t="s">
-        <v>392</v>
-      </c>
-      <c r="C193" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D193" s="86">
-        <v>6199</v>
-      </c>
-      <c r="E193" s="86">
-        <v>5219</v>
-      </c>
-      <c r="F193" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="G193" s="87"/>
-      <c r="H193" s="85"/>
-      <c r="I193" s="63"/>
-    </row>
-    <row r="194" spans="1:9">
-      <c r="A194" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B194" s="59" t="s">
-        <v>393</v>
-      </c>
-      <c r="C194" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D194" s="86">
-        <v>6199</v>
-      </c>
-      <c r="E194" s="86">
-        <v>5219</v>
-      </c>
-      <c r="F194" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="G194" s="87"/>
-      <c r="H194" s="85"/>
-      <c r="I194" s="63"/>
-    </row>
-    <row r="195" spans="1:9">
-      <c r="A195" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B195" s="59" t="s">
-        <v>394</v>
-      </c>
-      <c r="C195" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D195" s="86">
-        <v>6799</v>
-      </c>
-      <c r="E195" s="86">
-        <v>5819</v>
-      </c>
-      <c r="F195" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="G195" s="87"/>
-      <c r="H195" s="85"/>
-      <c r="I195" s="63"/>
-    </row>
-    <row r="196" spans="1:9">
-      <c r="A196" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="B196" s="59" t="s">
-        <v>395</v>
-      </c>
-      <c r="C196" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="D196" s="86">
-        <v>7999</v>
-      </c>
-      <c r="E196" s="86">
-        <v>7019</v>
-      </c>
-      <c r="F196" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="G196" s="87"/>
-      <c r="H196" s="85"/>
-      <c r="I196" s="63"/>
+      <c r="G196" s="151"/>
+      <c r="H196" s="149"/>
+      <c r="I196" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
